--- a/Monitoreo Nuevos Productos.xlsx
+++ b/Monitoreo Nuevos Productos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FED0AF-86CD-4657-BEB7-A6CB5A0C31E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D312ED8-3733-483E-B25E-2A64AD771E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{3C601918-C683-4A9E-9764-2E2F3DE6B565}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{3C601918-C683-4A9E-9764-2E2F3DE6B565}"/>
   </bookViews>
   <sheets>
     <sheet name="Monitoreo Nuevos Productos" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="288">
   <si>
     <t>SECTOR</t>
   </si>
@@ -869,6 +869,42 @@
   </si>
   <si>
     <t>https://analytics.zoho.com/open-view/2395394000005763925?ZOHO_CRITERIA=%22Trasposicion_4.7%22.%22Id_producto%22%3D100112</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000006194754?ZOHO_CRITERIA=%22Trasposicion_4.2%22.%22C%C3%B3digo_Regi%C3%B3n%22%20%3D%201</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000006196903?ZOHO_CRITERIA=%22Trasposicion_4.2%22.%22C%C3%B3digo_Pa%C3%ADs%22%20%3D%20'USA'</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000006199160?ZOHO_CRITERIA=%22Trasposicion_4.2%22.%22Id_Producto%22%20%3D%20100101</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000006200013?ZOHO_CRITERIA=%22Trasposicion_4.2%22.%22Id_Categor%C3%ADa%22%20%3D%20100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000006201514?ZOHO_CRITERIA=%22Trasposicion_4.2%22.%22Id_Procesamiento%22%20%3D%201</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000006203272?ZOHO_CRITERIA=%22Trasposicion_4.2%22.%22C%C3%B3digo_Regi%C3%B3n%22%20%3D%2013</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000006204176?ZOHO_CRITERIA=%22Trasposicion_4.2%22.%22C%C3%B3digo_Pa%C3%ADs%22%20%3D%20'USA'</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000006205279?ZOHO_CRITERIA=%22Trasposicion_4.2%22.%22Id_Producto%22%20%3D%20100101</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000006206305?ZOHO_CRITERIA=%22Trasposicion_4.2%22.%22Id_Categor%C3%ADa%22%20%3D%20100101001</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000006207229?ZOHO_CRITERIA=%22Trasposicion_4.2%22.%22Id_Procesamiento%22%20%3D%201</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000006208202</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000006210421</t>
   </si>
 </sst>
 </file>
@@ -974,7 +1010,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1023,6 +1059,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1053,16 +1113,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1075,9 +1132,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1158,6 +1212,19 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1165,56 +1232,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="711">
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1539,6 +1556,56 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFCC99FF"/>
@@ -3800,16 +3867,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFCC99FF"/>
@@ -4131,6 +4188,16 @@
           <color rgb="FF0070C0"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -7420,14 +7487,14 @@
       <sheetName val="Responsables"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
       <sheetData sheetId="8">
         <row r="52">
           <cell r="X52" t="str">
@@ -7435,16 +7502,16 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7827,30 +7894,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3A78A7-9431-4C50-BEC2-0AF7D2B7DD16}">
   <dimension ref="A2:Q100"/>
   <sheetViews>
-    <sheetView topLeftCell="C64" workbookViewId="0">
-      <selection activeCell="G82" sqref="G82"/>
+    <sheetView tabSelected="1" topLeftCell="L31" workbookViewId="0">
+      <selection activeCell="N63" sqref="N63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.6328125" style="22" customWidth="1"/>
+    <col min="3" max="5" width="13.6328125" style="20" customWidth="1"/>
     <col min="6" max="6" width="13.6328125" customWidth="1"/>
     <col min="7" max="7" width="17.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.36328125" customWidth="1"/>
     <col min="9" max="10" width="17.453125" customWidth="1"/>
-    <col min="11" max="12" width="82" style="37" customWidth="1"/>
+    <col min="11" max="12" width="82" style="35" customWidth="1"/>
     <col min="13" max="13" width="82" customWidth="1"/>
     <col min="14" max="14" width="49.81640625" customWidth="1"/>
     <col min="15" max="15" width="16.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="I2" s="26">
+      <c r="I2" s="24">
         <f>SUM(I4:I2996)</f>
         <v>2285</v>
       </c>
-      <c r="J2" s="26"/>
+      <c r="J2" s="24"/>
     </row>
     <row r="3" spans="1:17" ht="24" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -7881,10 +7948,10 @@
       <c r="J3" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="K3" s="38" t="s">
+      <c r="K3" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="38" t="s">
+      <c r="L3" s="36" t="s">
         <v>85</v>
       </c>
       <c r="M3" s="2" t="s">
@@ -7910,13 +7977,13 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="20">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="20" t="s">
         <v>246</v>
       </c>
       <c r="F4" t="s">
@@ -7928,22 +7995,22 @@
       <c r="H4" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="8">
         <v>17</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="K4" s="34" t="s">
+      <c r="K4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="34" t="s">
+      <c r="L4" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="M4" s="16" t="s">
+      <c r="M4" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="N4" s="31" t="s">
+      <c r="N4" s="29" t="s">
         <v>256</v>
       </c>
     </row>
@@ -7954,13 +8021,13 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="20">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="20" t="s">
         <v>246</v>
       </c>
       <c r="F5" t="s">
@@ -7972,22 +8039,22 @@
       <c r="H5" t="s">
         <v>50</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="8">
         <v>37</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="K5" s="34" t="s">
+      <c r="K5" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="34" t="s">
+      <c r="L5" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="M5" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="N5" s="31" t="s">
+      <c r="N5" s="29" t="s">
         <v>257</v>
       </c>
     </row>
@@ -7998,13 +8065,13 @@
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="20">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="20" t="s">
         <v>246</v>
       </c>
       <c r="F6" t="s">
@@ -8016,22 +8083,22 @@
       <c r="H6" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="8">
         <v>91</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="K6" s="34" t="s">
+      <c r="K6" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="34" t="s">
+      <c r="L6" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="M6" s="16" t="s">
+      <c r="M6" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="N6" s="31" t="s">
+      <c r="N6" s="29" t="s">
         <v>258</v>
       </c>
     </row>
@@ -8042,13 +8109,13 @@
       <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="20">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="20" t="s">
         <v>246</v>
       </c>
       <c r="F7" t="s">
@@ -8060,22 +8127,22 @@
       <c r="H7" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="8">
         <v>7</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="K7" s="34" t="s">
+      <c r="K7" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="L7" s="34" t="s">
+      <c r="L7" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="M7" s="16" t="s">
+      <c r="M7" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="N7" s="31" t="s">
+      <c r="N7" s="29" t="s">
         <v>259</v>
       </c>
     </row>
@@ -8086,13 +8153,13 @@
       <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="20">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="20" t="s">
         <v>246</v>
       </c>
       <c r="F8" t="s">
@@ -8104,22 +8171,22 @@
       <c r="H8" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="8">
         <v>17</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="K8" s="34" t="s">
+      <c r="K8" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="34" t="s">
+      <c r="L8" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="M8" s="16" t="s">
+      <c r="M8" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="N8" s="31" t="s">
+      <c r="N8" s="29" t="s">
         <v>260</v>
       </c>
     </row>
@@ -8130,13 +8197,13 @@
       <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="20">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="20" t="s">
         <v>246</v>
       </c>
       <c r="F9" t="s">
@@ -8148,22 +8215,22 @@
       <c r="H9" t="s">
         <v>63</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="8">
         <v>37</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="K9" s="34" t="s">
+      <c r="K9" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="34" t="s">
+      <c r="L9" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="M9" s="16" t="s">
+      <c r="M9" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="N9" s="31" t="s">
+      <c r="N9" s="29" t="s">
         <v>261</v>
       </c>
     </row>
@@ -8174,13 +8241,13 @@
       <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="20">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="20" t="s">
         <v>246</v>
       </c>
       <c r="F10" t="s">
@@ -8192,22 +8259,22 @@
       <c r="H10" t="s">
         <v>81</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="8">
         <v>91</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="K10" s="34" t="s">
+      <c r="K10" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="34" t="s">
+      <c r="L10" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="M10" s="16" t="s">
+      <c r="M10" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="N10" s="31" t="s">
+      <c r="N10" s="29" t="s">
         <v>262</v>
       </c>
     </row>
@@ -8218,13 +8285,13 @@
       <c r="B11" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="20">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="20" t="s">
         <v>246</v>
       </c>
       <c r="F11" t="s">
@@ -8236,22 +8303,22 @@
       <c r="H11" t="s">
         <v>82</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="8">
         <v>7</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="K11" s="34" t="s">
+      <c r="K11" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="34" t="s">
+      <c r="L11" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="M11" s="16" t="s">
+      <c r="M11" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="N11" s="31" t="s">
+      <c r="N11" s="29" t="s">
         <v>263</v>
       </c>
     </row>
@@ -8262,13 +8329,13 @@
       <c r="B12" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="20">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="20" t="s">
         <v>246</v>
       </c>
       <c r="F12" t="s">
@@ -8280,22 +8347,22 @@
       <c r="H12" t="s">
         <v>76</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="8">
         <v>1</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="K12" s="34" t="s">
+      <c r="K12" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="L12" s="34" t="s">
+      <c r="L12" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="16" t="s">
+      <c r="M12" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="N12" s="31" t="s">
+      <c r="N12" s="29" t="s">
         <v>264</v>
       </c>
     </row>
@@ -8306,13 +8373,13 @@
       <c r="B13" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="20">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="20" t="s">
         <v>246</v>
       </c>
       <c r="F13" t="s">
@@ -8324,22 +8391,22 @@
       <c r="H13" t="s">
         <v>77</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="8">
         <v>1</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="K13" s="34" t="s">
+      <c r="K13" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="L13" s="34" t="s">
+      <c r="L13" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="M13" s="16" t="s">
+      <c r="M13" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="N13" s="31" t="s">
+      <c r="N13" s="29" t="s">
         <v>265</v>
       </c>
     </row>
@@ -8350,14 +8417,14 @@
       <c r="B14" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="20">
         <v>4.2</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="E14" s="22" t="s">
-        <v>255</v>
+      <c r="E14" s="20" t="s">
+        <v>246</v>
       </c>
       <c r="F14" t="s">
         <v>54</v>
@@ -8368,25 +8435,25 @@
       <c r="H14" t="s">
         <v>60</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="9">
         <v>14</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="K14" s="37" t="s">
+      <c r="K14" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="L14" s="37" t="s">
+      <c r="L14" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="M14" s="21" t="s">
+      <c r="M14" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="N14" s="3"/>
-      <c r="O14" t="s">
-        <v>59</v>
-      </c>
+      <c r="N14" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="O14" s="38"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
@@ -8395,14 +8462,14 @@
       <c r="B15" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="20">
         <v>4.2</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="E15" s="22" t="s">
-        <v>255</v>
+      <c r="E15" s="20" t="s">
+        <v>246</v>
       </c>
       <c r="F15" t="s">
         <v>54</v>
@@ -8413,25 +8480,25 @@
       <c r="H15" t="s">
         <v>50</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="9">
         <v>86</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="K15" s="37" t="s">
+      <c r="K15" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="L15" s="37" t="s">
+      <c r="L15" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="M15" s="21" t="s">
+      <c r="M15" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="N15" s="3"/>
-      <c r="O15" t="s">
-        <v>59</v>
-      </c>
+      <c r="N15" s="39" t="s">
+        <v>277</v>
+      </c>
+      <c r="O15" s="38"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
@@ -8440,14 +8507,14 @@
       <c r="B16" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="20">
         <v>4.2</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="E16" s="22" t="s">
-        <v>255</v>
+      <c r="E16" s="20" t="s">
+        <v>246</v>
       </c>
       <c r="F16" t="s">
         <v>54</v>
@@ -8458,25 +8525,25 @@
       <c r="H16" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="9">
         <v>10</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="K16" s="37" t="s">
+      <c r="K16" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="L16" s="37" t="s">
+      <c r="L16" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="M16" s="21" t="s">
+      <c r="M16" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="N16" s="3"/>
-      <c r="O16" t="s">
-        <v>59</v>
-      </c>
+      <c r="N16" s="39" t="s">
+        <v>278</v>
+      </c>
+      <c r="O16" s="38"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
@@ -8485,14 +8552,14 @@
       <c r="B17" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="20">
         <v>4.2</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="E17" s="22" t="s">
-        <v>255</v>
+      <c r="E17" s="20" t="s">
+        <v>246</v>
       </c>
       <c r="F17" t="s">
         <v>54</v>
@@ -8503,25 +8570,25 @@
       <c r="H17" t="s">
         <v>61</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="9">
         <v>37</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="K17" s="37" t="s">
+      <c r="K17" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="L17" s="37" t="s">
+      <c r="L17" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="M17" s="21" t="s">
+      <c r="M17" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="N17" s="3"/>
-      <c r="O17" t="s">
-        <v>59</v>
-      </c>
+      <c r="N17" s="39" t="s">
+        <v>279</v>
+      </c>
+      <c r="O17" s="38"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
@@ -8530,14 +8597,14 @@
       <c r="B18" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="20">
         <v>4.2</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="E18" s="22" t="s">
-        <v>255</v>
+      <c r="E18" s="20" t="s">
+        <v>246</v>
       </c>
       <c r="F18" t="s">
         <v>54</v>
@@ -8548,25 +8615,25 @@
       <c r="H18" t="s">
         <v>62</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="9">
         <v>7</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="J18" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="K18" s="37" t="s">
+      <c r="K18" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="L18" s="37" t="s">
+      <c r="L18" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="M18" s="21" t="s">
+      <c r="M18" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="N18" s="3"/>
-      <c r="O18" t="s">
-        <v>59</v>
-      </c>
+      <c r="N18" s="39" t="s">
+        <v>280</v>
+      </c>
+      <c r="O18" s="38"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
@@ -8575,14 +8642,14 @@
       <c r="B19" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="20">
         <v>4.2</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="E19" s="22" t="s">
-        <v>255</v>
+      <c r="E19" s="20" t="s">
+        <v>246</v>
       </c>
       <c r="F19" t="s">
         <v>54</v>
@@ -8593,25 +8660,25 @@
       <c r="H19" t="s">
         <v>63</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="9">
         <v>14</v>
       </c>
-      <c r="J19" s="11" t="s">
+      <c r="J19" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="K19" s="37" t="s">
+      <c r="K19" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="L19" s="37" t="s">
+      <c r="L19" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="M19" s="21" t="s">
+      <c r="M19" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="N19" s="3"/>
-      <c r="O19" t="s">
-        <v>59</v>
-      </c>
+      <c r="N19" s="40" t="s">
+        <v>281</v>
+      </c>
+      <c r="O19" s="38"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
@@ -8620,14 +8687,14 @@
       <c r="B20" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="20">
         <v>4.2</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="E20" s="22" t="s">
-        <v>255</v>
+      <c r="E20" s="20" t="s">
+        <v>246</v>
       </c>
       <c r="F20" t="s">
         <v>54</v>
@@ -8638,25 +8705,25 @@
       <c r="H20" t="s">
         <v>81</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="9">
         <v>86</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="J20" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="K20" s="37" t="s">
+      <c r="K20" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="L20" s="37" t="s">
+      <c r="L20" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="M20" s="21" t="s">
+      <c r="M20" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="N20" s="3"/>
-      <c r="O20" t="s">
-        <v>59</v>
-      </c>
+      <c r="N20" s="40" t="s">
+        <v>282</v>
+      </c>
+      <c r="O20" s="38"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
@@ -8665,14 +8732,14 @@
       <c r="B21" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="20">
         <v>4.2</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="E21" s="22" t="s">
-        <v>255</v>
+      <c r="E21" s="20" t="s">
+        <v>246</v>
       </c>
       <c r="F21" t="s">
         <v>54</v>
@@ -8683,25 +8750,25 @@
       <c r="H21" t="s">
         <v>82</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21" s="9">
         <v>10</v>
       </c>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="K21" s="37" t="s">
+      <c r="K21" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="L21" s="37" t="s">
+      <c r="L21" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="M21" s="21" t="s">
+      <c r="M21" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="N21" s="3"/>
-      <c r="O21" t="s">
-        <v>59</v>
-      </c>
+      <c r="N21" s="40" t="s">
+        <v>283</v>
+      </c>
+      <c r="O21" s="38"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
@@ -8710,14 +8777,14 @@
       <c r="B22" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="20">
         <v>4.2</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="E22" s="22" t="s">
-        <v>255</v>
+      <c r="E22" s="20" t="s">
+        <v>246</v>
       </c>
       <c r="F22" t="s">
         <v>54</v>
@@ -8728,25 +8795,25 @@
       <c r="H22" t="s">
         <v>83</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I22" s="9">
         <v>37</v>
       </c>
-      <c r="J22" s="11" t="s">
+      <c r="J22" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="K22" s="37" t="s">
+      <c r="K22" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="L22" s="37" t="s">
+      <c r="L22" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="M22" s="21" t="s">
+      <c r="M22" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="N22" s="3"/>
-      <c r="O22" t="s">
-        <v>59</v>
-      </c>
+      <c r="N22" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="O22" s="38"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
@@ -8755,14 +8822,14 @@
       <c r="B23" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="20">
         <v>4.2</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="E23" s="22" t="s">
-        <v>255</v>
+      <c r="E23" s="20" t="s">
+        <v>246</v>
       </c>
       <c r="F23" t="s">
         <v>54</v>
@@ -8773,25 +8840,25 @@
       <c r="H23" t="s">
         <v>84</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I23" s="9">
         <v>7</v>
       </c>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="K23" s="37" t="s">
+      <c r="K23" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="L23" s="37" t="s">
+      <c r="L23" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="M23" s="21" t="s">
+      <c r="M23" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="N23" s="3"/>
-      <c r="O23" t="s">
-        <v>59</v>
-      </c>
+      <c r="N23" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="O23" s="38"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
@@ -8800,14 +8867,14 @@
       <c r="B24" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C24" s="20">
         <v>4.2</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="E24" s="22" t="s">
-        <v>255</v>
+      <c r="E24" s="20" t="s">
+        <v>246</v>
       </c>
       <c r="F24" t="s">
         <v>54</v>
@@ -8818,25 +8885,25 @@
       <c r="H24" t="s">
         <v>64</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="9">
         <v>1</v>
       </c>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="K24" s="37" t="s">
+      <c r="K24" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="L24" s="37" t="s">
+      <c r="L24" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="M24" s="21" t="s">
+      <c r="M24" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="N24" s="8"/>
-      <c r="O24" t="s">
-        <v>59</v>
-      </c>
+      <c r="N24" s="41" t="s">
+        <v>286</v>
+      </c>
+      <c r="O24" s="38"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
@@ -8845,14 +8912,14 @@
       <c r="B25" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C25" s="20">
         <v>4.2</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="E25" s="22" t="s">
-        <v>255</v>
+      <c r="E25" s="20" t="s">
+        <v>246</v>
       </c>
       <c r="F25" t="s">
         <v>54</v>
@@ -8863,25 +8930,25 @@
       <c r="H25" t="s">
         <v>65</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I25" s="9">
         <v>1</v>
       </c>
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="K25" s="37" t="s">
+      <c r="K25" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="L25" s="37" t="s">
+      <c r="L25" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="M25" s="21" t="s">
+      <c r="M25" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="N25" s="8"/>
-      <c r="O25" t="s">
-        <v>59</v>
-      </c>
+      <c r="N25" s="42" t="s">
+        <v>287</v>
+      </c>
+      <c r="O25" s="38"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
@@ -8890,13 +8957,13 @@
       <c r="B26" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="22">
+      <c r="C26" s="20">
         <v>4.3</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="20" t="s">
         <v>246</v>
       </c>
       <c r="F26" t="s">
@@ -8908,22 +8975,22 @@
       <c r="H26" t="s">
         <v>60</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I26" s="8">
         <v>87</v>
       </c>
-      <c r="J26" s="10" t="s">
+      <c r="J26" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="K26" s="34" t="s">
+      <c r="K26" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="L26" s="34" t="s">
+      <c r="L26" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="M26" s="16" t="s">
+      <c r="M26" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="N26" s="32" t="s">
+      <c r="N26" s="30" t="s">
         <v>16</v>
       </c>
       <c r="O26" t="s">
@@ -8937,13 +9004,13 @@
       <c r="B27" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C27" s="20">
         <v>4.3</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="20" t="s">
         <v>246</v>
       </c>
       <c r="F27" t="s">
@@ -8955,22 +9022,22 @@
       <c r="H27" t="s">
         <v>50</v>
       </c>
-      <c r="I27" s="10">
+      <c r="I27" s="8">
         <v>7</v>
       </c>
-      <c r="J27" s="10" t="s">
+      <c r="J27" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="K27" s="34" t="s">
+      <c r="K27" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="L27" s="34" t="s">
+      <c r="L27" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="M27" s="16" t="s">
+      <c r="M27" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="N27" s="32" t="s">
+      <c r="N27" s="30" t="s">
         <v>17</v>
       </c>
       <c r="O27" t="s">
@@ -8984,13 +9051,13 @@
       <c r="B28" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C28" s="20">
         <v>4.3</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="20" t="s">
         <v>246</v>
       </c>
       <c r="F28" t="s">
@@ -9002,22 +9069,22 @@
       <c r="H28" t="s">
         <v>51</v>
       </c>
-      <c r="I28" s="10">
+      <c r="I28" s="8">
         <v>35</v>
       </c>
-      <c r="J28" s="10" t="s">
+      <c r="J28" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="K28" s="34" t="s">
+      <c r="K28" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="L28" s="34" t="s">
+      <c r="L28" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="M28" s="16" t="s">
+      <c r="M28" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="N28" s="32" t="s">
+      <c r="N28" s="30" t="s">
         <v>18</v>
       </c>
       <c r="O28" t="s">
@@ -9031,13 +9098,13 @@
       <c r="B29" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="22">
+      <c r="C29" s="20">
         <v>4.3</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="20" t="s">
         <v>246</v>
       </c>
       <c r="F29" t="s">
@@ -9049,22 +9116,22 @@
       <c r="H29" t="s">
         <v>61</v>
       </c>
-      <c r="I29" s="10">
+      <c r="I29" s="8">
         <v>87</v>
       </c>
-      <c r="J29" s="10" t="s">
+      <c r="J29" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="K29" s="34" t="s">
+      <c r="K29" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="L29" s="34" t="s">
+      <c r="L29" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="M29" s="16" t="s">
+      <c r="M29" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="N29" s="32" t="s">
+      <c r="N29" s="30" t="s">
         <v>19</v>
       </c>
       <c r="O29" t="s">
@@ -9078,13 +9145,13 @@
       <c r="B30" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="22">
+      <c r="C30" s="20">
         <v>4.3</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="20" t="s">
         <v>246</v>
       </c>
       <c r="F30" t="s">
@@ -9096,22 +9163,22 @@
       <c r="H30" t="s">
         <v>62</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="8">
         <v>7</v>
       </c>
-      <c r="J30" s="10" t="s">
+      <c r="J30" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="K30" s="34" t="s">
+      <c r="K30" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="L30" s="34" t="s">
+      <c r="L30" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="M30" s="16" t="s">
+      <c r="M30" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="N30" s="32" t="s">
+      <c r="N30" s="30" t="s">
         <v>20</v>
       </c>
       <c r="O30" t="s">
@@ -9125,13 +9192,13 @@
       <c r="B31" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="22">
+      <c r="C31" s="20">
         <v>4.3</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="20" t="s">
         <v>246</v>
       </c>
       <c r="F31" t="s">
@@ -9143,22 +9210,22 @@
       <c r="H31" t="s">
         <v>63</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I31" s="8">
         <v>35</v>
       </c>
-      <c r="J31" s="10" t="s">
+      <c r="J31" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="K31" s="34" t="s">
+      <c r="K31" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="L31" s="34" t="s">
+      <c r="L31" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="M31" s="16" t="s">
+      <c r="M31" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="N31" s="32" t="s">
+      <c r="N31" s="30" t="s">
         <v>21</v>
       </c>
       <c r="O31" t="s">
@@ -9172,13 +9239,13 @@
       <c r="B32" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="22">
+      <c r="C32" s="20">
         <v>4.3</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="20" t="s">
         <v>246</v>
       </c>
       <c r="F32" t="s">
@@ -9190,22 +9257,22 @@
       <c r="H32" t="s">
         <v>76</v>
       </c>
-      <c r="I32" s="10">
+      <c r="I32" s="8">
         <v>1</v>
       </c>
-      <c r="J32" s="10" t="s">
+      <c r="J32" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="K32" s="34" t="s">
+      <c r="K32" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="L32" s="34" t="s">
+      <c r="L32" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="M32" s="16" t="s">
+      <c r="M32" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="N32" s="32" t="s">
+      <c r="N32" s="30" t="s">
         <v>22</v>
       </c>
       <c r="O32" t="s">
@@ -9219,13 +9286,13 @@
       <c r="B33" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="22">
+      <c r="C33" s="20">
         <v>4.3</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="D33" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="20" t="s">
         <v>246</v>
       </c>
       <c r="F33" t="s">
@@ -9237,22 +9304,22 @@
       <c r="H33" t="s">
         <v>77</v>
       </c>
-      <c r="I33" s="10">
+      <c r="I33" s="8">
         <v>1</v>
       </c>
-      <c r="J33" s="10" t="s">
+      <c r="J33" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="K33" s="34" t="s">
+      <c r="K33" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="L33" s="34" t="s">
+      <c r="L33" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="M33" s="16" t="s">
+      <c r="M33" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="N33" s="32" t="s">
+      <c r="N33" s="30" t="s">
         <v>23</v>
       </c>
       <c r="O33" t="s">
@@ -9266,13 +9333,13 @@
       <c r="B34" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="22">
+      <c r="C34" s="20">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="E34" s="20" t="s">
         <v>246</v>
       </c>
       <c r="F34" t="s">
@@ -9281,25 +9348,25 @@
       <c r="G34" t="s">
         <v>12</v>
       </c>
-      <c r="H34" s="6" t="s">
+      <c r="H34" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I34" s="11">
+      <c r="I34" s="9">
         <v>87</v>
       </c>
-      <c r="J34" s="11" t="s">
+      <c r="J34" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="K34" s="35" t="s">
+      <c r="K34" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="L34" s="36" t="s">
+      <c r="L34" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="M34" s="21" t="s">
+      <c r="M34" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="N34" s="25" t="s">
+      <c r="N34" s="23" t="s">
         <v>270</v>
       </c>
     </row>
@@ -9310,13 +9377,13 @@
       <c r="B35" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="22">
+      <c r="C35" s="20">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="E35" s="20" t="s">
         <v>246</v>
       </c>
       <c r="F35" t="s">
@@ -9325,25 +9392,25 @@
       <c r="G35" t="s">
         <v>12</v>
       </c>
-      <c r="H35" s="6" t="s">
+      <c r="H35" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I35" s="11">
+      <c r="I35" s="9">
         <v>35</v>
       </c>
-      <c r="J35" s="11" t="s">
+      <c r="J35" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="K35" s="35" t="s">
+      <c r="K35" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="L35" s="36" t="s">
+      <c r="L35" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="M35" s="21" t="s">
+      <c r="M35" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="N35" s="25" t="s">
+      <c r="N35" s="23" t="s">
         <v>271</v>
       </c>
     </row>
@@ -9354,13 +9421,13 @@
       <c r="B36" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="22">
+      <c r="C36" s="20">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="E36" s="20" t="s">
         <v>246</v>
       </c>
       <c r="F36" t="s">
@@ -9369,25 +9436,25 @@
       <c r="G36" t="s">
         <v>12</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="H36" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I36" s="11">
+      <c r="I36" s="9">
         <v>7</v>
       </c>
-      <c r="J36" s="11" t="s">
+      <c r="J36" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="K36" s="35" t="s">
+      <c r="K36" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="L36" s="36" t="s">
+      <c r="L36" s="34" t="s">
         <v>200</v>
       </c>
-      <c r="M36" s="21" t="s">
+      <c r="M36" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="N36" s="25" t="s">
+      <c r="N36" s="23" t="s">
         <v>272</v>
       </c>
     </row>
@@ -9398,13 +9465,13 @@
       <c r="B37" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="22">
+      <c r="C37" s="20">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D37" s="22" t="s">
+      <c r="D37" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="E37" s="22" t="s">
+      <c r="E37" s="20" t="s">
         <v>246</v>
       </c>
       <c r="F37" t="s">
@@ -9413,25 +9480,25 @@
       <c r="G37" t="s">
         <v>14</v>
       </c>
-      <c r="H37" s="7" t="s">
+      <c r="H37" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I37" s="30">
+      <c r="I37" s="28">
         <v>1</v>
       </c>
-      <c r="J37" s="30" t="s">
+      <c r="J37" s="28" t="s">
         <v>246</v>
       </c>
-      <c r="K37" s="39" t="s">
+      <c r="K37" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="L37" s="39" t="s">
+      <c r="L37" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="M37" s="21" t="s">
+      <c r="M37" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="N37" s="25" t="s">
+      <c r="N37" s="23" t="s">
         <v>273</v>
       </c>
     </row>
@@ -9442,13 +9509,13 @@
       <c r="B38" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="22">
+      <c r="C38" s="20">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="E38" s="20" t="s">
         <v>246</v>
       </c>
       <c r="F38" t="s">
@@ -9457,25 +9524,25 @@
       <c r="G38" t="s">
         <v>12</v>
       </c>
-      <c r="H38" s="6" t="s">
+      <c r="H38" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I38" s="11">
+      <c r="I38" s="9">
         <v>87</v>
       </c>
-      <c r="J38" s="11" t="s">
+      <c r="J38" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="K38" s="37" t="s">
+      <c r="K38" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="L38" s="37" t="s">
+      <c r="L38" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="M38" s="21" t="s">
+      <c r="M38" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="N38" s="25" t="s">
+      <c r="N38" s="23" t="s">
         <v>266</v>
       </c>
     </row>
@@ -9486,13 +9553,13 @@
       <c r="B39" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="22">
+      <c r="C39" s="20">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="E39" s="22" t="s">
+      <c r="E39" s="20" t="s">
         <v>246</v>
       </c>
       <c r="F39" t="s">
@@ -9501,25 +9568,25 @@
       <c r="G39" t="s">
         <v>12</v>
       </c>
-      <c r="H39" s="6" t="s">
+      <c r="H39" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I39" s="11">
+      <c r="I39" s="9">
         <v>35</v>
       </c>
-      <c r="J39" s="11" t="s">
+      <c r="J39" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="K39" s="37" t="s">
+      <c r="K39" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="L39" s="37" t="s">
+      <c r="L39" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="M39" s="21" t="s">
+      <c r="M39" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="N39" s="25" t="s">
+      <c r="N39" s="23" t="s">
         <v>267</v>
       </c>
     </row>
@@ -9530,13 +9597,13 @@
       <c r="B40" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="22">
+      <c r="C40" s="20">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="20" t="s">
         <v>246</v>
       </c>
       <c r="F40" t="s">
@@ -9545,25 +9612,25 @@
       <c r="G40" t="s">
         <v>12</v>
       </c>
-      <c r="H40" s="6" t="s">
+      <c r="H40" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="I40" s="11">
+      <c r="I40" s="9">
         <v>7</v>
       </c>
-      <c r="J40" s="11" t="s">
+      <c r="J40" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="K40" s="37" t="s">
+      <c r="K40" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="L40" s="37" t="s">
+      <c r="L40" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="M40" s="21" t="s">
+      <c r="M40" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="N40" s="25" t="s">
+      <c r="N40" s="23" t="s">
         <v>268</v>
       </c>
     </row>
@@ -9574,13 +9641,13 @@
       <c r="B41" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="22">
+      <c r="C41" s="20">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D41" s="22" t="s">
+      <c r="D41" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="E41" s="22" t="s">
+      <c r="E41" s="20" t="s">
         <v>246</v>
       </c>
       <c r="F41" t="s">
@@ -9589,25 +9656,25 @@
       <c r="G41" t="s">
         <v>14</v>
       </c>
-      <c r="H41" s="7" t="s">
+      <c r="H41" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I41" s="30">
+      <c r="I41" s="28">
         <v>1</v>
       </c>
-      <c r="J41" s="30" t="s">
+      <c r="J41" s="28" t="s">
         <v>246</v>
       </c>
-      <c r="K41" s="39" t="s">
+      <c r="K41" s="37" t="s">
         <v>208</v>
       </c>
-      <c r="L41" s="39" t="s">
+      <c r="L41" s="37" t="s">
         <v>208</v>
       </c>
-      <c r="M41" s="21" t="s">
+      <c r="M41" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="N41" s="25" t="s">
+      <c r="N41" s="23" t="s">
         <v>269</v>
       </c>
     </row>
@@ -9618,10 +9685,10 @@
       <c r="B42" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="22">
+      <c r="C42" s="20">
         <v>4.5</v>
       </c>
-      <c r="E42" s="22" t="s">
+      <c r="E42" s="20" t="s">
         <v>247</v>
       </c>
       <c r="F42" t="s">
@@ -9630,19 +9697,19 @@
       <c r="G42" t="s">
         <v>12</v>
       </c>
-      <c r="H42" s="6" t="s">
+      <c r="H42" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I42" s="11">
+      <c r="I42" s="9">
         <v>21</v>
       </c>
-      <c r="J42" s="11" t="s">
+      <c r="J42" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="K42" s="37" t="s">
+      <c r="K42" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="L42" s="37" t="s">
+      <c r="L42" s="35" t="s">
         <v>209</v>
       </c>
       <c r="M42" t="s">
@@ -9659,10 +9726,10 @@
       <c r="B43" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="22">
+      <c r="C43" s="20">
         <v>4.5</v>
       </c>
-      <c r="E43" s="22" t="s">
+      <c r="E43" s="20" t="s">
         <v>247</v>
       </c>
       <c r="F43" t="s">
@@ -9671,19 +9738,19 @@
       <c r="G43" t="s">
         <v>12</v>
       </c>
-      <c r="H43" s="6" t="s">
+      <c r="H43" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="I43" s="11">
+      <c r="I43" s="9">
         <v>44</v>
       </c>
-      <c r="J43" s="11" t="s">
+      <c r="J43" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="K43" s="37" t="s">
+      <c r="K43" s="35" t="s">
         <v>213</v>
       </c>
-      <c r="L43" s="37" t="s">
+      <c r="L43" s="35" t="s">
         <v>210</v>
       </c>
       <c r="M43" t="s">
@@ -9700,10 +9767,10 @@
       <c r="B44" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="22">
+      <c r="C44" s="20">
         <v>4.5</v>
       </c>
-      <c r="E44" s="22" t="s">
+      <c r="E44" s="20" t="s">
         <v>247</v>
       </c>
       <c r="F44" t="s">
@@ -9712,19 +9779,19 @@
       <c r="G44" t="s">
         <v>12</v>
       </c>
-      <c r="H44" s="6" t="s">
+      <c r="H44" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I44" s="11">
+      <c r="I44" s="9">
         <v>13</v>
       </c>
-      <c r="J44" s="11" t="s">
+      <c r="J44" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="K44" s="37" t="s">
+      <c r="K44" s="35" t="s">
         <v>214</v>
       </c>
-      <c r="L44" s="37" t="s">
+      <c r="L44" s="35" t="s">
         <v>211</v>
       </c>
       <c r="M44" t="s">
@@ -9741,10 +9808,10 @@
       <c r="B45" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="22">
+      <c r="C45" s="20">
         <v>4.5</v>
       </c>
-      <c r="E45" s="22" t="s">
+      <c r="E45" s="20" t="s">
         <v>247</v>
       </c>
       <c r="F45" t="s">
@@ -9753,19 +9820,19 @@
       <c r="G45" t="s">
         <v>14</v>
       </c>
-      <c r="H45" s="7" t="s">
+      <c r="H45" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I45" s="11">
+      <c r="I45" s="9">
         <v>1</v>
       </c>
-      <c r="J45" s="11" t="s">
+      <c r="J45" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="K45" s="39" t="s">
+      <c r="K45" s="37" t="s">
         <v>215</v>
       </c>
-      <c r="L45" s="39" t="s">
+      <c r="L45" s="37" t="s">
         <v>215</v>
       </c>
       <c r="M45" t="s">
@@ -9782,40 +9849,40 @@
       <c r="B46" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="22">
+      <c r="C46" s="20">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D46" s="22" t="s">
+      <c r="D46" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="E46" s="22" t="s">
+      <c r="E46" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="F46" s="12" t="s">
+      <c r="F46" s="10" t="s">
         <v>75</v>
       </c>
       <c r="G46" t="s">
         <v>12</v>
       </c>
-      <c r="H46" s="9" t="s">
+      <c r="H46" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="I46" s="11">
+      <c r="I46" s="9">
         <v>14</v>
       </c>
-      <c r="J46" s="11" t="s">
+      <c r="J46" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="K46" s="39" t="s">
+      <c r="K46" s="37" t="s">
         <v>216</v>
       </c>
-      <c r="L46" s="39" t="s">
+      <c r="L46" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="M46" s="21" t="s">
+      <c r="M46" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="N46" s="24" t="s">
+      <c r="N46" s="22" t="s">
         <v>66</v>
       </c>
       <c r="O46" t="s">
@@ -9829,40 +9896,40 @@
       <c r="B47" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="22">
+      <c r="C47" s="20">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D47" s="22" t="s">
+      <c r="D47" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="E47" s="22" t="s">
+      <c r="E47" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="F47" s="12" t="s">
+      <c r="F47" s="10" t="s">
         <v>75</v>
       </c>
       <c r="G47" t="s">
         <v>12</v>
       </c>
-      <c r="H47" s="9" t="s">
+      <c r="H47" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I47" s="11">
+      <c r="I47" s="9">
         <v>178</v>
       </c>
-      <c r="J47" s="11" t="s">
+      <c r="J47" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="K47" s="39" t="s">
+      <c r="K47" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="L47" s="39" t="s">
+      <c r="L47" s="37" t="s">
         <v>219</v>
       </c>
-      <c r="M47" s="21" t="s">
+      <c r="M47" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="N47" s="25" t="s">
+      <c r="N47" s="23" t="s">
         <v>67</v>
       </c>
       <c r="O47" t="s">
@@ -9876,40 +9943,40 @@
       <c r="B48" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="22">
+      <c r="C48" s="20">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D48" s="22" t="s">
+      <c r="D48" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="E48" s="22" t="s">
+      <c r="E48" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="F48" s="12" t="s">
+      <c r="F48" s="10" t="s">
         <v>75</v>
       </c>
       <c r="G48" t="s">
         <v>12</v>
       </c>
-      <c r="H48" s="9" t="s">
+      <c r="H48" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I48" s="11">
+      <c r="I48" s="9">
         <v>58</v>
       </c>
-      <c r="J48" s="11" t="s">
+      <c r="J48" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="K48" s="39" t="s">
+      <c r="K48" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="L48" s="39" t="s">
+      <c r="L48" s="37" t="s">
         <v>221</v>
       </c>
-      <c r="M48" s="21" t="s">
+      <c r="M48" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="N48" s="33" t="s">
+      <c r="N48" s="31" t="s">
         <v>68</v>
       </c>
       <c r="O48" t="s">
@@ -9923,13 +9990,13 @@
       <c r="B49" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="22">
+      <c r="C49" s="20">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D49" s="22" t="s">
+      <c r="D49" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="E49" s="22" t="s">
+      <c r="E49" s="20" t="s">
         <v>246</v>
       </c>
       <c r="F49" t="s">
@@ -9938,25 +10005,25 @@
       <c r="G49" t="s">
         <v>12</v>
       </c>
-      <c r="H49" s="9" t="s">
+      <c r="H49" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I49" s="11">
+      <c r="I49" s="9">
         <v>14</v>
       </c>
-      <c r="J49" s="11" t="s">
+      <c r="J49" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="K49" s="39" t="s">
+      <c r="K49" s="37" t="s">
         <v>222</v>
       </c>
-      <c r="L49" s="39" t="s">
+      <c r="L49" s="37" t="s">
         <v>223</v>
       </c>
-      <c r="M49" s="21" t="s">
+      <c r="M49" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="N49" s="25" t="s">
+      <c r="N49" s="23" t="s">
         <v>69</v>
       </c>
       <c r="O49" t="s">
@@ -9970,13 +10037,13 @@
       <c r="B50" t="s">
         <v>4</v>
       </c>
-      <c r="C50" s="22">
+      <c r="C50" s="20">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D50" s="22" t="s">
+      <c r="D50" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="E50" s="22" t="s">
+      <c r="E50" s="20" t="s">
         <v>246</v>
       </c>
       <c r="F50" t="s">
@@ -9985,25 +10052,25 @@
       <c r="G50" t="s">
         <v>12</v>
       </c>
-      <c r="H50" s="9" t="s">
+      <c r="H50" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="I50" s="11">
+      <c r="I50" s="9">
         <v>178</v>
       </c>
-      <c r="J50" s="11" t="s">
+      <c r="J50" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="K50" s="39" t="s">
+      <c r="K50" s="37" t="s">
         <v>224</v>
       </c>
-      <c r="L50" s="39" t="s">
+      <c r="L50" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="M50" s="21" t="s">
+      <c r="M50" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="N50" s="25" t="s">
+      <c r="N50" s="23" t="s">
         <v>70</v>
       </c>
       <c r="O50" t="s">
@@ -10017,13 +10084,13 @@
       <c r="B51" t="s">
         <v>4</v>
       </c>
-      <c r="C51" s="22">
+      <c r="C51" s="20">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D51" s="22" t="s">
+      <c r="D51" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="E51" s="22" t="s">
+      <c r="E51" s="20" t="s">
         <v>246</v>
       </c>
       <c r="F51" t="s">
@@ -10032,25 +10099,25 @@
       <c r="G51" t="s">
         <v>12</v>
       </c>
-      <c r="H51" s="9" t="s">
+      <c r="H51" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="I51" s="11">
+      <c r="I51" s="9">
         <v>58</v>
       </c>
-      <c r="J51" s="11" t="s">
+      <c r="J51" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="K51" s="39" t="s">
+      <c r="K51" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="L51" s="39" t="s">
+      <c r="L51" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="M51" s="21" t="s">
+      <c r="M51" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="N51" s="25" t="s">
+      <c r="N51" s="23" t="s">
         <v>71</v>
       </c>
       <c r="O51" t="s">
@@ -10064,16 +10131,16 @@
       <c r="B52" t="s">
         <v>4</v>
       </c>
-      <c r="C52" s="22">
+      <c r="C52" s="20">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D52" s="22" t="s">
+      <c r="D52" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="E52" s="22" t="s">
+      <c r="E52" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="F52" s="12" t="s">
+      <c r="F52" s="10" t="s">
         <v>75</v>
       </c>
       <c r="G52" t="s">
@@ -10082,22 +10149,22 @@
       <c r="H52" t="s">
         <v>64</v>
       </c>
-      <c r="I52" s="11">
+      <c r="I52" s="9">
         <v>1</v>
       </c>
-      <c r="J52" s="11" t="s">
+      <c r="J52" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="K52" s="39" t="s">
+      <c r="K52" s="37" t="s">
         <v>228</v>
       </c>
-      <c r="L52" s="39" t="s">
+      <c r="L52" s="37" t="s">
         <v>228</v>
       </c>
-      <c r="M52" s="21" t="s">
+      <c r="M52" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="N52" s="33" t="s">
+      <c r="N52" s="31" t="s">
         <v>72</v>
       </c>
       <c r="O52" t="s">
@@ -10111,13 +10178,13 @@
       <c r="B53" t="s">
         <v>4</v>
       </c>
-      <c r="C53" s="22">
+      <c r="C53" s="20">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D53" s="22" t="s">
+      <c r="D53" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="E53" s="22" t="s">
+      <c r="E53" s="20" t="s">
         <v>246</v>
       </c>
       <c r="F53" t="s">
@@ -10129,22 +10196,22 @@
       <c r="H53" t="s">
         <v>65</v>
       </c>
-      <c r="I53" s="11">
+      <c r="I53" s="9">
         <v>1</v>
       </c>
-      <c r="J53" s="11" t="s">
+      <c r="J53" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="K53" s="39" t="s">
+      <c r="K53" s="37" t="s">
         <v>229</v>
       </c>
-      <c r="L53" s="39" t="s">
+      <c r="L53" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="M53" s="21" t="s">
+      <c r="M53" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="N53" s="33" t="s">
+      <c r="N53" s="31" t="s">
         <v>73</v>
       </c>
       <c r="O53" t="s">
@@ -10158,13 +10225,13 @@
       <c r="B54" t="s">
         <v>4</v>
       </c>
-      <c r="C54" s="22">
+      <c r="C54" s="20">
         <v>4.7</v>
       </c>
-      <c r="D54" s="22" t="s">
+      <c r="D54" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="E54" s="22" t="s">
+      <c r="E54" s="20" t="s">
         <v>246</v>
       </c>
       <c r="F54" t="s">
@@ -10173,25 +10240,25 @@
       <c r="G54" t="s">
         <v>12</v>
       </c>
-      <c r="H54" s="13" t="s">
+      <c r="H54" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="I54" s="11">
+      <c r="I54" s="9">
         <v>11</v>
       </c>
-      <c r="J54" s="11" t="s">
+      <c r="J54" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="K54" s="34" t="s">
+      <c r="K54" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="L54" s="34" t="s">
+      <c r="L54" s="32" t="s">
         <v>232</v>
       </c>
-      <c r="M54" s="16" t="s">
+      <c r="M54" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="N54" s="17" t="s">
+      <c r="N54" s="15" t="s">
         <v>274</v>
       </c>
       <c r="O54" t="s">
@@ -10205,13 +10272,13 @@
       <c r="B55" t="s">
         <v>4</v>
       </c>
-      <c r="C55" s="22">
+      <c r="C55" s="20">
         <v>4.7</v>
       </c>
-      <c r="D55" s="22" t="s">
+      <c r="D55" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="E55" s="22" t="s">
+      <c r="E55" s="20" t="s">
         <v>246</v>
       </c>
       <c r="F55" t="s">
@@ -10220,25 +10287,25 @@
       <c r="G55" t="s">
         <v>12</v>
       </c>
-      <c r="H55" s="14" t="s">
+      <c r="H55" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I55" s="11">
+      <c r="I55" s="9">
         <v>2</v>
       </c>
-      <c r="J55" s="11" t="s">
+      <c r="J55" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="K55" s="34" t="s">
+      <c r="K55" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="L55" s="34" t="s">
+      <c r="L55" s="32" t="s">
         <v>234</v>
       </c>
-      <c r="M55" s="16" t="s">
+      <c r="M55" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="N55" s="18" t="s">
+      <c r="N55" s="16" t="s">
         <v>275</v>
       </c>
       <c r="O55" t="s">
@@ -10252,13 +10319,13 @@
       <c r="B56" t="s">
         <v>4</v>
       </c>
-      <c r="C56" s="22">
+      <c r="C56" s="20">
         <v>4.7</v>
       </c>
-      <c r="D56" s="22" t="s">
+      <c r="D56" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="E56" s="22" t="s">
+      <c r="E56" s="20" t="s">
         <v>246</v>
       </c>
       <c r="F56" t="s">
@@ -10267,25 +10334,25 @@
       <c r="G56" t="s">
         <v>14</v>
       </c>
-      <c r="H56" s="15" t="s">
+      <c r="H56" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="I56" s="11">
+      <c r="I56" s="9">
         <v>1</v>
       </c>
-      <c r="J56" s="11" t="s">
+      <c r="J56" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="K56" s="34" t="s">
+      <c r="K56" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="L56" s="34" t="s">
+      <c r="L56" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="M56" s="16" t="s">
+      <c r="M56" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="N56" s="19" t="s">
+      <c r="N56" s="17" t="s">
         <v>79</v>
       </c>
       <c r="O56" t="s">
@@ -10299,14 +10366,14 @@
       <c r="B57" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="22">
+      <c r="C57" s="20">
         <v>4.8</v>
       </c>
-      <c r="D57" s="22" t="s">
+      <c r="D57" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="E57" s="22" t="s">
-        <v>255</v>
+      <c r="E57" s="20" t="s">
+        <v>246</v>
       </c>
       <c r="F57" t="s">
         <v>74</v>
@@ -10314,25 +10381,25 @@
       <c r="G57" t="s">
         <v>12</v>
       </c>
-      <c r="H57" s="6" t="s">
+      <c r="H57" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="I57" s="11">
+      <c r="I57" s="9">
         <v>14</v>
       </c>
-      <c r="J57" s="11" t="s">
+      <c r="J57" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="K57" s="35" t="s">
+      <c r="K57" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="L57" s="35" t="s">
+      <c r="L57" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="M57" s="21" t="s">
+      <c r="M57" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="O57" t="s">
+      <c r="O57" s="38" t="s">
         <v>25</v>
       </c>
     </row>
@@ -10343,14 +10410,14 @@
       <c r="B58" t="s">
         <v>4</v>
       </c>
-      <c r="C58" s="22">
+      <c r="C58" s="20">
         <v>4.8</v>
       </c>
-      <c r="D58" s="22" t="s">
+      <c r="D58" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="E58" s="22" t="s">
-        <v>255</v>
+      <c r="E58" s="20" t="s">
+        <v>246</v>
       </c>
       <c r="F58" t="s">
         <v>74</v>
@@ -10358,25 +10425,25 @@
       <c r="G58" t="s">
         <v>12</v>
       </c>
-      <c r="H58" s="6" t="s">
+      <c r="H58" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="I58" s="11">
+      <c r="I58" s="9">
         <v>1</v>
       </c>
-      <c r="J58" s="11" t="s">
+      <c r="J58" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="K58" s="35" t="s">
+      <c r="K58" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="L58" s="35" t="s">
+      <c r="L58" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="M58" s="21" t="s">
+      <c r="M58" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="O58" t="s">
+      <c r="O58" s="38" t="s">
         <v>25</v>
       </c>
     </row>
@@ -10387,14 +10454,14 @@
       <c r="B59" t="s">
         <v>4</v>
       </c>
-      <c r="C59" s="22">
+      <c r="C59" s="20">
         <v>4.8</v>
       </c>
-      <c r="D59" s="22" t="s">
+      <c r="D59" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="E59" s="22" t="s">
-        <v>255</v>
+      <c r="E59" s="20" t="s">
+        <v>246</v>
       </c>
       <c r="F59" t="s">
         <v>74</v>
@@ -10402,25 +10469,25 @@
       <c r="G59" t="s">
         <v>12</v>
       </c>
-      <c r="H59" s="6" t="s">
+      <c r="H59" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I59" s="11">
+      <c r="I59" s="9">
         <v>2</v>
       </c>
-      <c r="J59" s="11" t="s">
+      <c r="J59" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="K59" s="35" t="s">
+      <c r="K59" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="L59" s="35" t="s">
+      <c r="L59" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="M59" s="21" t="s">
+      <c r="M59" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="O59" t="s">
+      <c r="O59" s="38" t="s">
         <v>25</v>
       </c>
     </row>
@@ -10431,14 +10498,14 @@
       <c r="B60" t="s">
         <v>4</v>
       </c>
-      <c r="C60" s="22">
+      <c r="C60" s="20">
         <v>4.8</v>
       </c>
-      <c r="D60" s="22" t="s">
+      <c r="D60" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="E60" s="22" t="s">
-        <v>255</v>
+      <c r="E60" s="20" t="s">
+        <v>246</v>
       </c>
       <c r="F60" t="s">
         <v>74</v>
@@ -10446,25 +10513,25 @@
       <c r="G60" t="s">
         <v>12</v>
       </c>
-      <c r="H60" s="6" t="s">
+      <c r="H60" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="I60" s="11">
+      <c r="I60" s="9">
         <v>2</v>
       </c>
-      <c r="J60" s="11" t="s">
+      <c r="J60" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="K60" s="35" t="s">
+      <c r="K60" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="L60" s="35" t="s">
+      <c r="L60" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="M60" s="21" t="s">
+      <c r="M60" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="O60" t="s">
+      <c r="O60" s="38" t="s">
         <v>25</v>
       </c>
     </row>
@@ -10475,14 +10542,14 @@
       <c r="B61" t="s">
         <v>4</v>
       </c>
-      <c r="C61" s="22">
+      <c r="C61" s="20">
         <v>4.8</v>
       </c>
-      <c r="D61" s="22" t="s">
+      <c r="D61" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="E61" s="22" t="s">
-        <v>255</v>
+      <c r="E61" s="20" t="s">
+        <v>246</v>
       </c>
       <c r="F61" t="s">
         <v>74</v>
@@ -10490,25 +10557,25 @@
       <c r="G61" t="s">
         <v>12</v>
       </c>
-      <c r="H61" s="6" t="s">
+      <c r="H61" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="I61" s="11">
+      <c r="I61" s="9">
         <v>2</v>
       </c>
-      <c r="J61" s="11" t="s">
+      <c r="J61" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="K61" s="35" t="s">
+      <c r="K61" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="L61" s="35" t="s">
+      <c r="L61" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="M61" s="21" t="s">
+      <c r="M61" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="O61" t="s">
+      <c r="O61" s="38" t="s">
         <v>25</v>
       </c>
     </row>
@@ -10519,14 +10586,14 @@
       <c r="B62" t="s">
         <v>4</v>
       </c>
-      <c r="C62" s="22">
+      <c r="C62" s="20">
         <v>4.8</v>
       </c>
-      <c r="D62" s="22" t="s">
+      <c r="D62" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="E62" s="22" t="s">
-        <v>255</v>
+      <c r="E62" s="20" t="s">
+        <v>246</v>
       </c>
       <c r="F62" t="s">
         <v>74</v>
@@ -10534,21 +10601,21 @@
       <c r="G62" t="s">
         <v>14</v>
       </c>
-      <c r="H62" s="20" t="s">
+      <c r="H62" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="I62" s="11">
+      <c r="I62" s="9">
         <v>1</v>
       </c>
-      <c r="J62" s="11" t="s">
+      <c r="J62" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="K62" s="39"/>
-      <c r="L62" s="39"/>
-      <c r="M62" s="21" t="s">
+      <c r="K62" s="37"/>
+      <c r="L62" s="37"/>
+      <c r="M62" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="O62" t="s">
+      <c r="O62" s="38" t="s">
         <v>25</v>
       </c>
     </row>
@@ -10559,14 +10626,14 @@
       <c r="B63" t="s">
         <v>4</v>
       </c>
-      <c r="C63" s="22">
+      <c r="C63" s="20">
         <v>4.8</v>
       </c>
-      <c r="D63" s="22" t="s">
+      <c r="D63" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="E63" s="22" t="s">
-        <v>255</v>
+      <c r="E63" s="20" t="s">
+        <v>246</v>
       </c>
       <c r="F63" t="s">
         <v>74</v>
@@ -10574,25 +10641,25 @@
       <c r="G63" t="s">
         <v>12</v>
       </c>
-      <c r="H63" s="6" t="s">
+      <c r="H63" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="I63" s="11">
+      <c r="I63" s="9">
         <v>14</v>
       </c>
-      <c r="J63" s="11" t="s">
+      <c r="J63" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="K63" s="35" t="s">
+      <c r="K63" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="L63" s="35" t="s">
+      <c r="L63" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="M63" s="21" t="s">
+      <c r="M63" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="O63" t="s">
+      <c r="O63" s="38" t="s">
         <v>25</v>
       </c>
     </row>
@@ -10603,14 +10670,14 @@
       <c r="B64" t="s">
         <v>4</v>
       </c>
-      <c r="C64" s="22">
+      <c r="C64" s="20">
         <v>4.8</v>
       </c>
-      <c r="D64" s="22" t="s">
+      <c r="D64" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="E64" s="22" t="s">
-        <v>255</v>
+      <c r="E64" s="20" t="s">
+        <v>246</v>
       </c>
       <c r="F64" t="s">
         <v>74</v>
@@ -10618,25 +10685,25 @@
       <c r="G64" t="s">
         <v>12</v>
       </c>
-      <c r="H64" s="6" t="s">
+      <c r="H64" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I64" s="11">
+      <c r="I64" s="9">
         <v>1</v>
       </c>
-      <c r="J64" s="11" t="s">
+      <c r="J64" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="K64" s="35" t="s">
+      <c r="K64" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="L64" s="35" t="s">
+      <c r="L64" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="M64" s="21" t="s">
+      <c r="M64" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="O64" t="s">
+      <c r="O64" s="38" t="s">
         <v>25</v>
       </c>
     </row>
@@ -10647,14 +10714,14 @@
       <c r="B65" t="s">
         <v>4</v>
       </c>
-      <c r="C65" s="22">
+      <c r="C65" s="20">
         <v>4.8</v>
       </c>
-      <c r="D65" s="22" t="s">
+      <c r="D65" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="E65" s="22" t="s">
-        <v>255</v>
+      <c r="E65" s="20" t="s">
+        <v>246</v>
       </c>
       <c r="F65" t="s">
         <v>74</v>
@@ -10662,25 +10729,25 @@
       <c r="G65" t="s">
         <v>12</v>
       </c>
-      <c r="H65" s="6" t="s">
+      <c r="H65" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="I65" s="11">
+      <c r="I65" s="9">
         <v>2</v>
       </c>
-      <c r="J65" s="11" t="s">
+      <c r="J65" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="K65" s="35" t="s">
+      <c r="K65" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="L65" s="35" t="s">
+      <c r="L65" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="M65" s="21" t="s">
+      <c r="M65" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="O65" t="s">
+      <c r="O65" s="38" t="s">
         <v>25</v>
       </c>
     </row>
@@ -10691,14 +10758,14 @@
       <c r="B66" t="s">
         <v>4</v>
       </c>
-      <c r="C66" s="22">
+      <c r="C66" s="20">
         <v>4.8</v>
       </c>
-      <c r="D66" s="22" t="s">
+      <c r="D66" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="E66" s="22" t="s">
-        <v>255</v>
+      <c r="E66" s="20" t="s">
+        <v>246</v>
       </c>
       <c r="F66" t="s">
         <v>74</v>
@@ -10706,25 +10773,25 @@
       <c r="G66" t="s">
         <v>12</v>
       </c>
-      <c r="H66" s="6" t="s">
+      <c r="H66" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="I66" s="11">
+      <c r="I66" s="9">
         <v>2</v>
       </c>
-      <c r="J66" s="11" t="s">
+      <c r="J66" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="K66" s="35" t="s">
+      <c r="K66" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="L66" s="35" t="s">
+      <c r="L66" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="M66" s="21" t="s">
+      <c r="M66" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="O66" t="s">
+      <c r="O66" s="38" t="s">
         <v>25</v>
       </c>
     </row>
@@ -10735,14 +10802,14 @@
       <c r="B67" t="s">
         <v>4</v>
       </c>
-      <c r="C67" s="22">
+      <c r="C67" s="20">
         <v>4.8</v>
       </c>
-      <c r="D67" s="22" t="s">
+      <c r="D67" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="E67" s="22" t="s">
-        <v>255</v>
+      <c r="E67" s="20" t="s">
+        <v>246</v>
       </c>
       <c r="F67" t="s">
         <v>74</v>
@@ -10750,25 +10817,25 @@
       <c r="G67" t="s">
         <v>12</v>
       </c>
-      <c r="H67" s="6" t="s">
+      <c r="H67" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="I67" s="11">
+      <c r="I67" s="9">
         <v>2</v>
       </c>
-      <c r="J67" s="11" t="s">
+      <c r="J67" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="K67" s="35" t="s">
+      <c r="K67" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="L67" s="35" t="s">
+      <c r="L67" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="M67" s="21" t="s">
+      <c r="M67" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="O67" t="s">
+      <c r="O67" s="38" t="s">
         <v>25</v>
       </c>
     </row>
@@ -10779,14 +10846,14 @@
       <c r="B68" t="s">
         <v>4</v>
       </c>
-      <c r="C68" s="22">
+      <c r="C68" s="20">
         <v>4.8</v>
       </c>
-      <c r="D68" s="22" t="s">
+      <c r="D68" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="E68" s="22" t="s">
-        <v>255</v>
+      <c r="E68" s="20" t="s">
+        <v>246</v>
       </c>
       <c r="F68" t="s">
         <v>74</v>
@@ -10794,21 +10861,21 @@
       <c r="G68" t="s">
         <v>14</v>
       </c>
-      <c r="H68" s="20" t="s">
+      <c r="H68" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="I68" s="11">
+      <c r="I68" s="9">
         <v>1</v>
       </c>
-      <c r="J68" s="11" t="s">
+      <c r="J68" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="K68" s="39"/>
-      <c r="L68" s="39"/>
-      <c r="M68" s="21" t="s">
+      <c r="K68" s="37"/>
+      <c r="L68" s="37"/>
+      <c r="M68" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="O68" t="s">
+      <c r="O68" s="38" t="s">
         <v>25</v>
       </c>
     </row>
@@ -10819,14 +10886,14 @@
       <c r="B69" t="s">
         <v>4</v>
       </c>
-      <c r="C69" s="22">
+      <c r="C69" s="20">
         <v>4.9000000000000004</v>
       </c>
-      <c r="D69" s="22" t="s">
+      <c r="D69" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="E69" s="22" t="s">
-        <v>255</v>
+      <c r="E69" s="20" t="s">
+        <v>246</v>
       </c>
       <c r="F69" t="s">
         <v>129</v>
@@ -10834,25 +10901,25 @@
       <c r="G69" t="s">
         <v>12</v>
       </c>
-      <c r="H69" s="9" t="s">
+      <c r="H69" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="I69" s="11">
+      <c r="I69" s="9">
         <v>11</v>
       </c>
-      <c r="J69" s="11" t="s">
+      <c r="J69" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="K69" s="37" t="s">
+      <c r="K69" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="L69" s="37" t="s">
+      <c r="L69" s="35" t="s">
         <v>121</v>
       </c>
       <c r="M69" t="s">
         <v>165</v>
       </c>
-      <c r="O69" t="s">
+      <c r="O69" s="38" t="s">
         <v>59</v>
       </c>
     </row>
@@ -10863,14 +10930,14 @@
       <c r="B70" t="s">
         <v>4</v>
       </c>
-      <c r="C70" s="22">
+      <c r="C70" s="20">
         <v>4.9000000000000004</v>
       </c>
-      <c r="D70" s="22" t="s">
+      <c r="D70" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="E70" s="22" t="s">
-        <v>255</v>
+      <c r="E70" s="20" t="s">
+        <v>246</v>
       </c>
       <c r="F70" t="s">
         <v>129</v>
@@ -10878,25 +10945,25 @@
       <c r="G70" t="s">
         <v>12</v>
       </c>
-      <c r="H70" s="9" t="s">
+      <c r="H70" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I70" s="11">
+      <c r="I70" s="9">
         <v>5</v>
       </c>
-      <c r="J70" s="11" t="s">
+      <c r="J70" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="K70" s="37" t="s">
+      <c r="K70" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="L70" s="37" t="s">
+      <c r="L70" s="35" t="s">
         <v>123</v>
       </c>
       <c r="M70" t="s">
         <v>165</v>
       </c>
-      <c r="O70" t="s">
+      <c r="O70" s="38" t="s">
         <v>59</v>
       </c>
     </row>
@@ -10907,14 +10974,14 @@
       <c r="B71" t="s">
         <v>4</v>
       </c>
-      <c r="C71" s="22">
+      <c r="C71" s="20">
         <v>4.9000000000000004</v>
       </c>
-      <c r="D71" s="22" t="s">
+      <c r="D71" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="E71" s="22" t="s">
-        <v>255</v>
+      <c r="E71" s="20" t="s">
+        <v>246</v>
       </c>
       <c r="F71" t="s">
         <v>129</v>
@@ -10922,21 +10989,21 @@
       <c r="G71" t="s">
         <v>14</v>
       </c>
-      <c r="H71" s="22" t="s">
+      <c r="H71" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="I71" s="11">
+      <c r="I71" s="9">
         <v>1</v>
       </c>
-      <c r="J71" s="11" t="s">
+      <c r="J71" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="K71" s="39"/>
-      <c r="L71" s="39"/>
+      <c r="K71" s="37"/>
+      <c r="L71" s="37"/>
       <c r="M71" t="s">
         <v>165</v>
       </c>
-      <c r="O71" t="s">
+      <c r="O71" s="38" t="s">
         <v>59</v>
       </c>
     </row>
@@ -10947,13 +11014,13 @@
       <c r="B72" t="s">
         <v>4</v>
       </c>
-      <c r="C72" s="29" t="s">
+      <c r="C72" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="D72" s="29" t="s">
+      <c r="D72" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="E72" s="22" t="s">
+      <c r="E72" s="20" t="s">
         <v>255</v>
       </c>
       <c r="F72" t="s">
@@ -10962,19 +11029,19 @@
       <c r="G72" t="s">
         <v>12</v>
       </c>
-      <c r="H72" s="9" t="s">
+      <c r="H72" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="I72" s="11">
+      <c r="I72" s="9">
         <v>10</v>
       </c>
-      <c r="J72" s="11" t="s">
+      <c r="J72" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="K72" s="37" t="s">
+      <c r="K72" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="L72" s="37" t="s">
+      <c r="L72" s="35" t="s">
         <v>126</v>
       </c>
       <c r="M72" t="s">
@@ -10991,13 +11058,13 @@
       <c r="B73" t="s">
         <v>4</v>
       </c>
-      <c r="C73" s="29" t="s">
+      <c r="C73" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="D73" s="29" t="s">
+      <c r="D73" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="E73" s="22" t="s">
+      <c r="E73" s="20" t="s">
         <v>255</v>
       </c>
       <c r="F73" t="s">
@@ -11006,19 +11073,19 @@
       <c r="G73" t="s">
         <v>12</v>
       </c>
-      <c r="H73" s="9" t="s">
+      <c r="H73" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I73" s="11">
+      <c r="I73" s="9">
         <v>5</v>
       </c>
-      <c r="J73" s="11" t="s">
+      <c r="J73" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="K73" s="37" t="s">
+      <c r="K73" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="L73" s="37" t="s">
+      <c r="L73" s="35" t="s">
         <v>128</v>
       </c>
       <c r="M73" t="s">
@@ -11035,13 +11102,13 @@
       <c r="B74" t="s">
         <v>4</v>
       </c>
-      <c r="C74" s="29" t="s">
+      <c r="C74" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="D74" s="29" t="s">
+      <c r="D74" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="E74" s="22" t="s">
+      <c r="E74" s="20" t="s">
         <v>255</v>
       </c>
       <c r="F74" t="s">
@@ -11050,17 +11117,17 @@
       <c r="G74" t="s">
         <v>14</v>
       </c>
-      <c r="H74" s="22" t="s">
+      <c r="H74" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="I74" s="11">
+      <c r="I74" s="9">
         <v>1</v>
       </c>
-      <c r="J74" s="11" t="s">
+      <c r="J74" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="K74" s="39"/>
-      <c r="L74" s="39"/>
+      <c r="K74" s="37"/>
+      <c r="L74" s="37"/>
       <c r="M74" t="s">
         <v>166</v>
       </c>
@@ -11075,13 +11142,13 @@
       <c r="B75" t="s">
         <v>4</v>
       </c>
-      <c r="C75" s="22">
+      <c r="C75" s="20">
         <v>4.1100000000000003</v>
       </c>
-      <c r="D75" s="22" t="s">
+      <c r="D75" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="E75" s="22" t="s">
+      <c r="E75" s="20" t="s">
         <v>255</v>
       </c>
       <c r="F75" t="s">
@@ -11090,19 +11157,19 @@
       <c r="G75" t="s">
         <v>12</v>
       </c>
-      <c r="H75" s="9" t="s">
+      <c r="H75" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="I75" s="11">
+      <c r="I75" s="9">
         <v>10</v>
       </c>
-      <c r="J75" s="11" t="s">
+      <c r="J75" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="K75" s="37" t="s">
+      <c r="K75" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="L75" s="37" t="s">
+      <c r="L75" s="35" t="s">
         <v>132</v>
       </c>
       <c r="M75" t="s">
@@ -11119,13 +11186,13 @@
       <c r="B76" t="s">
         <v>4</v>
       </c>
-      <c r="C76" s="22">
+      <c r="C76" s="20">
         <v>4.1100000000000003</v>
       </c>
-      <c r="D76" s="22" t="s">
+      <c r="D76" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="E76" s="22" t="s">
+      <c r="E76" s="20" t="s">
         <v>255</v>
       </c>
       <c r="F76" t="s">
@@ -11134,19 +11201,19 @@
       <c r="G76" t="s">
         <v>12</v>
       </c>
-      <c r="H76" s="9" t="s">
+      <c r="H76" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I76" s="11">
+      <c r="I76" s="9">
         <v>5</v>
       </c>
-      <c r="J76" s="11" t="s">
+      <c r="J76" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="K76" s="37" t="s">
+      <c r="K76" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="L76" s="37" t="s">
+      <c r="L76" s="35" t="s">
         <v>134</v>
       </c>
       <c r="M76" t="s">
@@ -11163,13 +11230,13 @@
       <c r="B77" t="s">
         <v>4</v>
       </c>
-      <c r="C77" s="22">
+      <c r="C77" s="20">
         <v>4.1100000000000003</v>
       </c>
-      <c r="D77" s="22" t="s">
+      <c r="D77" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="E77" s="22" t="s">
+      <c r="E77" s="20" t="s">
         <v>255</v>
       </c>
       <c r="F77" t="s">
@@ -11178,17 +11245,17 @@
       <c r="G77" t="s">
         <v>14</v>
       </c>
-      <c r="H77" s="22" t="s">
+      <c r="H77" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="I77" s="11">
+      <c r="I77" s="9">
         <v>1</v>
       </c>
-      <c r="J77" s="11" t="s">
+      <c r="J77" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="K77" s="39"/>
-      <c r="L77" s="39"/>
+      <c r="K77" s="37"/>
+      <c r="L77" s="37"/>
       <c r="M77" t="s">
         <v>167</v>
       </c>
@@ -11203,13 +11270,13 @@
       <c r="B78" t="s">
         <v>4</v>
       </c>
-      <c r="C78" s="22">
+      <c r="C78" s="20">
         <v>4.12</v>
       </c>
-      <c r="D78" s="22" t="s">
+      <c r="D78" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="E78" s="22" t="s">
+      <c r="E78" s="20" t="s">
         <v>255</v>
       </c>
       <c r="F78" t="s">
@@ -11218,19 +11285,19 @@
       <c r="G78" t="s">
         <v>12</v>
       </c>
-      <c r="H78" s="9" t="s">
+      <c r="H78" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="I78" s="11">
+      <c r="I78" s="9">
         <v>15</v>
       </c>
-      <c r="J78" s="11" t="s">
+      <c r="J78" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="K78" s="37" t="s">
+      <c r="K78" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="L78" s="37" t="s">
+      <c r="L78" s="35" t="s">
         <v>237</v>
       </c>
       <c r="M78" t="s">
@@ -11247,13 +11314,13 @@
       <c r="B79" t="s">
         <v>4</v>
       </c>
-      <c r="C79" s="22">
+      <c r="C79" s="20">
         <v>4.12</v>
       </c>
-      <c r="D79" s="22" t="s">
+      <c r="D79" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="E79" s="22" t="s">
+      <c r="E79" s="20" t="s">
         <v>255</v>
       </c>
       <c r="F79" t="s">
@@ -11262,19 +11329,19 @@
       <c r="G79" t="s">
         <v>12</v>
       </c>
-      <c r="H79" s="9" t="s">
+      <c r="H79" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I79" s="11">
+      <c r="I79" s="9">
         <v>246</v>
       </c>
-      <c r="J79" s="11" t="s">
+      <c r="J79" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="K79" s="37" t="s">
+      <c r="K79" s="35" t="s">
         <v>238</v>
       </c>
-      <c r="L79" s="37" t="s">
+      <c r="L79" s="35" t="s">
         <v>239</v>
       </c>
       <c r="M79" t="s">
@@ -11291,13 +11358,13 @@
       <c r="B80" t="s">
         <v>4</v>
       </c>
-      <c r="C80" s="22">
+      <c r="C80" s="20">
         <v>4.12</v>
       </c>
-      <c r="D80" s="22" t="s">
+      <c r="D80" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="E80" s="22" t="s">
+      <c r="E80" s="20" t="s">
         <v>255</v>
       </c>
       <c r="F80" t="s">
@@ -11306,19 +11373,19 @@
       <c r="G80" t="s">
         <v>12</v>
       </c>
-      <c r="H80" s="9" t="s">
+      <c r="H80" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I80" s="11">
+      <c r="I80" s="9">
         <v>10</v>
       </c>
-      <c r="J80" s="11" t="s">
+      <c r="J80" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="K80" s="37" t="s">
+      <c r="K80" s="35" t="s">
         <v>240</v>
       </c>
-      <c r="L80" s="37" t="s">
+      <c r="L80" s="35" t="s">
         <v>241</v>
       </c>
       <c r="M80" t="s">
@@ -11335,13 +11402,13 @@
       <c r="B81" t="s">
         <v>4</v>
       </c>
-      <c r="C81" s="22">
+      <c r="C81" s="20">
         <v>4.12</v>
       </c>
-      <c r="D81" s="22" t="s">
+      <c r="D81" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="E81" s="22" t="s">
+      <c r="E81" s="20" t="s">
         <v>255</v>
       </c>
       <c r="F81" t="s">
@@ -11350,19 +11417,19 @@
       <c r="G81" t="s">
         <v>12</v>
       </c>
-      <c r="H81" s="9" t="s">
+      <c r="H81" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I81" s="11">
+      <c r="I81" s="9">
         <v>61</v>
       </c>
-      <c r="J81" s="11" t="s">
+      <c r="J81" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="K81" s="37" t="s">
+      <c r="K81" s="35" t="s">
         <v>242</v>
       </c>
-      <c r="L81" s="37" t="s">
+      <c r="L81" s="35" t="s">
         <v>243</v>
       </c>
       <c r="M81" t="s">
@@ -11379,13 +11446,13 @@
       <c r="B82" t="s">
         <v>4</v>
       </c>
-      <c r="C82" s="22">
+      <c r="C82" s="20">
         <v>4.12</v>
       </c>
-      <c r="D82" s="22" t="s">
+      <c r="D82" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="E82" s="22" t="s">
+      <c r="E82" s="20" t="s">
         <v>255</v>
       </c>
       <c r="F82" t="s">
@@ -11394,19 +11461,19 @@
       <c r="G82" t="s">
         <v>14</v>
       </c>
-      <c r="H82" s="23" t="s">
+      <c r="H82" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="I82" s="11">
+      <c r="I82" s="9">
         <v>1</v>
       </c>
-      <c r="J82" s="11" t="s">
+      <c r="J82" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="K82" s="37" t="s">
+      <c r="K82" s="35" t="s">
         <v>244</v>
       </c>
-      <c r="L82" s="37" t="s">
+      <c r="L82" s="35" t="s">
         <v>244</v>
       </c>
       <c r="M82" t="s">
@@ -11423,13 +11490,13 @@
       <c r="B83" t="s">
         <v>4</v>
       </c>
-      <c r="C83" s="22">
+      <c r="C83" s="20">
         <v>4.13</v>
       </c>
-      <c r="D83" s="22" t="s">
+      <c r="D83" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="E83" s="22" t="s">
+      <c r="E83" s="20" t="s">
         <v>246</v>
       </c>
       <c r="F83" t="s">
@@ -11438,25 +11505,25 @@
       <c r="G83" t="s">
         <v>12</v>
       </c>
-      <c r="H83" s="9" t="s">
+      <c r="H83" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="I83" s="11">
+      <c r="I83" s="9">
         <v>13</v>
       </c>
-      <c r="J83" s="11" t="s">
+      <c r="J83" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="K83" s="37" t="s">
+      <c r="K83" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="L83" s="37" t="s">
+      <c r="L83" s="35" t="s">
         <v>138</v>
       </c>
       <c r="M83" t="s">
         <v>169</v>
       </c>
-      <c r="N83" s="24" t="str">
+      <c r="N83" s="22" t="str">
         <f>+"https://analytics.zoho.com/open-view/2395394000005705297?ZOHO_CRITERIA=%224.13%20Directorio%20Agroindustria%202020%22.%22C%C3%B3digo_Regi%C3%B3n%22%3D"&amp;[1]Estructura!J52</f>
         <v>https://analytics.zoho.com/open-view/2395394000005705297?ZOHO_CRITERIA=%224.13%20Directorio%20Agroindustria%202020%22.%22C%C3%B3digo_Regi%C3%B3n%22%3D</v>
       </c>
@@ -11471,13 +11538,13 @@
       <c r="B84" t="s">
         <v>4</v>
       </c>
-      <c r="C84" s="22">
+      <c r="C84" s="20">
         <v>4.13</v>
       </c>
-      <c r="D84" s="22" t="s">
+      <c r="D84" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="E84" s="22" t="s">
+      <c r="E84" s="20" t="s">
         <v>246</v>
       </c>
       <c r="F84" t="s">
@@ -11486,25 +11553,25 @@
       <c r="G84" t="s">
         <v>12</v>
       </c>
-      <c r="H84" s="9" t="s">
+      <c r="H84" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I84" s="11">
+      <c r="I84" s="9">
         <v>10</v>
       </c>
-      <c r="J84" s="11" t="s">
+      <c r="J84" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="K84" s="37" t="s">
+      <c r="K84" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="L84" s="37" t="s">
+      <c r="L84" s="35" t="s">
         <v>140</v>
       </c>
       <c r="M84" t="s">
         <v>169</v>
       </c>
-      <c r="N84" s="24" t="str">
+      <c r="N84" s="22" t="str">
         <f>+"https://analytics.zoho.com/open-view/2395394000005756548?ZOHO_CRITERIA=%224.13%20Directorio%20Agroindustria%202020%22.%22Id_Procesamiento%22%3D"&amp;[1]Estructura!X52</f>
         <v>https://analytics.zoho.com/open-view/2395394000005756548?ZOHO_CRITERIA=%224.13%20Directorio%20Agroindustria%202020%22.%22Id_Procesamiento%22%3DCebolla</v>
       </c>
@@ -11519,13 +11586,13 @@
       <c r="B85" t="s">
         <v>4</v>
       </c>
-      <c r="C85" s="22">
+      <c r="C85" s="20">
         <v>4.13</v>
       </c>
-      <c r="D85" s="22" t="s">
+      <c r="D85" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="E85" s="22" t="s">
+      <c r="E85" s="20" t="s">
         <v>246</v>
       </c>
       <c r="F85" t="s">
@@ -11534,21 +11601,21 @@
       <c r="G85" t="s">
         <v>14</v>
       </c>
-      <c r="H85" s="22" t="s">
+      <c r="H85" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="I85" s="11">
+      <c r="I85" s="9">
         <v>1</v>
       </c>
-      <c r="J85" s="11" t="s">
+      <c r="J85" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="K85" s="39"/>
-      <c r="L85" s="39"/>
+      <c r="K85" s="37"/>
+      <c r="L85" s="37"/>
       <c r="M85" t="s">
         <v>169</v>
       </c>
-      <c r="N85" s="25" t="s">
+      <c r="N85" s="23" t="s">
         <v>136</v>
       </c>
       <c r="O85" t="s">
@@ -11562,13 +11629,13 @@
       <c r="B86" t="s">
         <v>4</v>
       </c>
-      <c r="C86" s="22" t="s">
+      <c r="C86" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="D86" s="22" t="s">
+      <c r="D86" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="E86" s="22" t="s">
+      <c r="E86" s="20" t="s">
         <v>246</v>
       </c>
       <c r="F86" t="s">
@@ -11577,23 +11644,23 @@
       <c r="G86" t="s">
         <v>12</v>
       </c>
-      <c r="H86" s="27" t="s">
+      <c r="H86" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="I86" s="11">
+      <c r="I86" s="9">
         <v>11</v>
       </c>
-      <c r="J86" s="11"/>
-      <c r="K86" s="37" t="s">
+      <c r="J86" s="9"/>
+      <c r="K86" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="L86" s="37" t="s">
+      <c r="L86" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="M86" s="21" t="s">
+      <c r="M86" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="N86" s="25" t="str">
+      <c r="N86" s="23" t="str">
         <f>"https://analytics.zoho.com/open-view/2395394000003207385?ZOHO_CRITERIA=%22Fruta%20Consolidado%22.%22Mercado%20ID%22%3D"&amp;[2]Estructura!AB79</f>
         <v>https://analytics.zoho.com/open-view/2395394000003207385?ZOHO_CRITERIA=%22Fruta%20Consolidado%22.%22Mercado%20ID%22%3D</v>
       </c>
@@ -11608,13 +11675,13 @@
       <c r="B87" t="s">
         <v>4</v>
       </c>
-      <c r="C87" s="22" t="s">
+      <c r="C87" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="D87" s="22" t="s">
+      <c r="D87" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="E87" s="22" t="s">
+      <c r="E87" s="20" t="s">
         <v>246</v>
       </c>
       <c r="F87" t="s">
@@ -11623,23 +11690,23 @@
       <c r="G87" t="s">
         <v>12</v>
       </c>
-      <c r="H87" s="27" t="s">
+      <c r="H87" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="I87" s="11">
+      <c r="I87" s="9">
         <v>35</v>
       </c>
-      <c r="J87" s="11"/>
-      <c r="K87" s="37" t="s">
+      <c r="J87" s="9"/>
+      <c r="K87" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="L87" s="37" t="s">
+      <c r="L87" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="M87" s="21" t="s">
+      <c r="M87" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="N87" s="25" t="str">
+      <c r="N87" s="23" t="str">
         <f>"https://analytics.zoho.com/open-view/2395394000003239128?ZOHO_CRITERIA=%22Fruta%20Consolidado%22.%22Categor%C3%ADa%20ID%22%3D"&amp;[2]Estructura!X79</f>
         <v>https://analytics.zoho.com/open-view/2395394000003239128?ZOHO_CRITERIA=%22Fruta%20Consolidado%22.%22Categor%C3%ADa%20ID%22%3D</v>
       </c>
@@ -11654,13 +11721,13 @@
       <c r="B88" t="s">
         <v>4</v>
       </c>
-      <c r="C88" s="22" t="s">
+      <c r="C88" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="D88" s="22" t="s">
+      <c r="D88" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="E88" s="22" t="s">
+      <c r="E88" s="20" t="s">
         <v>246</v>
       </c>
       <c r="F88" t="s">
@@ -11669,23 +11736,23 @@
       <c r="G88" t="s">
         <v>14</v>
       </c>
-      <c r="H88" s="28" t="s">
+      <c r="H88" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="I88" s="11">
+      <c r="I88" s="9">
         <v>1</v>
       </c>
-      <c r="J88" s="11"/>
-      <c r="K88" s="37" t="s">
+      <c r="J88" s="9"/>
+      <c r="K88" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="L88" s="37" t="s">
+      <c r="L88" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="M88" s="21" t="s">
+      <c r="M88" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="N88" s="24" t="s">
+      <c r="N88" s="22" t="s">
         <v>148</v>
       </c>
       <c r="O88" t="s">
@@ -11699,13 +11766,13 @@
       <c r="B89" t="s">
         <v>4</v>
       </c>
-      <c r="C89" s="22" t="s">
+      <c r="C89" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="D89" s="22" t="s">
+      <c r="D89" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="E89" s="22" t="s">
+      <c r="E89" s="20" t="s">
         <v>246</v>
       </c>
       <c r="F89" t="s">
@@ -11714,23 +11781,23 @@
       <c r="G89" t="s">
         <v>12</v>
       </c>
-      <c r="H89" s="27" t="s">
+      <c r="H89" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="I89" s="11">
+      <c r="I89" s="9">
         <v>12</v>
       </c>
-      <c r="J89" s="11"/>
-      <c r="K89" s="37" t="s">
+      <c r="J89" s="9"/>
+      <c r="K89" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="L89" s="37" t="s">
+      <c r="L89" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="M89" s="21" t="s">
+      <c r="M89" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="N89" s="25" t="s">
+      <c r="N89" s="23" t="s">
         <v>156</v>
       </c>
       <c r="O89" t="s">
@@ -11744,13 +11811,13 @@
       <c r="B90" t="s">
         <v>4</v>
       </c>
-      <c r="C90" s="22" t="s">
+      <c r="C90" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="D90" s="22" t="s">
+      <c r="D90" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="E90" s="22" t="s">
+      <c r="E90" s="20" t="s">
         <v>246</v>
       </c>
       <c r="F90" t="s">
@@ -11759,23 +11826,23 @@
       <c r="G90" t="s">
         <v>12</v>
       </c>
-      <c r="H90" s="27" t="s">
+      <c r="H90" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="I90" s="11">
+      <c r="I90" s="9">
         <v>44</v>
       </c>
-      <c r="J90" s="11"/>
-      <c r="K90" s="37" t="s">
+      <c r="J90" s="9"/>
+      <c r="K90" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="L90" s="37" t="s">
+      <c r="L90" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="M90" s="21" t="s">
+      <c r="M90" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="N90" s="25" t="str">
+      <c r="N90" s="23" t="str">
         <f>"https://analytics.zoho.com/open-view/2395394000004410955?ZOHO_CRITERIA=%22Hortaliza%20Consolidado%22.%22Categor%C3%ADa%20ID%22%3D"&amp;[3]Estructura!X82</f>
         <v>https://analytics.zoho.com/open-view/2395394000004410955?ZOHO_CRITERIA=%22Hortaliza%20Consolidado%22.%22Categor%C3%ADa%20ID%22%3D</v>
       </c>
@@ -11790,13 +11857,13 @@
       <c r="B91" t="s">
         <v>4</v>
       </c>
-      <c r="C91" s="22" t="s">
+      <c r="C91" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="D91" s="22" t="s">
+      <c r="D91" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="E91" s="22" t="s">
+      <c r="E91" s="20" t="s">
         <v>246</v>
       </c>
       <c r="F91" t="s">
@@ -11805,23 +11872,23 @@
       <c r="G91" t="s">
         <v>14</v>
       </c>
-      <c r="H91" s="28" t="s">
+      <c r="H91" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="I91" s="11">
+      <c r="I91" s="9">
         <v>1</v>
       </c>
-      <c r="J91" s="11"/>
-      <c r="K91" s="37" t="s">
+      <c r="J91" s="9"/>
+      <c r="K91" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="L91" s="37" t="s">
+      <c r="L91" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="M91" s="21" t="s">
+      <c r="M91" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="N91" s="24" t="s">
+      <c r="N91" s="22" t="s">
         <v>157</v>
       </c>
       <c r="O91" t="s">
@@ -11829,1867 +11896,1867 @@
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="I92" s="11"/>
-      <c r="J92" s="11"/>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="I93" s="11"/>
-      <c r="J93" s="11"/>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="I94" s="11"/>
-      <c r="J94" s="11"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="I95" s="11"/>
-      <c r="J95" s="11"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="I96" s="11"/>
-      <c r="J96" s="11"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
     </row>
     <row r="97" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="I97" s="11"/>
-      <c r="J97" s="11"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
     </row>
     <row r="98" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="I98" s="11"/>
-      <c r="J98" s="11"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
     </row>
     <row r="99" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="I99" s="11"/>
-      <c r="J99" s="11"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
     </row>
     <row r="100" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="I100" s="11"/>
-      <c r="J100" s="11"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="N14:N25">
-    <cfRule type="expression" dxfId="710" priority="678">
-      <formula>$AH14="Reporte 2"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="709" priority="679">
-      <formula>$AH14="Reporte 1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="708" priority="680">
-      <formula>$AH14="Informe 10"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="707" priority="681">
-      <formula>$AH14="Informe 9"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="706" priority="682">
-      <formula>$AH14="Informe 8"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="705" priority="683">
-      <formula>$AH14="Informe 7"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="704" priority="684">
-      <formula>$AH14="Informe 6"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="703" priority="685">
-      <formula>$AH14="Informe 5"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="702" priority="686">
-      <formula>$AH14="Informe 4"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="701" priority="687">
-      <formula>$AH14="Informe 3"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="700" priority="688">
-      <formula>$AH14="Informe 2"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="699" priority="689">
-      <formula>$AH14="Informe 1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="698" priority="690">
-      <formula>$AH14="Gráfico 10"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="697" priority="691">
-      <formula>$AH14="Gráfico 25"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="696" priority="692">
-      <formula>$AH14="Gráfico 24"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="695" priority="693">
-      <formula>$AH14="Gráfico 23"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="694" priority="694">
-      <formula>$AH14="Gráfico 22"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="693" priority="695">
-      <formula>$AH14="Gráfico 21"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="692" priority="696">
-      <formula>$AH14="Gráfico 20"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="691" priority="697">
-      <formula>$AH14="Gráfico 18"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="690" priority="698">
-      <formula>$AH14="Gráfico 19"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="689" priority="699">
-      <formula>$AH14="Gráfico 17"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="688" priority="700">
-      <formula>$AH14="Gráfico 16"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="687" priority="701">
-      <formula>$AH14="Gráfico 15"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="686" priority="702">
-      <formula>$AH14="Gráfico 14"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="685" priority="703">
-      <formula>$AH14="Gráfico 12"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="684" priority="704">
-      <formula>$AH14="Gráfico 13"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="683" priority="705">
-      <formula>$AH14="Gráfico 11"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="682" priority="706">
-      <formula>$AH14="Gráfico 9"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="681" priority="707">
-      <formula>$AH14="Gráfico 8"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="680" priority="708">
-      <formula>$AH14="Gráfico 7"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="679" priority="709">
-      <formula>$AH14="Gráfico 6"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="678" priority="710">
-      <formula>$AH14="Gráfico 4"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="677" priority="711">
-      <formula>$AH14="Gráfico 3"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="676" priority="712">
-      <formula>$AH14="Gráfico 2"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="675" priority="713">
-      <formula>$AH14="Gráfico 1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="674" priority="714">
-      <formula>$AH14="Gráfico 5"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K34:L37">
-    <cfRule type="expression" dxfId="673" priority="641">
+    <cfRule type="expression" dxfId="673" priority="678">
       <formula>#REF!="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="672" priority="642">
+    <cfRule type="expression" dxfId="672" priority="679">
       <formula>#REF!="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="671" priority="643">
+    <cfRule type="expression" dxfId="671" priority="680">
       <formula>#REF!="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="670" priority="644">
+    <cfRule type="expression" dxfId="670" priority="681">
       <formula>#REF!="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="669" priority="645">
+    <cfRule type="expression" dxfId="669" priority="682">
       <formula>#REF!="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="668" priority="646">
+    <cfRule type="expression" dxfId="668" priority="683">
       <formula>#REF!="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="667" priority="647">
+    <cfRule type="expression" dxfId="667" priority="684">
       <formula>#REF!="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="666" priority="648">
+    <cfRule type="expression" dxfId="666" priority="685">
       <formula>#REF!="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="665" priority="649">
+    <cfRule type="expression" dxfId="665" priority="686">
       <formula>#REF!="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="664" priority="650">
+    <cfRule type="expression" dxfId="664" priority="687">
       <formula>#REF!="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="663" priority="651">
+    <cfRule type="expression" dxfId="663" priority="688">
       <formula>#REF!="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="662" priority="652">
+    <cfRule type="expression" dxfId="662" priority="689">
       <formula>#REF!="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="661" priority="653">
+    <cfRule type="expression" dxfId="661" priority="690">
       <formula>#REF!="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="660" priority="654">
+    <cfRule type="expression" dxfId="660" priority="691">
       <formula>#REF!="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="659" priority="655">
+    <cfRule type="expression" dxfId="659" priority="692">
       <formula>#REF!="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="658" priority="656">
+    <cfRule type="expression" dxfId="658" priority="693">
       <formula>#REF!="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="657" priority="657">
+    <cfRule type="expression" dxfId="657" priority="694">
       <formula>#REF!="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="656" priority="658">
+    <cfRule type="expression" dxfId="656" priority="695">
       <formula>#REF!="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="655" priority="659">
+    <cfRule type="expression" dxfId="655" priority="696">
       <formula>#REF!="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="654" priority="660">
+    <cfRule type="expression" dxfId="654" priority="697">
       <formula>#REF!="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="653" priority="661">
+    <cfRule type="expression" dxfId="653" priority="698">
       <formula>#REF!="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="652" priority="662">
+    <cfRule type="expression" dxfId="652" priority="699">
       <formula>#REF!="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="651" priority="663">
+    <cfRule type="expression" dxfId="651" priority="700">
       <formula>#REF!="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="650" priority="664">
+    <cfRule type="expression" dxfId="650" priority="701">
       <formula>#REF!="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="649" priority="665">
+    <cfRule type="expression" dxfId="649" priority="702">
       <formula>#REF!="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="648" priority="666">
+    <cfRule type="expression" dxfId="648" priority="703">
       <formula>#REF!="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="647" priority="667">
+    <cfRule type="expression" dxfId="647" priority="704">
       <formula>#REF!="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="646" priority="668">
+    <cfRule type="expression" dxfId="646" priority="705">
       <formula>#REF!="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="645" priority="669">
+    <cfRule type="expression" dxfId="645" priority="706">
       <formula>#REF!="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="644" priority="670">
+    <cfRule type="expression" dxfId="644" priority="707">
       <formula>#REF!="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="643" priority="671">
+    <cfRule type="expression" dxfId="643" priority="708">
       <formula>#REF!="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="642" priority="672">
+    <cfRule type="expression" dxfId="642" priority="709">
       <formula>#REF!="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="641" priority="673">
+    <cfRule type="expression" dxfId="641" priority="710">
       <formula>#REF!="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="640" priority="674">
+    <cfRule type="expression" dxfId="640" priority="711">
       <formula>#REF!="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="639" priority="675">
+    <cfRule type="expression" dxfId="639" priority="712">
       <formula>#REF!="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="638" priority="676">
+    <cfRule type="expression" dxfId="638" priority="713">
       <formula>#REF!="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="637" priority="677">
+    <cfRule type="expression" dxfId="637" priority="714">
       <formula>#REF!="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:J82">
-    <cfRule type="cellIs" dxfId="636" priority="640" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="636" priority="677" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I101:J2996">
-    <cfRule type="cellIs" dxfId="635" priority="639" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="635" priority="676" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K57">
-    <cfRule type="expression" dxfId="597" priority="528">
+    <cfRule type="expression" dxfId="634" priority="565">
       <formula>$AF62="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="596" priority="529">
+    <cfRule type="expression" dxfId="633" priority="566">
       <formula>$AF62="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="595" priority="530">
+    <cfRule type="expression" dxfId="632" priority="567">
       <formula>$AF62="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="594" priority="531">
+    <cfRule type="expression" dxfId="631" priority="568">
       <formula>$AF62="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="593" priority="532">
+    <cfRule type="expression" dxfId="630" priority="569">
       <formula>$AF62="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="592" priority="533">
+    <cfRule type="expression" dxfId="629" priority="570">
       <formula>$AF62="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="591" priority="534">
+    <cfRule type="expression" dxfId="628" priority="571">
       <formula>$AF62="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="590" priority="535">
+    <cfRule type="expression" dxfId="627" priority="572">
       <formula>$AF62="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="589" priority="536">
+    <cfRule type="expression" dxfId="626" priority="573">
       <formula>$AF62="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="588" priority="537">
+    <cfRule type="expression" dxfId="625" priority="574">
       <formula>$AF62="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="587" priority="538">
+    <cfRule type="expression" dxfId="624" priority="575">
       <formula>$AF62="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="586" priority="539">
+    <cfRule type="expression" dxfId="623" priority="576">
       <formula>$AF62="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="585" priority="540">
+    <cfRule type="expression" dxfId="622" priority="577">
       <formula>$AF62="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="584" priority="541">
+    <cfRule type="expression" dxfId="621" priority="578">
       <formula>$AF62="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="583" priority="542">
+    <cfRule type="expression" dxfId="620" priority="579">
       <formula>$AF62="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="582" priority="543">
+    <cfRule type="expression" dxfId="619" priority="580">
       <formula>$AF62="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="581" priority="544">
+    <cfRule type="expression" dxfId="618" priority="581">
       <formula>$AF62="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="580" priority="545">
+    <cfRule type="expression" dxfId="617" priority="582">
       <formula>$AF62="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="579" priority="546">
+    <cfRule type="expression" dxfId="616" priority="583">
       <formula>$AF62="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="578" priority="547">
+    <cfRule type="expression" dxfId="615" priority="584">
       <formula>$AF62="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="577" priority="548">
+    <cfRule type="expression" dxfId="614" priority="585">
       <formula>$AF62="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="576" priority="549">
+    <cfRule type="expression" dxfId="613" priority="586">
       <formula>$AF62="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="575" priority="550">
+    <cfRule type="expression" dxfId="612" priority="587">
       <formula>$AF62="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="574" priority="551">
+    <cfRule type="expression" dxfId="611" priority="588">
       <formula>$AF62="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="573" priority="552">
+    <cfRule type="expression" dxfId="610" priority="589">
       <formula>$AF62="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="572" priority="553">
+    <cfRule type="expression" dxfId="609" priority="590">
       <formula>$AF62="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="571" priority="554">
+    <cfRule type="expression" dxfId="608" priority="591">
       <formula>$AF62="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="570" priority="555">
+    <cfRule type="expression" dxfId="607" priority="592">
       <formula>$AF62="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="569" priority="556">
+    <cfRule type="expression" dxfId="606" priority="593">
       <formula>$AF62="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="568" priority="557">
+    <cfRule type="expression" dxfId="605" priority="594">
       <formula>$AF62="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="567" priority="558">
+    <cfRule type="expression" dxfId="604" priority="595">
       <formula>$AF62="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="566" priority="559">
+    <cfRule type="expression" dxfId="603" priority="596">
       <formula>$AF62="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="565" priority="560">
+    <cfRule type="expression" dxfId="602" priority="597">
       <formula>$AF62="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="564" priority="561">
+    <cfRule type="expression" dxfId="601" priority="598">
       <formula>$AF62="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="563" priority="562">
+    <cfRule type="expression" dxfId="600" priority="599">
       <formula>$AF62="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="562" priority="563">
+    <cfRule type="expression" dxfId="599" priority="600">
       <formula>$AF62="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="561" priority="564">
+    <cfRule type="expression" dxfId="598" priority="601">
       <formula>$AF62="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K58:K61">
-    <cfRule type="expression" dxfId="560" priority="565">
+    <cfRule type="expression" dxfId="597" priority="602">
       <formula>#REF!="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="559" priority="566">
+    <cfRule type="expression" dxfId="596" priority="603">
       <formula>#REF!="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="558" priority="567">
+    <cfRule type="expression" dxfId="595" priority="604">
       <formula>#REF!="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="557" priority="568">
+    <cfRule type="expression" dxfId="594" priority="605">
       <formula>#REF!="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="556" priority="569">
+    <cfRule type="expression" dxfId="593" priority="606">
       <formula>#REF!="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="555" priority="570">
+    <cfRule type="expression" dxfId="592" priority="607">
       <formula>#REF!="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="554" priority="571">
+    <cfRule type="expression" dxfId="591" priority="608">
       <formula>#REF!="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="553" priority="572">
+    <cfRule type="expression" dxfId="590" priority="609">
       <formula>#REF!="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="552" priority="573">
+    <cfRule type="expression" dxfId="589" priority="610">
       <formula>#REF!="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="551" priority="574">
+    <cfRule type="expression" dxfId="588" priority="611">
       <formula>#REF!="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="550" priority="575">
+    <cfRule type="expression" dxfId="587" priority="612">
       <formula>#REF!="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="549" priority="576">
+    <cfRule type="expression" dxfId="586" priority="613">
       <formula>#REF!="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="548" priority="577">
+    <cfRule type="expression" dxfId="585" priority="614">
       <formula>#REF!="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="547" priority="578">
+    <cfRule type="expression" dxfId="584" priority="615">
       <formula>#REF!="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="546" priority="579">
+    <cfRule type="expression" dxfId="583" priority="616">
       <formula>#REF!="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="545" priority="580">
+    <cfRule type="expression" dxfId="582" priority="617">
       <formula>#REF!="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="544" priority="581">
+    <cfRule type="expression" dxfId="581" priority="618">
       <formula>#REF!="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="543" priority="582">
+    <cfRule type="expression" dxfId="580" priority="619">
       <formula>#REF!="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="542" priority="583">
+    <cfRule type="expression" dxfId="579" priority="620">
       <formula>#REF!="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="541" priority="584">
+    <cfRule type="expression" dxfId="578" priority="621">
       <formula>#REF!="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="540" priority="585">
+    <cfRule type="expression" dxfId="577" priority="622">
       <formula>#REF!="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="539" priority="586">
+    <cfRule type="expression" dxfId="576" priority="623">
       <formula>#REF!="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="538" priority="587">
+    <cfRule type="expression" dxfId="575" priority="624">
       <formula>#REF!="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="537" priority="588">
+    <cfRule type="expression" dxfId="574" priority="625">
       <formula>#REF!="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="536" priority="589">
+    <cfRule type="expression" dxfId="573" priority="626">
       <formula>#REF!="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="535" priority="590">
+    <cfRule type="expression" dxfId="572" priority="627">
       <formula>#REF!="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="534" priority="591">
+    <cfRule type="expression" dxfId="571" priority="628">
       <formula>#REF!="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="533" priority="592">
+    <cfRule type="expression" dxfId="570" priority="629">
       <formula>#REF!="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="532" priority="593">
+    <cfRule type="expression" dxfId="569" priority="630">
       <formula>#REF!="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="531" priority="594">
+    <cfRule type="expression" dxfId="568" priority="631">
       <formula>#REF!="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="530" priority="595">
+    <cfRule type="expression" dxfId="567" priority="632">
       <formula>#REF!="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="529" priority="596">
+    <cfRule type="expression" dxfId="566" priority="633">
       <formula>#REF!="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="528" priority="597">
+    <cfRule type="expression" dxfId="565" priority="634">
       <formula>#REF!="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="527" priority="598">
+    <cfRule type="expression" dxfId="564" priority="635">
       <formula>#REF!="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="526" priority="599">
+    <cfRule type="expression" dxfId="563" priority="636">
       <formula>#REF!="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="525" priority="600">
+    <cfRule type="expression" dxfId="562" priority="637">
       <formula>#REF!="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="524" priority="601">
+    <cfRule type="expression" dxfId="561" priority="638">
       <formula>#REF!="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K63">
-    <cfRule type="expression" dxfId="523" priority="454">
+    <cfRule type="expression" dxfId="560" priority="491">
       <formula>$AF68="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="522" priority="455">
+    <cfRule type="expression" dxfId="559" priority="492">
       <formula>$AF68="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="521" priority="456">
+    <cfRule type="expression" dxfId="558" priority="493">
       <formula>$AF68="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="520" priority="457">
+    <cfRule type="expression" dxfId="557" priority="494">
       <formula>$AF68="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="519" priority="458">
+    <cfRule type="expression" dxfId="556" priority="495">
       <formula>$AF68="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="518" priority="459">
+    <cfRule type="expression" dxfId="555" priority="496">
       <formula>$AF68="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="517" priority="460">
+    <cfRule type="expression" dxfId="554" priority="497">
       <formula>$AF68="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="516" priority="461">
+    <cfRule type="expression" dxfId="553" priority="498">
       <formula>$AF68="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="515" priority="462">
+    <cfRule type="expression" dxfId="552" priority="499">
       <formula>$AF68="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="514" priority="463">
+    <cfRule type="expression" dxfId="551" priority="500">
       <formula>$AF68="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="513" priority="464">
+    <cfRule type="expression" dxfId="550" priority="501">
       <formula>$AF68="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="512" priority="465">
+    <cfRule type="expression" dxfId="549" priority="502">
       <formula>$AF68="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="511" priority="466">
+    <cfRule type="expression" dxfId="548" priority="503">
       <formula>$AF68="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="510" priority="467">
+    <cfRule type="expression" dxfId="547" priority="504">
       <formula>$AF68="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="509" priority="468">
+    <cfRule type="expression" dxfId="546" priority="505">
       <formula>$AF68="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="508" priority="469">
+    <cfRule type="expression" dxfId="545" priority="506">
       <formula>$AF68="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="507" priority="470">
+    <cfRule type="expression" dxfId="544" priority="507">
       <formula>$AF68="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="506" priority="471">
+    <cfRule type="expression" dxfId="543" priority="508">
       <formula>$AF68="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="505" priority="472">
+    <cfRule type="expression" dxfId="542" priority="509">
       <formula>$AF68="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="504" priority="473">
+    <cfRule type="expression" dxfId="541" priority="510">
       <formula>$AF68="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="503" priority="474">
+    <cfRule type="expression" dxfId="540" priority="511">
       <formula>$AF68="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="502" priority="475">
+    <cfRule type="expression" dxfId="539" priority="512">
       <formula>$AF68="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="501" priority="476">
+    <cfRule type="expression" dxfId="538" priority="513">
       <formula>$AF68="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="500" priority="477">
+    <cfRule type="expression" dxfId="537" priority="514">
       <formula>$AF68="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="499" priority="478">
+    <cfRule type="expression" dxfId="536" priority="515">
       <formula>$AF68="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="498" priority="479">
+    <cfRule type="expression" dxfId="535" priority="516">
       <formula>$AF68="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="497" priority="480">
+    <cfRule type="expression" dxfId="534" priority="517">
       <formula>$AF68="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="496" priority="481">
+    <cfRule type="expression" dxfId="533" priority="518">
       <formula>$AF68="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="495" priority="482">
+    <cfRule type="expression" dxfId="532" priority="519">
       <formula>$AF68="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="494" priority="483">
+    <cfRule type="expression" dxfId="531" priority="520">
       <formula>$AF68="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="493" priority="484">
+    <cfRule type="expression" dxfId="530" priority="521">
       <formula>$AF68="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="492" priority="485">
+    <cfRule type="expression" dxfId="529" priority="522">
       <formula>$AF68="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="491" priority="486">
+    <cfRule type="expression" dxfId="528" priority="523">
       <formula>$AF68="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="490" priority="487">
+    <cfRule type="expression" dxfId="527" priority="524">
       <formula>$AF68="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="489" priority="488">
+    <cfRule type="expression" dxfId="526" priority="525">
       <formula>$AF68="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="488" priority="489">
+    <cfRule type="expression" dxfId="525" priority="526">
       <formula>$AF68="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="487" priority="490">
+    <cfRule type="expression" dxfId="524" priority="527">
       <formula>$AF68="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K64:K67">
-    <cfRule type="expression" dxfId="486" priority="491">
+    <cfRule type="expression" dxfId="523" priority="528">
       <formula>#REF!="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="485" priority="492">
+    <cfRule type="expression" dxfId="522" priority="529">
       <formula>#REF!="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="484" priority="493">
+    <cfRule type="expression" dxfId="521" priority="530">
       <formula>#REF!="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="483" priority="494">
+    <cfRule type="expression" dxfId="520" priority="531">
       <formula>#REF!="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="482" priority="495">
+    <cfRule type="expression" dxfId="519" priority="532">
       <formula>#REF!="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="481" priority="496">
+    <cfRule type="expression" dxfId="518" priority="533">
       <formula>#REF!="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="480" priority="497">
+    <cfRule type="expression" dxfId="517" priority="534">
       <formula>#REF!="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="479" priority="498">
+    <cfRule type="expression" dxfId="516" priority="535">
       <formula>#REF!="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="478" priority="499">
+    <cfRule type="expression" dxfId="515" priority="536">
       <formula>#REF!="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="477" priority="500">
+    <cfRule type="expression" dxfId="514" priority="537">
       <formula>#REF!="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="476" priority="501">
+    <cfRule type="expression" dxfId="513" priority="538">
       <formula>#REF!="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="475" priority="502">
+    <cfRule type="expression" dxfId="512" priority="539">
       <formula>#REF!="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="474" priority="503">
+    <cfRule type="expression" dxfId="511" priority="540">
       <formula>#REF!="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="473" priority="504">
+    <cfRule type="expression" dxfId="510" priority="541">
       <formula>#REF!="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="472" priority="505">
+    <cfRule type="expression" dxfId="509" priority="542">
       <formula>#REF!="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="471" priority="506">
+    <cfRule type="expression" dxfId="508" priority="543">
       <formula>#REF!="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="470" priority="507">
+    <cfRule type="expression" dxfId="507" priority="544">
       <formula>#REF!="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="469" priority="508">
+    <cfRule type="expression" dxfId="506" priority="545">
       <formula>#REF!="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="468" priority="509">
+    <cfRule type="expression" dxfId="505" priority="546">
       <formula>#REF!="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="467" priority="510">
+    <cfRule type="expression" dxfId="504" priority="547">
       <formula>#REF!="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="466" priority="511">
+    <cfRule type="expression" dxfId="503" priority="548">
       <formula>#REF!="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="465" priority="512">
+    <cfRule type="expression" dxfId="502" priority="549">
       <formula>#REF!="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="464" priority="513">
+    <cfRule type="expression" dxfId="501" priority="550">
       <formula>#REF!="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="463" priority="514">
+    <cfRule type="expression" dxfId="500" priority="551">
       <formula>#REF!="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="462" priority="515">
+    <cfRule type="expression" dxfId="499" priority="552">
       <formula>#REF!="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="461" priority="516">
+    <cfRule type="expression" dxfId="498" priority="553">
       <formula>#REF!="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="460" priority="517">
+    <cfRule type="expression" dxfId="497" priority="554">
       <formula>#REF!="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="459" priority="518">
+    <cfRule type="expression" dxfId="496" priority="555">
       <formula>#REF!="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="458" priority="519">
+    <cfRule type="expression" dxfId="495" priority="556">
       <formula>#REF!="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="457" priority="520">
+    <cfRule type="expression" dxfId="494" priority="557">
       <formula>#REF!="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="456" priority="521">
+    <cfRule type="expression" dxfId="493" priority="558">
       <formula>#REF!="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="455" priority="522">
+    <cfRule type="expression" dxfId="492" priority="559">
       <formula>#REF!="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="454" priority="523">
+    <cfRule type="expression" dxfId="491" priority="560">
       <formula>#REF!="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="453" priority="524">
+    <cfRule type="expression" dxfId="490" priority="561">
       <formula>#REF!="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="452" priority="525">
+    <cfRule type="expression" dxfId="489" priority="562">
       <formula>#REF!="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="451" priority="526">
+    <cfRule type="expression" dxfId="488" priority="563">
       <formula>#REF!="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="450" priority="527">
+    <cfRule type="expression" dxfId="487" priority="564">
       <formula>#REF!="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L57">
-    <cfRule type="expression" dxfId="449" priority="380">
+    <cfRule type="expression" dxfId="486" priority="417">
       <formula>$AE62="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="448" priority="381">
+    <cfRule type="expression" dxfId="485" priority="418">
       <formula>$AE62="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="447" priority="382">
+    <cfRule type="expression" dxfId="484" priority="419">
       <formula>$AE62="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="446" priority="383">
+    <cfRule type="expression" dxfId="483" priority="420">
       <formula>$AE62="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="445" priority="384">
+    <cfRule type="expression" dxfId="482" priority="421">
       <formula>$AE62="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="444" priority="385">
+    <cfRule type="expression" dxfId="481" priority="422">
       <formula>$AE62="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="443" priority="386">
+    <cfRule type="expression" dxfId="480" priority="423">
       <formula>$AE62="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="442" priority="387">
+    <cfRule type="expression" dxfId="479" priority="424">
       <formula>$AE62="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="441" priority="388">
+    <cfRule type="expression" dxfId="478" priority="425">
       <formula>$AE62="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="440" priority="389">
+    <cfRule type="expression" dxfId="477" priority="426">
       <formula>$AE62="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="439" priority="390">
+    <cfRule type="expression" dxfId="476" priority="427">
       <formula>$AE62="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="438" priority="391">
+    <cfRule type="expression" dxfId="475" priority="428">
       <formula>$AE62="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="437" priority="392">
+    <cfRule type="expression" dxfId="474" priority="429">
       <formula>$AE62="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="436" priority="393">
+    <cfRule type="expression" dxfId="473" priority="430">
       <formula>$AE62="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="435" priority="394">
+    <cfRule type="expression" dxfId="472" priority="431">
       <formula>$AE62="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="434" priority="395">
+    <cfRule type="expression" dxfId="471" priority="432">
       <formula>$AE62="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="433" priority="396">
+    <cfRule type="expression" dxfId="470" priority="433">
       <formula>$AE62="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="432" priority="397">
+    <cfRule type="expression" dxfId="469" priority="434">
       <formula>$AE62="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="431" priority="398">
+    <cfRule type="expression" dxfId="468" priority="435">
       <formula>$AE62="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="430" priority="399">
+    <cfRule type="expression" dxfId="467" priority="436">
       <formula>$AE62="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="429" priority="400">
+    <cfRule type="expression" dxfId="466" priority="437">
       <formula>$AE62="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="428" priority="401">
+    <cfRule type="expression" dxfId="465" priority="438">
       <formula>$AE62="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="427" priority="402">
+    <cfRule type="expression" dxfId="464" priority="439">
       <formula>$AE62="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="426" priority="403">
+    <cfRule type="expression" dxfId="463" priority="440">
       <formula>$AE62="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="425" priority="404">
+    <cfRule type="expression" dxfId="462" priority="441">
       <formula>$AE62="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="424" priority="405">
+    <cfRule type="expression" dxfId="461" priority="442">
       <formula>$AE62="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="423" priority="406">
+    <cfRule type="expression" dxfId="460" priority="443">
       <formula>$AE62="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="422" priority="407">
+    <cfRule type="expression" dxfId="459" priority="444">
       <formula>$AE62="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="421" priority="408">
+    <cfRule type="expression" dxfId="458" priority="445">
       <formula>$AE62="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="420" priority="409">
+    <cfRule type="expression" dxfId="457" priority="446">
       <formula>$AE62="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="419" priority="410">
+    <cfRule type="expression" dxfId="456" priority="447">
       <formula>$AE62="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="418" priority="411">
+    <cfRule type="expression" dxfId="455" priority="448">
       <formula>$AE62="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="417" priority="412">
+    <cfRule type="expression" dxfId="454" priority="449">
       <formula>$AE62="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="416" priority="413">
+    <cfRule type="expression" dxfId="453" priority="450">
       <formula>$AE62="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="415" priority="414">
+    <cfRule type="expression" dxfId="452" priority="451">
       <formula>$AE62="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="414" priority="415">
+    <cfRule type="expression" dxfId="451" priority="452">
       <formula>$AE62="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="413" priority="416">
+    <cfRule type="expression" dxfId="450" priority="453">
       <formula>$AE62="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L58:L61">
-    <cfRule type="expression" dxfId="412" priority="417">
+    <cfRule type="expression" dxfId="449" priority="454">
       <formula>#REF!="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="411" priority="418">
+    <cfRule type="expression" dxfId="448" priority="455">
       <formula>#REF!="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="410" priority="419">
+    <cfRule type="expression" dxfId="447" priority="456">
       <formula>#REF!="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="409" priority="420">
+    <cfRule type="expression" dxfId="446" priority="457">
       <formula>#REF!="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="408" priority="421">
+    <cfRule type="expression" dxfId="445" priority="458">
       <formula>#REF!="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="407" priority="422">
+    <cfRule type="expression" dxfId="444" priority="459">
       <formula>#REF!="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="406" priority="423">
+    <cfRule type="expression" dxfId="443" priority="460">
       <formula>#REF!="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="405" priority="424">
+    <cfRule type="expression" dxfId="442" priority="461">
       <formula>#REF!="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="404" priority="425">
+    <cfRule type="expression" dxfId="441" priority="462">
       <formula>#REF!="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="403" priority="426">
+    <cfRule type="expression" dxfId="440" priority="463">
       <formula>#REF!="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="402" priority="427">
+    <cfRule type="expression" dxfId="439" priority="464">
       <formula>#REF!="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="401" priority="428">
+    <cfRule type="expression" dxfId="438" priority="465">
       <formula>#REF!="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="400" priority="429">
+    <cfRule type="expression" dxfId="437" priority="466">
       <formula>#REF!="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="399" priority="430">
+    <cfRule type="expression" dxfId="436" priority="467">
       <formula>#REF!="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="398" priority="431">
+    <cfRule type="expression" dxfId="435" priority="468">
       <formula>#REF!="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="397" priority="432">
+    <cfRule type="expression" dxfId="434" priority="469">
       <formula>#REF!="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="396" priority="433">
+    <cfRule type="expression" dxfId="433" priority="470">
       <formula>#REF!="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="395" priority="434">
+    <cfRule type="expression" dxfId="432" priority="471">
       <formula>#REF!="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="394" priority="435">
+    <cfRule type="expression" dxfId="431" priority="472">
       <formula>#REF!="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="393" priority="436">
+    <cfRule type="expression" dxfId="430" priority="473">
       <formula>#REF!="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="392" priority="437">
+    <cfRule type="expression" dxfId="429" priority="474">
       <formula>#REF!="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="391" priority="438">
+    <cfRule type="expression" dxfId="428" priority="475">
       <formula>#REF!="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="390" priority="439">
+    <cfRule type="expression" dxfId="427" priority="476">
       <formula>#REF!="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="389" priority="440">
+    <cfRule type="expression" dxfId="426" priority="477">
       <formula>#REF!="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="388" priority="441">
+    <cfRule type="expression" dxfId="425" priority="478">
       <formula>#REF!="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="387" priority="442">
+    <cfRule type="expression" dxfId="424" priority="479">
       <formula>#REF!="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="386" priority="443">
+    <cfRule type="expression" dxfId="423" priority="480">
       <formula>#REF!="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="385" priority="444">
+    <cfRule type="expression" dxfId="422" priority="481">
       <formula>#REF!="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="384" priority="445">
+    <cfRule type="expression" dxfId="421" priority="482">
       <formula>#REF!="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="383" priority="446">
+    <cfRule type="expression" dxfId="420" priority="483">
       <formula>#REF!="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="382" priority="447">
+    <cfRule type="expression" dxfId="419" priority="484">
       <formula>#REF!="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="381" priority="448">
+    <cfRule type="expression" dxfId="418" priority="485">
       <formula>#REF!="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="380" priority="449">
+    <cfRule type="expression" dxfId="417" priority="486">
       <formula>#REF!="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="379" priority="450">
+    <cfRule type="expression" dxfId="416" priority="487">
       <formula>#REF!="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="378" priority="451">
+    <cfRule type="expression" dxfId="415" priority="488">
       <formula>#REF!="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="377" priority="452">
+    <cfRule type="expression" dxfId="414" priority="489">
       <formula>#REF!="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="376" priority="453">
+    <cfRule type="expression" dxfId="413" priority="490">
       <formula>#REF!="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L63">
-    <cfRule type="expression" dxfId="375" priority="306">
+    <cfRule type="expression" dxfId="412" priority="343">
       <formula>$AE68="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="374" priority="307">
+    <cfRule type="expression" dxfId="411" priority="344">
       <formula>$AE68="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="373" priority="308">
+    <cfRule type="expression" dxfId="410" priority="345">
       <formula>$AE68="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="372" priority="309">
+    <cfRule type="expression" dxfId="409" priority="346">
       <formula>$AE68="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="371" priority="310">
+    <cfRule type="expression" dxfId="408" priority="347">
       <formula>$AE68="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="370" priority="311">
+    <cfRule type="expression" dxfId="407" priority="348">
       <formula>$AE68="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="369" priority="312">
+    <cfRule type="expression" dxfId="406" priority="349">
       <formula>$AE68="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="368" priority="313">
+    <cfRule type="expression" dxfId="405" priority="350">
       <formula>$AE68="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="367" priority="314">
+    <cfRule type="expression" dxfId="404" priority="351">
       <formula>$AE68="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="366" priority="315">
+    <cfRule type="expression" dxfId="403" priority="352">
       <formula>$AE68="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="365" priority="316">
+    <cfRule type="expression" dxfId="402" priority="353">
       <formula>$AE68="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="364" priority="317">
+    <cfRule type="expression" dxfId="401" priority="354">
       <formula>$AE68="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="363" priority="318">
+    <cfRule type="expression" dxfId="400" priority="355">
       <formula>$AE68="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="362" priority="319">
+    <cfRule type="expression" dxfId="399" priority="356">
       <formula>$AE68="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="361" priority="320">
+    <cfRule type="expression" dxfId="398" priority="357">
       <formula>$AE68="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="360" priority="321">
+    <cfRule type="expression" dxfId="397" priority="358">
       <formula>$AE68="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="359" priority="322">
+    <cfRule type="expression" dxfId="396" priority="359">
       <formula>$AE68="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="358" priority="323">
+    <cfRule type="expression" dxfId="395" priority="360">
       <formula>$AE68="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="357" priority="324">
+    <cfRule type="expression" dxfId="394" priority="361">
       <formula>$AE68="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="356" priority="325">
+    <cfRule type="expression" dxfId="393" priority="362">
       <formula>$AE68="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="355" priority="326">
+    <cfRule type="expression" dxfId="392" priority="363">
       <formula>$AE68="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="354" priority="327">
+    <cfRule type="expression" dxfId="391" priority="364">
       <formula>$AE68="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="353" priority="328">
+    <cfRule type="expression" dxfId="390" priority="365">
       <formula>$AE68="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="352" priority="329">
+    <cfRule type="expression" dxfId="389" priority="366">
       <formula>$AE68="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="351" priority="330">
+    <cfRule type="expression" dxfId="388" priority="367">
       <formula>$AE68="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="350" priority="331">
+    <cfRule type="expression" dxfId="387" priority="368">
       <formula>$AE68="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="349" priority="332">
+    <cfRule type="expression" dxfId="386" priority="369">
       <formula>$AE68="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="348" priority="333">
+    <cfRule type="expression" dxfId="385" priority="370">
       <formula>$AE68="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="347" priority="334">
+    <cfRule type="expression" dxfId="384" priority="371">
       <formula>$AE68="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="346" priority="335">
+    <cfRule type="expression" dxfId="383" priority="372">
       <formula>$AE68="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="345" priority="336">
+    <cfRule type="expression" dxfId="382" priority="373">
       <formula>$AE68="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="344" priority="337">
+    <cfRule type="expression" dxfId="381" priority="374">
       <formula>$AE68="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="343" priority="338">
+    <cfRule type="expression" dxfId="380" priority="375">
       <formula>$AE68="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="342" priority="339">
+    <cfRule type="expression" dxfId="379" priority="376">
       <formula>$AE68="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="341" priority="340">
+    <cfRule type="expression" dxfId="378" priority="377">
       <formula>$AE68="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="340" priority="341">
+    <cfRule type="expression" dxfId="377" priority="378">
       <formula>$AE68="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="339" priority="342">
+    <cfRule type="expression" dxfId="376" priority="379">
       <formula>$AE68="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L64:L67">
-    <cfRule type="expression" dxfId="338" priority="343">
+    <cfRule type="expression" dxfId="375" priority="380">
       <formula>#REF!="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="337" priority="344">
+    <cfRule type="expression" dxfId="374" priority="381">
       <formula>#REF!="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="336" priority="345">
+    <cfRule type="expression" dxfId="373" priority="382">
       <formula>#REF!="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="335" priority="346">
+    <cfRule type="expression" dxfId="372" priority="383">
       <formula>#REF!="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="334" priority="347">
+    <cfRule type="expression" dxfId="371" priority="384">
       <formula>#REF!="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="333" priority="348">
+    <cfRule type="expression" dxfId="370" priority="385">
       <formula>#REF!="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="332" priority="349">
+    <cfRule type="expression" dxfId="369" priority="386">
       <formula>#REF!="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="331" priority="350">
+    <cfRule type="expression" dxfId="368" priority="387">
       <formula>#REF!="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="330" priority="351">
+    <cfRule type="expression" dxfId="367" priority="388">
       <formula>#REF!="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="329" priority="352">
+    <cfRule type="expression" dxfId="366" priority="389">
       <formula>#REF!="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="328" priority="353">
+    <cfRule type="expression" dxfId="365" priority="390">
       <formula>#REF!="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="327" priority="354">
+    <cfRule type="expression" dxfId="364" priority="391">
       <formula>#REF!="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="326" priority="355">
+    <cfRule type="expression" dxfId="363" priority="392">
       <formula>#REF!="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="325" priority="356">
+    <cfRule type="expression" dxfId="362" priority="393">
       <formula>#REF!="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="324" priority="357">
+    <cfRule type="expression" dxfId="361" priority="394">
       <formula>#REF!="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="323" priority="358">
+    <cfRule type="expression" dxfId="360" priority="395">
       <formula>#REF!="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="322" priority="359">
+    <cfRule type="expression" dxfId="359" priority="396">
       <formula>#REF!="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="321" priority="360">
+    <cfRule type="expression" dxfId="358" priority="397">
       <formula>#REF!="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="320" priority="361">
+    <cfRule type="expression" dxfId="357" priority="398">
       <formula>#REF!="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="319" priority="362">
+    <cfRule type="expression" dxfId="356" priority="399">
       <formula>#REF!="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="318" priority="363">
+    <cfRule type="expression" dxfId="355" priority="400">
       <formula>#REF!="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="317" priority="364">
+    <cfRule type="expression" dxfId="354" priority="401">
       <formula>#REF!="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="316" priority="365">
+    <cfRule type="expression" dxfId="353" priority="402">
       <formula>#REF!="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="315" priority="366">
+    <cfRule type="expression" dxfId="352" priority="403">
       <formula>#REF!="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="314" priority="367">
+    <cfRule type="expression" dxfId="351" priority="404">
       <formula>#REF!="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="313" priority="368">
+    <cfRule type="expression" dxfId="350" priority="405">
       <formula>#REF!="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="312" priority="369">
+    <cfRule type="expression" dxfId="349" priority="406">
       <formula>#REF!="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="311" priority="370">
+    <cfRule type="expression" dxfId="348" priority="407">
       <formula>#REF!="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="310" priority="371">
+    <cfRule type="expression" dxfId="347" priority="408">
       <formula>#REF!="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="309" priority="372">
+    <cfRule type="expression" dxfId="346" priority="409">
       <formula>#REF!="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="308" priority="373">
+    <cfRule type="expression" dxfId="345" priority="410">
       <formula>#REF!="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="307" priority="374">
+    <cfRule type="expression" dxfId="344" priority="411">
       <formula>#REF!="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="306" priority="375">
+    <cfRule type="expression" dxfId="343" priority="412">
       <formula>#REF!="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="305" priority="376">
+    <cfRule type="expression" dxfId="342" priority="413">
       <formula>#REF!="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="304" priority="377">
+    <cfRule type="expression" dxfId="341" priority="414">
       <formula>#REF!="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="303" priority="378">
+    <cfRule type="expression" dxfId="340" priority="415">
       <formula>#REF!="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="302" priority="379">
+    <cfRule type="expression" dxfId="339" priority="416">
       <formula>#REF!="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I83:J83">
-    <cfRule type="cellIs" dxfId="301" priority="304" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="338" priority="341" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14:M25">
-    <cfRule type="expression" dxfId="300" priority="265">
+    <cfRule type="expression" dxfId="337" priority="302">
       <formula>$AC5="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="299" priority="266">
+    <cfRule type="expression" dxfId="336" priority="303">
       <formula>$AC5="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="298" priority="267">
+    <cfRule type="expression" dxfId="335" priority="304">
       <formula>$AC5="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="297" priority="268">
+    <cfRule type="expression" dxfId="334" priority="305">
       <formula>$AC5="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="296" priority="269">
+    <cfRule type="expression" dxfId="333" priority="306">
       <formula>$AC5="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="295" priority="270">
+    <cfRule type="expression" dxfId="332" priority="307">
       <formula>$AC5="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="294" priority="271">
+    <cfRule type="expression" dxfId="331" priority="308">
       <formula>$AC5="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="293" priority="272">
+    <cfRule type="expression" dxfId="330" priority="309">
       <formula>$AC5="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="292" priority="273">
+    <cfRule type="expression" dxfId="329" priority="310">
       <formula>$AC5="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="291" priority="274">
+    <cfRule type="expression" dxfId="328" priority="311">
       <formula>$AC5="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="290" priority="275">
+    <cfRule type="expression" dxfId="327" priority="312">
       <formula>$AC5="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="289" priority="276">
+    <cfRule type="expression" dxfId="326" priority="313">
       <formula>$AC5="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="288" priority="277">
+    <cfRule type="expression" dxfId="325" priority="314">
       <formula>$AC5="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="287" priority="278">
+    <cfRule type="expression" dxfId="324" priority="315">
       <formula>$AC5="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="286" priority="279">
+    <cfRule type="expression" dxfId="323" priority="316">
       <formula>$AC5="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="285" priority="280">
+    <cfRule type="expression" dxfId="322" priority="317">
       <formula>$AC5="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="284" priority="281">
+    <cfRule type="expression" dxfId="321" priority="318">
       <formula>$AC5="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="283" priority="282">
+    <cfRule type="expression" dxfId="320" priority="319">
       <formula>$AC5="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="282" priority="283">
+    <cfRule type="expression" dxfId="319" priority="320">
       <formula>$AC5="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="281" priority="284">
+    <cfRule type="expression" dxfId="318" priority="321">
       <formula>$AC5="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="280" priority="285">
+    <cfRule type="expression" dxfId="317" priority="322">
       <formula>$AC5="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="279" priority="286">
+    <cfRule type="expression" dxfId="316" priority="323">
       <formula>$AC5="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="278" priority="287">
+    <cfRule type="expression" dxfId="315" priority="324">
       <formula>$AC5="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="277" priority="288">
+    <cfRule type="expression" dxfId="314" priority="325">
       <formula>$AC5="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="276" priority="289">
+    <cfRule type="expression" dxfId="313" priority="326">
       <formula>$AC5="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="275" priority="290">
+    <cfRule type="expression" dxfId="312" priority="327">
       <formula>$AC5="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="274" priority="291">
+    <cfRule type="expression" dxfId="311" priority="328">
       <formula>$AC5="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="273" priority="292">
+    <cfRule type="expression" dxfId="310" priority="329">
       <formula>$AC5="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="272" priority="293">
+    <cfRule type="expression" dxfId="309" priority="330">
       <formula>$AC5="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="271" priority="294">
+    <cfRule type="expression" dxfId="308" priority="331">
       <formula>$AC5="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="295">
+    <cfRule type="expression" dxfId="307" priority="332">
       <formula>$AC5="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="269" priority="296">
+    <cfRule type="expression" dxfId="306" priority="333">
       <formula>$AC5="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="268" priority="297">
+    <cfRule type="expression" dxfId="305" priority="334">
       <formula>$AC5="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="267" priority="298">
+    <cfRule type="expression" dxfId="304" priority="335">
       <formula>$AC5="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="266" priority="299">
+    <cfRule type="expression" dxfId="303" priority="336">
       <formula>$AC5="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="265" priority="300">
+    <cfRule type="expression" dxfId="302" priority="337">
       <formula>$AC5="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="264" priority="301">
+    <cfRule type="expression" dxfId="301" priority="338">
       <formula>$AC5="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M34:M41">
-    <cfRule type="expression" dxfId="263" priority="228">
+    <cfRule type="expression" dxfId="300" priority="265">
       <formula>$AC34="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="229">
+    <cfRule type="expression" dxfId="299" priority="266">
       <formula>$AC34="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="261" priority="230">
+    <cfRule type="expression" dxfId="298" priority="267">
       <formula>$AC34="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="260" priority="231">
+    <cfRule type="expression" dxfId="297" priority="268">
       <formula>$AC34="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="259" priority="232">
+    <cfRule type="expression" dxfId="296" priority="269">
       <formula>$AC34="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="233">
+    <cfRule type="expression" dxfId="295" priority="270">
       <formula>$AC34="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="257" priority="234">
+    <cfRule type="expression" dxfId="294" priority="271">
       <formula>$AC34="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="256" priority="235">
+    <cfRule type="expression" dxfId="293" priority="272">
       <formula>$AC34="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="255" priority="236">
+    <cfRule type="expression" dxfId="292" priority="273">
       <formula>$AC34="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="254" priority="237">
+    <cfRule type="expression" dxfId="291" priority="274">
       <formula>$AC34="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="253" priority="238">
+    <cfRule type="expression" dxfId="290" priority="275">
       <formula>$AC34="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="252" priority="239">
+    <cfRule type="expression" dxfId="289" priority="276">
       <formula>$AC34="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="251" priority="240">
+    <cfRule type="expression" dxfId="288" priority="277">
       <formula>$AC34="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="241">
+    <cfRule type="expression" dxfId="287" priority="278">
       <formula>$AC34="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="249" priority="242">
+    <cfRule type="expression" dxfId="286" priority="279">
       <formula>$AC34="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="248" priority="243">
+    <cfRule type="expression" dxfId="285" priority="280">
       <formula>$AC34="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="247" priority="244">
+    <cfRule type="expression" dxfId="284" priority="281">
       <formula>$AC34="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="245">
+    <cfRule type="expression" dxfId="283" priority="282">
       <formula>$AC34="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="245" priority="246">
+    <cfRule type="expression" dxfId="282" priority="283">
       <formula>$AC34="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="247">
+    <cfRule type="expression" dxfId="281" priority="284">
       <formula>$AC34="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="243" priority="248">
+    <cfRule type="expression" dxfId="280" priority="285">
       <formula>$AC34="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="242" priority="249">
+    <cfRule type="expression" dxfId="279" priority="286">
       <formula>$AC34="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="241" priority="250">
+    <cfRule type="expression" dxfId="278" priority="287">
       <formula>$AC34="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="240" priority="251">
+    <cfRule type="expression" dxfId="277" priority="288">
       <formula>$AC34="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="239" priority="252">
+    <cfRule type="expression" dxfId="276" priority="289">
       <formula>$AC34="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="253">
+    <cfRule type="expression" dxfId="275" priority="290">
       <formula>$AC34="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="237" priority="254">
+    <cfRule type="expression" dxfId="274" priority="291">
       <formula>$AC34="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="236" priority="255">
+    <cfRule type="expression" dxfId="273" priority="292">
       <formula>$AC34="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="235" priority="256">
+    <cfRule type="expression" dxfId="272" priority="293">
       <formula>$AC34="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="234" priority="257">
+    <cfRule type="expression" dxfId="271" priority="294">
       <formula>$AC34="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="233" priority="258">
+    <cfRule type="expression" dxfId="270" priority="295">
       <formula>$AC34="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="232" priority="259">
+    <cfRule type="expression" dxfId="269" priority="296">
       <formula>$AC34="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="231" priority="260">
+    <cfRule type="expression" dxfId="268" priority="297">
       <formula>$AC34="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="230" priority="261">
+    <cfRule type="expression" dxfId="267" priority="298">
       <formula>$AC34="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="229" priority="262">
+    <cfRule type="expression" dxfId="266" priority="299">
       <formula>$AC34="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="263">
+    <cfRule type="expression" dxfId="265" priority="300">
       <formula>$AC34="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="227" priority="264">
+    <cfRule type="expression" dxfId="264" priority="301">
       <formula>$AC34="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M46:M53">
-    <cfRule type="expression" dxfId="226" priority="191">
+    <cfRule type="expression" dxfId="263" priority="228">
       <formula>$AC46="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="192">
+    <cfRule type="expression" dxfId="262" priority="229">
       <formula>$AC46="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="224" priority="193">
+    <cfRule type="expression" dxfId="261" priority="230">
       <formula>$AC46="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="223" priority="194">
+    <cfRule type="expression" dxfId="260" priority="231">
       <formula>$AC46="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="195">
+    <cfRule type="expression" dxfId="259" priority="232">
       <formula>$AC46="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="221" priority="196">
+    <cfRule type="expression" dxfId="258" priority="233">
       <formula>$AC46="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="197">
+    <cfRule type="expression" dxfId="257" priority="234">
       <formula>$AC46="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="219" priority="198">
+    <cfRule type="expression" dxfId="256" priority="235">
       <formula>$AC46="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="218" priority="199">
+    <cfRule type="expression" dxfId="255" priority="236">
       <formula>$AC46="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="217" priority="200">
+    <cfRule type="expression" dxfId="254" priority="237">
       <formula>$AC46="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="201">
+    <cfRule type="expression" dxfId="253" priority="238">
       <formula>$AC46="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="215" priority="202">
+    <cfRule type="expression" dxfId="252" priority="239">
       <formula>$AC46="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="203">
+    <cfRule type="expression" dxfId="251" priority="240">
       <formula>$AC46="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="213" priority="204">
+    <cfRule type="expression" dxfId="250" priority="241">
       <formula>$AC46="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="212" priority="205">
+    <cfRule type="expression" dxfId="249" priority="242">
       <formula>$AC46="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="206">
+    <cfRule type="expression" dxfId="248" priority="243">
       <formula>$AC46="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="207">
+    <cfRule type="expression" dxfId="247" priority="244">
       <formula>$AC46="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="209" priority="208">
+    <cfRule type="expression" dxfId="246" priority="245">
       <formula>$AC46="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="209">
+    <cfRule type="expression" dxfId="245" priority="246">
       <formula>$AC46="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="210">
+    <cfRule type="expression" dxfId="244" priority="247">
       <formula>$AC46="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="206" priority="211">
+    <cfRule type="expression" dxfId="243" priority="248">
       <formula>$AC46="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="212">
+    <cfRule type="expression" dxfId="242" priority="249">
       <formula>$AC46="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="213">
+    <cfRule type="expression" dxfId="241" priority="250">
       <formula>$AC46="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="203" priority="214">
+    <cfRule type="expression" dxfId="240" priority="251">
       <formula>$AC46="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="215">
+    <cfRule type="expression" dxfId="239" priority="252">
       <formula>$AC46="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="216">
+    <cfRule type="expression" dxfId="238" priority="253">
       <formula>$AC46="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="200" priority="217">
+    <cfRule type="expression" dxfId="237" priority="254">
       <formula>$AC46="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="199" priority="218">
+    <cfRule type="expression" dxfId="236" priority="255">
       <formula>$AC46="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="219">
+    <cfRule type="expression" dxfId="235" priority="256">
       <formula>$AC46="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="197" priority="220">
+    <cfRule type="expression" dxfId="234" priority="257">
       <formula>$AC46="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="221">
+    <cfRule type="expression" dxfId="233" priority="258">
       <formula>$AC46="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="222">
+    <cfRule type="expression" dxfId="232" priority="259">
       <formula>$AC46="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="194" priority="223">
+    <cfRule type="expression" dxfId="231" priority="260">
       <formula>$AC46="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="224">
+    <cfRule type="expression" dxfId="230" priority="261">
       <formula>$AC46="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="225">
+    <cfRule type="expression" dxfId="229" priority="262">
       <formula>$AC46="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="191" priority="226">
+    <cfRule type="expression" dxfId="228" priority="263">
       <formula>$AC46="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="227">
+    <cfRule type="expression" dxfId="227" priority="264">
       <formula>$AC46="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M57:M68">
-    <cfRule type="expression" dxfId="189" priority="154">
+    <cfRule type="expression" dxfId="226" priority="191">
       <formula>$AD57="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="155">
+    <cfRule type="expression" dxfId="225" priority="192">
       <formula>$AD57="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="156">
+    <cfRule type="expression" dxfId="224" priority="193">
       <formula>$AD57="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="157">
+    <cfRule type="expression" dxfId="223" priority="194">
       <formula>$AD57="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="158">
+    <cfRule type="expression" dxfId="222" priority="195">
       <formula>$AD57="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="159">
+    <cfRule type="expression" dxfId="221" priority="196">
       <formula>$AD57="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="160">
+    <cfRule type="expression" dxfId="220" priority="197">
       <formula>$AD57="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="161">
+    <cfRule type="expression" dxfId="219" priority="198">
       <formula>$AD57="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="162">
+    <cfRule type="expression" dxfId="218" priority="199">
       <formula>$AD57="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="163">
+    <cfRule type="expression" dxfId="217" priority="200">
       <formula>$AD57="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="179" priority="164">
+    <cfRule type="expression" dxfId="216" priority="201">
       <formula>$AD57="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="165">
+    <cfRule type="expression" dxfId="215" priority="202">
       <formula>$AD57="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="166">
+    <cfRule type="expression" dxfId="214" priority="203">
       <formula>$AD57="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="176" priority="167">
+    <cfRule type="expression" dxfId="213" priority="204">
       <formula>$AD57="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="168">
+    <cfRule type="expression" dxfId="212" priority="205">
       <formula>$AD57="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="169">
+    <cfRule type="expression" dxfId="211" priority="206">
       <formula>$AD57="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="170">
+    <cfRule type="expression" dxfId="210" priority="207">
       <formula>$AD57="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="171">
+    <cfRule type="expression" dxfId="209" priority="208">
       <formula>$AD57="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="172">
+    <cfRule type="expression" dxfId="208" priority="209">
       <formula>$AD57="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="173">
+    <cfRule type="expression" dxfId="207" priority="210">
       <formula>$AD57="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="174">
+    <cfRule type="expression" dxfId="206" priority="211">
       <formula>$AD57="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="175">
+    <cfRule type="expression" dxfId="205" priority="212">
       <formula>$AD57="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="167" priority="176">
+    <cfRule type="expression" dxfId="204" priority="213">
       <formula>$AD57="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="177">
+    <cfRule type="expression" dxfId="203" priority="214">
       <formula>$AD57="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="178">
+    <cfRule type="expression" dxfId="202" priority="215">
       <formula>$AD57="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="179">
+    <cfRule type="expression" dxfId="201" priority="216">
       <formula>$AD57="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="180">
+    <cfRule type="expression" dxfId="200" priority="217">
       <formula>$AD57="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="181">
+    <cfRule type="expression" dxfId="199" priority="218">
       <formula>$AD57="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="182">
+    <cfRule type="expression" dxfId="198" priority="219">
       <formula>$AD57="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="183">
+    <cfRule type="expression" dxfId="197" priority="220">
       <formula>$AD57="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="184">
+    <cfRule type="expression" dxfId="196" priority="221">
       <formula>$AD57="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="185">
+    <cfRule type="expression" dxfId="195" priority="222">
       <formula>$AD57="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="186">
+    <cfRule type="expression" dxfId="194" priority="223">
       <formula>$AD57="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="187">
+    <cfRule type="expression" dxfId="193" priority="224">
       <formula>$AD57="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="188">
+    <cfRule type="expression" dxfId="192" priority="225">
       <formula>$AD57="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="189">
+    <cfRule type="expression" dxfId="191" priority="226">
       <formula>$AD57="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="190">
+    <cfRule type="expression" dxfId="190" priority="227">
       <formula>$AD57="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M86:M88">
-    <cfRule type="expression" dxfId="152" priority="117">
+    <cfRule type="expression" dxfId="189" priority="154">
       <formula>$AC86="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="118">
+    <cfRule type="expression" dxfId="188" priority="155">
       <formula>$AC86="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="119">
+    <cfRule type="expression" dxfId="187" priority="156">
       <formula>$AC86="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="120">
+    <cfRule type="expression" dxfId="186" priority="157">
       <formula>$AC86="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="121">
+    <cfRule type="expression" dxfId="185" priority="158">
       <formula>$AC86="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="122">
+    <cfRule type="expression" dxfId="184" priority="159">
       <formula>$AC86="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="123">
+    <cfRule type="expression" dxfId="183" priority="160">
       <formula>$AC86="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="124">
+    <cfRule type="expression" dxfId="182" priority="161">
       <formula>$AC86="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="125">
+    <cfRule type="expression" dxfId="181" priority="162">
       <formula>$AC86="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="143" priority="126">
+    <cfRule type="expression" dxfId="180" priority="163">
       <formula>$AC86="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="127">
+    <cfRule type="expression" dxfId="179" priority="164">
       <formula>$AC86="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="128">
+    <cfRule type="expression" dxfId="178" priority="165">
       <formula>$AC86="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="129">
+    <cfRule type="expression" dxfId="177" priority="166">
       <formula>$AC86="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="130">
+    <cfRule type="expression" dxfId="176" priority="167">
       <formula>$AC86="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="131">
+    <cfRule type="expression" dxfId="175" priority="168">
       <formula>$AC86="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="132">
+    <cfRule type="expression" dxfId="174" priority="169">
       <formula>$AC86="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="133">
+    <cfRule type="expression" dxfId="173" priority="170">
       <formula>$AC86="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="134">
+    <cfRule type="expression" dxfId="172" priority="171">
       <formula>$AC86="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="135">
+    <cfRule type="expression" dxfId="171" priority="172">
       <formula>$AC86="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="136">
+    <cfRule type="expression" dxfId="170" priority="173">
       <formula>$AC86="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="137">
+    <cfRule type="expression" dxfId="169" priority="174">
       <formula>$AC86="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="138">
+    <cfRule type="expression" dxfId="168" priority="175">
       <formula>$AC86="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="139">
+    <cfRule type="expression" dxfId="167" priority="176">
       <formula>$AC86="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="140">
+    <cfRule type="expression" dxfId="166" priority="177">
       <formula>$AC86="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="141">
+    <cfRule type="expression" dxfId="165" priority="178">
       <formula>$AC86="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="142">
+    <cfRule type="expression" dxfId="164" priority="179">
       <formula>$AC86="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="143">
+    <cfRule type="expression" dxfId="163" priority="180">
       <formula>$AC86="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="144">
+    <cfRule type="expression" dxfId="162" priority="181">
       <formula>$AC86="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="145">
+    <cfRule type="expression" dxfId="161" priority="182">
       <formula>$AC86="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="146">
+    <cfRule type="expression" dxfId="160" priority="183">
       <formula>$AC86="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="147">
+    <cfRule type="expression" dxfId="159" priority="184">
       <formula>$AC86="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="148">
+    <cfRule type="expression" dxfId="158" priority="185">
       <formula>$AC86="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="149">
+    <cfRule type="expression" dxfId="157" priority="186">
       <formula>$AC86="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="150">
+    <cfRule type="expression" dxfId="156" priority="187">
       <formula>$AC86="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="151">
+    <cfRule type="expression" dxfId="155" priority="188">
       <formula>$AC86="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="152">
+    <cfRule type="expression" dxfId="154" priority="189">
       <formula>$AC86="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="153">
+    <cfRule type="expression" dxfId="153" priority="190">
       <formula>$AC86="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M89:M91">
-    <cfRule type="expression" dxfId="115" priority="80">
+    <cfRule type="expression" dxfId="152" priority="117">
       <formula>$AC89="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="81">
+    <cfRule type="expression" dxfId="151" priority="118">
       <formula>$AC89="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="82">
+    <cfRule type="expression" dxfId="150" priority="119">
       <formula>$AC89="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="83">
+    <cfRule type="expression" dxfId="149" priority="120">
       <formula>$AC89="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="84">
+    <cfRule type="expression" dxfId="148" priority="121">
       <formula>$AC89="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="85">
+    <cfRule type="expression" dxfId="147" priority="122">
       <formula>$AC89="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="86">
+    <cfRule type="expression" dxfId="146" priority="123">
       <formula>$AC89="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="87">
+    <cfRule type="expression" dxfId="145" priority="124">
       <formula>$AC89="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="88">
+    <cfRule type="expression" dxfId="144" priority="125">
       <formula>$AC89="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="89">
+    <cfRule type="expression" dxfId="143" priority="126">
       <formula>$AC89="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="90">
+    <cfRule type="expression" dxfId="142" priority="127">
       <formula>$AC89="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="91">
+    <cfRule type="expression" dxfId="141" priority="128">
       <formula>$AC89="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="92">
+    <cfRule type="expression" dxfId="140" priority="129">
       <formula>$AC89="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="93">
+    <cfRule type="expression" dxfId="139" priority="130">
       <formula>$AC89="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="94">
+    <cfRule type="expression" dxfId="138" priority="131">
       <formula>$AC89="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="95">
+    <cfRule type="expression" dxfId="137" priority="132">
       <formula>$AC89="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="96">
+    <cfRule type="expression" dxfId="136" priority="133">
       <formula>$AC89="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="97">
+    <cfRule type="expression" dxfId="135" priority="134">
       <formula>$AC89="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="98">
+    <cfRule type="expression" dxfId="134" priority="135">
       <formula>$AC89="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="99">
+    <cfRule type="expression" dxfId="133" priority="136">
       <formula>$AC89="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="100">
+    <cfRule type="expression" dxfId="132" priority="137">
       <formula>$AC89="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="101">
+    <cfRule type="expression" dxfId="131" priority="138">
       <formula>$AC89="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="102">
+    <cfRule type="expression" dxfId="130" priority="139">
       <formula>$AC89="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="103">
+    <cfRule type="expression" dxfId="129" priority="140">
       <formula>$AC89="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="104">
+    <cfRule type="expression" dxfId="128" priority="141">
       <formula>$AC89="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="105">
+    <cfRule type="expression" dxfId="127" priority="142">
       <formula>$AC89="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="106">
+    <cfRule type="expression" dxfId="126" priority="143">
       <formula>$AC89="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="107">
+    <cfRule type="expression" dxfId="125" priority="144">
       <formula>$AC89="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="108">
+    <cfRule type="expression" dxfId="124" priority="145">
       <formula>$AC89="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="109">
+    <cfRule type="expression" dxfId="123" priority="146">
       <formula>$AC89="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="110">
+    <cfRule type="expression" dxfId="122" priority="147">
       <formula>$AC89="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="111">
+    <cfRule type="expression" dxfId="121" priority="148">
       <formula>$AC89="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="112">
+    <cfRule type="expression" dxfId="120" priority="149">
       <formula>$AC89="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="113">
+    <cfRule type="expression" dxfId="119" priority="150">
       <formula>$AC89="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="114">
+    <cfRule type="expression" dxfId="118" priority="151">
       <formula>$AC89="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="115">
+    <cfRule type="expression" dxfId="117" priority="152">
       <formula>$AC89="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="116">
+    <cfRule type="expression" dxfId="116" priority="153">
       <formula>$AC89="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L41">
+    <cfRule type="expression" dxfId="115" priority="80">
+      <formula>#REF!="Reporte 2"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="81">
+      <formula>#REF!="Reporte 1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="113" priority="82">
+      <formula>#REF!="Informe 10"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="112" priority="83">
+      <formula>#REF!="Informe 9"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="111" priority="84">
+      <formula>#REF!="Informe 8"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="110" priority="85">
+      <formula>#REF!="Informe 7"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="109" priority="86">
+      <formula>#REF!="Informe 6"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="108" priority="87">
+      <formula>#REF!="Informe 5"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="107" priority="88">
+      <formula>#REF!="Informe 4"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="89">
+      <formula>#REF!="Informe 3"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="105" priority="90">
+      <formula>#REF!="Informe 2"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="104" priority="91">
+      <formula>#REF!="Informe 1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="103" priority="92">
+      <formula>#REF!="Gráfico 10"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="93">
+      <formula>#REF!="Gráfico 25"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="101" priority="94">
+      <formula>#REF!="Gráfico 24"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="100" priority="95">
+      <formula>#REF!="Gráfico 23"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="99" priority="96">
+      <formula>#REF!="Gráfico 22"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="98" priority="97">
+      <formula>#REF!="Gráfico 21"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="97" priority="98">
+      <formula>#REF!="Gráfico 20"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="96" priority="99">
+      <formula>#REF!="Gráfico 18"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="95" priority="100">
+      <formula>#REF!="Gráfico 19"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="94" priority="101">
+      <formula>#REF!="Gráfico 17"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="93" priority="102">
+      <formula>#REF!="Gráfico 16"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="92" priority="103">
+      <formula>#REF!="Gráfico 15"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="91" priority="104">
+      <formula>#REF!="Gráfico 14"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="105">
+      <formula>#REF!="Gráfico 12"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="89" priority="106">
+      <formula>#REF!="Gráfico 13"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="88" priority="107">
+      <formula>#REF!="Gráfico 11"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="87" priority="108">
+      <formula>#REF!="Gráfico 9"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="86" priority="109">
+      <formula>#REF!="Gráfico 8"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="85" priority="110">
+      <formula>#REF!="Gráfico 7"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="111">
+      <formula>#REF!="Gráfico 6"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="83" priority="112">
+      <formula>#REF!="Gráfico 4"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="113">
+      <formula>#REF!="Gráfico 3"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="81" priority="114">
+      <formula>#REF!="Gráfico 2"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="80" priority="115">
+      <formula>#REF!="Gráfico 1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="79" priority="116">
+      <formula>#REF!="Gráfico 5"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K41">
     <cfRule type="expression" dxfId="78" priority="43">
       <formula>#REF!="Reporte 2"</formula>
     </cfRule>
@@ -13802,136 +13869,136 @@
       <formula>#REF!="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K41">
-    <cfRule type="expression" dxfId="41" priority="6">
-      <formula>#REF!="Reporte 2"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="7">
-      <formula>#REF!="Reporte 1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="8">
-      <formula>#REF!="Informe 10"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="9">
-      <formula>#REF!="Informe 9"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="10">
-      <formula>#REF!="Informe 8"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="11">
-      <formula>#REF!="Informe 7"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="35" priority="12">
-      <formula>#REF!="Informe 6"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="13">
-      <formula>#REF!="Informe 5"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="14">
-      <formula>#REF!="Informe 4"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="15">
-      <formula>#REF!="Informe 3"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="16">
-      <formula>#REF!="Informe 2"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="17">
-      <formula>#REF!="Informe 1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="29" priority="18">
-      <formula>#REF!="Gráfico 10"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="19">
-      <formula>#REF!="Gráfico 25"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="20">
-      <formula>#REF!="Gráfico 24"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="21">
-      <formula>#REF!="Gráfico 23"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="22">
-      <formula>#REF!="Gráfico 22"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="23">
-      <formula>#REF!="Gráfico 21"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="23" priority="24">
-      <formula>#REF!="Gráfico 20"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="25">
-      <formula>#REF!="Gráfico 18"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="26">
-      <formula>#REF!="Gráfico 19"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="27">
-      <formula>#REF!="Gráfico 17"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="28">
-      <formula>#REF!="Gráfico 16"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="29">
-      <formula>#REF!="Gráfico 15"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="17" priority="30">
-      <formula>#REF!="Gráfico 14"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="31">
-      <formula>#REF!="Gráfico 12"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="32">
-      <formula>#REF!="Gráfico 13"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="33">
-      <formula>#REF!="Gráfico 11"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="34">
-      <formula>#REF!="Gráfico 9"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="35">
-      <formula>#REF!="Gráfico 8"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="11" priority="36">
-      <formula>#REF!="Gráfico 7"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="37">
-      <formula>#REF!="Gráfico 6"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="38">
-      <formula>#REF!="Gráfico 4"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="39">
-      <formula>#REF!="Gráfico 3"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="40">
-      <formula>#REF!="Gráfico 2"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="41">
-      <formula>#REF!="Gráfico 1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="42">
-      <formula>#REF!="Gráfico 5"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J4:J91">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="41" operator="equal">
       <formula>"pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="42" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E91">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="40" operator="equal">
       <formula>"en proceso"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
       <formula>"pendiente"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N14:N25">
+    <cfRule type="expression" dxfId="36" priority="1">
+      <formula>$Y14="Reporte 2"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="2">
+      <formula>$Y14="Reporte 1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="3">
+      <formula>$Y14="Informe 10"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="4">
+      <formula>$Y14="Informe 9"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="5">
+      <formula>$Y14="Informe 8"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="6">
+      <formula>$Y14="Informe 7"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="7">
+      <formula>$Y14="Informe 6"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="8">
+      <formula>$Y14="Informe 5"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="9">
+      <formula>$Y14="Informe 4"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="10">
+      <formula>$Y14="Informe 3"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="11">
+      <formula>$Y14="Informe 2"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="12">
+      <formula>$Y14="Informe 1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="13">
+      <formula>$Y14="Gráfico 10"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="14">
+      <formula>$Y14="Gráfico 25"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="15">
+      <formula>$Y14="Gráfico 24"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="16">
+      <formula>$Y14="Gráfico 23"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="17">
+      <formula>$Y14="Gráfico 22"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="18">
+      <formula>$Y14="Gráfico 21"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="19">
+      <formula>$Y14="Gráfico 20"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="20">
+      <formula>$Y14="Gráfico 18"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="21">
+      <formula>$Y14="Gráfico 19"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="22">
+      <formula>$Y14="Gráfico 17"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="23">
+      <formula>$Y14="Gráfico 16"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="24">
+      <formula>$Y14="Gráfico 15"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="25">
+      <formula>$Y14="Gráfico 14"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="26">
+      <formula>$Y14="Gráfico 12"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="27">
+      <formula>$Y14="Gráfico 13"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="28">
+      <formula>$Y14="Gráfico 11"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="29">
+      <formula>$Y14="Gráfico 9"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="30">
+      <formula>$Y14="Gráfico 8"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="31">
+      <formula>$Y14="Gráfico 7"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="32">
+      <formula>$Y14="Gráfico 6"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="33">
+      <formula>$Y14="Gráfico 4"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="34">
+      <formula>$Y14="Gráfico 3"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="35">
+      <formula>$Y14="Gráfico 2"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="36">
+      <formula>$Y14="Gráfico 1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="37">
+      <formula>$Y14="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -13996,29 +14063,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452FBABD-227D-4392-8AD1-DF333272AF79}">
   <dimension ref="C2:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="2" spans="3:8" ht="24" x14ac:dyDescent="0.35">
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>40</v>
       </c>
     </row>

--- a/Monitoreo Nuevos Productos.xlsx
+++ b/Monitoreo Nuevos Productos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD651EE-BCC6-42DD-B70B-6593B9561757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298AEDBB-C25F-47C8-9E56-268DDDAA09F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{3C601918-C683-4A9E-9764-2E2F3DE6B565}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{3C601918-C683-4A9E-9764-2E2F3DE6B565}"/>
   </bookViews>
   <sheets>
     <sheet name="Monitoreo Nuevos Productos" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Hoja1" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Monitoreo Nuevos Productos'!$A$10:$R$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Monitoreo Nuevos Productos'!$A$10:$R$96</definedName>
     <definedName name="SegmentaciónDeDatos_TABLA_MADRE">#N/A</definedName>
     <definedName name="SegmentaciónDeDatos_TEMA">#N/A</definedName>
     <definedName name="SegmentaciónDeDatos_TIPO_PRODUCTO">#N/A</definedName>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="318">
   <si>
     <t>SECTOR</t>
   </si>
@@ -1000,6 +1000,12 @@
   </si>
   <si>
     <t>Volumen de importaciones frutícolas || Chile || 2012-2020</t>
+  </si>
+  <si>
+    <t>Mujeres</t>
+  </si>
+  <si>
+    <t>Violencia</t>
   </si>
 </sst>
 </file>
@@ -1123,7 +1129,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1146,13 +1152,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1271,13 +1290,134 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Millares" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="608">
+  <dxfs count="618">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -6819,8 +6959,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="TABLA MADRE">
@@ -6843,7 +6983,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -7082,27 +7222,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8AB307C7-AF39-4578-A163-A8BC847F650D}" name="Tabla1" displayName="Tabla1" ref="A10:R94" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A10:R94" xr:uid="{BE3B9459-9CC4-4B42-85DE-65D6DD89527B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8AB307C7-AF39-4578-A163-A8BC847F650D}" name="Tabla1" displayName="Tabla1" ref="A10:R96" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="A10:R96" xr:uid="{BE3B9459-9CC4-4B42-85DE-65D6DD89527B}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{AEA8EF0D-25C7-4111-8A9F-0B18B1765250}" name="SECTOR" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{752FAE73-6FD3-44CD-87CD-9043950F7C57}" name="COLECCIÓN" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{6007294C-E2A9-42FC-8D1B-04F4C15E7E6C}" name="TABLA MADRE" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{CC128664-1A0A-4FA0-9E24-7F2D50AC3945}" name="RESPONSABLE" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{47097AA3-BED4-48AF-B9DE-ABBBAEBF8480}" name="ESTADO" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{D1D0198B-6B8E-4844-BFB3-0C4C39A5DEEB}" name="TEMA" dataDxfId="12"/>
-    <tableColumn id="18" xr3:uid="{FCDE1CEA-9D32-4512-8B1E-E0F36B0D06E6}" name="En contenido" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{F7C33F71-D2AC-440D-B0A6-B78933C8E65D}" name="TIPO PRODUCTO" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{D2B9DAD1-8888-4EAE-B08D-DDAAD4D91214}" name="NOMBRE" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{B13359B5-127C-4ACD-BA41-0F932FFA47DE}" name="Cantidad" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{22126FF6-1849-455F-A6A6-7D65468619C8}" name="Títulos revisados" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{C4B2B2EE-05E3-4BD3-9138-0C5123EACD36}" name="Título Genérico - Shopify" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{48638419-EFAD-40F5-8E0C-171981824999}" name="Título específico" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{5E5D6E60-EE68-4304-B67C-4D8F2081F5C6}" name="Tags" dataDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{4A7DE2E9-92D4-4649-893E-C2F9E0C999C9}" name="Link" dataDxfId="3" dataCellStyle="Hipervínculo"/>
-    <tableColumn id="15" xr3:uid="{C604366C-A935-413E-B0A6-F9D41B311156}" name="Estado URL" dataDxfId="2"/>
-    <tableColumn id="16" xr3:uid="{E1C0300E-6E4D-4041-9E44-893F2242AEB3}" name="Responsable Revisión" dataDxfId="1"/>
-    <tableColumn id="17" xr3:uid="{B21BEC12-2A8B-4811-AA41-623D1FDA90AE}" name="Tags2" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{AEA8EF0D-25C7-4111-8A9F-0B18B1765250}" name="SECTOR" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{752FAE73-6FD3-44CD-87CD-9043950F7C57}" name="COLECCIÓN" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{6007294C-E2A9-42FC-8D1B-04F4C15E7E6C}" name="TABLA MADRE" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{CC128664-1A0A-4FA0-9E24-7F2D50AC3945}" name="RESPONSABLE" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{47097AA3-BED4-48AF-B9DE-ABBBAEBF8480}" name="ESTADO" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{D1D0198B-6B8E-4844-BFB3-0C4C39A5DEEB}" name="TEMA" dataDxfId="22"/>
+    <tableColumn id="18" xr3:uid="{FCDE1CEA-9D32-4512-8B1E-E0F36B0D06E6}" name="En contenido" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{F7C33F71-D2AC-440D-B0A6-B78933C8E65D}" name="TIPO PRODUCTO" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{D2B9DAD1-8888-4EAE-B08D-DDAAD4D91214}" name="NOMBRE" dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{B13359B5-127C-4ACD-BA41-0F932FFA47DE}" name="Cantidad" dataDxfId="18"/>
+    <tableColumn id="10" xr3:uid="{22126FF6-1849-455F-A6A6-7D65468619C8}" name="Títulos revisados" dataDxfId="17"/>
+    <tableColumn id="11" xr3:uid="{C4B2B2EE-05E3-4BD3-9138-0C5123EACD36}" name="Título Genérico - Shopify" dataDxfId="16"/>
+    <tableColumn id="12" xr3:uid="{48638419-EFAD-40F5-8E0C-171981824999}" name="Título específico" dataDxfId="15"/>
+    <tableColumn id="13" xr3:uid="{5E5D6E60-EE68-4304-B67C-4D8F2081F5C6}" name="Tags" dataDxfId="14"/>
+    <tableColumn id="14" xr3:uid="{4A7DE2E9-92D4-4649-893E-C2F9E0C999C9}" name="Link" dataDxfId="13" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="15" xr3:uid="{C604366C-A935-413E-B0A6-F9D41B311156}" name="Estado URL" dataDxfId="12"/>
+    <tableColumn id="16" xr3:uid="{E1C0300E-6E4D-4041-9E44-893F2242AEB3}" name="Responsable Revisión" dataDxfId="11"/>
+    <tableColumn id="17" xr3:uid="{B21BEC12-2A8B-4811-AA41-623D1FDA90AE}" name="Tags2" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7408,10 +7548,10 @@
   <dimension ref="A8:R111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="10" topLeftCell="K35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="10" topLeftCell="D74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="L40" sqref="L40"/>
+      <selection pane="bottomRight" activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12219,14 +12359,60 @@
       <c r="R94" s="14"/>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="J95" s="5"/>
-      <c r="K95" s="5"/>
-      <c r="O95" s="15"/>
+      <c r="A95" s="48" t="s">
+        <v>316</v>
+      </c>
+      <c r="B95" s="48" t="s">
+        <v>317</v>
+      </c>
+      <c r="C95" s="49">
+        <v>27.1</v>
+      </c>
+      <c r="D95" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="E95" s="49"/>
+      <c r="F95" s="48"/>
+      <c r="G95" s="48"/>
+      <c r="H95" s="48"/>
+      <c r="I95" s="32"/>
+      <c r="J95" s="50"/>
+      <c r="K95" s="51"/>
+      <c r="L95" s="52"/>
+      <c r="M95" s="52"/>
+      <c r="N95" s="53"/>
+      <c r="O95" s="54"/>
+      <c r="P95" s="48"/>
+      <c r="Q95" s="48"/>
+      <c r="R95" s="48"/>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="J96" s="5"/>
-      <c r="K96" s="5"/>
-      <c r="O96" s="15"/>
+      <c r="A96" s="48" t="s">
+        <v>316</v>
+      </c>
+      <c r="B96" s="48" t="s">
+        <v>317</v>
+      </c>
+      <c r="C96" s="49">
+        <v>27.2</v>
+      </c>
+      <c r="D96" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="E96" s="49"/>
+      <c r="F96" s="48"/>
+      <c r="G96" s="48"/>
+      <c r="H96" s="48"/>
+      <c r="I96" s="32"/>
+      <c r="J96" s="50"/>
+      <c r="K96" s="51"/>
+      <c r="L96" s="52"/>
+      <c r="M96" s="52"/>
+      <c r="N96" s="53"/>
+      <c r="O96" s="54"/>
+      <c r="P96" s="48"/>
+      <c r="Q96" s="48"/>
+      <c r="R96" s="48"/>
     </row>
     <row r="97" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J97" s="5"/>
@@ -12290,1812 +12476,1812 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="L41:M44">
-    <cfRule type="expression" dxfId="607" priority="984">
+    <cfRule type="expression" dxfId="617" priority="984">
       <formula>#REF!="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="606" priority="985">
+    <cfRule type="expression" dxfId="616" priority="985">
       <formula>#REF!="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="605" priority="986">
+    <cfRule type="expression" dxfId="615" priority="986">
       <formula>#REF!="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="604" priority="987">
+    <cfRule type="expression" dxfId="614" priority="987">
       <formula>#REF!="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="603" priority="988">
+    <cfRule type="expression" dxfId="613" priority="988">
       <formula>#REF!="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="602" priority="989">
+    <cfRule type="expression" dxfId="612" priority="989">
       <formula>#REF!="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="601" priority="990">
+    <cfRule type="expression" dxfId="611" priority="990">
       <formula>#REF!="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="600" priority="991">
+    <cfRule type="expression" dxfId="610" priority="991">
       <formula>#REF!="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="599" priority="992">
+    <cfRule type="expression" dxfId="609" priority="992">
       <formula>#REF!="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="598" priority="993">
+    <cfRule type="expression" dxfId="608" priority="993">
       <formula>#REF!="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="597" priority="994">
+    <cfRule type="expression" dxfId="607" priority="994">
       <formula>#REF!="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="596" priority="995">
+    <cfRule type="expression" dxfId="606" priority="995">
       <formula>#REF!="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="595" priority="996">
+    <cfRule type="expression" dxfId="605" priority="996">
       <formula>#REF!="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="594" priority="997">
+    <cfRule type="expression" dxfId="604" priority="997">
       <formula>#REF!="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="593" priority="998">
+    <cfRule type="expression" dxfId="603" priority="998">
       <formula>#REF!="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="592" priority="999">
+    <cfRule type="expression" dxfId="602" priority="999">
       <formula>#REF!="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="591" priority="1000">
+    <cfRule type="expression" dxfId="601" priority="1000">
       <formula>#REF!="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="590" priority="1001">
+    <cfRule type="expression" dxfId="600" priority="1001">
       <formula>#REF!="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="589" priority="1002">
+    <cfRule type="expression" dxfId="599" priority="1002">
       <formula>#REF!="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="588" priority="1003">
+    <cfRule type="expression" dxfId="598" priority="1003">
       <formula>#REF!="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="587" priority="1004">
+    <cfRule type="expression" dxfId="597" priority="1004">
       <formula>#REF!="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="586" priority="1005">
+    <cfRule type="expression" dxfId="596" priority="1005">
       <formula>#REF!="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="585" priority="1006">
+    <cfRule type="expression" dxfId="595" priority="1006">
       <formula>#REF!="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="584" priority="1007">
+    <cfRule type="expression" dxfId="594" priority="1007">
       <formula>#REF!="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="583" priority="1008">
+    <cfRule type="expression" dxfId="593" priority="1008">
       <formula>#REF!="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="582" priority="1009">
+    <cfRule type="expression" dxfId="592" priority="1009">
       <formula>#REF!="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="581" priority="1010">
+    <cfRule type="expression" dxfId="591" priority="1010">
       <formula>#REF!="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="580" priority="1011">
+    <cfRule type="expression" dxfId="590" priority="1011">
       <formula>#REF!="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="579" priority="1012">
+    <cfRule type="expression" dxfId="589" priority="1012">
       <formula>#REF!="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="578" priority="1013">
+    <cfRule type="expression" dxfId="588" priority="1013">
       <formula>#REF!="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="577" priority="1014">
+    <cfRule type="expression" dxfId="587" priority="1014">
       <formula>#REF!="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="576" priority="1015">
+    <cfRule type="expression" dxfId="586" priority="1015">
       <formula>#REF!="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="575" priority="1016">
+    <cfRule type="expression" dxfId="585" priority="1016">
       <formula>#REF!="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="574" priority="1017">
+    <cfRule type="expression" dxfId="584" priority="1017">
       <formula>#REF!="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="573" priority="1018">
+    <cfRule type="expression" dxfId="583" priority="1018">
       <formula>#REF!="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="572" priority="1019">
+    <cfRule type="expression" dxfId="582" priority="1019">
       <formula>#REF!="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="571" priority="1020">
+    <cfRule type="expression" dxfId="581" priority="1020">
       <formula>#REF!="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J104:K2999">
-    <cfRule type="cellIs" dxfId="570" priority="982" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="580" priority="982" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21:N32">
-    <cfRule type="expression" dxfId="569" priority="608">
+    <cfRule type="expression" dxfId="579" priority="608">
       <formula>$AD12="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="568" priority="609">
+    <cfRule type="expression" dxfId="578" priority="609">
       <formula>$AD12="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="567" priority="610">
+    <cfRule type="expression" dxfId="577" priority="610">
       <formula>$AD12="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="566" priority="611">
+    <cfRule type="expression" dxfId="576" priority="611">
       <formula>$AD12="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="565" priority="612">
+    <cfRule type="expression" dxfId="575" priority="612">
       <formula>$AD12="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="564" priority="613">
+    <cfRule type="expression" dxfId="574" priority="613">
       <formula>$AD12="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="563" priority="614">
+    <cfRule type="expression" dxfId="573" priority="614">
       <formula>$AD12="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="562" priority="615">
+    <cfRule type="expression" dxfId="572" priority="615">
       <formula>$AD12="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="561" priority="616">
+    <cfRule type="expression" dxfId="571" priority="616">
       <formula>$AD12="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="560" priority="617">
+    <cfRule type="expression" dxfId="570" priority="617">
       <formula>$AD12="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="559" priority="618">
+    <cfRule type="expression" dxfId="569" priority="618">
       <formula>$AD12="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="558" priority="619">
+    <cfRule type="expression" dxfId="568" priority="619">
       <formula>$AD12="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="557" priority="620">
+    <cfRule type="expression" dxfId="567" priority="620">
       <formula>$AD12="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="556" priority="621">
+    <cfRule type="expression" dxfId="566" priority="621">
       <formula>$AD12="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="555" priority="622">
+    <cfRule type="expression" dxfId="565" priority="622">
       <formula>$AD12="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="554" priority="623">
+    <cfRule type="expression" dxfId="564" priority="623">
       <formula>$AD12="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="553" priority="624">
+    <cfRule type="expression" dxfId="563" priority="624">
       <formula>$AD12="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="552" priority="625">
+    <cfRule type="expression" dxfId="562" priority="625">
       <formula>$AD12="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="551" priority="626">
+    <cfRule type="expression" dxfId="561" priority="626">
       <formula>$AD12="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="550" priority="627">
+    <cfRule type="expression" dxfId="560" priority="627">
       <formula>$AD12="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="549" priority="628">
+    <cfRule type="expression" dxfId="559" priority="628">
       <formula>$AD12="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="548" priority="629">
+    <cfRule type="expression" dxfId="558" priority="629">
       <formula>$AD12="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="547" priority="630">
+    <cfRule type="expression" dxfId="557" priority="630">
       <formula>$AD12="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="546" priority="631">
+    <cfRule type="expression" dxfId="556" priority="631">
       <formula>$AD12="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="545" priority="632">
+    <cfRule type="expression" dxfId="555" priority="632">
       <formula>$AD12="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="544" priority="633">
+    <cfRule type="expression" dxfId="554" priority="633">
       <formula>$AD12="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="543" priority="634">
+    <cfRule type="expression" dxfId="553" priority="634">
       <formula>$AD12="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="542" priority="635">
+    <cfRule type="expression" dxfId="552" priority="635">
       <formula>$AD12="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="541" priority="636">
+    <cfRule type="expression" dxfId="551" priority="636">
       <formula>$AD12="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="540" priority="637">
+    <cfRule type="expression" dxfId="550" priority="637">
       <formula>$AD12="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="539" priority="638">
+    <cfRule type="expression" dxfId="549" priority="638">
       <formula>$AD12="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="538" priority="639">
+    <cfRule type="expression" dxfId="548" priority="639">
       <formula>$AD12="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="537" priority="640">
+    <cfRule type="expression" dxfId="547" priority="640">
       <formula>$AD12="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="536" priority="641">
+    <cfRule type="expression" dxfId="546" priority="641">
       <formula>$AD12="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="535" priority="642">
+    <cfRule type="expression" dxfId="545" priority="642">
       <formula>$AD12="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="534" priority="643">
+    <cfRule type="expression" dxfId="544" priority="643">
       <formula>$AD12="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="533" priority="644">
+    <cfRule type="expression" dxfId="543" priority="644">
       <formula>$AD12="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N41:N48 N53:N56">
-    <cfRule type="expression" dxfId="532" priority="571">
+    <cfRule type="expression" dxfId="542" priority="571">
       <formula>$AD41="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="531" priority="572">
+    <cfRule type="expression" dxfId="541" priority="572">
       <formula>$AD41="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="530" priority="573">
+    <cfRule type="expression" dxfId="540" priority="573">
       <formula>$AD41="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="529" priority="574">
+    <cfRule type="expression" dxfId="539" priority="574">
       <formula>$AD41="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="528" priority="575">
+    <cfRule type="expression" dxfId="538" priority="575">
       <formula>$AD41="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="527" priority="576">
+    <cfRule type="expression" dxfId="537" priority="576">
       <formula>$AD41="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="526" priority="577">
+    <cfRule type="expression" dxfId="536" priority="577">
       <formula>$AD41="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="525" priority="578">
+    <cfRule type="expression" dxfId="535" priority="578">
       <formula>$AD41="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="524" priority="579">
+    <cfRule type="expression" dxfId="534" priority="579">
       <formula>$AD41="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="523" priority="580">
+    <cfRule type="expression" dxfId="533" priority="580">
       <formula>$AD41="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="522" priority="581">
+    <cfRule type="expression" dxfId="532" priority="581">
       <formula>$AD41="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="521" priority="582">
+    <cfRule type="expression" dxfId="531" priority="582">
       <formula>$AD41="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="520" priority="583">
+    <cfRule type="expression" dxfId="530" priority="583">
       <formula>$AD41="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="519" priority="584">
+    <cfRule type="expression" dxfId="529" priority="584">
       <formula>$AD41="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="518" priority="585">
+    <cfRule type="expression" dxfId="528" priority="585">
       <formula>$AD41="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="517" priority="586">
+    <cfRule type="expression" dxfId="527" priority="586">
       <formula>$AD41="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="516" priority="587">
+    <cfRule type="expression" dxfId="526" priority="587">
       <formula>$AD41="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="515" priority="588">
+    <cfRule type="expression" dxfId="525" priority="588">
       <formula>$AD41="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="514" priority="589">
+    <cfRule type="expression" dxfId="524" priority="589">
       <formula>$AD41="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="513" priority="590">
+    <cfRule type="expression" dxfId="523" priority="590">
       <formula>$AD41="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="512" priority="591">
+    <cfRule type="expression" dxfId="522" priority="591">
       <formula>$AD41="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="511" priority="592">
+    <cfRule type="expression" dxfId="521" priority="592">
       <formula>$AD41="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="510" priority="593">
+    <cfRule type="expression" dxfId="520" priority="593">
       <formula>$AD41="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="509" priority="594">
+    <cfRule type="expression" dxfId="519" priority="594">
       <formula>$AD41="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="508" priority="595">
+    <cfRule type="expression" dxfId="518" priority="595">
       <formula>$AD41="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="507" priority="596">
+    <cfRule type="expression" dxfId="517" priority="596">
       <formula>$AD41="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="506" priority="597">
+    <cfRule type="expression" dxfId="516" priority="597">
       <formula>$AD41="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="505" priority="598">
+    <cfRule type="expression" dxfId="515" priority="598">
       <formula>$AD41="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="504" priority="599">
+    <cfRule type="expression" dxfId="514" priority="599">
       <formula>$AD41="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="503" priority="600">
+    <cfRule type="expression" dxfId="513" priority="600">
       <formula>$AD41="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="502" priority="601">
+    <cfRule type="expression" dxfId="512" priority="601">
       <formula>$AD41="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="501" priority="602">
+    <cfRule type="expression" dxfId="511" priority="602">
       <formula>$AD41="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="500" priority="603">
+    <cfRule type="expression" dxfId="510" priority="603">
       <formula>$AD41="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="499" priority="604">
+    <cfRule type="expression" dxfId="509" priority="604">
       <formula>$AD41="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="498" priority="605">
+    <cfRule type="expression" dxfId="508" priority="605">
       <formula>$AD41="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="497" priority="606">
+    <cfRule type="expression" dxfId="507" priority="606">
       <formula>$AD41="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="496" priority="607">
+    <cfRule type="expression" dxfId="506" priority="607">
       <formula>$AD41="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N60:N62">
-    <cfRule type="expression" dxfId="495" priority="497">
+    <cfRule type="expression" dxfId="505" priority="497">
       <formula>$AE60="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="494" priority="498">
+    <cfRule type="expression" dxfId="504" priority="498">
       <formula>$AE60="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="493" priority="499">
+    <cfRule type="expression" dxfId="503" priority="499">
       <formula>$AE60="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="492" priority="500">
+    <cfRule type="expression" dxfId="502" priority="500">
       <formula>$AE60="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="491" priority="501">
+    <cfRule type="expression" dxfId="501" priority="501">
       <formula>$AE60="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="490" priority="502">
+    <cfRule type="expression" dxfId="500" priority="502">
       <formula>$AE60="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="489" priority="503">
+    <cfRule type="expression" dxfId="499" priority="503">
       <formula>$AE60="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="488" priority="504">
+    <cfRule type="expression" dxfId="498" priority="504">
       <formula>$AE60="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="487" priority="505">
+    <cfRule type="expression" dxfId="497" priority="505">
       <formula>$AE60="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="486" priority="506">
+    <cfRule type="expression" dxfId="496" priority="506">
       <formula>$AE60="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="485" priority="507">
+    <cfRule type="expression" dxfId="495" priority="507">
       <formula>$AE60="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="484" priority="508">
+    <cfRule type="expression" dxfId="494" priority="508">
       <formula>$AE60="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="483" priority="509">
+    <cfRule type="expression" dxfId="493" priority="509">
       <formula>$AE60="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="482" priority="510">
+    <cfRule type="expression" dxfId="492" priority="510">
       <formula>$AE60="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="481" priority="511">
+    <cfRule type="expression" dxfId="491" priority="511">
       <formula>$AE60="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="480" priority="512">
+    <cfRule type="expression" dxfId="490" priority="512">
       <formula>$AE60="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="479" priority="513">
+    <cfRule type="expression" dxfId="489" priority="513">
       <formula>$AE60="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="478" priority="514">
+    <cfRule type="expression" dxfId="488" priority="514">
       <formula>$AE60="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="477" priority="515">
+    <cfRule type="expression" dxfId="487" priority="515">
       <formula>$AE60="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="476" priority="516">
+    <cfRule type="expression" dxfId="486" priority="516">
       <formula>$AE60="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="475" priority="517">
+    <cfRule type="expression" dxfId="485" priority="517">
       <formula>$AE60="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="474" priority="518">
+    <cfRule type="expression" dxfId="484" priority="518">
       <formula>$AE60="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="473" priority="519">
+    <cfRule type="expression" dxfId="483" priority="519">
       <formula>$AE60="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="472" priority="520">
+    <cfRule type="expression" dxfId="482" priority="520">
       <formula>$AE60="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="471" priority="521">
+    <cfRule type="expression" dxfId="481" priority="521">
       <formula>$AE60="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="470" priority="522">
+    <cfRule type="expression" dxfId="480" priority="522">
       <formula>$AE60="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="469" priority="523">
+    <cfRule type="expression" dxfId="479" priority="523">
       <formula>$AE60="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="468" priority="524">
+    <cfRule type="expression" dxfId="478" priority="524">
       <formula>$AE60="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="467" priority="525">
+    <cfRule type="expression" dxfId="477" priority="525">
       <formula>$AE60="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="466" priority="526">
+    <cfRule type="expression" dxfId="476" priority="526">
       <formula>$AE60="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="465" priority="527">
+    <cfRule type="expression" dxfId="475" priority="527">
       <formula>$AE60="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="464" priority="528">
+    <cfRule type="expression" dxfId="474" priority="528">
       <formula>$AE60="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="463" priority="529">
+    <cfRule type="expression" dxfId="473" priority="529">
       <formula>$AE60="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="462" priority="530">
+    <cfRule type="expression" dxfId="472" priority="530">
       <formula>$AE60="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="461" priority="531">
+    <cfRule type="expression" dxfId="471" priority="531">
       <formula>$AE60="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="460" priority="532">
+    <cfRule type="expression" dxfId="470" priority="532">
       <formula>$AE60="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="459" priority="533">
+    <cfRule type="expression" dxfId="469" priority="533">
       <formula>$AE60="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N89:N91">
-    <cfRule type="expression" dxfId="458" priority="460">
+    <cfRule type="expression" dxfId="468" priority="460">
       <formula>$AD89="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="457" priority="461">
+    <cfRule type="expression" dxfId="467" priority="461">
       <formula>$AD89="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="456" priority="462">
+    <cfRule type="expression" dxfId="466" priority="462">
       <formula>$AD89="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="455" priority="463">
+    <cfRule type="expression" dxfId="465" priority="463">
       <formula>$AD89="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="454" priority="464">
+    <cfRule type="expression" dxfId="464" priority="464">
       <formula>$AD89="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="453" priority="465">
+    <cfRule type="expression" dxfId="463" priority="465">
       <formula>$AD89="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="452" priority="466">
+    <cfRule type="expression" dxfId="462" priority="466">
       <formula>$AD89="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="451" priority="467">
+    <cfRule type="expression" dxfId="461" priority="467">
       <formula>$AD89="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="450" priority="468">
+    <cfRule type="expression" dxfId="460" priority="468">
       <formula>$AD89="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="449" priority="469">
+    <cfRule type="expression" dxfId="459" priority="469">
       <formula>$AD89="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="448" priority="470">
+    <cfRule type="expression" dxfId="458" priority="470">
       <formula>$AD89="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="447" priority="471">
+    <cfRule type="expression" dxfId="457" priority="471">
       <formula>$AD89="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="446" priority="472">
+    <cfRule type="expression" dxfId="456" priority="472">
       <formula>$AD89="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="445" priority="473">
+    <cfRule type="expression" dxfId="455" priority="473">
       <formula>$AD89="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="444" priority="474">
+    <cfRule type="expression" dxfId="454" priority="474">
       <formula>$AD89="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="443" priority="475">
+    <cfRule type="expression" dxfId="453" priority="475">
       <formula>$AD89="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="442" priority="476">
+    <cfRule type="expression" dxfId="452" priority="476">
       <formula>$AD89="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="441" priority="477">
+    <cfRule type="expression" dxfId="451" priority="477">
       <formula>$AD89="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="440" priority="478">
+    <cfRule type="expression" dxfId="450" priority="478">
       <formula>$AD89="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="439" priority="479">
+    <cfRule type="expression" dxfId="449" priority="479">
       <formula>$AD89="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="438" priority="480">
+    <cfRule type="expression" dxfId="448" priority="480">
       <formula>$AD89="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="437" priority="481">
+    <cfRule type="expression" dxfId="447" priority="481">
       <formula>$AD89="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="436" priority="482">
+    <cfRule type="expression" dxfId="446" priority="482">
       <formula>$AD89="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="435" priority="483">
+    <cfRule type="expression" dxfId="445" priority="483">
       <formula>$AD89="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="434" priority="484">
+    <cfRule type="expression" dxfId="444" priority="484">
       <formula>$AD89="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="433" priority="485">
+    <cfRule type="expression" dxfId="443" priority="485">
       <formula>$AD89="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="432" priority="486">
+    <cfRule type="expression" dxfId="442" priority="486">
       <formula>$AD89="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="431" priority="487">
+    <cfRule type="expression" dxfId="441" priority="487">
       <formula>$AD89="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="430" priority="488">
+    <cfRule type="expression" dxfId="440" priority="488">
       <formula>$AD89="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="429" priority="489">
+    <cfRule type="expression" dxfId="439" priority="489">
       <formula>$AD89="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="428" priority="490">
+    <cfRule type="expression" dxfId="438" priority="490">
       <formula>$AD89="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="427" priority="491">
+    <cfRule type="expression" dxfId="437" priority="491">
       <formula>$AD89="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="426" priority="492">
+    <cfRule type="expression" dxfId="436" priority="492">
       <formula>$AD89="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="425" priority="493">
+    <cfRule type="expression" dxfId="435" priority="493">
       <formula>$AD89="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="424" priority="494">
+    <cfRule type="expression" dxfId="434" priority="494">
       <formula>$AD89="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="423" priority="495">
+    <cfRule type="expression" dxfId="433" priority="495">
       <formula>$AD89="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="422" priority="496">
+    <cfRule type="expression" dxfId="432" priority="496">
       <formula>$AD89="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N92:N94">
-    <cfRule type="expression" dxfId="421" priority="423">
+    <cfRule type="expression" dxfId="431" priority="423">
       <formula>$AD92="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="420" priority="424">
+    <cfRule type="expression" dxfId="430" priority="424">
       <formula>$AD92="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="419" priority="425">
+    <cfRule type="expression" dxfId="429" priority="425">
       <formula>$AD92="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="418" priority="426">
+    <cfRule type="expression" dxfId="428" priority="426">
       <formula>$AD92="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="417" priority="427">
+    <cfRule type="expression" dxfId="427" priority="427">
       <formula>$AD92="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="416" priority="428">
+    <cfRule type="expression" dxfId="426" priority="428">
       <formula>$AD92="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="415" priority="429">
+    <cfRule type="expression" dxfId="425" priority="429">
       <formula>$AD92="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="414" priority="430">
+    <cfRule type="expression" dxfId="424" priority="430">
       <formula>$AD92="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="413" priority="431">
+    <cfRule type="expression" dxfId="423" priority="431">
       <formula>$AD92="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="412" priority="432">
+    <cfRule type="expression" dxfId="422" priority="432">
       <formula>$AD92="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="411" priority="433">
+    <cfRule type="expression" dxfId="421" priority="433">
       <formula>$AD92="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="410" priority="434">
+    <cfRule type="expression" dxfId="420" priority="434">
       <formula>$AD92="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="409" priority="435">
+    <cfRule type="expression" dxfId="419" priority="435">
       <formula>$AD92="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="408" priority="436">
+    <cfRule type="expression" dxfId="418" priority="436">
       <formula>$AD92="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="407" priority="437">
+    <cfRule type="expression" dxfId="417" priority="437">
       <formula>$AD92="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="406" priority="438">
+    <cfRule type="expression" dxfId="416" priority="438">
       <formula>$AD92="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="405" priority="439">
+    <cfRule type="expression" dxfId="415" priority="439">
       <formula>$AD92="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="404" priority="440">
+    <cfRule type="expression" dxfId="414" priority="440">
       <formula>$AD92="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="403" priority="441">
+    <cfRule type="expression" dxfId="413" priority="441">
       <formula>$AD92="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="402" priority="442">
+    <cfRule type="expression" dxfId="412" priority="442">
       <formula>$AD92="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="401" priority="443">
+    <cfRule type="expression" dxfId="411" priority="443">
       <formula>$AD92="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="400" priority="444">
+    <cfRule type="expression" dxfId="410" priority="444">
       <formula>$AD92="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="399" priority="445">
+    <cfRule type="expression" dxfId="409" priority="445">
       <formula>$AD92="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="398" priority="446">
+    <cfRule type="expression" dxfId="408" priority="446">
       <formula>$AD92="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="397" priority="447">
+    <cfRule type="expression" dxfId="407" priority="447">
       <formula>$AD92="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="396" priority="448">
+    <cfRule type="expression" dxfId="406" priority="448">
       <formula>$AD92="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="395" priority="449">
+    <cfRule type="expression" dxfId="405" priority="449">
       <formula>$AD92="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="394" priority="450">
+    <cfRule type="expression" dxfId="404" priority="450">
       <formula>$AD92="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="393" priority="451">
+    <cfRule type="expression" dxfId="403" priority="451">
       <formula>$AD92="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="392" priority="452">
+    <cfRule type="expression" dxfId="402" priority="452">
       <formula>$AD92="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="391" priority="453">
+    <cfRule type="expression" dxfId="401" priority="453">
       <formula>$AD92="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="390" priority="454">
+    <cfRule type="expression" dxfId="400" priority="454">
       <formula>$AD92="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="389" priority="455">
+    <cfRule type="expression" dxfId="399" priority="455">
       <formula>$AD92="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="388" priority="456">
+    <cfRule type="expression" dxfId="398" priority="456">
       <formula>$AD92="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="387" priority="457">
+    <cfRule type="expression" dxfId="397" priority="457">
       <formula>$AD92="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="386" priority="458">
+    <cfRule type="expression" dxfId="396" priority="458">
       <formula>$AD92="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="385" priority="459">
+    <cfRule type="expression" dxfId="395" priority="459">
       <formula>$AD92="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M48">
-    <cfRule type="expression" dxfId="384" priority="386">
+    <cfRule type="expression" dxfId="394" priority="386">
       <formula>#REF!="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="383" priority="387">
+    <cfRule type="expression" dxfId="393" priority="387">
       <formula>#REF!="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="382" priority="388">
+    <cfRule type="expression" dxfId="392" priority="388">
       <formula>#REF!="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="381" priority="389">
+    <cfRule type="expression" dxfId="391" priority="389">
       <formula>#REF!="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="380" priority="390">
+    <cfRule type="expression" dxfId="390" priority="390">
       <formula>#REF!="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="379" priority="391">
+    <cfRule type="expression" dxfId="389" priority="391">
       <formula>#REF!="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="378" priority="392">
+    <cfRule type="expression" dxfId="388" priority="392">
       <formula>#REF!="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="377" priority="393">
+    <cfRule type="expression" dxfId="387" priority="393">
       <formula>#REF!="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="376" priority="394">
+    <cfRule type="expression" dxfId="386" priority="394">
       <formula>#REF!="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="375" priority="395">
+    <cfRule type="expression" dxfId="385" priority="395">
       <formula>#REF!="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="374" priority="396">
+    <cfRule type="expression" dxfId="384" priority="396">
       <formula>#REF!="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="373" priority="397">
+    <cfRule type="expression" dxfId="383" priority="397">
       <formula>#REF!="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="372" priority="398">
+    <cfRule type="expression" dxfId="382" priority="398">
       <formula>#REF!="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="371" priority="399">
+    <cfRule type="expression" dxfId="381" priority="399">
       <formula>#REF!="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="370" priority="400">
+    <cfRule type="expression" dxfId="380" priority="400">
       <formula>#REF!="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="369" priority="401">
+    <cfRule type="expression" dxfId="379" priority="401">
       <formula>#REF!="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="368" priority="402">
+    <cfRule type="expression" dxfId="378" priority="402">
       <formula>#REF!="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="367" priority="403">
+    <cfRule type="expression" dxfId="377" priority="403">
       <formula>#REF!="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="366" priority="404">
+    <cfRule type="expression" dxfId="376" priority="404">
       <formula>#REF!="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="365" priority="405">
+    <cfRule type="expression" dxfId="375" priority="405">
       <formula>#REF!="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="364" priority="406">
+    <cfRule type="expression" dxfId="374" priority="406">
       <formula>#REF!="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="363" priority="407">
+    <cfRule type="expression" dxfId="373" priority="407">
       <formula>#REF!="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="362" priority="408">
+    <cfRule type="expression" dxfId="372" priority="408">
       <formula>#REF!="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="361" priority="409">
+    <cfRule type="expression" dxfId="371" priority="409">
       <formula>#REF!="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="360" priority="410">
+    <cfRule type="expression" dxfId="370" priority="410">
       <formula>#REF!="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="359" priority="411">
+    <cfRule type="expression" dxfId="369" priority="411">
       <formula>#REF!="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="358" priority="412">
+    <cfRule type="expression" dxfId="368" priority="412">
       <formula>#REF!="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="357" priority="413">
+    <cfRule type="expression" dxfId="367" priority="413">
       <formula>#REF!="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="356" priority="414">
+    <cfRule type="expression" dxfId="366" priority="414">
       <formula>#REF!="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="355" priority="415">
+    <cfRule type="expression" dxfId="365" priority="415">
       <formula>#REF!="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="354" priority="416">
+    <cfRule type="expression" dxfId="364" priority="416">
       <formula>#REF!="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="353" priority="417">
+    <cfRule type="expression" dxfId="363" priority="417">
       <formula>#REF!="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="352" priority="418">
+    <cfRule type="expression" dxfId="362" priority="418">
       <formula>#REF!="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="351" priority="419">
+    <cfRule type="expression" dxfId="361" priority="419">
       <formula>#REF!="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="350" priority="420">
+    <cfRule type="expression" dxfId="360" priority="420">
       <formula>#REF!="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="349" priority="421">
+    <cfRule type="expression" dxfId="359" priority="421">
       <formula>#REF!="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="348" priority="422">
+    <cfRule type="expression" dxfId="358" priority="422">
       <formula>#REF!="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L48">
-    <cfRule type="expression" dxfId="347" priority="349">
+    <cfRule type="expression" dxfId="357" priority="349">
       <formula>#REF!="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="346" priority="350">
+    <cfRule type="expression" dxfId="356" priority="350">
       <formula>#REF!="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="345" priority="351">
+    <cfRule type="expression" dxfId="355" priority="351">
       <formula>#REF!="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="344" priority="352">
+    <cfRule type="expression" dxfId="354" priority="352">
       <formula>#REF!="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="343" priority="353">
+    <cfRule type="expression" dxfId="353" priority="353">
       <formula>#REF!="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="342" priority="354">
+    <cfRule type="expression" dxfId="352" priority="354">
       <formula>#REF!="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="341" priority="355">
+    <cfRule type="expression" dxfId="351" priority="355">
       <formula>#REF!="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="340" priority="356">
+    <cfRule type="expression" dxfId="350" priority="356">
       <formula>#REF!="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="339" priority="357">
+    <cfRule type="expression" dxfId="349" priority="357">
       <formula>#REF!="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="338" priority="358">
+    <cfRule type="expression" dxfId="348" priority="358">
       <formula>#REF!="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="337" priority="359">
+    <cfRule type="expression" dxfId="347" priority="359">
       <formula>#REF!="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="336" priority="360">
+    <cfRule type="expression" dxfId="346" priority="360">
       <formula>#REF!="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="335" priority="361">
+    <cfRule type="expression" dxfId="345" priority="361">
       <formula>#REF!="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="334" priority="362">
+    <cfRule type="expression" dxfId="344" priority="362">
       <formula>#REF!="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="333" priority="363">
+    <cfRule type="expression" dxfId="343" priority="363">
       <formula>#REF!="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="332" priority="364">
+    <cfRule type="expression" dxfId="342" priority="364">
       <formula>#REF!="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="331" priority="365">
+    <cfRule type="expression" dxfId="341" priority="365">
       <formula>#REF!="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="330" priority="366">
+    <cfRule type="expression" dxfId="340" priority="366">
       <formula>#REF!="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="329" priority="367">
+    <cfRule type="expression" dxfId="339" priority="367">
       <formula>#REF!="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="328" priority="368">
+    <cfRule type="expression" dxfId="338" priority="368">
       <formula>#REF!="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="327" priority="369">
+    <cfRule type="expression" dxfId="337" priority="369">
       <formula>#REF!="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="326" priority="370">
+    <cfRule type="expression" dxfId="336" priority="370">
       <formula>#REF!="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="325" priority="371">
+    <cfRule type="expression" dxfId="335" priority="371">
       <formula>#REF!="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="324" priority="372">
+    <cfRule type="expression" dxfId="334" priority="372">
       <formula>#REF!="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="323" priority="373">
+    <cfRule type="expression" dxfId="333" priority="373">
       <formula>#REF!="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="322" priority="374">
+    <cfRule type="expression" dxfId="332" priority="374">
       <formula>#REF!="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="321" priority="375">
+    <cfRule type="expression" dxfId="331" priority="375">
       <formula>#REF!="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="320" priority="376">
+    <cfRule type="expression" dxfId="330" priority="376">
       <formula>#REF!="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="319" priority="377">
+    <cfRule type="expression" dxfId="329" priority="377">
       <formula>#REF!="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="318" priority="378">
+    <cfRule type="expression" dxfId="328" priority="378">
       <formula>#REF!="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="317" priority="379">
+    <cfRule type="expression" dxfId="327" priority="379">
       <formula>#REF!="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="316" priority="380">
+    <cfRule type="expression" dxfId="326" priority="380">
       <formula>#REF!="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="315" priority="381">
+    <cfRule type="expression" dxfId="325" priority="381">
       <formula>#REF!="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="314" priority="382">
+    <cfRule type="expression" dxfId="324" priority="382">
       <formula>#REF!="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="313" priority="383">
+    <cfRule type="expression" dxfId="323" priority="383">
       <formula>#REF!="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="312" priority="384">
+    <cfRule type="expression" dxfId="322" priority="384">
       <formula>#REF!="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="311" priority="385">
+    <cfRule type="expression" dxfId="321" priority="385">
       <formula>#REF!="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11:K94">
-    <cfRule type="containsText" dxfId="310" priority="113" operator="containsText" text="cambiado">
+  <conditionalFormatting sqref="K11:K96">
+    <cfRule type="containsText" dxfId="320" priority="113" operator="containsText" text="cambiado">
       <formula>NOT(ISERROR(SEARCH("cambiado",K11)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="114" operator="equal">
       <formula>"revisar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="308" priority="347" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="347" operator="equal">
       <formula>"pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="307" priority="348" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="348" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69:E71 E75:E94 E11:E65">
-    <cfRule type="cellIs" dxfId="306" priority="344" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="344" operator="equal">
       <formula>"pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="305" priority="345" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="345" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="346" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="346" operator="equal">
       <formula>"en proceso"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L62:M62">
-    <cfRule type="expression" dxfId="303" priority="233">
+    <cfRule type="expression" dxfId="313" priority="233">
       <formula>$AA62="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="302" priority="234">
+    <cfRule type="expression" dxfId="312" priority="234">
       <formula>$AA62="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="301" priority="235">
+    <cfRule type="expression" dxfId="311" priority="235">
       <formula>$AA62="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="300" priority="236">
+    <cfRule type="expression" dxfId="310" priority="236">
       <formula>$AA62="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="299" priority="237">
+    <cfRule type="expression" dxfId="309" priority="237">
       <formula>$AA62="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="298" priority="238">
+    <cfRule type="expression" dxfId="308" priority="238">
       <formula>$AA62="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="297" priority="239">
+    <cfRule type="expression" dxfId="307" priority="239">
       <formula>$AA62="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="296" priority="240">
+    <cfRule type="expression" dxfId="306" priority="240">
       <formula>$AA62="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="295" priority="241">
+    <cfRule type="expression" dxfId="305" priority="241">
       <formula>$AA62="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="294" priority="242">
+    <cfRule type="expression" dxfId="304" priority="242">
       <formula>$AA62="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="293" priority="243">
+    <cfRule type="expression" dxfId="303" priority="243">
       <formula>$AA62="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="292" priority="244">
+    <cfRule type="expression" dxfId="302" priority="244">
       <formula>$AA62="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="291" priority="245">
+    <cfRule type="expression" dxfId="301" priority="245">
       <formula>$AA62="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="290" priority="246">
+    <cfRule type="expression" dxfId="300" priority="246">
       <formula>$AA62="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="289" priority="247">
+    <cfRule type="expression" dxfId="299" priority="247">
       <formula>$AA62="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="288" priority="248">
+    <cfRule type="expression" dxfId="298" priority="248">
       <formula>$AA62="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="287" priority="249">
+    <cfRule type="expression" dxfId="297" priority="249">
       <formula>$AA62="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="286" priority="250">
+    <cfRule type="expression" dxfId="296" priority="250">
       <formula>$AA62="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="285" priority="251">
+    <cfRule type="expression" dxfId="295" priority="251">
       <formula>$AA62="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="284" priority="252">
+    <cfRule type="expression" dxfId="294" priority="252">
       <formula>$AA62="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="283" priority="253">
+    <cfRule type="expression" dxfId="293" priority="253">
       <formula>$AA62="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="282" priority="254">
+    <cfRule type="expression" dxfId="292" priority="254">
       <formula>$AA62="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="281" priority="255">
+    <cfRule type="expression" dxfId="291" priority="255">
       <formula>$AA62="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="280" priority="256">
+    <cfRule type="expression" dxfId="290" priority="256">
       <formula>$AA62="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="279" priority="257">
+    <cfRule type="expression" dxfId="289" priority="257">
       <formula>$AA62="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="278" priority="258">
+    <cfRule type="expression" dxfId="288" priority="258">
       <formula>$AA62="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="277" priority="259">
+    <cfRule type="expression" dxfId="287" priority="259">
       <formula>$AA62="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="276" priority="260">
+    <cfRule type="expression" dxfId="286" priority="260">
       <formula>$AA62="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="275" priority="261">
+    <cfRule type="expression" dxfId="285" priority="261">
       <formula>$AA62="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="274" priority="262">
+    <cfRule type="expression" dxfId="284" priority="262">
       <formula>$AA62="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="273" priority="263">
+    <cfRule type="expression" dxfId="283" priority="263">
       <formula>$AA62="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="272" priority="264">
+    <cfRule type="expression" dxfId="282" priority="264">
       <formula>$AA62="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="271" priority="265">
+    <cfRule type="expression" dxfId="281" priority="265">
       <formula>$AA62="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="266">
+    <cfRule type="expression" dxfId="280" priority="266">
       <formula>$AA62="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="269" priority="267">
+    <cfRule type="expression" dxfId="279" priority="267">
       <formula>$AA62="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="268" priority="268">
+    <cfRule type="expression" dxfId="278" priority="268">
       <formula>$AA62="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="267" priority="269">
+    <cfRule type="expression" dxfId="277" priority="269">
       <formula>$AA62="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L60:M60">
-    <cfRule type="expression" dxfId="266" priority="270">
+    <cfRule type="expression" dxfId="276" priority="270">
       <formula>$AA62="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="265" priority="271">
+    <cfRule type="expression" dxfId="275" priority="271">
       <formula>$AA62="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="264" priority="272">
+    <cfRule type="expression" dxfId="274" priority="272">
       <formula>$AA62="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="263" priority="273">
+    <cfRule type="expression" dxfId="273" priority="273">
       <formula>$AA62="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="274">
+    <cfRule type="expression" dxfId="272" priority="274">
       <formula>$AA62="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="261" priority="275">
+    <cfRule type="expression" dxfId="271" priority="275">
       <formula>$AA62="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="260" priority="276">
+    <cfRule type="expression" dxfId="270" priority="276">
       <formula>$AA62="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="259" priority="277">
+    <cfRule type="expression" dxfId="269" priority="277">
       <formula>$AA62="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="278">
+    <cfRule type="expression" dxfId="268" priority="278">
       <formula>$AA62="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="257" priority="279">
+    <cfRule type="expression" dxfId="267" priority="279">
       <formula>$AA62="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="256" priority="280">
+    <cfRule type="expression" dxfId="266" priority="280">
       <formula>$AA62="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="255" priority="281">
+    <cfRule type="expression" dxfId="265" priority="281">
       <formula>$AA62="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="254" priority="282">
+    <cfRule type="expression" dxfId="264" priority="282">
       <formula>$AA62="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="253" priority="283">
+    <cfRule type="expression" dxfId="263" priority="283">
       <formula>$AA62="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="252" priority="284">
+    <cfRule type="expression" dxfId="262" priority="284">
       <formula>$AA62="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="251" priority="285">
+    <cfRule type="expression" dxfId="261" priority="285">
       <formula>$AA62="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="286">
+    <cfRule type="expression" dxfId="260" priority="286">
       <formula>$AA62="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="249" priority="287">
+    <cfRule type="expression" dxfId="259" priority="287">
       <formula>$AA62="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="248" priority="288">
+    <cfRule type="expression" dxfId="258" priority="288">
       <formula>$AA62="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="247" priority="289">
+    <cfRule type="expression" dxfId="257" priority="289">
       <formula>$AA62="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="290">
+    <cfRule type="expression" dxfId="256" priority="290">
       <formula>$AA62="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="245" priority="291">
+    <cfRule type="expression" dxfId="255" priority="291">
       <formula>$AA62="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="292">
+    <cfRule type="expression" dxfId="254" priority="292">
       <formula>$AA62="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="243" priority="293">
+    <cfRule type="expression" dxfId="253" priority="293">
       <formula>$AA62="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="242" priority="294">
+    <cfRule type="expression" dxfId="252" priority="294">
       <formula>$AA62="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="241" priority="295">
+    <cfRule type="expression" dxfId="251" priority="295">
       <formula>$AA62="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="240" priority="296">
+    <cfRule type="expression" dxfId="250" priority="296">
       <formula>$AA62="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="239" priority="297">
+    <cfRule type="expression" dxfId="249" priority="297">
       <formula>$AA62="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="298">
+    <cfRule type="expression" dxfId="248" priority="298">
       <formula>$AA62="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="237" priority="299">
+    <cfRule type="expression" dxfId="247" priority="299">
       <formula>$AA62="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="236" priority="300">
+    <cfRule type="expression" dxfId="246" priority="300">
       <formula>$AA62="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="235" priority="301">
+    <cfRule type="expression" dxfId="245" priority="301">
       <formula>$AA62="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="234" priority="302">
+    <cfRule type="expression" dxfId="244" priority="302">
       <formula>$AA62="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="233" priority="303">
+    <cfRule type="expression" dxfId="243" priority="303">
       <formula>$AA62="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="232" priority="304">
+    <cfRule type="expression" dxfId="242" priority="304">
       <formula>$AA62="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="231" priority="305">
+    <cfRule type="expression" dxfId="241" priority="305">
       <formula>$AA62="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="230" priority="306">
+    <cfRule type="expression" dxfId="240" priority="306">
       <formula>$AA62="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M60">
-    <cfRule type="expression" dxfId="229" priority="196">
+    <cfRule type="expression" dxfId="239" priority="196">
       <formula>$AA62="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="197">
+    <cfRule type="expression" dxfId="238" priority="197">
       <formula>$AA62="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="227" priority="198">
+    <cfRule type="expression" dxfId="237" priority="198">
       <formula>$AA62="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="199">
+    <cfRule type="expression" dxfId="236" priority="199">
       <formula>$AA62="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="200">
+    <cfRule type="expression" dxfId="235" priority="200">
       <formula>$AA62="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="224" priority="201">
+    <cfRule type="expression" dxfId="234" priority="201">
       <formula>$AA62="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="223" priority="202">
+    <cfRule type="expression" dxfId="233" priority="202">
       <formula>$AA62="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="203">
+    <cfRule type="expression" dxfId="232" priority="203">
       <formula>$AA62="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="221" priority="204">
+    <cfRule type="expression" dxfId="231" priority="204">
       <formula>$AA62="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="205">
+    <cfRule type="expression" dxfId="230" priority="205">
       <formula>$AA62="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="219" priority="206">
+    <cfRule type="expression" dxfId="229" priority="206">
       <formula>$AA62="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="218" priority="207">
+    <cfRule type="expression" dxfId="228" priority="207">
       <formula>$AA62="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="217" priority="208">
+    <cfRule type="expression" dxfId="227" priority="208">
       <formula>$AA62="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="209">
+    <cfRule type="expression" dxfId="226" priority="209">
       <formula>$AA62="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="215" priority="210">
+    <cfRule type="expression" dxfId="225" priority="210">
       <formula>$AA62="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="211">
+    <cfRule type="expression" dxfId="224" priority="211">
       <formula>$AA62="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="213" priority="212">
+    <cfRule type="expression" dxfId="223" priority="212">
       <formula>$AA62="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="212" priority="213">
+    <cfRule type="expression" dxfId="222" priority="213">
       <formula>$AA62="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="214">
+    <cfRule type="expression" dxfId="221" priority="214">
       <formula>$AA62="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="215">
+    <cfRule type="expression" dxfId="220" priority="215">
       <formula>$AA62="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="209" priority="216">
+    <cfRule type="expression" dxfId="219" priority="216">
       <formula>$AA62="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="217">
+    <cfRule type="expression" dxfId="218" priority="217">
       <formula>$AA62="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="218">
+    <cfRule type="expression" dxfId="217" priority="218">
       <formula>$AA62="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="206" priority="219">
+    <cfRule type="expression" dxfId="216" priority="219">
       <formula>$AA62="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="220">
+    <cfRule type="expression" dxfId="215" priority="220">
       <formula>$AA62="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="221">
+    <cfRule type="expression" dxfId="214" priority="221">
       <formula>$AA62="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="203" priority="222">
+    <cfRule type="expression" dxfId="213" priority="222">
       <formula>$AA62="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="223">
+    <cfRule type="expression" dxfId="212" priority="223">
       <formula>$AA62="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="224">
+    <cfRule type="expression" dxfId="211" priority="224">
       <formula>$AA62="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="200" priority="225">
+    <cfRule type="expression" dxfId="210" priority="225">
       <formula>$AA62="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="199" priority="226">
+    <cfRule type="expression" dxfId="209" priority="226">
       <formula>$AA62="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="227">
+    <cfRule type="expression" dxfId="208" priority="227">
       <formula>$AA62="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="197" priority="228">
+    <cfRule type="expression" dxfId="207" priority="228">
       <formula>$AA62="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="229">
+    <cfRule type="expression" dxfId="206" priority="229">
       <formula>$AA62="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="230">
+    <cfRule type="expression" dxfId="205" priority="230">
       <formula>$AA62="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="194" priority="231">
+    <cfRule type="expression" dxfId="204" priority="231">
       <formula>$AA62="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="232">
+    <cfRule type="expression" dxfId="203" priority="232">
       <formula>$AA62="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L61:M61">
-    <cfRule type="expression" dxfId="192" priority="1107">
+    <cfRule type="expression" dxfId="202" priority="1107">
       <formula>#REF!="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="191" priority="1108">
+    <cfRule type="expression" dxfId="201" priority="1108">
       <formula>#REF!="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="1109">
+    <cfRule type="expression" dxfId="200" priority="1109">
       <formula>#REF!="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="1110">
+    <cfRule type="expression" dxfId="199" priority="1110">
       <formula>#REF!="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="1111">
+    <cfRule type="expression" dxfId="198" priority="1111">
       <formula>#REF!="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="1112">
+    <cfRule type="expression" dxfId="197" priority="1112">
       <formula>#REF!="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="1113">
+    <cfRule type="expression" dxfId="196" priority="1113">
       <formula>#REF!="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="1114">
+    <cfRule type="expression" dxfId="195" priority="1114">
       <formula>#REF!="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="1115">
+    <cfRule type="expression" dxfId="194" priority="1115">
       <formula>#REF!="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="1116">
+    <cfRule type="expression" dxfId="193" priority="1116">
       <formula>#REF!="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="1117">
+    <cfRule type="expression" dxfId="192" priority="1117">
       <formula>#REF!="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="1118">
+    <cfRule type="expression" dxfId="191" priority="1118">
       <formula>#REF!="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="1119">
+    <cfRule type="expression" dxfId="190" priority="1119">
       <formula>#REF!="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="179" priority="1120">
+    <cfRule type="expression" dxfId="189" priority="1120">
       <formula>#REF!="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="1121">
+    <cfRule type="expression" dxfId="188" priority="1121">
       <formula>#REF!="Gráfico 24"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O60:O62">
-    <cfRule type="expression" dxfId="177" priority="159">
+    <cfRule type="expression" dxfId="187" priority="159">
       <formula>$AA60="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="176" priority="160">
+    <cfRule type="expression" dxfId="186" priority="160">
       <formula>$AA60="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="161">
+    <cfRule type="expression" dxfId="185" priority="161">
       <formula>$AA60="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="162">
+    <cfRule type="expression" dxfId="184" priority="162">
       <formula>$AA60="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="163">
+    <cfRule type="expression" dxfId="183" priority="163">
       <formula>$AA60="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="164">
+    <cfRule type="expression" dxfId="182" priority="164">
       <formula>$AA60="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="165">
+    <cfRule type="expression" dxfId="181" priority="165">
       <formula>$AA60="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="166">
+    <cfRule type="expression" dxfId="180" priority="166">
       <formula>$AA60="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="167">
+    <cfRule type="expression" dxfId="179" priority="167">
       <formula>$AA60="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="168">
+    <cfRule type="expression" dxfId="178" priority="168">
       <formula>$AA60="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="167" priority="169">
+    <cfRule type="expression" dxfId="177" priority="169">
       <formula>$AA60="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="170">
+    <cfRule type="expression" dxfId="176" priority="170">
       <formula>$AA60="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="171">
+    <cfRule type="expression" dxfId="175" priority="171">
       <formula>$AA60="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="172">
+    <cfRule type="expression" dxfId="174" priority="172">
       <formula>$AA60="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="173">
+    <cfRule type="expression" dxfId="173" priority="173">
       <formula>$AA60="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="174">
+    <cfRule type="expression" dxfId="172" priority="174">
       <formula>$AA60="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="175">
+    <cfRule type="expression" dxfId="171" priority="175">
       <formula>$AA60="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="176">
+    <cfRule type="expression" dxfId="170" priority="176">
       <formula>$AA60="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="177">
+    <cfRule type="expression" dxfId="169" priority="177">
       <formula>$AA60="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="178">
+    <cfRule type="expression" dxfId="168" priority="178">
       <formula>$AA60="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="179">
+    <cfRule type="expression" dxfId="167" priority="179">
       <formula>$AA60="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="180">
+    <cfRule type="expression" dxfId="166" priority="180">
       <formula>$AA60="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="181">
+    <cfRule type="expression" dxfId="165" priority="181">
       <formula>$AA60="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="182">
+    <cfRule type="expression" dxfId="164" priority="182">
       <formula>$AA60="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="183">
+    <cfRule type="expression" dxfId="163" priority="183">
       <formula>$AA60="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="184">
+    <cfRule type="expression" dxfId="162" priority="184">
       <formula>$AA60="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="185">
+    <cfRule type="expression" dxfId="161" priority="185">
       <formula>$AA60="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="186">
+    <cfRule type="expression" dxfId="160" priority="186">
       <formula>$AA60="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="187">
+    <cfRule type="expression" dxfId="159" priority="187">
       <formula>$AA60="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="188">
+    <cfRule type="expression" dxfId="158" priority="188">
       <formula>$AA60="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="189">
+    <cfRule type="expression" dxfId="157" priority="189">
       <formula>$AA60="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="190">
+    <cfRule type="expression" dxfId="156" priority="190">
       <formula>$AA60="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="191">
+    <cfRule type="expression" dxfId="155" priority="191">
       <formula>$AA60="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="192">
+    <cfRule type="expression" dxfId="154" priority="192">
       <formula>$AA60="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="143" priority="193">
+    <cfRule type="expression" dxfId="153" priority="193">
       <formula>$AA60="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="194">
+    <cfRule type="expression" dxfId="152" priority="194">
       <formula>$AA60="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="195">
+    <cfRule type="expression" dxfId="151" priority="195">
       <formula>$AA60="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66:E68">
-    <cfRule type="cellIs" dxfId="140" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="156" operator="equal">
       <formula>"pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="157" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="158" operator="equal">
       <formula>"en proceso"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72:E74">
-    <cfRule type="cellIs" dxfId="137" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="153" operator="equal">
       <formula>"pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="154" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="155" operator="equal">
       <formula>"en proceso"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L45:L47">
-    <cfRule type="expression" dxfId="134" priority="121" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="121" stopIfTrue="1">
       <formula>#REF!="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="125" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="125" stopIfTrue="1">
       <formula>#REF!="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="152">
+    <cfRule type="expression" dxfId="142" priority="152">
       <formula>#REF!="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O21:O32">
-    <cfRule type="expression" dxfId="131" priority="76">
+    <cfRule type="expression" dxfId="141" priority="76">
       <formula>$Y21="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="77">
+    <cfRule type="expression" dxfId="140" priority="77">
       <formula>$Y21="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="78">
+    <cfRule type="expression" dxfId="139" priority="78">
       <formula>$Y21="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="79">
+    <cfRule type="expression" dxfId="138" priority="79">
       <formula>$Y21="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="80">
+    <cfRule type="expression" dxfId="137" priority="80">
       <formula>$Y21="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="81">
+    <cfRule type="expression" dxfId="136" priority="81">
       <formula>$Y21="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="82">
+    <cfRule type="expression" dxfId="135" priority="82">
       <formula>$Y21="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="83">
+    <cfRule type="expression" dxfId="134" priority="83">
       <formula>$Y21="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="84">
+    <cfRule type="expression" dxfId="133" priority="84">
       <formula>$Y21="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="85">
+    <cfRule type="expression" dxfId="132" priority="85">
       <formula>$Y21="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="86">
+    <cfRule type="expression" dxfId="131" priority="86">
       <formula>$Y21="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="87">
+    <cfRule type="expression" dxfId="130" priority="87">
       <formula>$Y21="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="88">
+    <cfRule type="expression" dxfId="129" priority="88">
       <formula>$Y21="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="89">
+    <cfRule type="expression" dxfId="128" priority="89">
       <formula>$Y21="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="90">
+    <cfRule type="expression" dxfId="127" priority="90">
       <formula>$Y21="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="91">
+    <cfRule type="expression" dxfId="126" priority="91">
       <formula>$Y21="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="92">
+    <cfRule type="expression" dxfId="125" priority="92">
       <formula>$Y21="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="93">
+    <cfRule type="expression" dxfId="124" priority="93">
       <formula>$Y21="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="94">
+    <cfRule type="expression" dxfId="123" priority="94">
       <formula>$Y21="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="95">
+    <cfRule type="expression" dxfId="122" priority="95">
       <formula>$Y21="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="96">
+    <cfRule type="expression" dxfId="121" priority="96">
       <formula>$Y21="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="97">
+    <cfRule type="expression" dxfId="120" priority="97">
       <formula>$Y21="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="98">
+    <cfRule type="expression" dxfId="119" priority="98">
       <formula>$Y21="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="99">
+    <cfRule type="expression" dxfId="118" priority="99">
       <formula>$Y21="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="100">
+    <cfRule type="expression" dxfId="117" priority="100">
       <formula>$Y21="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="101">
+    <cfRule type="expression" dxfId="116" priority="101">
       <formula>$Y21="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="102">
+    <cfRule type="expression" dxfId="115" priority="102">
       <formula>$Y21="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="103">
+    <cfRule type="expression" dxfId="114" priority="103">
       <formula>$Y21="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="104">
+    <cfRule type="expression" dxfId="113" priority="104">
       <formula>$Y21="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="105">
+    <cfRule type="expression" dxfId="112" priority="105">
       <formula>$Y21="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="106">
+    <cfRule type="expression" dxfId="111" priority="106">
       <formula>$Y21="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="107">
+    <cfRule type="expression" dxfId="110" priority="107">
       <formula>$Y21="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="108">
+    <cfRule type="expression" dxfId="109" priority="108">
       <formula>$Y21="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="109">
+    <cfRule type="expression" dxfId="108" priority="109">
       <formula>$Y21="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="110">
+    <cfRule type="expression" dxfId="107" priority="110">
       <formula>$Y21="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="111">
+    <cfRule type="expression" dxfId="106" priority="111">
       <formula>$Y21="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="112">
+    <cfRule type="expression" dxfId="105" priority="112">
       <formula>$Y21="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O41:O44">
-    <cfRule type="expression" dxfId="94" priority="39">
+    <cfRule type="expression" dxfId="104" priority="39">
       <formula>$Z41="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="40">
+    <cfRule type="expression" dxfId="103" priority="40">
       <formula>$Z41="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="41">
+    <cfRule type="expression" dxfId="102" priority="41">
       <formula>$Z41="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="42">
+    <cfRule type="expression" dxfId="101" priority="42">
       <formula>$Z41="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="43">
+    <cfRule type="expression" dxfId="100" priority="43">
       <formula>$Z41="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="44">
+    <cfRule type="expression" dxfId="99" priority="44">
       <formula>$Z41="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="45">
+    <cfRule type="expression" dxfId="98" priority="45">
       <formula>$Z41="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="46">
+    <cfRule type="expression" dxfId="97" priority="46">
       <formula>$Z41="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="47">
+    <cfRule type="expression" dxfId="96" priority="47">
       <formula>$Z41="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="48">
+    <cfRule type="expression" dxfId="95" priority="48">
       <formula>$Z41="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="49">
+    <cfRule type="expression" dxfId="94" priority="49">
       <formula>$Z41="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="50">
+    <cfRule type="expression" dxfId="93" priority="50">
       <formula>$Z41="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="51">
+    <cfRule type="expression" dxfId="92" priority="51">
       <formula>$Z41="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="52">
+    <cfRule type="expression" dxfId="91" priority="52">
       <formula>$Z41="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="53">
+    <cfRule type="expression" dxfId="90" priority="53">
       <formula>$Z41="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="54">
+    <cfRule type="expression" dxfId="89" priority="54">
       <formula>$Z41="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="55">
+    <cfRule type="expression" dxfId="88" priority="55">
       <formula>$Z41="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="56">
+    <cfRule type="expression" dxfId="87" priority="56">
       <formula>$Z41="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="57">
+    <cfRule type="expression" dxfId="86" priority="57">
       <formula>$Z41="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="58">
+    <cfRule type="expression" dxfId="85" priority="58">
       <formula>$Z41="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="59">
+    <cfRule type="expression" dxfId="84" priority="59">
       <formula>$Z41="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="60">
+    <cfRule type="expression" dxfId="83" priority="60">
       <formula>$Z41="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="61">
+    <cfRule type="expression" dxfId="82" priority="61">
       <formula>$Z41="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="62">
+    <cfRule type="expression" dxfId="81" priority="62">
       <formula>$Z41="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="63">
+    <cfRule type="expression" dxfId="80" priority="63">
       <formula>$Z41="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="64">
+    <cfRule type="expression" dxfId="79" priority="64">
       <formula>$Z41="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="65">
+    <cfRule type="expression" dxfId="78" priority="65">
       <formula>$Z41="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="66">
+    <cfRule type="expression" dxfId="77" priority="66">
       <formula>$Z41="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="67">
+    <cfRule type="expression" dxfId="76" priority="67">
       <formula>$Z41="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="68">
+    <cfRule type="expression" dxfId="75" priority="68">
       <formula>$Z41="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="69">
+    <cfRule type="expression" dxfId="74" priority="69">
       <formula>$Z41="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="70">
+    <cfRule type="expression" dxfId="73" priority="70">
       <formula>$Z41="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="71">
+    <cfRule type="expression" dxfId="72" priority="71">
       <formula>$Z41="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="72">
+    <cfRule type="expression" dxfId="71" priority="72">
       <formula>$Z41="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="73">
+    <cfRule type="expression" dxfId="70" priority="73">
       <formula>$Z41="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="74">
+    <cfRule type="expression" dxfId="69" priority="74">
       <formula>$Z41="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="75">
+    <cfRule type="expression" dxfId="68" priority="75">
       <formula>$Z41="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O57:O59">
-    <cfRule type="expression" dxfId="57" priority="2">
+    <cfRule type="expression" dxfId="67" priority="2">
       <formula>$Z57="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="3">
+    <cfRule type="expression" dxfId="66" priority="3">
       <formula>$Z57="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="4">
+    <cfRule type="expression" dxfId="65" priority="4">
       <formula>$Z57="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="5">
+    <cfRule type="expression" dxfId="64" priority="5">
       <formula>$Z57="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="6">
+    <cfRule type="expression" dxfId="63" priority="6">
       <formula>$Z57="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="7">
+    <cfRule type="expression" dxfId="62" priority="7">
       <formula>$Z57="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="8">
+    <cfRule type="expression" dxfId="61" priority="8">
       <formula>$Z57="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="9">
+    <cfRule type="expression" dxfId="60" priority="9">
       <formula>$Z57="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="10">
+    <cfRule type="expression" dxfId="59" priority="10">
       <formula>$Z57="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="11">
+    <cfRule type="expression" dxfId="58" priority="11">
       <formula>$Z57="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="12">
+    <cfRule type="expression" dxfId="57" priority="12">
       <formula>$Z57="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="13">
+    <cfRule type="expression" dxfId="56" priority="13">
       <formula>$Z57="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="14">
+    <cfRule type="expression" dxfId="55" priority="14">
       <formula>$Z57="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="15">
+    <cfRule type="expression" dxfId="54" priority="15">
       <formula>$Z57="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="16">
+    <cfRule type="expression" dxfId="53" priority="16">
       <formula>$Z57="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="17">
+    <cfRule type="expression" dxfId="52" priority="17">
       <formula>$Z57="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="18">
+    <cfRule type="expression" dxfId="51" priority="18">
       <formula>$Z57="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="19">
+    <cfRule type="expression" dxfId="50" priority="19">
       <formula>$Z57="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="20">
+    <cfRule type="expression" dxfId="49" priority="20">
       <formula>$Z57="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="21">
+    <cfRule type="expression" dxfId="48" priority="21">
       <formula>$Z57="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="22">
+    <cfRule type="expression" dxfId="47" priority="22">
       <formula>$Z57="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="23">
+    <cfRule type="expression" dxfId="46" priority="23">
       <formula>$Z57="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="24">
+    <cfRule type="expression" dxfId="45" priority="24">
       <formula>$Z57="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="25">
+    <cfRule type="expression" dxfId="44" priority="25">
       <formula>$Z57="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="26">
+    <cfRule type="expression" dxfId="43" priority="26">
       <formula>$Z57="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="27">
+    <cfRule type="expression" dxfId="42" priority="27">
       <formula>$Z57="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="28">
+    <cfRule type="expression" dxfId="41" priority="28">
       <formula>$Z57="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="29">
+    <cfRule type="expression" dxfId="40" priority="29">
       <formula>$Z57="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="30">
+    <cfRule type="expression" dxfId="39" priority="30">
       <formula>$Z57="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="31">
+    <cfRule type="expression" dxfId="38" priority="31">
       <formula>$Z57="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="32">
+    <cfRule type="expression" dxfId="37" priority="32">
       <formula>$Z57="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="33">
+    <cfRule type="expression" dxfId="36" priority="33">
       <formula>$Z57="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="34">
+    <cfRule type="expression" dxfId="35" priority="34">
       <formula>$Z57="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="35">
+    <cfRule type="expression" dxfId="34" priority="35">
       <formula>$Z57="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="36">
+    <cfRule type="expression" dxfId="33" priority="36">
       <formula>$Z57="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="37">
+    <cfRule type="expression" dxfId="32" priority="37">
       <formula>$Z57="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="38">
+    <cfRule type="expression" dxfId="31" priority="38">
       <formula>$Z57="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11:J94">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="J11:J96">
+    <cfRule type="cellIs" dxfId="30" priority="1" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Monitoreo Nuevos Productos.xlsx
+++ b/Monitoreo Nuevos Productos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298AEDBB-C25F-47C8-9E56-268DDDAA09F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478A9A03-5FD8-4263-97EC-263FF6074DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{3C601918-C683-4A9E-9764-2E2F3DE6B565}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{3C601918-C683-4A9E-9764-2E2F3DE6B565}"/>
   </bookViews>
   <sheets>
     <sheet name="Monitoreo Nuevos Productos" sheetId="1" r:id="rId1"/>
@@ -1313,111 +1313,7 @@
     <cellStyle name="Millares" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="618">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="608">
     <dxf>
       <font>
         <strike val="0"/>
@@ -7222,27 +7118,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8AB307C7-AF39-4578-A163-A8BC847F650D}" name="Tabla1" displayName="Tabla1" ref="A10:R96" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8AB307C7-AF39-4578-A163-A8BC847F650D}" name="Tabla1" displayName="Tabla1" ref="A10:R96" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A10:R96" xr:uid="{BE3B9459-9CC4-4B42-85DE-65D6DD89527B}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{AEA8EF0D-25C7-4111-8A9F-0B18B1765250}" name="SECTOR" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{752FAE73-6FD3-44CD-87CD-9043950F7C57}" name="COLECCIÓN" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{6007294C-E2A9-42FC-8D1B-04F4C15E7E6C}" name="TABLA MADRE" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{CC128664-1A0A-4FA0-9E24-7F2D50AC3945}" name="RESPONSABLE" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{47097AA3-BED4-48AF-B9DE-ABBBAEBF8480}" name="ESTADO" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{D1D0198B-6B8E-4844-BFB3-0C4C39A5DEEB}" name="TEMA" dataDxfId="22"/>
-    <tableColumn id="18" xr3:uid="{FCDE1CEA-9D32-4512-8B1E-E0F36B0D06E6}" name="En contenido" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{F7C33F71-D2AC-440D-B0A6-B78933C8E65D}" name="TIPO PRODUCTO" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{D2B9DAD1-8888-4EAE-B08D-DDAAD4D91214}" name="NOMBRE" dataDxfId="19"/>
-    <tableColumn id="9" xr3:uid="{B13359B5-127C-4ACD-BA41-0F932FFA47DE}" name="Cantidad" dataDxfId="18"/>
-    <tableColumn id="10" xr3:uid="{22126FF6-1849-455F-A6A6-7D65468619C8}" name="Títulos revisados" dataDxfId="17"/>
-    <tableColumn id="11" xr3:uid="{C4B2B2EE-05E3-4BD3-9138-0C5123EACD36}" name="Título Genérico - Shopify" dataDxfId="16"/>
-    <tableColumn id="12" xr3:uid="{48638419-EFAD-40F5-8E0C-171981824999}" name="Título específico" dataDxfId="15"/>
-    <tableColumn id="13" xr3:uid="{5E5D6E60-EE68-4304-B67C-4D8F2081F5C6}" name="Tags" dataDxfId="14"/>
-    <tableColumn id="14" xr3:uid="{4A7DE2E9-92D4-4649-893E-C2F9E0C999C9}" name="Link" dataDxfId="13" dataCellStyle="Hipervínculo"/>
-    <tableColumn id="15" xr3:uid="{C604366C-A935-413E-B0A6-F9D41B311156}" name="Estado URL" dataDxfId="12"/>
-    <tableColumn id="16" xr3:uid="{E1C0300E-6E4D-4041-9E44-893F2242AEB3}" name="Responsable Revisión" dataDxfId="11"/>
-    <tableColumn id="17" xr3:uid="{B21BEC12-2A8B-4811-AA41-623D1FDA90AE}" name="Tags2" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{AEA8EF0D-25C7-4111-8A9F-0B18B1765250}" name="SECTOR" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{752FAE73-6FD3-44CD-87CD-9043950F7C57}" name="COLECCIÓN" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{6007294C-E2A9-42FC-8D1B-04F4C15E7E6C}" name="TABLA MADRE" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{CC128664-1A0A-4FA0-9E24-7F2D50AC3945}" name="RESPONSABLE" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{47097AA3-BED4-48AF-B9DE-ABBBAEBF8480}" name="ESTADO" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{D1D0198B-6B8E-4844-BFB3-0C4C39A5DEEB}" name="TEMA" dataDxfId="12"/>
+    <tableColumn id="18" xr3:uid="{FCDE1CEA-9D32-4512-8B1E-E0F36B0D06E6}" name="En contenido" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{F7C33F71-D2AC-440D-B0A6-B78933C8E65D}" name="TIPO PRODUCTO" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{D2B9DAD1-8888-4EAE-B08D-DDAAD4D91214}" name="NOMBRE" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{B13359B5-127C-4ACD-BA41-0F932FFA47DE}" name="Cantidad" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{22126FF6-1849-455F-A6A6-7D65468619C8}" name="Títulos revisados" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{C4B2B2EE-05E3-4BD3-9138-0C5123EACD36}" name="Título Genérico - Shopify" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{48638419-EFAD-40F5-8E0C-171981824999}" name="Título específico" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{5E5D6E60-EE68-4304-B67C-4D8F2081F5C6}" name="Tags" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{4A7DE2E9-92D4-4649-893E-C2F9E0C999C9}" name="Link" dataDxfId="3" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="15" xr3:uid="{C604366C-A935-413E-B0A6-F9D41B311156}" name="Estado URL" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{E1C0300E-6E4D-4041-9E44-893F2242AEB3}" name="Responsable Revisión" dataDxfId="1"/>
+    <tableColumn id="17" xr3:uid="{B21BEC12-2A8B-4811-AA41-623D1FDA90AE}" name="Tags2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7548,10 +7444,10 @@
   <dimension ref="A8:R111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="10" topLeftCell="D74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="10" topLeftCell="K29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="A97" sqref="A97"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12476,1812 +12372,1812 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="L41:M44">
-    <cfRule type="expression" dxfId="617" priority="984">
+    <cfRule type="expression" dxfId="607" priority="984">
       <formula>#REF!="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="616" priority="985">
+    <cfRule type="expression" dxfId="606" priority="985">
       <formula>#REF!="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="615" priority="986">
+    <cfRule type="expression" dxfId="605" priority="986">
       <formula>#REF!="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="614" priority="987">
+    <cfRule type="expression" dxfId="604" priority="987">
       <formula>#REF!="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="613" priority="988">
+    <cfRule type="expression" dxfId="603" priority="988">
       <formula>#REF!="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="612" priority="989">
+    <cfRule type="expression" dxfId="602" priority="989">
       <formula>#REF!="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="611" priority="990">
+    <cfRule type="expression" dxfId="601" priority="990">
       <formula>#REF!="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="610" priority="991">
+    <cfRule type="expression" dxfId="600" priority="991">
       <formula>#REF!="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="609" priority="992">
+    <cfRule type="expression" dxfId="599" priority="992">
       <formula>#REF!="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="608" priority="993">
+    <cfRule type="expression" dxfId="598" priority="993">
       <formula>#REF!="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="607" priority="994">
+    <cfRule type="expression" dxfId="597" priority="994">
       <formula>#REF!="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="606" priority="995">
+    <cfRule type="expression" dxfId="596" priority="995">
       <formula>#REF!="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="605" priority="996">
+    <cfRule type="expression" dxfId="595" priority="996">
       <formula>#REF!="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="604" priority="997">
+    <cfRule type="expression" dxfId="594" priority="997">
       <formula>#REF!="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="603" priority="998">
+    <cfRule type="expression" dxfId="593" priority="998">
       <formula>#REF!="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="602" priority="999">
+    <cfRule type="expression" dxfId="592" priority="999">
       <formula>#REF!="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="601" priority="1000">
+    <cfRule type="expression" dxfId="591" priority="1000">
       <formula>#REF!="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="600" priority="1001">
+    <cfRule type="expression" dxfId="590" priority="1001">
       <formula>#REF!="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="599" priority="1002">
+    <cfRule type="expression" dxfId="589" priority="1002">
       <formula>#REF!="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="598" priority="1003">
+    <cfRule type="expression" dxfId="588" priority="1003">
       <formula>#REF!="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="597" priority="1004">
+    <cfRule type="expression" dxfId="587" priority="1004">
       <formula>#REF!="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="596" priority="1005">
+    <cfRule type="expression" dxfId="586" priority="1005">
       <formula>#REF!="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="595" priority="1006">
+    <cfRule type="expression" dxfId="585" priority="1006">
       <formula>#REF!="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="594" priority="1007">
+    <cfRule type="expression" dxfId="584" priority="1007">
       <formula>#REF!="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="593" priority="1008">
+    <cfRule type="expression" dxfId="583" priority="1008">
       <formula>#REF!="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="592" priority="1009">
+    <cfRule type="expression" dxfId="582" priority="1009">
       <formula>#REF!="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="591" priority="1010">
+    <cfRule type="expression" dxfId="581" priority="1010">
       <formula>#REF!="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="590" priority="1011">
+    <cfRule type="expression" dxfId="580" priority="1011">
       <formula>#REF!="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="589" priority="1012">
+    <cfRule type="expression" dxfId="579" priority="1012">
       <formula>#REF!="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="588" priority="1013">
+    <cfRule type="expression" dxfId="578" priority="1013">
       <formula>#REF!="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="587" priority="1014">
+    <cfRule type="expression" dxfId="577" priority="1014">
       <formula>#REF!="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="586" priority="1015">
+    <cfRule type="expression" dxfId="576" priority="1015">
       <formula>#REF!="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="585" priority="1016">
+    <cfRule type="expression" dxfId="575" priority="1016">
       <formula>#REF!="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="584" priority="1017">
+    <cfRule type="expression" dxfId="574" priority="1017">
       <formula>#REF!="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="583" priority="1018">
+    <cfRule type="expression" dxfId="573" priority="1018">
       <formula>#REF!="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="582" priority="1019">
+    <cfRule type="expression" dxfId="572" priority="1019">
       <formula>#REF!="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="581" priority="1020">
+    <cfRule type="expression" dxfId="571" priority="1020">
       <formula>#REF!="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J104:K2999">
-    <cfRule type="cellIs" dxfId="580" priority="982" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="570" priority="982" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21:N32">
-    <cfRule type="expression" dxfId="579" priority="608">
+    <cfRule type="expression" dxfId="569" priority="608">
       <formula>$AD12="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="578" priority="609">
+    <cfRule type="expression" dxfId="568" priority="609">
       <formula>$AD12="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="577" priority="610">
+    <cfRule type="expression" dxfId="567" priority="610">
       <formula>$AD12="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="576" priority="611">
+    <cfRule type="expression" dxfId="566" priority="611">
       <formula>$AD12="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="575" priority="612">
+    <cfRule type="expression" dxfId="565" priority="612">
       <formula>$AD12="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="574" priority="613">
+    <cfRule type="expression" dxfId="564" priority="613">
       <formula>$AD12="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="573" priority="614">
+    <cfRule type="expression" dxfId="563" priority="614">
       <formula>$AD12="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="572" priority="615">
+    <cfRule type="expression" dxfId="562" priority="615">
       <formula>$AD12="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="571" priority="616">
+    <cfRule type="expression" dxfId="561" priority="616">
       <formula>$AD12="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="570" priority="617">
+    <cfRule type="expression" dxfId="560" priority="617">
       <formula>$AD12="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="569" priority="618">
+    <cfRule type="expression" dxfId="559" priority="618">
       <formula>$AD12="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="568" priority="619">
+    <cfRule type="expression" dxfId="558" priority="619">
       <formula>$AD12="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="567" priority="620">
+    <cfRule type="expression" dxfId="557" priority="620">
       <formula>$AD12="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="566" priority="621">
+    <cfRule type="expression" dxfId="556" priority="621">
       <formula>$AD12="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="565" priority="622">
+    <cfRule type="expression" dxfId="555" priority="622">
       <formula>$AD12="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="564" priority="623">
+    <cfRule type="expression" dxfId="554" priority="623">
       <formula>$AD12="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="563" priority="624">
+    <cfRule type="expression" dxfId="553" priority="624">
       <formula>$AD12="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="562" priority="625">
+    <cfRule type="expression" dxfId="552" priority="625">
       <formula>$AD12="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="561" priority="626">
+    <cfRule type="expression" dxfId="551" priority="626">
       <formula>$AD12="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="560" priority="627">
+    <cfRule type="expression" dxfId="550" priority="627">
       <formula>$AD12="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="559" priority="628">
+    <cfRule type="expression" dxfId="549" priority="628">
       <formula>$AD12="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="558" priority="629">
+    <cfRule type="expression" dxfId="548" priority="629">
       <formula>$AD12="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="557" priority="630">
+    <cfRule type="expression" dxfId="547" priority="630">
       <formula>$AD12="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="556" priority="631">
+    <cfRule type="expression" dxfId="546" priority="631">
       <formula>$AD12="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="555" priority="632">
+    <cfRule type="expression" dxfId="545" priority="632">
       <formula>$AD12="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="554" priority="633">
+    <cfRule type="expression" dxfId="544" priority="633">
       <formula>$AD12="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="553" priority="634">
+    <cfRule type="expression" dxfId="543" priority="634">
       <formula>$AD12="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="552" priority="635">
+    <cfRule type="expression" dxfId="542" priority="635">
       <formula>$AD12="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="551" priority="636">
+    <cfRule type="expression" dxfId="541" priority="636">
       <formula>$AD12="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="550" priority="637">
+    <cfRule type="expression" dxfId="540" priority="637">
       <formula>$AD12="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="549" priority="638">
+    <cfRule type="expression" dxfId="539" priority="638">
       <formula>$AD12="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="548" priority="639">
+    <cfRule type="expression" dxfId="538" priority="639">
       <formula>$AD12="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="547" priority="640">
+    <cfRule type="expression" dxfId="537" priority="640">
       <formula>$AD12="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="546" priority="641">
+    <cfRule type="expression" dxfId="536" priority="641">
       <formula>$AD12="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="545" priority="642">
+    <cfRule type="expression" dxfId="535" priority="642">
       <formula>$AD12="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="544" priority="643">
+    <cfRule type="expression" dxfId="534" priority="643">
       <formula>$AD12="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="543" priority="644">
+    <cfRule type="expression" dxfId="533" priority="644">
       <formula>$AD12="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N41:N48 N53:N56">
-    <cfRule type="expression" dxfId="542" priority="571">
+    <cfRule type="expression" dxfId="532" priority="571">
       <formula>$AD41="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="541" priority="572">
+    <cfRule type="expression" dxfId="531" priority="572">
       <formula>$AD41="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="540" priority="573">
+    <cfRule type="expression" dxfId="530" priority="573">
       <formula>$AD41="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="539" priority="574">
+    <cfRule type="expression" dxfId="529" priority="574">
       <formula>$AD41="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="538" priority="575">
+    <cfRule type="expression" dxfId="528" priority="575">
       <formula>$AD41="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="537" priority="576">
+    <cfRule type="expression" dxfId="527" priority="576">
       <formula>$AD41="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="536" priority="577">
+    <cfRule type="expression" dxfId="526" priority="577">
       <formula>$AD41="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="535" priority="578">
+    <cfRule type="expression" dxfId="525" priority="578">
       <formula>$AD41="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="534" priority="579">
+    <cfRule type="expression" dxfId="524" priority="579">
       <formula>$AD41="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="533" priority="580">
+    <cfRule type="expression" dxfId="523" priority="580">
       <formula>$AD41="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="532" priority="581">
+    <cfRule type="expression" dxfId="522" priority="581">
       <formula>$AD41="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="531" priority="582">
+    <cfRule type="expression" dxfId="521" priority="582">
       <formula>$AD41="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="530" priority="583">
+    <cfRule type="expression" dxfId="520" priority="583">
       <formula>$AD41="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="529" priority="584">
+    <cfRule type="expression" dxfId="519" priority="584">
       <formula>$AD41="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="528" priority="585">
+    <cfRule type="expression" dxfId="518" priority="585">
       <formula>$AD41="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="527" priority="586">
+    <cfRule type="expression" dxfId="517" priority="586">
       <formula>$AD41="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="526" priority="587">
+    <cfRule type="expression" dxfId="516" priority="587">
       <formula>$AD41="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="525" priority="588">
+    <cfRule type="expression" dxfId="515" priority="588">
       <formula>$AD41="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="524" priority="589">
+    <cfRule type="expression" dxfId="514" priority="589">
       <formula>$AD41="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="523" priority="590">
+    <cfRule type="expression" dxfId="513" priority="590">
       <formula>$AD41="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="522" priority="591">
+    <cfRule type="expression" dxfId="512" priority="591">
       <formula>$AD41="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="521" priority="592">
+    <cfRule type="expression" dxfId="511" priority="592">
       <formula>$AD41="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="520" priority="593">
+    <cfRule type="expression" dxfId="510" priority="593">
       <formula>$AD41="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="519" priority="594">
+    <cfRule type="expression" dxfId="509" priority="594">
       <formula>$AD41="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="518" priority="595">
+    <cfRule type="expression" dxfId="508" priority="595">
       <formula>$AD41="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="517" priority="596">
+    <cfRule type="expression" dxfId="507" priority="596">
       <formula>$AD41="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="516" priority="597">
+    <cfRule type="expression" dxfId="506" priority="597">
       <formula>$AD41="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="515" priority="598">
+    <cfRule type="expression" dxfId="505" priority="598">
       <formula>$AD41="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="514" priority="599">
+    <cfRule type="expression" dxfId="504" priority="599">
       <formula>$AD41="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="513" priority="600">
+    <cfRule type="expression" dxfId="503" priority="600">
       <formula>$AD41="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="512" priority="601">
+    <cfRule type="expression" dxfId="502" priority="601">
       <formula>$AD41="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="511" priority="602">
+    <cfRule type="expression" dxfId="501" priority="602">
       <formula>$AD41="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="510" priority="603">
+    <cfRule type="expression" dxfId="500" priority="603">
       <formula>$AD41="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="509" priority="604">
+    <cfRule type="expression" dxfId="499" priority="604">
       <formula>$AD41="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="508" priority="605">
+    <cfRule type="expression" dxfId="498" priority="605">
       <formula>$AD41="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="507" priority="606">
+    <cfRule type="expression" dxfId="497" priority="606">
       <formula>$AD41="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="506" priority="607">
+    <cfRule type="expression" dxfId="496" priority="607">
       <formula>$AD41="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N60:N62">
-    <cfRule type="expression" dxfId="505" priority="497">
+    <cfRule type="expression" dxfId="495" priority="497">
       <formula>$AE60="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="504" priority="498">
+    <cfRule type="expression" dxfId="494" priority="498">
       <formula>$AE60="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="503" priority="499">
+    <cfRule type="expression" dxfId="493" priority="499">
       <formula>$AE60="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="502" priority="500">
+    <cfRule type="expression" dxfId="492" priority="500">
       <formula>$AE60="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="501" priority="501">
+    <cfRule type="expression" dxfId="491" priority="501">
       <formula>$AE60="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="500" priority="502">
+    <cfRule type="expression" dxfId="490" priority="502">
       <formula>$AE60="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="499" priority="503">
+    <cfRule type="expression" dxfId="489" priority="503">
       <formula>$AE60="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="498" priority="504">
+    <cfRule type="expression" dxfId="488" priority="504">
       <formula>$AE60="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="497" priority="505">
+    <cfRule type="expression" dxfId="487" priority="505">
       <formula>$AE60="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="496" priority="506">
+    <cfRule type="expression" dxfId="486" priority="506">
       <formula>$AE60="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="495" priority="507">
+    <cfRule type="expression" dxfId="485" priority="507">
       <formula>$AE60="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="494" priority="508">
+    <cfRule type="expression" dxfId="484" priority="508">
       <formula>$AE60="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="493" priority="509">
+    <cfRule type="expression" dxfId="483" priority="509">
       <formula>$AE60="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="492" priority="510">
+    <cfRule type="expression" dxfId="482" priority="510">
       <formula>$AE60="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="491" priority="511">
+    <cfRule type="expression" dxfId="481" priority="511">
       <formula>$AE60="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="490" priority="512">
+    <cfRule type="expression" dxfId="480" priority="512">
       <formula>$AE60="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="489" priority="513">
+    <cfRule type="expression" dxfId="479" priority="513">
       <formula>$AE60="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="488" priority="514">
+    <cfRule type="expression" dxfId="478" priority="514">
       <formula>$AE60="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="487" priority="515">
+    <cfRule type="expression" dxfId="477" priority="515">
       <formula>$AE60="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="486" priority="516">
+    <cfRule type="expression" dxfId="476" priority="516">
       <formula>$AE60="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="485" priority="517">
+    <cfRule type="expression" dxfId="475" priority="517">
       <formula>$AE60="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="484" priority="518">
+    <cfRule type="expression" dxfId="474" priority="518">
       <formula>$AE60="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="483" priority="519">
+    <cfRule type="expression" dxfId="473" priority="519">
       <formula>$AE60="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="482" priority="520">
+    <cfRule type="expression" dxfId="472" priority="520">
       <formula>$AE60="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="481" priority="521">
+    <cfRule type="expression" dxfId="471" priority="521">
       <formula>$AE60="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="480" priority="522">
+    <cfRule type="expression" dxfId="470" priority="522">
       <formula>$AE60="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="479" priority="523">
+    <cfRule type="expression" dxfId="469" priority="523">
       <formula>$AE60="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="478" priority="524">
+    <cfRule type="expression" dxfId="468" priority="524">
       <formula>$AE60="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="477" priority="525">
+    <cfRule type="expression" dxfId="467" priority="525">
       <formula>$AE60="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="476" priority="526">
+    <cfRule type="expression" dxfId="466" priority="526">
       <formula>$AE60="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="475" priority="527">
+    <cfRule type="expression" dxfId="465" priority="527">
       <formula>$AE60="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="474" priority="528">
+    <cfRule type="expression" dxfId="464" priority="528">
       <formula>$AE60="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="473" priority="529">
+    <cfRule type="expression" dxfId="463" priority="529">
       <formula>$AE60="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="472" priority="530">
+    <cfRule type="expression" dxfId="462" priority="530">
       <formula>$AE60="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="471" priority="531">
+    <cfRule type="expression" dxfId="461" priority="531">
       <formula>$AE60="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="470" priority="532">
+    <cfRule type="expression" dxfId="460" priority="532">
       <formula>$AE60="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="469" priority="533">
+    <cfRule type="expression" dxfId="459" priority="533">
       <formula>$AE60="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N89:N91">
-    <cfRule type="expression" dxfId="468" priority="460">
+    <cfRule type="expression" dxfId="458" priority="460">
       <formula>$AD89="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="467" priority="461">
+    <cfRule type="expression" dxfId="457" priority="461">
       <formula>$AD89="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="466" priority="462">
+    <cfRule type="expression" dxfId="456" priority="462">
       <formula>$AD89="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="465" priority="463">
+    <cfRule type="expression" dxfId="455" priority="463">
       <formula>$AD89="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="464" priority="464">
+    <cfRule type="expression" dxfId="454" priority="464">
       <formula>$AD89="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="463" priority="465">
+    <cfRule type="expression" dxfId="453" priority="465">
       <formula>$AD89="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="462" priority="466">
+    <cfRule type="expression" dxfId="452" priority="466">
       <formula>$AD89="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="461" priority="467">
+    <cfRule type="expression" dxfId="451" priority="467">
       <formula>$AD89="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="460" priority="468">
+    <cfRule type="expression" dxfId="450" priority="468">
       <formula>$AD89="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="459" priority="469">
+    <cfRule type="expression" dxfId="449" priority="469">
       <formula>$AD89="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="458" priority="470">
+    <cfRule type="expression" dxfId="448" priority="470">
       <formula>$AD89="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="457" priority="471">
+    <cfRule type="expression" dxfId="447" priority="471">
       <formula>$AD89="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="456" priority="472">
+    <cfRule type="expression" dxfId="446" priority="472">
       <formula>$AD89="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="455" priority="473">
+    <cfRule type="expression" dxfId="445" priority="473">
       <formula>$AD89="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="454" priority="474">
+    <cfRule type="expression" dxfId="444" priority="474">
       <formula>$AD89="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="453" priority="475">
+    <cfRule type="expression" dxfId="443" priority="475">
       <formula>$AD89="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="452" priority="476">
+    <cfRule type="expression" dxfId="442" priority="476">
       <formula>$AD89="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="451" priority="477">
+    <cfRule type="expression" dxfId="441" priority="477">
       <formula>$AD89="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="450" priority="478">
+    <cfRule type="expression" dxfId="440" priority="478">
       <formula>$AD89="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="449" priority="479">
+    <cfRule type="expression" dxfId="439" priority="479">
       <formula>$AD89="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="448" priority="480">
+    <cfRule type="expression" dxfId="438" priority="480">
       <formula>$AD89="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="447" priority="481">
+    <cfRule type="expression" dxfId="437" priority="481">
       <formula>$AD89="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="446" priority="482">
+    <cfRule type="expression" dxfId="436" priority="482">
       <formula>$AD89="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="445" priority="483">
+    <cfRule type="expression" dxfId="435" priority="483">
       <formula>$AD89="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="444" priority="484">
+    <cfRule type="expression" dxfId="434" priority="484">
       <formula>$AD89="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="443" priority="485">
+    <cfRule type="expression" dxfId="433" priority="485">
       <formula>$AD89="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="442" priority="486">
+    <cfRule type="expression" dxfId="432" priority="486">
       <formula>$AD89="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="441" priority="487">
+    <cfRule type="expression" dxfId="431" priority="487">
       <formula>$AD89="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="440" priority="488">
+    <cfRule type="expression" dxfId="430" priority="488">
       <formula>$AD89="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="439" priority="489">
+    <cfRule type="expression" dxfId="429" priority="489">
       <formula>$AD89="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="438" priority="490">
+    <cfRule type="expression" dxfId="428" priority="490">
       <formula>$AD89="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="437" priority="491">
+    <cfRule type="expression" dxfId="427" priority="491">
       <formula>$AD89="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="436" priority="492">
+    <cfRule type="expression" dxfId="426" priority="492">
       <formula>$AD89="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="435" priority="493">
+    <cfRule type="expression" dxfId="425" priority="493">
       <formula>$AD89="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="434" priority="494">
+    <cfRule type="expression" dxfId="424" priority="494">
       <formula>$AD89="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="433" priority="495">
+    <cfRule type="expression" dxfId="423" priority="495">
       <formula>$AD89="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="432" priority="496">
+    <cfRule type="expression" dxfId="422" priority="496">
       <formula>$AD89="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N92:N94">
-    <cfRule type="expression" dxfId="431" priority="423">
+    <cfRule type="expression" dxfId="421" priority="423">
       <formula>$AD92="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="430" priority="424">
+    <cfRule type="expression" dxfId="420" priority="424">
       <formula>$AD92="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="429" priority="425">
+    <cfRule type="expression" dxfId="419" priority="425">
       <formula>$AD92="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="428" priority="426">
+    <cfRule type="expression" dxfId="418" priority="426">
       <formula>$AD92="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="427" priority="427">
+    <cfRule type="expression" dxfId="417" priority="427">
       <formula>$AD92="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="426" priority="428">
+    <cfRule type="expression" dxfId="416" priority="428">
       <formula>$AD92="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="425" priority="429">
+    <cfRule type="expression" dxfId="415" priority="429">
       <formula>$AD92="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="424" priority="430">
+    <cfRule type="expression" dxfId="414" priority="430">
       <formula>$AD92="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="423" priority="431">
+    <cfRule type="expression" dxfId="413" priority="431">
       <formula>$AD92="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="422" priority="432">
+    <cfRule type="expression" dxfId="412" priority="432">
       <formula>$AD92="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="421" priority="433">
+    <cfRule type="expression" dxfId="411" priority="433">
       <formula>$AD92="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="420" priority="434">
+    <cfRule type="expression" dxfId="410" priority="434">
       <formula>$AD92="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="419" priority="435">
+    <cfRule type="expression" dxfId="409" priority="435">
       <formula>$AD92="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="418" priority="436">
+    <cfRule type="expression" dxfId="408" priority="436">
       <formula>$AD92="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="417" priority="437">
+    <cfRule type="expression" dxfId="407" priority="437">
       <formula>$AD92="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="416" priority="438">
+    <cfRule type="expression" dxfId="406" priority="438">
       <formula>$AD92="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="415" priority="439">
+    <cfRule type="expression" dxfId="405" priority="439">
       <formula>$AD92="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="414" priority="440">
+    <cfRule type="expression" dxfId="404" priority="440">
       <formula>$AD92="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="413" priority="441">
+    <cfRule type="expression" dxfId="403" priority="441">
       <formula>$AD92="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="412" priority="442">
+    <cfRule type="expression" dxfId="402" priority="442">
       <formula>$AD92="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="411" priority="443">
+    <cfRule type="expression" dxfId="401" priority="443">
       <formula>$AD92="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="410" priority="444">
+    <cfRule type="expression" dxfId="400" priority="444">
       <formula>$AD92="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="409" priority="445">
+    <cfRule type="expression" dxfId="399" priority="445">
       <formula>$AD92="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="408" priority="446">
+    <cfRule type="expression" dxfId="398" priority="446">
       <formula>$AD92="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="407" priority="447">
+    <cfRule type="expression" dxfId="397" priority="447">
       <formula>$AD92="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="406" priority="448">
+    <cfRule type="expression" dxfId="396" priority="448">
       <formula>$AD92="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="405" priority="449">
+    <cfRule type="expression" dxfId="395" priority="449">
       <formula>$AD92="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="404" priority="450">
+    <cfRule type="expression" dxfId="394" priority="450">
       <formula>$AD92="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="403" priority="451">
+    <cfRule type="expression" dxfId="393" priority="451">
       <formula>$AD92="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="402" priority="452">
+    <cfRule type="expression" dxfId="392" priority="452">
       <formula>$AD92="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="401" priority="453">
+    <cfRule type="expression" dxfId="391" priority="453">
       <formula>$AD92="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="400" priority="454">
+    <cfRule type="expression" dxfId="390" priority="454">
       <formula>$AD92="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="399" priority="455">
+    <cfRule type="expression" dxfId="389" priority="455">
       <formula>$AD92="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="398" priority="456">
+    <cfRule type="expression" dxfId="388" priority="456">
       <formula>$AD92="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="397" priority="457">
+    <cfRule type="expression" dxfId="387" priority="457">
       <formula>$AD92="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="396" priority="458">
+    <cfRule type="expression" dxfId="386" priority="458">
       <formula>$AD92="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="395" priority="459">
+    <cfRule type="expression" dxfId="385" priority="459">
       <formula>$AD92="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M48">
-    <cfRule type="expression" dxfId="394" priority="386">
+    <cfRule type="expression" dxfId="384" priority="386">
       <formula>#REF!="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="393" priority="387">
+    <cfRule type="expression" dxfId="383" priority="387">
       <formula>#REF!="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="392" priority="388">
+    <cfRule type="expression" dxfId="382" priority="388">
       <formula>#REF!="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="391" priority="389">
+    <cfRule type="expression" dxfId="381" priority="389">
       <formula>#REF!="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="390" priority="390">
+    <cfRule type="expression" dxfId="380" priority="390">
       <formula>#REF!="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="389" priority="391">
+    <cfRule type="expression" dxfId="379" priority="391">
       <formula>#REF!="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="388" priority="392">
+    <cfRule type="expression" dxfId="378" priority="392">
       <formula>#REF!="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="387" priority="393">
+    <cfRule type="expression" dxfId="377" priority="393">
       <formula>#REF!="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="386" priority="394">
+    <cfRule type="expression" dxfId="376" priority="394">
       <formula>#REF!="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="385" priority="395">
+    <cfRule type="expression" dxfId="375" priority="395">
       <formula>#REF!="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="384" priority="396">
+    <cfRule type="expression" dxfId="374" priority="396">
       <formula>#REF!="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="383" priority="397">
+    <cfRule type="expression" dxfId="373" priority="397">
       <formula>#REF!="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="382" priority="398">
+    <cfRule type="expression" dxfId="372" priority="398">
       <formula>#REF!="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="381" priority="399">
+    <cfRule type="expression" dxfId="371" priority="399">
       <formula>#REF!="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="380" priority="400">
+    <cfRule type="expression" dxfId="370" priority="400">
       <formula>#REF!="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="379" priority="401">
+    <cfRule type="expression" dxfId="369" priority="401">
       <formula>#REF!="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="378" priority="402">
+    <cfRule type="expression" dxfId="368" priority="402">
       <formula>#REF!="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="377" priority="403">
+    <cfRule type="expression" dxfId="367" priority="403">
       <formula>#REF!="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="376" priority="404">
+    <cfRule type="expression" dxfId="366" priority="404">
       <formula>#REF!="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="375" priority="405">
+    <cfRule type="expression" dxfId="365" priority="405">
       <formula>#REF!="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="374" priority="406">
+    <cfRule type="expression" dxfId="364" priority="406">
       <formula>#REF!="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="373" priority="407">
+    <cfRule type="expression" dxfId="363" priority="407">
       <formula>#REF!="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="372" priority="408">
+    <cfRule type="expression" dxfId="362" priority="408">
       <formula>#REF!="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="371" priority="409">
+    <cfRule type="expression" dxfId="361" priority="409">
       <formula>#REF!="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="370" priority="410">
+    <cfRule type="expression" dxfId="360" priority="410">
       <formula>#REF!="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="369" priority="411">
+    <cfRule type="expression" dxfId="359" priority="411">
       <formula>#REF!="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="368" priority="412">
+    <cfRule type="expression" dxfId="358" priority="412">
       <formula>#REF!="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="367" priority="413">
+    <cfRule type="expression" dxfId="357" priority="413">
       <formula>#REF!="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="366" priority="414">
+    <cfRule type="expression" dxfId="356" priority="414">
       <formula>#REF!="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="365" priority="415">
+    <cfRule type="expression" dxfId="355" priority="415">
       <formula>#REF!="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="364" priority="416">
+    <cfRule type="expression" dxfId="354" priority="416">
       <formula>#REF!="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="363" priority="417">
+    <cfRule type="expression" dxfId="353" priority="417">
       <formula>#REF!="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="362" priority="418">
+    <cfRule type="expression" dxfId="352" priority="418">
       <formula>#REF!="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="361" priority="419">
+    <cfRule type="expression" dxfId="351" priority="419">
       <formula>#REF!="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="360" priority="420">
+    <cfRule type="expression" dxfId="350" priority="420">
       <formula>#REF!="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="359" priority="421">
+    <cfRule type="expression" dxfId="349" priority="421">
       <formula>#REF!="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="358" priority="422">
+    <cfRule type="expression" dxfId="348" priority="422">
       <formula>#REF!="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L48">
-    <cfRule type="expression" dxfId="357" priority="349">
+    <cfRule type="expression" dxfId="347" priority="349">
       <formula>#REF!="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="356" priority="350">
+    <cfRule type="expression" dxfId="346" priority="350">
       <formula>#REF!="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="355" priority="351">
+    <cfRule type="expression" dxfId="345" priority="351">
       <formula>#REF!="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="354" priority="352">
+    <cfRule type="expression" dxfId="344" priority="352">
       <formula>#REF!="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="353" priority="353">
+    <cfRule type="expression" dxfId="343" priority="353">
       <formula>#REF!="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="352" priority="354">
+    <cfRule type="expression" dxfId="342" priority="354">
       <formula>#REF!="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="351" priority="355">
+    <cfRule type="expression" dxfId="341" priority="355">
       <formula>#REF!="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="350" priority="356">
+    <cfRule type="expression" dxfId="340" priority="356">
       <formula>#REF!="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="349" priority="357">
+    <cfRule type="expression" dxfId="339" priority="357">
       <formula>#REF!="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="348" priority="358">
+    <cfRule type="expression" dxfId="338" priority="358">
       <formula>#REF!="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="347" priority="359">
+    <cfRule type="expression" dxfId="337" priority="359">
       <formula>#REF!="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="346" priority="360">
+    <cfRule type="expression" dxfId="336" priority="360">
       <formula>#REF!="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="345" priority="361">
+    <cfRule type="expression" dxfId="335" priority="361">
       <formula>#REF!="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="344" priority="362">
+    <cfRule type="expression" dxfId="334" priority="362">
       <formula>#REF!="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="343" priority="363">
+    <cfRule type="expression" dxfId="333" priority="363">
       <formula>#REF!="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="342" priority="364">
+    <cfRule type="expression" dxfId="332" priority="364">
       <formula>#REF!="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="341" priority="365">
+    <cfRule type="expression" dxfId="331" priority="365">
       <formula>#REF!="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="340" priority="366">
+    <cfRule type="expression" dxfId="330" priority="366">
       <formula>#REF!="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="339" priority="367">
+    <cfRule type="expression" dxfId="329" priority="367">
       <formula>#REF!="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="338" priority="368">
+    <cfRule type="expression" dxfId="328" priority="368">
       <formula>#REF!="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="337" priority="369">
+    <cfRule type="expression" dxfId="327" priority="369">
       <formula>#REF!="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="336" priority="370">
+    <cfRule type="expression" dxfId="326" priority="370">
       <formula>#REF!="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="335" priority="371">
+    <cfRule type="expression" dxfId="325" priority="371">
       <formula>#REF!="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="334" priority="372">
+    <cfRule type="expression" dxfId="324" priority="372">
       <formula>#REF!="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="333" priority="373">
+    <cfRule type="expression" dxfId="323" priority="373">
       <formula>#REF!="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="332" priority="374">
+    <cfRule type="expression" dxfId="322" priority="374">
       <formula>#REF!="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="331" priority="375">
+    <cfRule type="expression" dxfId="321" priority="375">
       <formula>#REF!="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="330" priority="376">
+    <cfRule type="expression" dxfId="320" priority="376">
       <formula>#REF!="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="329" priority="377">
+    <cfRule type="expression" dxfId="319" priority="377">
       <formula>#REF!="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="328" priority="378">
+    <cfRule type="expression" dxfId="318" priority="378">
       <formula>#REF!="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="327" priority="379">
+    <cfRule type="expression" dxfId="317" priority="379">
       <formula>#REF!="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="326" priority="380">
+    <cfRule type="expression" dxfId="316" priority="380">
       <formula>#REF!="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="325" priority="381">
+    <cfRule type="expression" dxfId="315" priority="381">
       <formula>#REF!="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="324" priority="382">
+    <cfRule type="expression" dxfId="314" priority="382">
       <formula>#REF!="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="323" priority="383">
+    <cfRule type="expression" dxfId="313" priority="383">
       <formula>#REF!="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="322" priority="384">
+    <cfRule type="expression" dxfId="312" priority="384">
       <formula>#REF!="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="321" priority="385">
+    <cfRule type="expression" dxfId="311" priority="385">
       <formula>#REF!="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:K96">
-    <cfRule type="containsText" dxfId="320" priority="113" operator="containsText" text="cambiado">
+    <cfRule type="containsText" dxfId="310" priority="113" operator="containsText" text="cambiado">
       <formula>NOT(ISERROR(SEARCH("cambiado",K11)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="319" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="114" operator="equal">
       <formula>"revisar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="347" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="347" operator="equal">
       <formula>"pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="317" priority="348" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="348" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69:E71 E75:E94 E11:E65">
-    <cfRule type="cellIs" dxfId="316" priority="344" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="344" operator="equal">
       <formula>"pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="315" priority="345" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="345" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="314" priority="346" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="346" operator="equal">
       <formula>"en proceso"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L62:M62">
-    <cfRule type="expression" dxfId="313" priority="233">
+    <cfRule type="expression" dxfId="303" priority="233">
       <formula>$AA62="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="312" priority="234">
+    <cfRule type="expression" dxfId="302" priority="234">
       <formula>$AA62="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="311" priority="235">
+    <cfRule type="expression" dxfId="301" priority="235">
       <formula>$AA62="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="310" priority="236">
+    <cfRule type="expression" dxfId="300" priority="236">
       <formula>$AA62="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="309" priority="237">
+    <cfRule type="expression" dxfId="299" priority="237">
       <formula>$AA62="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="308" priority="238">
+    <cfRule type="expression" dxfId="298" priority="238">
       <formula>$AA62="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="307" priority="239">
+    <cfRule type="expression" dxfId="297" priority="239">
       <formula>$AA62="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="306" priority="240">
+    <cfRule type="expression" dxfId="296" priority="240">
       <formula>$AA62="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="305" priority="241">
+    <cfRule type="expression" dxfId="295" priority="241">
       <formula>$AA62="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="304" priority="242">
+    <cfRule type="expression" dxfId="294" priority="242">
       <formula>$AA62="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="303" priority="243">
+    <cfRule type="expression" dxfId="293" priority="243">
       <formula>$AA62="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="302" priority="244">
+    <cfRule type="expression" dxfId="292" priority="244">
       <formula>$AA62="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="301" priority="245">
+    <cfRule type="expression" dxfId="291" priority="245">
       <formula>$AA62="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="300" priority="246">
+    <cfRule type="expression" dxfId="290" priority="246">
       <formula>$AA62="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="299" priority="247">
+    <cfRule type="expression" dxfId="289" priority="247">
       <formula>$AA62="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="298" priority="248">
+    <cfRule type="expression" dxfId="288" priority="248">
       <formula>$AA62="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="297" priority="249">
+    <cfRule type="expression" dxfId="287" priority="249">
       <formula>$AA62="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="296" priority="250">
+    <cfRule type="expression" dxfId="286" priority="250">
       <formula>$AA62="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="295" priority="251">
+    <cfRule type="expression" dxfId="285" priority="251">
       <formula>$AA62="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="294" priority="252">
+    <cfRule type="expression" dxfId="284" priority="252">
       <formula>$AA62="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="293" priority="253">
+    <cfRule type="expression" dxfId="283" priority="253">
       <formula>$AA62="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="292" priority="254">
+    <cfRule type="expression" dxfId="282" priority="254">
       <formula>$AA62="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="291" priority="255">
+    <cfRule type="expression" dxfId="281" priority="255">
       <formula>$AA62="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="290" priority="256">
+    <cfRule type="expression" dxfId="280" priority="256">
       <formula>$AA62="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="289" priority="257">
+    <cfRule type="expression" dxfId="279" priority="257">
       <formula>$AA62="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="288" priority="258">
+    <cfRule type="expression" dxfId="278" priority="258">
       <formula>$AA62="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="287" priority="259">
+    <cfRule type="expression" dxfId="277" priority="259">
       <formula>$AA62="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="286" priority="260">
+    <cfRule type="expression" dxfId="276" priority="260">
       <formula>$AA62="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="285" priority="261">
+    <cfRule type="expression" dxfId="275" priority="261">
       <formula>$AA62="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="284" priority="262">
+    <cfRule type="expression" dxfId="274" priority="262">
       <formula>$AA62="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="283" priority="263">
+    <cfRule type="expression" dxfId="273" priority="263">
       <formula>$AA62="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="282" priority="264">
+    <cfRule type="expression" dxfId="272" priority="264">
       <formula>$AA62="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="281" priority="265">
+    <cfRule type="expression" dxfId="271" priority="265">
       <formula>$AA62="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="280" priority="266">
+    <cfRule type="expression" dxfId="270" priority="266">
       <formula>$AA62="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="279" priority="267">
+    <cfRule type="expression" dxfId="269" priority="267">
       <formula>$AA62="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="278" priority="268">
+    <cfRule type="expression" dxfId="268" priority="268">
       <formula>$AA62="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="277" priority="269">
+    <cfRule type="expression" dxfId="267" priority="269">
       <formula>$AA62="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L60:M60">
-    <cfRule type="expression" dxfId="276" priority="270">
+    <cfRule type="expression" dxfId="266" priority="270">
       <formula>$AA62="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="275" priority="271">
+    <cfRule type="expression" dxfId="265" priority="271">
       <formula>$AA62="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="274" priority="272">
+    <cfRule type="expression" dxfId="264" priority="272">
       <formula>$AA62="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="273" priority="273">
+    <cfRule type="expression" dxfId="263" priority="273">
       <formula>$AA62="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="272" priority="274">
+    <cfRule type="expression" dxfId="262" priority="274">
       <formula>$AA62="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="271" priority="275">
+    <cfRule type="expression" dxfId="261" priority="275">
       <formula>$AA62="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="276">
+    <cfRule type="expression" dxfId="260" priority="276">
       <formula>$AA62="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="269" priority="277">
+    <cfRule type="expression" dxfId="259" priority="277">
       <formula>$AA62="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="268" priority="278">
+    <cfRule type="expression" dxfId="258" priority="278">
       <formula>$AA62="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="267" priority="279">
+    <cfRule type="expression" dxfId="257" priority="279">
       <formula>$AA62="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="266" priority="280">
+    <cfRule type="expression" dxfId="256" priority="280">
       <formula>$AA62="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="265" priority="281">
+    <cfRule type="expression" dxfId="255" priority="281">
       <formula>$AA62="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="264" priority="282">
+    <cfRule type="expression" dxfId="254" priority="282">
       <formula>$AA62="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="263" priority="283">
+    <cfRule type="expression" dxfId="253" priority="283">
       <formula>$AA62="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="284">
+    <cfRule type="expression" dxfId="252" priority="284">
       <formula>$AA62="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="261" priority="285">
+    <cfRule type="expression" dxfId="251" priority="285">
       <formula>$AA62="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="260" priority="286">
+    <cfRule type="expression" dxfId="250" priority="286">
       <formula>$AA62="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="259" priority="287">
+    <cfRule type="expression" dxfId="249" priority="287">
       <formula>$AA62="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="288">
+    <cfRule type="expression" dxfId="248" priority="288">
       <formula>$AA62="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="257" priority="289">
+    <cfRule type="expression" dxfId="247" priority="289">
       <formula>$AA62="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="256" priority="290">
+    <cfRule type="expression" dxfId="246" priority="290">
       <formula>$AA62="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="255" priority="291">
+    <cfRule type="expression" dxfId="245" priority="291">
       <formula>$AA62="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="254" priority="292">
+    <cfRule type="expression" dxfId="244" priority="292">
       <formula>$AA62="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="253" priority="293">
+    <cfRule type="expression" dxfId="243" priority="293">
       <formula>$AA62="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="252" priority="294">
+    <cfRule type="expression" dxfId="242" priority="294">
       <formula>$AA62="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="251" priority="295">
+    <cfRule type="expression" dxfId="241" priority="295">
       <formula>$AA62="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="296">
+    <cfRule type="expression" dxfId="240" priority="296">
       <formula>$AA62="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="249" priority="297">
+    <cfRule type="expression" dxfId="239" priority="297">
       <formula>$AA62="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="248" priority="298">
+    <cfRule type="expression" dxfId="238" priority="298">
       <formula>$AA62="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="247" priority="299">
+    <cfRule type="expression" dxfId="237" priority="299">
       <formula>$AA62="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="300">
+    <cfRule type="expression" dxfId="236" priority="300">
       <formula>$AA62="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="245" priority="301">
+    <cfRule type="expression" dxfId="235" priority="301">
       <formula>$AA62="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="302">
+    <cfRule type="expression" dxfId="234" priority="302">
       <formula>$AA62="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="243" priority="303">
+    <cfRule type="expression" dxfId="233" priority="303">
       <formula>$AA62="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="242" priority="304">
+    <cfRule type="expression" dxfId="232" priority="304">
       <formula>$AA62="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="241" priority="305">
+    <cfRule type="expression" dxfId="231" priority="305">
       <formula>$AA62="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="240" priority="306">
+    <cfRule type="expression" dxfId="230" priority="306">
       <formula>$AA62="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M60">
-    <cfRule type="expression" dxfId="239" priority="196">
+    <cfRule type="expression" dxfId="229" priority="196">
       <formula>$AA62="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="197">
+    <cfRule type="expression" dxfId="228" priority="197">
       <formula>$AA62="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="237" priority="198">
+    <cfRule type="expression" dxfId="227" priority="198">
       <formula>$AA62="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="236" priority="199">
+    <cfRule type="expression" dxfId="226" priority="199">
       <formula>$AA62="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="235" priority="200">
+    <cfRule type="expression" dxfId="225" priority="200">
       <formula>$AA62="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="234" priority="201">
+    <cfRule type="expression" dxfId="224" priority="201">
       <formula>$AA62="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="233" priority="202">
+    <cfRule type="expression" dxfId="223" priority="202">
       <formula>$AA62="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="232" priority="203">
+    <cfRule type="expression" dxfId="222" priority="203">
       <formula>$AA62="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="231" priority="204">
+    <cfRule type="expression" dxfId="221" priority="204">
       <formula>$AA62="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="230" priority="205">
+    <cfRule type="expression" dxfId="220" priority="205">
       <formula>$AA62="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="229" priority="206">
+    <cfRule type="expression" dxfId="219" priority="206">
       <formula>$AA62="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="207">
+    <cfRule type="expression" dxfId="218" priority="207">
       <formula>$AA62="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="227" priority="208">
+    <cfRule type="expression" dxfId="217" priority="208">
       <formula>$AA62="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="209">
+    <cfRule type="expression" dxfId="216" priority="209">
       <formula>$AA62="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="210">
+    <cfRule type="expression" dxfId="215" priority="210">
       <formula>$AA62="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="224" priority="211">
+    <cfRule type="expression" dxfId="214" priority="211">
       <formula>$AA62="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="223" priority="212">
+    <cfRule type="expression" dxfId="213" priority="212">
       <formula>$AA62="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="213">
+    <cfRule type="expression" dxfId="212" priority="213">
       <formula>$AA62="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="221" priority="214">
+    <cfRule type="expression" dxfId="211" priority="214">
       <formula>$AA62="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="215">
+    <cfRule type="expression" dxfId="210" priority="215">
       <formula>$AA62="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="219" priority="216">
+    <cfRule type="expression" dxfId="209" priority="216">
       <formula>$AA62="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="218" priority="217">
+    <cfRule type="expression" dxfId="208" priority="217">
       <formula>$AA62="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="217" priority="218">
+    <cfRule type="expression" dxfId="207" priority="218">
       <formula>$AA62="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="219">
+    <cfRule type="expression" dxfId="206" priority="219">
       <formula>$AA62="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="215" priority="220">
+    <cfRule type="expression" dxfId="205" priority="220">
       <formula>$AA62="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="221">
+    <cfRule type="expression" dxfId="204" priority="221">
       <formula>$AA62="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="213" priority="222">
+    <cfRule type="expression" dxfId="203" priority="222">
       <formula>$AA62="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="212" priority="223">
+    <cfRule type="expression" dxfId="202" priority="223">
       <formula>$AA62="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="224">
+    <cfRule type="expression" dxfId="201" priority="224">
       <formula>$AA62="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="225">
+    <cfRule type="expression" dxfId="200" priority="225">
       <formula>$AA62="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="209" priority="226">
+    <cfRule type="expression" dxfId="199" priority="226">
       <formula>$AA62="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="227">
+    <cfRule type="expression" dxfId="198" priority="227">
       <formula>$AA62="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="228">
+    <cfRule type="expression" dxfId="197" priority="228">
       <formula>$AA62="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="206" priority="229">
+    <cfRule type="expression" dxfId="196" priority="229">
       <formula>$AA62="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="230">
+    <cfRule type="expression" dxfId="195" priority="230">
       <formula>$AA62="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="231">
+    <cfRule type="expression" dxfId="194" priority="231">
       <formula>$AA62="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="203" priority="232">
+    <cfRule type="expression" dxfId="193" priority="232">
       <formula>$AA62="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L61:M61">
-    <cfRule type="expression" dxfId="202" priority="1107">
+    <cfRule type="expression" dxfId="192" priority="1107">
       <formula>#REF!="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="1108">
+    <cfRule type="expression" dxfId="191" priority="1108">
       <formula>#REF!="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="200" priority="1109">
+    <cfRule type="expression" dxfId="190" priority="1109">
       <formula>#REF!="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="199" priority="1110">
+    <cfRule type="expression" dxfId="189" priority="1110">
       <formula>#REF!="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="1111">
+    <cfRule type="expression" dxfId="188" priority="1111">
       <formula>#REF!="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="197" priority="1112">
+    <cfRule type="expression" dxfId="187" priority="1112">
       <formula>#REF!="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="1113">
+    <cfRule type="expression" dxfId="186" priority="1113">
       <formula>#REF!="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="1114">
+    <cfRule type="expression" dxfId="185" priority="1114">
       <formula>#REF!="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="194" priority="1115">
+    <cfRule type="expression" dxfId="184" priority="1115">
       <formula>#REF!="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="1116">
+    <cfRule type="expression" dxfId="183" priority="1116">
       <formula>#REF!="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="1117">
+    <cfRule type="expression" dxfId="182" priority="1117">
       <formula>#REF!="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="191" priority="1118">
+    <cfRule type="expression" dxfId="181" priority="1118">
       <formula>#REF!="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="1119">
+    <cfRule type="expression" dxfId="180" priority="1119">
       <formula>#REF!="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="1120">
+    <cfRule type="expression" dxfId="179" priority="1120">
       <formula>#REF!="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="1121">
+    <cfRule type="expression" dxfId="178" priority="1121">
       <formula>#REF!="Gráfico 24"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O60:O62">
-    <cfRule type="expression" dxfId="187" priority="159">
+    <cfRule type="expression" dxfId="177" priority="159">
       <formula>$AA60="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="160">
+    <cfRule type="expression" dxfId="176" priority="160">
       <formula>$AA60="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="161">
+    <cfRule type="expression" dxfId="175" priority="161">
       <formula>$AA60="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="162">
+    <cfRule type="expression" dxfId="174" priority="162">
       <formula>$AA60="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="163">
+    <cfRule type="expression" dxfId="173" priority="163">
       <formula>$AA60="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="164">
+    <cfRule type="expression" dxfId="172" priority="164">
       <formula>$AA60="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="165">
+    <cfRule type="expression" dxfId="171" priority="165">
       <formula>$AA60="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="166">
+    <cfRule type="expression" dxfId="170" priority="166">
       <formula>$AA60="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="179" priority="167">
+    <cfRule type="expression" dxfId="169" priority="167">
       <formula>$AA60="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="168">
+    <cfRule type="expression" dxfId="168" priority="168">
       <formula>$AA60="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="169">
+    <cfRule type="expression" dxfId="167" priority="169">
       <formula>$AA60="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="176" priority="170">
+    <cfRule type="expression" dxfId="166" priority="170">
       <formula>$AA60="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="171">
+    <cfRule type="expression" dxfId="165" priority="171">
       <formula>$AA60="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="172">
+    <cfRule type="expression" dxfId="164" priority="172">
       <formula>$AA60="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="173">
+    <cfRule type="expression" dxfId="163" priority="173">
       <formula>$AA60="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="174">
+    <cfRule type="expression" dxfId="162" priority="174">
       <formula>$AA60="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="175">
+    <cfRule type="expression" dxfId="161" priority="175">
       <formula>$AA60="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="176">
+    <cfRule type="expression" dxfId="160" priority="176">
       <formula>$AA60="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="177">
+    <cfRule type="expression" dxfId="159" priority="177">
       <formula>$AA60="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="178">
+    <cfRule type="expression" dxfId="158" priority="178">
       <formula>$AA60="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="167" priority="179">
+    <cfRule type="expression" dxfId="157" priority="179">
       <formula>$AA60="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="180">
+    <cfRule type="expression" dxfId="156" priority="180">
       <formula>$AA60="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="181">
+    <cfRule type="expression" dxfId="155" priority="181">
       <formula>$AA60="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="182">
+    <cfRule type="expression" dxfId="154" priority="182">
       <formula>$AA60="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="183">
+    <cfRule type="expression" dxfId="153" priority="183">
       <formula>$AA60="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="184">
+    <cfRule type="expression" dxfId="152" priority="184">
       <formula>$AA60="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="185">
+    <cfRule type="expression" dxfId="151" priority="185">
       <formula>$AA60="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="186">
+    <cfRule type="expression" dxfId="150" priority="186">
       <formula>$AA60="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="187">
+    <cfRule type="expression" dxfId="149" priority="187">
       <formula>$AA60="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="188">
+    <cfRule type="expression" dxfId="148" priority="188">
       <formula>$AA60="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="189">
+    <cfRule type="expression" dxfId="147" priority="189">
       <formula>$AA60="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="190">
+    <cfRule type="expression" dxfId="146" priority="190">
       <formula>$AA60="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="191">
+    <cfRule type="expression" dxfId="145" priority="191">
       <formula>$AA60="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="192">
+    <cfRule type="expression" dxfId="144" priority="192">
       <formula>$AA60="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="193">
+    <cfRule type="expression" dxfId="143" priority="193">
       <formula>$AA60="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="194">
+    <cfRule type="expression" dxfId="142" priority="194">
       <formula>$AA60="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="195">
+    <cfRule type="expression" dxfId="141" priority="195">
       <formula>$AA60="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66:E68">
-    <cfRule type="cellIs" dxfId="150" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="156" operator="equal">
       <formula>"pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="157" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="158" operator="equal">
       <formula>"en proceso"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72:E74">
-    <cfRule type="cellIs" dxfId="147" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="153" operator="equal">
       <formula>"pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="154" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="155" operator="equal">
       <formula>"en proceso"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L45:L47">
-    <cfRule type="expression" dxfId="144" priority="121" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="121" stopIfTrue="1">
       <formula>#REF!="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="143" priority="125" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="125" stopIfTrue="1">
       <formula>#REF!="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="152">
+    <cfRule type="expression" dxfId="132" priority="152">
       <formula>#REF!="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O21:O32">
-    <cfRule type="expression" dxfId="141" priority="76">
+    <cfRule type="expression" dxfId="131" priority="76">
       <formula>$Y21="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="77">
+    <cfRule type="expression" dxfId="130" priority="77">
       <formula>$Y21="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="78">
+    <cfRule type="expression" dxfId="129" priority="78">
       <formula>$Y21="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="79">
+    <cfRule type="expression" dxfId="128" priority="79">
       <formula>$Y21="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="80">
+    <cfRule type="expression" dxfId="127" priority="80">
       <formula>$Y21="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="81">
+    <cfRule type="expression" dxfId="126" priority="81">
       <formula>$Y21="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="82">
+    <cfRule type="expression" dxfId="125" priority="82">
       <formula>$Y21="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="83">
+    <cfRule type="expression" dxfId="124" priority="83">
       <formula>$Y21="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="84">
+    <cfRule type="expression" dxfId="123" priority="84">
       <formula>$Y21="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="85">
+    <cfRule type="expression" dxfId="122" priority="85">
       <formula>$Y21="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="86">
+    <cfRule type="expression" dxfId="121" priority="86">
       <formula>$Y21="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="87">
+    <cfRule type="expression" dxfId="120" priority="87">
       <formula>$Y21="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="88">
+    <cfRule type="expression" dxfId="119" priority="88">
       <formula>$Y21="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="89">
+    <cfRule type="expression" dxfId="118" priority="89">
       <formula>$Y21="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="90">
+    <cfRule type="expression" dxfId="117" priority="90">
       <formula>$Y21="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="91">
+    <cfRule type="expression" dxfId="116" priority="91">
       <formula>$Y21="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="92">
+    <cfRule type="expression" dxfId="115" priority="92">
       <formula>$Y21="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="93">
+    <cfRule type="expression" dxfId="114" priority="93">
       <formula>$Y21="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="94">
+    <cfRule type="expression" dxfId="113" priority="94">
       <formula>$Y21="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="95">
+    <cfRule type="expression" dxfId="112" priority="95">
       <formula>$Y21="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="96">
+    <cfRule type="expression" dxfId="111" priority="96">
       <formula>$Y21="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="97">
+    <cfRule type="expression" dxfId="110" priority="97">
       <formula>$Y21="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="98">
+    <cfRule type="expression" dxfId="109" priority="98">
       <formula>$Y21="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="99">
+    <cfRule type="expression" dxfId="108" priority="99">
       <formula>$Y21="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="100">
+    <cfRule type="expression" dxfId="107" priority="100">
       <formula>$Y21="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="101">
+    <cfRule type="expression" dxfId="106" priority="101">
       <formula>$Y21="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="102">
+    <cfRule type="expression" dxfId="105" priority="102">
       <formula>$Y21="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="103">
+    <cfRule type="expression" dxfId="104" priority="103">
       <formula>$Y21="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="104">
+    <cfRule type="expression" dxfId="103" priority="104">
       <formula>$Y21="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="105">
+    <cfRule type="expression" dxfId="102" priority="105">
       <formula>$Y21="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="106">
+    <cfRule type="expression" dxfId="101" priority="106">
       <formula>$Y21="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="107">
+    <cfRule type="expression" dxfId="100" priority="107">
       <formula>$Y21="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="108">
+    <cfRule type="expression" dxfId="99" priority="108">
       <formula>$Y21="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="109">
+    <cfRule type="expression" dxfId="98" priority="109">
       <formula>$Y21="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="110">
+    <cfRule type="expression" dxfId="97" priority="110">
       <formula>$Y21="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="111">
+    <cfRule type="expression" dxfId="96" priority="111">
       <formula>$Y21="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="112">
+    <cfRule type="expression" dxfId="95" priority="112">
       <formula>$Y21="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O41:O44">
-    <cfRule type="expression" dxfId="104" priority="39">
+    <cfRule type="expression" dxfId="94" priority="39">
       <formula>$Z41="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="40">
+    <cfRule type="expression" dxfId="93" priority="40">
       <formula>$Z41="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="41">
+    <cfRule type="expression" dxfId="92" priority="41">
       <formula>$Z41="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="42">
+    <cfRule type="expression" dxfId="91" priority="42">
       <formula>$Z41="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="43">
+    <cfRule type="expression" dxfId="90" priority="43">
       <formula>$Z41="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="44">
+    <cfRule type="expression" dxfId="89" priority="44">
       <formula>$Z41="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="45">
+    <cfRule type="expression" dxfId="88" priority="45">
       <formula>$Z41="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="46">
+    <cfRule type="expression" dxfId="87" priority="46">
       <formula>$Z41="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="47">
+    <cfRule type="expression" dxfId="86" priority="47">
       <formula>$Z41="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="48">
+    <cfRule type="expression" dxfId="85" priority="48">
       <formula>$Z41="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="49">
+    <cfRule type="expression" dxfId="84" priority="49">
       <formula>$Z41="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="50">
+    <cfRule type="expression" dxfId="83" priority="50">
       <formula>$Z41="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="51">
+    <cfRule type="expression" dxfId="82" priority="51">
       <formula>$Z41="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="52">
+    <cfRule type="expression" dxfId="81" priority="52">
       <formula>$Z41="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="53">
+    <cfRule type="expression" dxfId="80" priority="53">
       <formula>$Z41="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="54">
+    <cfRule type="expression" dxfId="79" priority="54">
       <formula>$Z41="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="55">
+    <cfRule type="expression" dxfId="78" priority="55">
       <formula>$Z41="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="56">
+    <cfRule type="expression" dxfId="77" priority="56">
       <formula>$Z41="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="57">
+    <cfRule type="expression" dxfId="76" priority="57">
       <formula>$Z41="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="58">
+    <cfRule type="expression" dxfId="75" priority="58">
       <formula>$Z41="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="59">
+    <cfRule type="expression" dxfId="74" priority="59">
       <formula>$Z41="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="60">
+    <cfRule type="expression" dxfId="73" priority="60">
       <formula>$Z41="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="61">
+    <cfRule type="expression" dxfId="72" priority="61">
       <formula>$Z41="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="62">
+    <cfRule type="expression" dxfId="71" priority="62">
       <formula>$Z41="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="63">
+    <cfRule type="expression" dxfId="70" priority="63">
       <formula>$Z41="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="64">
+    <cfRule type="expression" dxfId="69" priority="64">
       <formula>$Z41="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="65">
+    <cfRule type="expression" dxfId="68" priority="65">
       <formula>$Z41="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="66">
+    <cfRule type="expression" dxfId="67" priority="66">
       <formula>$Z41="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="67">
+    <cfRule type="expression" dxfId="66" priority="67">
       <formula>$Z41="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="68">
+    <cfRule type="expression" dxfId="65" priority="68">
       <formula>$Z41="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="69">
+    <cfRule type="expression" dxfId="64" priority="69">
       <formula>$Z41="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="70">
+    <cfRule type="expression" dxfId="63" priority="70">
       <formula>$Z41="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="71">
+    <cfRule type="expression" dxfId="62" priority="71">
       <formula>$Z41="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="72">
+    <cfRule type="expression" dxfId="61" priority="72">
       <formula>$Z41="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="73">
+    <cfRule type="expression" dxfId="60" priority="73">
       <formula>$Z41="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="74">
+    <cfRule type="expression" dxfId="59" priority="74">
       <formula>$Z41="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="75">
+    <cfRule type="expression" dxfId="58" priority="75">
       <formula>$Z41="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O57:O59">
-    <cfRule type="expression" dxfId="67" priority="2">
+    <cfRule type="expression" dxfId="57" priority="2">
       <formula>$Z57="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="3">
+    <cfRule type="expression" dxfId="56" priority="3">
       <formula>$Z57="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="4">
+    <cfRule type="expression" dxfId="55" priority="4">
       <formula>$Z57="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="5">
+    <cfRule type="expression" dxfId="54" priority="5">
       <formula>$Z57="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="6">
+    <cfRule type="expression" dxfId="53" priority="6">
       <formula>$Z57="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="7">
+    <cfRule type="expression" dxfId="52" priority="7">
       <formula>$Z57="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="8">
+    <cfRule type="expression" dxfId="51" priority="8">
       <formula>$Z57="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="9">
+    <cfRule type="expression" dxfId="50" priority="9">
       <formula>$Z57="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="10">
+    <cfRule type="expression" dxfId="49" priority="10">
       <formula>$Z57="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="11">
+    <cfRule type="expression" dxfId="48" priority="11">
       <formula>$Z57="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="12">
+    <cfRule type="expression" dxfId="47" priority="12">
       <formula>$Z57="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="13">
+    <cfRule type="expression" dxfId="46" priority="13">
       <formula>$Z57="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="14">
+    <cfRule type="expression" dxfId="45" priority="14">
       <formula>$Z57="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="15">
+    <cfRule type="expression" dxfId="44" priority="15">
       <formula>$Z57="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="16">
+    <cfRule type="expression" dxfId="43" priority="16">
       <formula>$Z57="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="17">
+    <cfRule type="expression" dxfId="42" priority="17">
       <formula>$Z57="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="18">
+    <cfRule type="expression" dxfId="41" priority="18">
       <formula>$Z57="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="19">
+    <cfRule type="expression" dxfId="40" priority="19">
       <formula>$Z57="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="20">
+    <cfRule type="expression" dxfId="39" priority="20">
       <formula>$Z57="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="21">
+    <cfRule type="expression" dxfId="38" priority="21">
       <formula>$Z57="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="22">
+    <cfRule type="expression" dxfId="37" priority="22">
       <formula>$Z57="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="23">
+    <cfRule type="expression" dxfId="36" priority="23">
       <formula>$Z57="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="24">
+    <cfRule type="expression" dxfId="35" priority="24">
       <formula>$Z57="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="25">
+    <cfRule type="expression" dxfId="34" priority="25">
       <formula>$Z57="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="26">
+    <cfRule type="expression" dxfId="33" priority="26">
       <formula>$Z57="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="27">
+    <cfRule type="expression" dxfId="32" priority="27">
       <formula>$Z57="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="28">
+    <cfRule type="expression" dxfId="31" priority="28">
       <formula>$Z57="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="29">
+    <cfRule type="expression" dxfId="30" priority="29">
       <formula>$Z57="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="30">
+    <cfRule type="expression" dxfId="29" priority="30">
       <formula>$Z57="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="31">
+    <cfRule type="expression" dxfId="28" priority="31">
       <formula>$Z57="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="32">
+    <cfRule type="expression" dxfId="27" priority="32">
       <formula>$Z57="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="33">
+    <cfRule type="expression" dxfId="26" priority="33">
       <formula>$Z57="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="34">
+    <cfRule type="expression" dxfId="25" priority="34">
       <formula>$Z57="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="35">
+    <cfRule type="expression" dxfId="24" priority="35">
       <formula>$Z57="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="36">
+    <cfRule type="expression" dxfId="23" priority="36">
       <formula>$Z57="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="37">
+    <cfRule type="expression" dxfId="22" priority="37">
       <formula>$Z57="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="38">
+    <cfRule type="expression" dxfId="21" priority="38">
       <formula>$Z57="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:J96">
-    <cfRule type="cellIs" dxfId="30" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14343,17 +14239,18 @@
     <hyperlink ref="O41" r:id="rId55" xr:uid="{795FF98B-4C22-4CC4-9E8C-BF60C46E96ED}"/>
     <hyperlink ref="O57" r:id="rId56" xr:uid="{3FAD0F21-245E-4E3C-AFB4-6C25F5D7575F}"/>
     <hyperlink ref="O58" r:id="rId57" xr:uid="{23AB2DD9-566D-4A3F-9F29-B41183201E98}"/>
+    <hyperlink ref="O32" r:id="rId58" xr:uid="{7249FB21-DEBC-4F12-A9C4-114C9393C6E2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId58"/>
-  <drawing r:id="rId59"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId59"/>
+  <drawing r:id="rId60"/>
   <tableParts count="1">
-    <tablePart r:id="rId60"/>
+    <tablePart r:id="rId61"/>
   </tableParts>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
       <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicer r:id="rId61"/>
+        <x14:slicer r:id="rId62"/>
       </x14:slicerList>
     </ext>
   </extLst>

--- a/Monitoreo Nuevos Productos.xlsx
+++ b/Monitoreo Nuevos Productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478A9A03-5FD8-4263-97EC-263FF6074DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D4833F-5DB5-4F2E-9599-130CD7E9983F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{3C601918-C683-4A9E-9764-2E2F3DE6B565}"/>
   </bookViews>
@@ -7119,7 +7119,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8AB307C7-AF39-4578-A163-A8BC847F650D}" name="Tabla1" displayName="Tabla1" ref="A10:R96" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A10:R96" xr:uid="{BE3B9459-9CC4-4B42-85DE-65D6DD89527B}"/>
+  <autoFilter ref="A10:R96" xr:uid="{BE3B9459-9CC4-4B42-85DE-65D6DD89527B}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Plantaciones"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{AEA8EF0D-25C7-4111-8A9F-0B18B1765250}" name="SECTOR" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{752FAE73-6FD3-44CD-87CD-9043950F7C57}" name="COLECCIÓN" dataDxfId="16"/>
@@ -7444,10 +7450,10 @@
   <dimension ref="A8:R111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="10" topLeftCell="K29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="10" topLeftCell="L57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomRight" activeCell="L57" sqref="L57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7545,7 +7551,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
         <v>3</v>
       </c>
@@ -7597,7 +7603,7 @@
       <c r="Q11" s="14"/>
       <c r="R11" s="14"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="str">
         <f>+A11</f>
         <v>Agropecuario y Forestal</v>
@@ -7654,7 +7660,7 @@
       <c r="Q12" s="14"/>
       <c r="R12" s="14"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="str">
         <f t="shared" ref="A13:A72" si="0">+A12</f>
         <v>Agropecuario y Forestal</v>
@@ -7711,7 +7717,7 @@
       <c r="Q13" s="14"/>
       <c r="R13" s="14"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -7768,7 +7774,7 @@
       <c r="Q14" s="14"/>
       <c r="R14" s="14"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -7825,7 +7831,7 @@
       <c r="Q15" s="14"/>
       <c r="R15" s="14"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -7882,7 +7888,7 @@
       <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -7939,7 +7945,7 @@
       <c r="Q17" s="14"/>
       <c r="R17" s="14"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -7996,7 +8002,7 @@
       <c r="Q18" s="14"/>
       <c r="R18" s="14"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -8053,7 +8059,7 @@
       <c r="Q19" s="14"/>
       <c r="R19" s="14"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -8110,7 +8116,7 @@
       <c r="Q20" s="14"/>
       <c r="R20" s="14"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -8164,7 +8170,7 @@
       <c r="Q21" s="14"/>
       <c r="R21" s="14"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -8221,7 +8227,7 @@
       <c r="Q22" s="14"/>
       <c r="R22" s="14"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -8278,7 +8284,7 @@
       <c r="Q23" s="14"/>
       <c r="R23" s="14"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -8335,7 +8341,7 @@
       <c r="Q24" s="14"/>
       <c r="R24" s="14"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -8392,7 +8398,7 @@
       <c r="Q25" s="14"/>
       <c r="R25" s="14"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -8449,7 +8455,7 @@
       <c r="Q26" s="14"/>
       <c r="R26" s="14"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -8506,7 +8512,7 @@
       <c r="Q27" s="14"/>
       <c r="R27" s="14"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -8563,7 +8569,7 @@
       <c r="Q28" s="14"/>
       <c r="R28" s="14"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -8620,7 +8626,7 @@
       <c r="Q29" s="14"/>
       <c r="R29" s="14"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -8677,7 +8683,7 @@
       <c r="Q30" s="14"/>
       <c r="R30" s="14"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -8734,7 +8740,7 @@
       <c r="Q31" s="14"/>
       <c r="R31" s="14"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -8791,7 +8797,7 @@
       <c r="Q32" s="14"/>
       <c r="R32" s="14"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -8845,7 +8851,7 @@
       <c r="Q33" s="14"/>
       <c r="R33" s="14"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -8902,7 +8908,7 @@
       <c r="Q34" s="14"/>
       <c r="R34" s="14"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -8959,7 +8965,7 @@
       <c r="Q35" s="14"/>
       <c r="R35" s="14"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -9016,7 +9022,7 @@
       <c r="Q36" s="14"/>
       <c r="R36" s="14"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -9073,7 +9079,7 @@
       <c r="Q37" s="14"/>
       <c r="R37" s="14"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -9130,7 +9136,7 @@
       <c r="Q38" s="14"/>
       <c r="R38" s="14"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -9187,7 +9193,7 @@
       <c r="Q39" s="14"/>
       <c r="R39" s="14"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -9244,7 +9250,7 @@
       <c r="Q40" s="14"/>
       <c r="R40" s="14"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -9298,7 +9304,7 @@
       <c r="Q41" s="14"/>
       <c r="R41" s="14"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -9355,7 +9361,7 @@
       <c r="Q42" s="14"/>
       <c r="R42" s="14"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -9412,7 +9418,7 @@
       <c r="Q43" s="14"/>
       <c r="R43" s="14"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -9469,7 +9475,7 @@
       <c r="Q44" s="14"/>
       <c r="R44" s="14"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -9526,7 +9532,7 @@
       <c r="Q45" s="14"/>
       <c r="R45" s="14"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -9583,7 +9589,7 @@
       <c r="Q46" s="14"/>
       <c r="R46" s="14"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -9640,7 +9646,7 @@
       <c r="Q47" s="14"/>
       <c r="R47" s="14"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -9697,7 +9703,7 @@
       <c r="Q48" s="14"/>
       <c r="R48" s="14"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -9747,7 +9753,7 @@
       <c r="Q49" s="14"/>
       <c r="R49" s="14"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -9802,7 +9808,7 @@
       <c r="Q50" s="14"/>
       <c r="R50" s="14"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -9857,7 +9863,7 @@
       <c r="Q51" s="14"/>
       <c r="R51" s="14"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -9912,7 +9918,7 @@
       <c r="Q52" s="14"/>
       <c r="R52" s="14"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -9966,7 +9972,7 @@
       <c r="Q53" s="14"/>
       <c r="R53" s="14"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -10023,7 +10029,7 @@
       <c r="Q54" s="14"/>
       <c r="R54" s="14"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -10080,7 +10086,7 @@
       <c r="Q55" s="14"/>
       <c r="R55" s="14"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="14" t="str">
         <f>+A55</f>
         <v>Agropecuario y Forestal</v>
@@ -10305,7 +10311,7 @@
       <c r="Q59" s="14"/>
       <c r="R59" s="14"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -10360,7 +10366,7 @@
       <c r="Q60" s="14"/>
       <c r="R60" s="14"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -10418,7 +10424,7 @@
       <c r="Q61" s="14"/>
       <c r="R61" s="14"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -10475,7 +10481,7 @@
       <c r="Q62" s="14"/>
       <c r="R62" s="14"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -10529,7 +10535,7 @@
       <c r="Q63" s="14"/>
       <c r="R63" s="14"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -10586,7 +10592,7 @@
       <c r="Q64" s="14"/>
       <c r="R64" s="14"/>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -10643,7 +10649,7 @@
       <c r="Q65" s="14"/>
       <c r="R65" s="14"/>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -10700,7 +10706,7 @@
       <c r="Q66" s="14"/>
       <c r="R66" s="14"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -10757,7 +10763,7 @@
       <c r="Q67" s="14"/>
       <c r="R67" s="14"/>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -10814,7 +10820,7 @@
       <c r="Q68" s="14"/>
       <c r="R68" s="14"/>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -10868,7 +10874,7 @@
       <c r="Q69" s="14"/>
       <c r="R69" s="14"/>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -10925,7 +10931,7 @@
       <c r="Q70" s="14"/>
       <c r="R70" s="14"/>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -10982,7 +10988,7 @@
       <c r="Q71" s="14"/>
       <c r="R71" s="14"/>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -11039,7 +11045,7 @@
       <c r="Q72" s="14"/>
       <c r="R72" s="14"/>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="14" t="str">
         <f t="shared" ref="A73:A94" si="5">+A72</f>
         <v>Agropecuario y Forestal</v>
@@ -11096,7 +11102,7 @@
       <c r="Q73" s="14"/>
       <c r="R73" s="14"/>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="14" t="str">
         <f t="shared" si="5"/>
         <v>Agropecuario y Forestal</v>
@@ -11153,7 +11159,7 @@
       <c r="Q74" s="14"/>
       <c r="R74" s="14"/>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="14" t="str">
         <f t="shared" si="5"/>
         <v>Agropecuario y Forestal</v>
@@ -11207,7 +11213,7 @@
       <c r="Q75" s="14"/>
       <c r="R75" s="14"/>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="14" t="str">
         <f t="shared" si="5"/>
         <v>Agropecuario y Forestal</v>
@@ -11264,7 +11270,7 @@
       <c r="Q76" s="14"/>
       <c r="R76" s="14"/>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="14" t="str">
         <f t="shared" si="5"/>
         <v>Agropecuario y Forestal</v>
@@ -11319,7 +11325,7 @@
       <c r="Q77" s="14"/>
       <c r="R77" s="14"/>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="14" t="str">
         <f t="shared" si="5"/>
         <v>Agropecuario y Forestal</v>
@@ -11372,7 +11378,7 @@
       <c r="Q78" s="14"/>
       <c r="R78" s="14"/>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="14" t="str">
         <f t="shared" si="5"/>
         <v>Agropecuario y Forestal</v>
@@ -11425,7 +11431,7 @@
       <c r="Q79" s="14"/>
       <c r="R79" s="14"/>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="14" t="str">
         <f t="shared" si="5"/>
         <v>Agropecuario y Forestal</v>
@@ -11750,7 +11756,7 @@
       <c r="Q85" s="14"/>
       <c r="R85" s="14"/>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="14" t="str">
         <f t="shared" si="5"/>
         <v>Agropecuario y Forestal</v>
@@ -11804,7 +11810,7 @@
       <c r="Q86" s="14"/>
       <c r="R86" s="14"/>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="14" t="str">
         <f t="shared" si="5"/>
         <v>Agropecuario y Forestal</v>
@@ -11861,7 +11867,7 @@
       <c r="Q87" s="14"/>
       <c r="R87" s="14"/>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="14" t="str">
         <f t="shared" si="5"/>
         <v>Agropecuario y Forestal</v>
@@ -11918,7 +11924,7 @@
       <c r="Q88" s="14"/>
       <c r="R88" s="14"/>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="14" t="str">
         <f t="shared" si="5"/>
         <v>Agropecuario y Forestal</v>
@@ -11972,7 +11978,7 @@
       <c r="Q89" s="14"/>
       <c r="R89" s="14"/>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="14" t="str">
         <f t="shared" si="5"/>
         <v>Agropecuario y Forestal</v>
@@ -12029,7 +12035,7 @@
       <c r="Q90" s="14"/>
       <c r="R90" s="14"/>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="14" t="str">
         <f t="shared" si="5"/>
         <v>Agropecuario y Forestal</v>
@@ -12086,7 +12092,7 @@
       <c r="Q91" s="14"/>
       <c r="R91" s="14"/>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="14" t="str">
         <f t="shared" si="5"/>
         <v>Agropecuario y Forestal</v>
@@ -12140,7 +12146,7 @@
       <c r="Q92" s="14"/>
       <c r="R92" s="14"/>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="14" t="str">
         <f t="shared" si="5"/>
         <v>Agropecuario y Forestal</v>
@@ -12197,7 +12203,7 @@
       <c r="Q93" s="14"/>
       <c r="R93" s="14"/>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="14" t="str">
         <f t="shared" si="5"/>
         <v>Agropecuario y Forestal</v>
@@ -12254,7 +12260,7 @@
       <c r="Q94" s="14"/>
       <c r="R94" s="14"/>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="48" t="s">
         <v>316</v>
       </c>
@@ -12282,7 +12288,7 @@
       <c r="Q95" s="48"/>
       <c r="R95" s="48"/>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="48" t="s">
         <v>316</v>
       </c>

--- a/Monitoreo Nuevos Productos.xlsx
+++ b/Monitoreo Nuevos Productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FEE0CC-E43F-46E5-86B2-2D0A93A0E0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561D67AE-1140-4ECA-9F2E-F5826AFC6E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{3C601918-C683-4A9E-9764-2E2F3DE6B565}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="303">
   <si>
     <t>SECTOR</t>
   </si>
@@ -785,24 +785,6 @@
     <t>Tasa de Violaciones en Chile por Región y sus comunas</t>
   </si>
   <si>
-    <t>Sentencias dictadas por delitos de Abuso Sexual por los Juzgados de Garantía por Región</t>
-  </si>
-  <si>
-    <t>Sentencias dictadas por delitos de Abuso Sexual por Juzgados de Garantía</t>
-  </si>
-  <si>
-    <t>Sentencias dictadas por delitos de Abuso Sexual por los Juzgados de Garantía por delito</t>
-  </si>
-  <si>
-    <t>Sentencias dictadas por delitos vinculados a la mujer por los Juzgados de Garantía por Región</t>
-  </si>
-  <si>
-    <t>Sentencias dictadas por delitos vinculados a la mujer por Juzgados de Garantía</t>
-  </si>
-  <si>
-    <t>Sentencias dictadas por delitos vinculados a la mujer por los Juzgados de Garantía por delito</t>
-  </si>
-  <si>
     <t>Acoso Laboral || Chile || 2019</t>
   </si>
   <si>
@@ -810,12 +792,6 @@
   </si>
   <si>
     <t>Mujeres atendidas en establecimientos de apoyo || Chile || 2014-2019</t>
-  </si>
-  <si>
-    <t>Sentencias dictadas por delitos de Abuso Sexual por los Juzgados de Garantía de Chile por Región y Delito</t>
-  </si>
-  <si>
-    <t>Sentencias dictadas por delitos vinculados a la mujer por los Juzgados de Garantía de Chile por Región y Delito</t>
   </si>
   <si>
     <t>R360 01</t>
@@ -1184,6 +1160,30 @@
   </si>
   <si>
     <t>Centros de Reeducación de Hombres || Chile || Registros 2015-2019 || Ubicación 2021</t>
+  </si>
+  <si>
+    <t>Sentencias dictadas por delitos de Abuso Sexual || Chile || 2013-2019 || Por Juzgados de Garantía</t>
+  </si>
+  <si>
+    <t>Sentencias dictadas por delitos de Abuso Sexual || Chile || 2013-2019 || Por delito</t>
+  </si>
+  <si>
+    <t>Sentencias dictadas por delitos de Abuso Sexual || Chile || 2013-2019</t>
+  </si>
+  <si>
+    <t>Sentencias dictadas por delitos de Abuso Sexual || Chile || 2013-2019 || Por Región</t>
+  </si>
+  <si>
+    <t>Sentencias dictadas por delitos vinculados a la mujer || Chile || 2013-2019 || Por Región</t>
+  </si>
+  <si>
+    <t>Sentencias dictadas por delitos vinculados a la mujer || Chile || 2013-2019 || Por Juzgados de Garantía</t>
+  </si>
+  <si>
+    <t>Sentencias dictadas por delitos vinculados a la mujer || Chile || 2013-2019 || Por delito</t>
+  </si>
+  <si>
+    <t>Sentencias dictadas por delitos vinculados a la mujer || Chile || 2013-2019</t>
   </si>
 </sst>
 </file>
@@ -1364,7 +1364,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1485,7 +1485,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -6393,7 +6396,9 @@
     </filterColumn>
     <filterColumn colId="5">
       <filters>
-        <filter val="Centros de Apoyo a la Mujer"/>
+        <filter val="Abuso Sexual"/>
+        <filter val="Sentencias Generales"/>
+        <filter val="Violaciones"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -6717,10 +6722,10 @@
   <dimension ref="A8:N145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="10" topLeftCell="I104" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="10" topLeftCell="J101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="K146" sqref="K146"/>
+      <selection pane="bottomRight" activeCell="L114" sqref="L114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7228,7 +7233,7 @@
         <v>9</v>
       </c>
       <c r="K19" s="43" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="L19" s="29" t="s">
         <v>240</v>
@@ -7273,7 +7278,7 @@
         <v>9</v>
       </c>
       <c r="K20" s="43" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="L20" s="29" t="s">
         <v>241</v>
@@ -11050,7 +11055,7 @@
         <v>132</v>
       </c>
       <c r="F99" s="36" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="G99" s="36"/>
       <c r="H99" s="36" t="s">
@@ -11063,15 +11068,15 @@
         <v>1</v>
       </c>
       <c r="K99" s="39" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="L99" s="40" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="M99" s="40"/>
       <c r="N99" s="41"/>
     </row>
-    <row r="100" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A100" s="36" t="str">
         <f>+A99</f>
         <v>Mujeres</v>
@@ -11086,7 +11091,7 @@
       <c r="D100" s="37"/>
       <c r="E100" s="37"/>
       <c r="F100" s="36" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G100" s="36"/>
       <c r="H100" s="36" t="s">
@@ -11099,15 +11104,15 @@
         <v>16</v>
       </c>
       <c r="K100" s="39" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="L100" s="40" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="M100" s="40"/>
       <c r="N100" s="41"/>
     </row>
-    <row r="101" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" s="36" t="str">
         <f t="shared" ref="A101:A105" si="10">+A100</f>
         <v>Mujeres</v>
@@ -11122,7 +11127,7 @@
       <c r="D101" s="37"/>
       <c r="E101" s="37"/>
       <c r="F101" s="36" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G101" s="36"/>
       <c r="H101" s="36" t="s">
@@ -11135,10 +11140,10 @@
         <v>16</v>
       </c>
       <c r="K101" s="39" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="L101" s="40" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="M101" s="40"/>
       <c r="N101" s="41"/>
@@ -11158,7 +11163,7 @@
       <c r="D102" s="37"/>
       <c r="E102" s="37"/>
       <c r="F102" s="36" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="G102" s="36"/>
       <c r="H102" s="36" t="s">
@@ -11171,10 +11176,10 @@
         <v>1</v>
       </c>
       <c r="K102" s="39" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="L102" s="40" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="M102" s="40"/>
       <c r="N102" s="41"/>
@@ -11194,7 +11199,7 @@
       <c r="D103" s="37"/>
       <c r="E103" s="37"/>
       <c r="F103" s="36" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="G103" s="36"/>
       <c r="H103" s="36" t="s">
@@ -11207,15 +11212,15 @@
         <v>1</v>
       </c>
       <c r="K103" s="39" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="L103" s="40" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="M103" s="40"/>
       <c r="N103" s="23"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="36" t="str">
         <f t="shared" si="10"/>
         <v>Mujeres</v>
@@ -11230,7 +11235,7 @@
       <c r="D104" s="37"/>
       <c r="E104" s="37"/>
       <c r="F104" s="36" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="G104" s="36"/>
       <c r="H104" s="36" t="s">
@@ -11243,15 +11248,15 @@
         <v>2</v>
       </c>
       <c r="K104" s="39" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="L104" s="40" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="M104" s="40"/>
       <c r="N104" s="23"/>
     </row>
-    <row r="105" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A105" s="36" t="str">
         <f t="shared" si="10"/>
         <v>Mujeres</v>
@@ -11266,7 +11271,7 @@
       <c r="D105" s="37"/>
       <c r="E105" s="37"/>
       <c r="F105" s="45" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G105" s="36"/>
       <c r="H105" s="36" t="s">
@@ -11279,15 +11284,15 @@
         <v>16</v>
       </c>
       <c r="K105" s="39" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="L105" s="46" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="M105" s="40"/>
       <c r="N105" s="41"/>
     </row>
-    <row r="106" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A106" s="36" t="str">
         <f t="shared" ref="A106:A107" si="12">+A105</f>
         <v>Mujeres</v>
@@ -11302,7 +11307,7 @@
       <c r="D106" s="37"/>
       <c r="E106" s="37"/>
       <c r="F106" s="45" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G106" s="36"/>
       <c r="H106" s="36" t="s">
@@ -11315,15 +11320,15 @@
         <v>82</v>
       </c>
       <c r="K106" s="39" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="L106" s="46" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="M106" s="40"/>
       <c r="N106" s="41"/>
     </row>
-    <row r="107" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A107" s="36" t="str">
         <f t="shared" si="12"/>
         <v>Mujeres</v>
@@ -11338,7 +11343,7 @@
       <c r="D107" s="37"/>
       <c r="E107" s="37"/>
       <c r="F107" s="45" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G107" s="36"/>
       <c r="H107" s="36" t="s">
@@ -11351,10 +11356,10 @@
         <v>6</v>
       </c>
       <c r="K107" s="39" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="L107" s="46" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="M107" s="40"/>
       <c r="N107" s="41"/>
@@ -11374,7 +11379,7 @@
       <c r="D108" s="37"/>
       <c r="E108" s="37"/>
       <c r="F108" s="36" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="G108" s="36"/>
       <c r="H108" s="36" t="s">
@@ -11387,10 +11392,10 @@
         <v>16</v>
       </c>
       <c r="K108" s="39" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="L108" s="40" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="M108" s="40"/>
       <c r="N108" s="41"/>
@@ -11410,7 +11415,7 @@
       <c r="D109" s="37"/>
       <c r="E109" s="37"/>
       <c r="F109" s="36" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="G109" s="36"/>
       <c r="H109" s="36" t="s">
@@ -11423,15 +11428,15 @@
         <v>3</v>
       </c>
       <c r="K109" s="39" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="L109" s="40" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="M109" s="40"/>
       <c r="N109" s="41"/>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="36" t="str">
         <f t="shared" si="16"/>
         <v>Mujeres</v>
@@ -11446,7 +11451,7 @@
       <c r="D110" s="37"/>
       <c r="E110" s="37"/>
       <c r="F110" s="36" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="G110" s="36"/>
       <c r="H110" s="36" t="s">
@@ -11459,15 +11464,15 @@
         <v>16</v>
       </c>
       <c r="K110" s="39" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="L110" s="40" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="M110" s="40"/>
       <c r="N110" s="41"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="36" t="str">
         <f t="shared" si="16"/>
         <v>Mujeres</v>
@@ -11482,7 +11487,7 @@
       <c r="D111" s="37"/>
       <c r="E111" s="37"/>
       <c r="F111" s="36" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="G111" s="36"/>
       <c r="H111" s="36" t="s">
@@ -11495,15 +11500,15 @@
         <v>1</v>
       </c>
       <c r="K111" s="39" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="L111" s="40" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="M111" s="40"/>
       <c r="N111" s="23"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="36" t="str">
         <f t="shared" si="16"/>
         <v>Mujeres</v>
@@ -11518,7 +11523,7 @@
       <c r="D112" s="37"/>
       <c r="E112" s="37"/>
       <c r="F112" s="36" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="G112" s="36"/>
       <c r="H112" s="36" t="s">
@@ -11531,15 +11536,15 @@
         <v>1</v>
       </c>
       <c r="K112" s="39" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="L112" s="40" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="M112" s="40"/>
       <c r="N112" s="41"/>
     </row>
-    <row r="113" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A113" s="36" t="str">
         <f t="shared" si="16"/>
         <v>Mujeres</v>
@@ -11554,7 +11559,7 @@
       <c r="D113" s="37"/>
       <c r="E113" s="37"/>
       <c r="F113" s="36" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="G113" s="36"/>
       <c r="H113" s="36" t="s">
@@ -11567,15 +11572,15 @@
         <v>16</v>
       </c>
       <c r="K113" s="39" t="s">
-        <v>124</v>
+        <v>256</v>
       </c>
       <c r="L113" s="40" t="s">
-        <v>243</v>
+        <v>298</v>
       </c>
       <c r="M113" s="40"/>
       <c r="N113" s="41"/>
     </row>
-    <row r="114" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A114" s="36" t="str">
         <f t="shared" ref="A114:A115" si="18">+A113</f>
         <v>Mujeres</v>
@@ -11590,7 +11595,7 @@
       <c r="D114" s="37"/>
       <c r="E114" s="37"/>
       <c r="F114" s="36" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="G114" s="36"/>
       <c r="H114" s="36" t="s">
@@ -11603,15 +11608,15 @@
         <v>82</v>
       </c>
       <c r="K114" s="39" t="s">
-        <v>124</v>
+        <v>256</v>
       </c>
       <c r="L114" s="40" t="s">
-        <v>244</v>
+        <v>295</v>
       </c>
       <c r="M114" s="40"/>
       <c r="N114" s="41"/>
     </row>
-    <row r="115" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A115" s="36" t="str">
         <f t="shared" si="18"/>
         <v>Mujeres</v>
@@ -11626,7 +11631,7 @@
       <c r="D115" s="37"/>
       <c r="E115" s="37"/>
       <c r="F115" s="36" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="G115" s="36"/>
       <c r="H115" s="36" t="s">
@@ -11639,15 +11644,15 @@
         <v>9</v>
       </c>
       <c r="K115" s="39" t="s">
-        <v>124</v>
+        <v>256</v>
       </c>
       <c r="L115" s="40" t="s">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="M115" s="40"/>
       <c r="N115" s="41"/>
     </row>
-    <row r="116" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A116" s="36" t="str">
         <f t="shared" ref="A116:A118" si="20">+A115</f>
         <v>Mujeres</v>
@@ -11662,7 +11667,7 @@
       <c r="D116" s="37"/>
       <c r="E116" s="37"/>
       <c r="F116" s="36" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="G116" s="36"/>
       <c r="H116" s="36" t="s">
@@ -11675,15 +11680,15 @@
         <v>16</v>
       </c>
       <c r="K116" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="L116" s="40" t="s">
-        <v>246</v>
+        <v>256</v>
+      </c>
+      <c r="L116" s="47" t="s">
+        <v>299</v>
       </c>
       <c r="M116" s="40"/>
       <c r="N116" s="41"/>
     </row>
-    <row r="117" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A117" s="36" t="str">
         <f t="shared" si="20"/>
         <v>Mujeres</v>
@@ -11698,7 +11703,7 @@
       <c r="D117" s="37"/>
       <c r="E117" s="37"/>
       <c r="F117" s="36" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="G117" s="36"/>
       <c r="H117" s="36" t="s">
@@ -11711,15 +11716,15 @@
         <v>82</v>
       </c>
       <c r="K117" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="L117" s="40" t="s">
-        <v>247</v>
+        <v>256</v>
+      </c>
+      <c r="L117" s="47" t="s">
+        <v>300</v>
       </c>
       <c r="M117" s="40"/>
       <c r="N117" s="23"/>
     </row>
-    <row r="118" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A118" s="36" t="str">
         <f t="shared" si="20"/>
         <v>Mujeres</v>
@@ -11734,7 +11739,7 @@
       <c r="D118" s="37"/>
       <c r="E118" s="37"/>
       <c r="F118" s="36" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="G118" s="36"/>
       <c r="H118" s="36" t="s">
@@ -11747,10 +11752,10 @@
         <v>9</v>
       </c>
       <c r="K118" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="L118" s="40" t="s">
-        <v>248</v>
+        <v>256</v>
+      </c>
+      <c r="L118" s="47" t="s">
+        <v>301</v>
       </c>
       <c r="M118" s="40"/>
       <c r="N118" s="23"/>
@@ -11770,7 +11775,7 @@
       <c r="D119" s="37"/>
       <c r="E119" s="37"/>
       <c r="F119" s="36" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="G119" s="36"/>
       <c r="H119" s="36" t="s">
@@ -11783,10 +11788,10 @@
         <v>16</v>
       </c>
       <c r="K119" s="39" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="L119" s="40" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="M119" s="40"/>
       <c r="N119" s="23"/>
@@ -11806,7 +11811,7 @@
       <c r="D120" s="37"/>
       <c r="E120" s="37"/>
       <c r="F120" s="36" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="G120" s="36"/>
       <c r="H120" s="36" t="s">
@@ -11819,10 +11824,10 @@
         <v>4</v>
       </c>
       <c r="K120" s="39" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="L120" s="40" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="M120" s="40"/>
       <c r="N120" s="23"/>
@@ -11842,7 +11847,7 @@
       <c r="D121" s="37"/>
       <c r="E121" s="37"/>
       <c r="F121" s="36" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="G121" s="36"/>
       <c r="H121" s="36" t="s">
@@ -11855,10 +11860,10 @@
         <v>16</v>
       </c>
       <c r="K121" s="39" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="L121" s="40" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="M121" s="40"/>
       <c r="N121" s="23"/>
@@ -11878,7 +11883,7 @@
       <c r="D122" s="37"/>
       <c r="E122" s="37"/>
       <c r="F122" s="36" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="G122" s="36"/>
       <c r="H122" s="36" t="s">
@@ -11891,10 +11896,10 @@
         <v>4</v>
       </c>
       <c r="K122" s="39" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="L122" s="40" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="M122" s="40"/>
       <c r="N122" s="23"/>
@@ -11914,7 +11919,7 @@
       <c r="D123" s="37"/>
       <c r="E123" s="37"/>
       <c r="F123" s="36" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="G123" s="36"/>
       <c r="H123" s="36" t="s">
@@ -11927,10 +11932,10 @@
         <v>16</v>
       </c>
       <c r="K123" s="39" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="L123" s="40" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="M123" s="40"/>
       <c r="N123" s="23"/>
@@ -11950,7 +11955,7 @@
       <c r="D124" s="37"/>
       <c r="E124" s="37"/>
       <c r="F124" s="36" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="G124" s="36"/>
       <c r="H124" s="36" t="s">
@@ -11963,10 +11968,10 @@
         <v>4</v>
       </c>
       <c r="K124" s="39" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="L124" s="40" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="M124" s="40"/>
       <c r="N124" s="23"/>
@@ -11986,7 +11991,7 @@
       <c r="D125" s="37"/>
       <c r="E125" s="37"/>
       <c r="F125" s="36" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="G125" s="36"/>
       <c r="H125" s="36" t="s">
@@ -11999,10 +12004,10 @@
         <v>16</v>
       </c>
       <c r="K125" s="39" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="L125" s="40" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="M125" s="40"/>
       <c r="N125" s="23"/>
@@ -12022,7 +12027,7 @@
       <c r="D126" s="37"/>
       <c r="E126" s="37"/>
       <c r="F126" s="36" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="G126" s="36"/>
       <c r="H126" s="36" t="s">
@@ -12035,10 +12040,10 @@
         <v>4</v>
       </c>
       <c r="K126" s="39" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="L126" s="40" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="M126" s="40"/>
       <c r="N126" s="23"/>
@@ -12058,7 +12063,7 @@
       <c r="D127" s="37"/>
       <c r="E127" s="37"/>
       <c r="F127" s="36" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="G127" s="36"/>
       <c r="H127" s="36" t="s">
@@ -12071,10 +12076,10 @@
         <v>16</v>
       </c>
       <c r="K127" s="39" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="L127" s="40" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="M127" s="40"/>
       <c r="N127" s="23"/>
@@ -12094,7 +12099,7 @@
       <c r="D128" s="37"/>
       <c r="E128" s="37"/>
       <c r="F128" s="36" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="G128" s="36"/>
       <c r="H128" s="36" t="s">
@@ -12107,10 +12112,10 @@
         <v>3</v>
       </c>
       <c r="K128" s="39" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="L128" s="40" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="M128" s="40"/>
       <c r="N128" s="23"/>
@@ -12130,7 +12135,7 @@
       <c r="D129" s="37"/>
       <c r="E129" s="37"/>
       <c r="F129" s="36" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="G129" s="36"/>
       <c r="H129" s="36" t="s">
@@ -12143,10 +12148,10 @@
         <v>16</v>
       </c>
       <c r="K129" s="39" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="L129" s="40" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="M129" s="40"/>
       <c r="N129" s="23"/>
@@ -12166,7 +12171,7 @@
       <c r="D130" s="37"/>
       <c r="E130" s="37"/>
       <c r="F130" s="36" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="G130" s="36"/>
       <c r="H130" s="36" t="s">
@@ -12179,10 +12184,10 @@
         <v>3</v>
       </c>
       <c r="K130" s="39" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="L130" s="40" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="M130" s="40"/>
       <c r="N130" s="23"/>
@@ -12202,28 +12207,28 @@
       <c r="D131" s="37"/>
       <c r="E131" s="37"/>
       <c r="F131" s="36" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="G131" s="36"/>
       <c r="H131" s="36" t="s">
         <v>10</v>
       </c>
       <c r="I131" s="24" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="J131" s="38">
         <v>1</v>
       </c>
       <c r="K131" s="39" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="L131" s="44" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="M131" s="40"/>
       <c r="N131" s="23"/>
     </row>
-    <row r="132" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A132" s="36" t="str">
         <f t="shared" si="22"/>
         <v>Mujeres</v>
@@ -12238,20 +12243,20 @@
       <c r="D132" s="37"/>
       <c r="E132" s="37"/>
       <c r="F132" s="36" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G132" s="36"/>
       <c r="H132" s="36" t="s">
         <v>10</v>
       </c>
       <c r="I132" s="24" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="J132" s="38">
         <v>1</v>
       </c>
       <c r="K132" s="39" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="L132" s="44" t="s">
         <v>242</v>
@@ -12259,7 +12264,7 @@
       <c r="M132" s="40"/>
       <c r="N132" s="23"/>
     </row>
-    <row r="133" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A133" s="36" t="str">
         <f t="shared" si="22"/>
         <v>Mujeres</v>
@@ -12274,23 +12279,23 @@
       <c r="D133" s="37"/>
       <c r="E133" s="37"/>
       <c r="F133" s="45" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G133" s="36"/>
       <c r="H133" s="36" t="s">
         <v>10</v>
       </c>
       <c r="I133" s="24" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="J133" s="38">
         <v>1</v>
       </c>
       <c r="K133" s="39" t="s">
+        <v>256</v>
+      </c>
+      <c r="L133" s="46" t="s">
         <v>264</v>
-      </c>
-      <c r="L133" s="46" t="s">
-        <v>272</v>
       </c>
       <c r="M133" s="40"/>
       <c r="N133" s="23"/>
@@ -12310,28 +12315,28 @@
       <c r="D134" s="37"/>
       <c r="E134" s="37"/>
       <c r="F134" s="36" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="G134" s="36"/>
       <c r="H134" s="36" t="s">
         <v>10</v>
       </c>
       <c r="I134" s="24" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="J134" s="38">
         <v>1</v>
       </c>
       <c r="K134" s="39" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="L134" s="40" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="M134" s="40"/>
       <c r="N134" s="23"/>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" s="36" t="str">
         <f t="shared" si="22"/>
         <v>Mujeres</v>
@@ -12346,28 +12351,28 @@
       <c r="D135" s="37"/>
       <c r="E135" s="37"/>
       <c r="F135" s="36" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="G135" s="36"/>
       <c r="H135" s="36" t="s">
         <v>10</v>
       </c>
       <c r="I135" s="24" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="J135" s="38">
         <v>1</v>
       </c>
       <c r="K135" s="39" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="L135" s="40" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M135" s="40"/>
       <c r="N135" s="23"/>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" s="36" t="str">
         <f t="shared" si="22"/>
         <v>Mujeres</v>
@@ -12382,28 +12387,28 @@
       <c r="D136" s="37"/>
       <c r="E136" s="37"/>
       <c r="F136" s="36" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="G136" s="36"/>
       <c r="H136" s="36" t="s">
         <v>10</v>
       </c>
       <c r="I136" s="24" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="J136" s="38">
         <v>1</v>
       </c>
       <c r="K136" s="39" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="L136" s="40" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="M136" s="40"/>
       <c r="N136" s="23"/>
     </row>
-    <row r="137" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A137" s="36" t="str">
         <f t="shared" si="22"/>
         <v>Mujeres</v>
@@ -12418,28 +12423,28 @@
       <c r="D137" s="37"/>
       <c r="E137" s="37"/>
       <c r="F137" s="36" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="G137" s="36"/>
       <c r="H137" s="36" t="s">
         <v>10</v>
       </c>
       <c r="I137" s="24" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="J137" s="38">
         <v>1</v>
       </c>
       <c r="K137" s="39" t="s">
-        <v>124</v>
+        <v>256</v>
       </c>
       <c r="L137" s="40" t="s">
-        <v>252</v>
+        <v>297</v>
       </c>
       <c r="M137" s="40"/>
       <c r="N137" s="23"/>
     </row>
-    <row r="138" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A138" s="36" t="str">
         <f t="shared" si="22"/>
         <v>Mujeres</v>
@@ -12454,23 +12459,23 @@
       <c r="D138" s="37"/>
       <c r="E138" s="37"/>
       <c r="F138" s="36" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="G138" s="36"/>
       <c r="H138" s="36" t="s">
         <v>10</v>
       </c>
       <c r="I138" s="24" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="J138" s="38">
         <v>1</v>
       </c>
       <c r="K138" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="L138" s="40" t="s">
-        <v>253</v>
+        <v>256</v>
+      </c>
+      <c r="L138" s="47" t="s">
+        <v>302</v>
       </c>
       <c r="M138" s="40"/>
       <c r="N138" s="23"/>
@@ -12490,23 +12495,23 @@
       <c r="D139" s="37"/>
       <c r="E139" s="37"/>
       <c r="F139" s="36" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="G139" s="36"/>
       <c r="H139" s="36" t="s">
         <v>10</v>
       </c>
       <c r="I139" s="24" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="J139" s="38">
         <v>1</v>
       </c>
       <c r="K139" s="39" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="L139" s="40" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="M139" s="40"/>
       <c r="N139" s="23"/>
@@ -12526,23 +12531,23 @@
       <c r="D140" s="37"/>
       <c r="E140" s="37"/>
       <c r="F140" s="36" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="G140" s="36"/>
       <c r="H140" s="36" t="s">
         <v>10</v>
       </c>
       <c r="I140" s="24" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="J140" s="38">
         <v>1</v>
       </c>
       <c r="K140" s="39" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="L140" s="40" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="M140" s="40"/>
       <c r="N140" s="23"/>
@@ -12562,23 +12567,23 @@
       <c r="D141" s="37"/>
       <c r="E141" s="37"/>
       <c r="F141" s="36" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="G141" s="36"/>
       <c r="H141" s="36" t="s">
         <v>10</v>
       </c>
       <c r="I141" s="24" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="J141" s="38">
         <v>1</v>
       </c>
       <c r="K141" s="39" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="L141" s="40" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="M141" s="40"/>
       <c r="N141" s="23"/>
@@ -12598,23 +12603,23 @@
       <c r="D142" s="37"/>
       <c r="E142" s="37"/>
       <c r="F142" s="36" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="G142" s="36"/>
       <c r="H142" s="36" t="s">
         <v>10</v>
       </c>
       <c r="I142" s="24" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="J142" s="38">
         <v>1</v>
       </c>
       <c r="K142" s="39" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="L142" s="40" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="M142" s="40"/>
       <c r="N142" s="23"/>
@@ -12634,23 +12639,23 @@
       <c r="D143" s="37"/>
       <c r="E143" s="37"/>
       <c r="F143" s="36" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="G143" s="36"/>
       <c r="H143" s="36" t="s">
         <v>10</v>
       </c>
       <c r="I143" s="24" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="J143" s="38">
         <v>1</v>
       </c>
       <c r="K143" s="39" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="L143" s="40" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="M143" s="40"/>
       <c r="N143" s="23"/>
@@ -12670,23 +12675,23 @@
       <c r="D144" s="37"/>
       <c r="E144" s="37"/>
       <c r="F144" s="36" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="G144" s="36"/>
       <c r="H144" s="36" t="s">
         <v>10</v>
       </c>
       <c r="I144" s="24" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="J144" s="38">
         <v>1</v>
       </c>
       <c r="K144" s="39" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="L144" s="40" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="M144" s="40"/>
       <c r="N144" s="23"/>
@@ -12708,9 +12713,7 @@
       <c r="H145" s="36"/>
       <c r="I145" s="24"/>
       <c r="J145" s="38"/>
-      <c r="K145" s="39" t="s">
-        <v>124</v>
-      </c>
+      <c r="K145" s="39"/>
       <c r="L145" s="40"/>
       <c r="M145" s="40"/>
       <c r="N145" s="23"/>
@@ -14249,7 +14252,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">

--- a/Monitoreo Nuevos Productos.xlsx
+++ b/Monitoreo Nuevos Productos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CADEE4-4230-46E5-B861-BB7EA9B5CDD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C21EAD-A035-4BF4-9E4D-034C6D5CFAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10500" xr2:uid="{3C601918-C683-4A9E-9764-2E2F3DE6B565}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{3C601918-C683-4A9E-9764-2E2F3DE6B565}"/>
   </bookViews>
   <sheets>
     <sheet name="Monitoreo Nuevos Productos" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Hoja1" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Monitoreo Nuevos Productos'!$A$10:$N$145</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Monitoreo Nuevos Productos'!$A$10:$N$164</definedName>
     <definedName name="SegmentaciónDeDatos_COLECCIÓN">#N/A</definedName>
     <definedName name="SegmentaciónDeDatos_TABLA_MADRE">#N/A</definedName>
     <definedName name="SegmentaciónDeDatos_TEMA">#N/A</definedName>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="324">
   <si>
     <t>SECTOR</t>
   </si>
@@ -1168,6 +1168,72 @@
   </si>
   <si>
     <t>Sentencias dictadas por delitos vinculados a la mujer || Chile || 2013-2019</t>
+  </si>
+  <si>
+    <t>II 01</t>
+  </si>
+  <si>
+    <t>II 02</t>
+  </si>
+  <si>
+    <t>II 03</t>
+  </si>
+  <si>
+    <t>Informe interactico de casos de violencia psicológica hacia la mujer según Encuesta Nacional de Violencia Intrafamiliar en Tarapacá, para el año 2020.</t>
+  </si>
+  <si>
+    <t>Informe interactico de casos de violencia psicológica hacia la mujer según Encuesta Nacional de Violencia Intrafamiliar por Prevalencia Violencia Psicológica General Año, para el año 2020.</t>
+  </si>
+  <si>
+    <t>Informe interactico de casos de violencia psicológica hacia la mujer según Encuesta Nacional de Violencia Intrafamiliar en Tarapacá, para el periodo 2012-2020.</t>
+  </si>
+  <si>
+    <t>II 04</t>
+  </si>
+  <si>
+    <t>Informe interactivo de casos de violencia psicológica hacia la mujer según Encuesta Nacional de Violencia Intrafamiliar por Prevalencia Violencia Psicológica General Año, para el periodo 2012-2020.</t>
+  </si>
+  <si>
+    <t>VIF</t>
+  </si>
+  <si>
+    <t>Prevalencia Violencia Intrafamilia por región || Periodo 2012-2020</t>
+  </si>
+  <si>
+    <t>Casos de Violencia Intrafamilia presentados a fiscalía por región || Periodo 2019-2021</t>
+  </si>
+  <si>
+    <t>Frecuencia de Violencia Intrafamiliar en Chile por Región y sus comunas || Período 2005-2021</t>
+  </si>
+  <si>
+    <t>Atenciones Médicas por Violencia de Género en la Región de Tarapacá por Servicio Nacional de Salud y Concepto de Atención.Periodo 2010-2016</t>
+  </si>
+  <si>
+    <t>Atenciones Médicas por Violencia de Género por el Concepto de Atención: Atención por violación (con entrega de anticoncepción de emergencia) por Servicio Nacional de Salud.Periodo 2010-2016</t>
+  </si>
+  <si>
+    <t>27.10</t>
+  </si>
+  <si>
+    <t>Atenciones de salud</t>
+  </si>
+  <si>
+    <t>R360</t>
+  </si>
+  <si>
+    <t>RP</t>
+  </si>
+  <si>
+    <t>Casos de Violencia Intrafamilia presentados a fiscalía nacional || Periodo 2019-2021</t>
+  </si>
+  <si>
+    <t>Atenciones Médicas por Violencia de Género a nivel nacional por Servicio Nacional de Salud y Concepto de Atención.Periodo 2010-2016</t>
+  </si>
+  <si>
+    <t>Reporte de casos de violencia psicológica hacia la mujer según Encuesta Nacional de Violencia Intrafamiliar a nivel nacional, para el año 2020.</t>
+  </si>
+  <si>
+    <t>Reporte de casos de violencia psicológica hacia la mujer según Encuesta Nacional de Violencia Intrafamiliar a nivel nacional, para el periodo 2012-2020.</t>
   </si>
 </sst>
 </file>
@@ -1348,7 +1414,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1475,12 +1541,80 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="495">
+  <dxfs count="501">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -6009,15 +6143,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:colOff>254000</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:colOff>1384300</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -6087,13 +6221,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1647825</xdr:colOff>
+      <xdr:colOff>1644650</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
+      <xdr:colOff>730250</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -6171,7 +6305,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>2216150</xdr:colOff>
+      <xdr:colOff>3257550</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>63501</xdr:rowOff>
     </xdr:to>
@@ -6243,15 +6377,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>866775</xdr:colOff>
+      <xdr:colOff>863600</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:rowOff>82551</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
+      <xdr:colOff>463550</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
+      <xdr:rowOff>158751</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -6363,42 +6497,37 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="TABLA MADRE" xr10:uid="{E5B4DF95-80E8-4F10-AD82-CCE5BEE54362}" cache="SegmentaciónDeDatos_TABLA_MADRE" caption="TABLA MADRE" columnCount="3" rowHeight="241300"/>
+  <slicer name="TABLA MADRE" xr10:uid="{E5B4DF95-80E8-4F10-AD82-CCE5BEE54362}" cache="SegmentaciónDeDatos_TABLA_MADRE" caption="TABLA MADRE" startItem="8" columnCount="4" rowHeight="241300"/>
   <slicer name="TIPO PRODUCTO" xr10:uid="{9477DBC7-9C09-47A7-984E-6F75ED6B60A9}" cache="SegmentaciónDeDatos_TIPO_PRODUCTO" caption="TIPO PRODUCTO" rowHeight="241300"/>
-  <slicer name="TEMA" xr10:uid="{7B410BB5-38F1-4C94-868C-3BB0B69500F5}" cache="SegmentaciónDeDatos_TEMA" caption="TEMA" startItem="2" columnCount="2" rowHeight="241300"/>
+  <slicer name="TEMA" xr10:uid="{7B410BB5-38F1-4C94-868C-3BB0B69500F5}" cache="SegmentaciónDeDatos_TEMA" caption="TEMA" columnCount="2" rowHeight="241300"/>
   <slicer name="COLECCIÓN" xr10:uid="{A9E34F2D-603A-4D3B-9BDC-43C7F8B642F6}" cache="SegmentaciónDeDatos_COLECCIÓN" caption="COLECCIÓN" rowHeight="241300"/>
 </slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8AB307C7-AF39-4578-A163-A8BC847F650D}" name="Tabla1" displayName="Tabla1" ref="A10:N145" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A10:N145" xr:uid="{BE3B9459-9CC4-4B42-85DE-65D6DD89527B}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8AB307C7-AF39-4578-A163-A8BC847F650D}" name="Tabla1" displayName="Tabla1" ref="A10:N164" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="A10:N164" xr:uid="{BE3B9459-9CC4-4B42-85DE-65D6DD89527B}">
     <filterColumn colId="1">
       <filters>
         <filter val="Violencia"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="27.16"/>
-      </filters>
-    </filterColumn>
   </autoFilter>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{AEA8EF0D-25C7-4111-8A9F-0B18B1765250}" name="SECTOR" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{752FAE73-6FD3-44CD-87CD-9043950F7C57}" name="COLECCIÓN" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{6007294C-E2A9-42FC-8D1B-04F4C15E7E6C}" name="TABLA MADRE" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{CC128664-1A0A-4FA0-9E24-7F2D50AC3945}" name="RESPONSABLE" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{47097AA3-BED4-48AF-B9DE-ABBBAEBF8480}" name="ESTADO" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{D1D0198B-6B8E-4844-BFB3-0C4C39A5DEEB}" name="TEMA" dataDxfId="8"/>
-    <tableColumn id="18" xr3:uid="{FCDE1CEA-9D32-4512-8B1E-E0F36B0D06E6}" name="En contenido" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{F7C33F71-D2AC-440D-B0A6-B78933C8E65D}" name="TIPO PRODUCTO" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{D2B9DAD1-8888-4EAE-B08D-DDAAD4D91214}" name="NOMBRE" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{B13359B5-127C-4ACD-BA41-0F932FFA47DE}" name="Cantidad" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{22126FF6-1849-455F-A6A6-7D65468619C8}" name="Títulos revisados" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{C4B2B2EE-05E3-4BD3-9138-0C5123EACD36}" name="Título Genérico - Shopify" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{48638419-EFAD-40F5-8E0C-171981824999}" name="Título específico" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{5E5D6E60-EE68-4304-B67C-4D8F2081F5C6}" name="Tags" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{AEA8EF0D-25C7-4111-8A9F-0B18B1765250}" name="SECTOR" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{752FAE73-6FD3-44CD-87CD-9043950F7C57}" name="COLECCIÓN" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{6007294C-E2A9-42FC-8D1B-04F4C15E7E6C}" name="TABLA MADRE" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{CC128664-1A0A-4FA0-9E24-7F2D50AC3945}" name="RESPONSABLE" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{47097AA3-BED4-48AF-B9DE-ABBBAEBF8480}" name="ESTADO" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{D1D0198B-6B8E-4844-BFB3-0C4C39A5DEEB}" name="TEMA" dataDxfId="14"/>
+    <tableColumn id="18" xr3:uid="{FCDE1CEA-9D32-4512-8B1E-E0F36B0D06E6}" name="En contenido" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{F7C33F71-D2AC-440D-B0A6-B78933C8E65D}" name="TIPO PRODUCTO" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{D2B9DAD1-8888-4EAE-B08D-DDAAD4D91214}" name="NOMBRE" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{B13359B5-127C-4ACD-BA41-0F932FFA47DE}" name="Cantidad" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{22126FF6-1849-455F-A6A6-7D65468619C8}" name="Títulos revisados" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{C4B2B2EE-05E3-4BD3-9138-0C5123EACD36}" name="Título Genérico - Shopify" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{48638419-EFAD-40F5-8E0C-171981824999}" name="Título específico" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{5E5D6E60-EE68-4304-B67C-4D8F2081F5C6}" name="Tags" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6701,13 +6830,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3A78A7-9431-4C50-BEC2-0AF7D2B7DD16}">
-  <dimension ref="A8:N145"/>
+  <dimension ref="A8:N164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="10" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="10" topLeftCell="D123" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="J132" sqref="J132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6731,7 +6860,7 @@
       </c>
       <c r="I8" s="33">
         <f>SUMIF(H11:H236,H8,J11:J236)</f>
-        <v>2862</v>
+        <v>2982</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
@@ -6740,11 +6869,11 @@
       </c>
       <c r="I9" s="33">
         <f>SUMIF(H11:H236,H9,J11:J236)</f>
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J9" s="6">
         <f>SUM(J11:J3035)</f>
-        <v>2897</v>
+        <v>3021</v>
       </c>
       <c r="K9" s="6"/>
     </row>
@@ -11021,7 +11150,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="99" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A99" s="36" t="s">
         <v>230</v>
       </c>
@@ -11059,7 +11188,7 @@
       <c r="M99" s="40"/>
       <c r="N99" s="41"/>
     </row>
-    <row r="100" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A100" s="36" t="str">
         <f>+A99</f>
         <v>Mujeres</v>
@@ -11095,7 +11224,7 @@
       <c r="M100" s="40"/>
       <c r="N100" s="41"/>
     </row>
-    <row r="101" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" s="36" t="str">
         <f t="shared" ref="A101:A105" si="10">+A100</f>
         <v>Mujeres</v>
@@ -11131,7 +11260,7 @@
       <c r="M101" s="40"/>
       <c r="N101" s="41"/>
     </row>
-    <row r="102" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A102" s="36" t="str">
         <f t="shared" si="10"/>
         <v>Mujeres</v>
@@ -11167,7 +11296,7 @@
       <c r="M102" s="40"/>
       <c r="N102" s="41"/>
     </row>
-    <row r="103" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A103" s="36" t="str">
         <f t="shared" si="10"/>
         <v>Mujeres</v>
@@ -11203,7 +11332,7 @@
       <c r="M103" s="40"/>
       <c r="N103" s="23"/>
     </row>
-    <row r="104" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A104" s="36" t="str">
         <f t="shared" si="10"/>
         <v>Mujeres</v>
@@ -11239,7 +11368,7 @@
       <c r="M104" s="40"/>
       <c r="N104" s="23"/>
     </row>
-    <row r="105" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A105" s="36" t="str">
         <f t="shared" si="10"/>
         <v>Mujeres</v>
@@ -11275,7 +11404,7 @@
       <c r="M105" s="40"/>
       <c r="N105" s="41"/>
     </row>
-    <row r="106" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A106" s="36" t="str">
         <f t="shared" ref="A106:A107" si="12">+A105</f>
         <v>Mujeres</v>
@@ -11311,7 +11440,7 @@
       <c r="M106" s="40"/>
       <c r="N106" s="41"/>
     </row>
-    <row r="107" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A107" s="36" t="str">
         <f t="shared" si="12"/>
         <v>Mujeres</v>
@@ -11347,7 +11476,7 @@
       <c r="M107" s="40"/>
       <c r="N107" s="41"/>
     </row>
-    <row r="108" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A108" s="36" t="str">
         <f t="shared" ref="A108" si="14">+A107</f>
         <v>Mujeres</v>
@@ -11383,7 +11512,7 @@
       <c r="M108" s="40"/>
       <c r="N108" s="41"/>
     </row>
-    <row r="109" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A109" s="36" t="str">
         <f t="shared" ref="A109:A113" si="16">+A108</f>
         <v>Mujeres</v>
@@ -11419,7 +11548,7 @@
       <c r="M109" s="40"/>
       <c r="N109" s="41"/>
     </row>
-    <row r="110" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A110" s="36" t="str">
         <f t="shared" si="16"/>
         <v>Mujeres</v>
@@ -11455,7 +11584,7 @@
       <c r="M110" s="40"/>
       <c r="N110" s="41"/>
     </row>
-    <row r="111" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A111" s="36" t="str">
         <f t="shared" si="16"/>
         <v>Mujeres</v>
@@ -11491,7 +11620,7 @@
       <c r="M111" s="40"/>
       <c r="N111" s="23"/>
     </row>
-    <row r="112" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A112" s="36" t="str">
         <f t="shared" si="16"/>
         <v>Mujeres</v>
@@ -11527,7 +11656,7 @@
       <c r="M112" s="40"/>
       <c r="N112" s="41"/>
     </row>
-    <row r="113" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A113" s="36" t="str">
         <f t="shared" si="16"/>
         <v>Mujeres</v>
@@ -11563,7 +11692,7 @@
       <c r="M113" s="40"/>
       <c r="N113" s="41"/>
     </row>
-    <row r="114" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A114" s="36" t="str">
         <f t="shared" ref="A114:A115" si="18">+A113</f>
         <v>Mujeres</v>
@@ -11599,7 +11728,7 @@
       <c r="M114" s="40"/>
       <c r="N114" s="41"/>
     </row>
-    <row r="115" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A115" s="36" t="str">
         <f t="shared" si="18"/>
         <v>Mujeres</v>
@@ -11743,13 +11872,13 @@
       <c r="M118" s="40"/>
       <c r="N118" s="23"/>
     </row>
-    <row r="119" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A119" s="36" t="str">
-        <f t="shared" ref="A119:A145" si="22">+A118</f>
+        <f t="shared" ref="A119:A157" si="22">+A118</f>
         <v>Mujeres</v>
       </c>
       <c r="B119" s="36" t="str">
-        <f t="shared" ref="B119:B145" si="23">+B118</f>
+        <f t="shared" ref="B119:B157" si="23">+B118</f>
         <v>Violencia</v>
       </c>
       <c r="C119" s="37">
@@ -11779,7 +11908,7 @@
       <c r="M119" s="40"/>
       <c r="N119" s="23"/>
     </row>
-    <row r="120" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A120" s="36" t="str">
         <f t="shared" si="22"/>
         <v>Mujeres</v>
@@ -11815,7 +11944,7 @@
       <c r="M120" s="40"/>
       <c r="N120" s="23"/>
     </row>
-    <row r="121" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A121" s="36" t="str">
         <f t="shared" si="22"/>
         <v>Mujeres</v>
@@ -11851,7 +11980,7 @@
       <c r="M121" s="40"/>
       <c r="N121" s="23"/>
     </row>
-    <row r="122" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A122" s="36" t="str">
         <f t="shared" si="22"/>
         <v>Mujeres</v>
@@ -11887,7 +12016,7 @@
       <c r="M122" s="40"/>
       <c r="N122" s="23"/>
     </row>
-    <row r="123" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A123" s="36" t="str">
         <f t="shared" si="22"/>
         <v>Mujeres</v>
@@ -11923,7 +12052,7 @@
       <c r="M123" s="40"/>
       <c r="N123" s="23"/>
     </row>
-    <row r="124" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A124" s="36" t="str">
         <f t="shared" si="22"/>
         <v>Mujeres</v>
@@ -11959,7 +12088,7 @@
       <c r="M124" s="40"/>
       <c r="N124" s="23"/>
     </row>
-    <row r="125" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A125" s="36" t="str">
         <f t="shared" si="22"/>
         <v>Mujeres</v>
@@ -11995,7 +12124,7 @@
       <c r="M125" s="40"/>
       <c r="N125" s="23"/>
     </row>
-    <row r="126" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A126" s="36" t="str">
         <f t="shared" si="22"/>
         <v>Mujeres</v>
@@ -12031,7 +12160,7 @@
       <c r="M126" s="40"/>
       <c r="N126" s="23"/>
     </row>
-    <row r="127" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A127" s="36" t="str">
         <f t="shared" si="22"/>
         <v>Mujeres</v>
@@ -12067,7 +12196,7 @@
       <c r="M127" s="40"/>
       <c r="N127" s="23"/>
     </row>
-    <row r="128" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A128" s="36" t="str">
         <f t="shared" si="22"/>
         <v>Mujeres</v>
@@ -12103,7 +12232,7 @@
       <c r="M128" s="40"/>
       <c r="N128" s="23"/>
     </row>
-    <row r="129" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A129" s="36" t="str">
         <f t="shared" si="22"/>
         <v>Mujeres</v>
@@ -12139,7 +12268,7 @@
       <c r="M129" s="40"/>
       <c r="N129" s="23"/>
     </row>
-    <row r="130" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A130" s="36" t="str">
         <f t="shared" si="22"/>
         <v>Mujeres</v>
@@ -12175,7 +12304,7 @@
       <c r="M130" s="40"/>
       <c r="N130" s="23"/>
     </row>
-    <row r="131" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A131" s="36" t="str">
         <f t="shared" si="22"/>
         <v>Mujeres</v>
@@ -12211,7 +12340,7 @@
       <c r="M131" s="40"/>
       <c r="N131" s="23"/>
     </row>
-    <row r="132" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A132" s="36" t="str">
         <f t="shared" si="22"/>
         <v>Mujeres</v>
@@ -12247,7 +12376,7 @@
       <c r="M132" s="40"/>
       <c r="N132" s="23"/>
     </row>
-    <row r="133" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A133" s="36" t="str">
         <f t="shared" si="22"/>
         <v>Mujeres</v>
@@ -12283,7 +12412,7 @@
       <c r="M133" s="40"/>
       <c r="N133" s="23"/>
     </row>
-    <row r="134" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A134" s="36" t="str">
         <f t="shared" si="22"/>
         <v>Mujeres</v>
@@ -12319,7 +12448,7 @@
       <c r="M134" s="40"/>
       <c r="N134" s="23"/>
     </row>
-    <row r="135" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A135" s="36" t="str">
         <f t="shared" si="22"/>
         <v>Mujeres</v>
@@ -12355,7 +12484,7 @@
       <c r="M135" s="40"/>
       <c r="N135" s="23"/>
     </row>
-    <row r="136" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A136" s="36" t="str">
         <f t="shared" si="22"/>
         <v>Mujeres</v>
@@ -12391,7 +12520,7 @@
       <c r="M136" s="40"/>
       <c r="N136" s="23"/>
     </row>
-    <row r="137" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A137" s="36" t="str">
         <f t="shared" si="22"/>
         <v>Mujeres</v>
@@ -12463,7 +12592,7 @@
       <c r="M138" s="40"/>
       <c r="N138" s="23"/>
     </row>
-    <row r="139" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A139" s="36" t="str">
         <f t="shared" si="22"/>
         <v>Mujeres</v>
@@ -12499,7 +12628,7 @@
       <c r="M139" s="40"/>
       <c r="N139" s="23"/>
     </row>
-    <row r="140" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A140" s="36" t="str">
         <f t="shared" si="22"/>
         <v>Mujeres</v>
@@ -12535,7 +12664,7 @@
       <c r="M140" s="40"/>
       <c r="N140" s="23"/>
     </row>
-    <row r="141" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A141" s="36" t="str">
         <f t="shared" si="22"/>
         <v>Mujeres</v>
@@ -12571,7 +12700,7 @@
       <c r="M141" s="40"/>
       <c r="N141" s="23"/>
     </row>
-    <row r="142" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A142" s="36" t="str">
         <f t="shared" si="22"/>
         <v>Mujeres</v>
@@ -12607,7 +12736,7 @@
       <c r="M142" s="40"/>
       <c r="N142" s="23"/>
     </row>
-    <row r="143" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A143" s="36" t="str">
         <f t="shared" si="22"/>
         <v>Mujeres</v>
@@ -12643,7 +12772,7 @@
       <c r="M143" s="40"/>
       <c r="N143" s="23"/>
     </row>
-    <row r="144" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A144" s="36" t="str">
         <f t="shared" si="22"/>
         <v>Mujeres</v>
@@ -12679,7 +12808,7 @@
       <c r="M144" s="40"/>
       <c r="N144" s="23"/>
     </row>
-    <row r="145" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A145" s="36" t="str">
         <f t="shared" si="22"/>
         <v>Mujeres</v>
@@ -12688,1500 +12817,2041 @@
         <f t="shared" si="23"/>
         <v>Violencia</v>
       </c>
-      <c r="C145" s="37"/>
+      <c r="C145" s="37">
+        <v>27.17</v>
+      </c>
       <c r="D145" s="37"/>
       <c r="E145" s="37"/>
-      <c r="F145" s="36"/>
+      <c r="F145" s="36" t="s">
+        <v>262</v>
+      </c>
       <c r="G145" s="36"/>
-      <c r="H145" s="36"/>
-      <c r="I145" s="24"/>
-      <c r="J145" s="38"/>
+      <c r="H145" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="I145" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="J145" s="38">
+        <v>16</v>
+      </c>
       <c r="K145" s="39"/>
-      <c r="L145" s="40"/>
+      <c r="L145" s="40" t="s">
+        <v>305</v>
+      </c>
       <c r="M145" s="40"/>
       <c r="N145" s="23"/>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A146" s="36" t="str">
+        <f t="shared" si="22"/>
+        <v>Mujeres</v>
+      </c>
+      <c r="B146" s="36" t="str">
+        <f t="shared" si="23"/>
+        <v>Violencia</v>
+      </c>
+      <c r="C146" s="37">
+        <v>27.17</v>
+      </c>
+      <c r="D146" s="12"/>
+      <c r="E146" s="12"/>
+      <c r="F146" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="G146" s="10"/>
+      <c r="H146" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I146" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="J146" s="11">
+        <v>4</v>
+      </c>
+      <c r="K146" s="14"/>
+      <c r="L146" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="M146" s="20"/>
+      <c r="N146" s="23"/>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A147" s="36" t="str">
+        <f t="shared" si="22"/>
+        <v>Mujeres</v>
+      </c>
+      <c r="B147" s="36" t="str">
+        <f t="shared" si="23"/>
+        <v>Violencia</v>
+      </c>
+      <c r="C147" s="37">
+        <v>27.17</v>
+      </c>
+      <c r="D147" s="12"/>
+      <c r="E147" s="12"/>
+      <c r="F147" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="G147" s="10"/>
+      <c r="H147" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I147" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="J147" s="11">
+        <v>16</v>
+      </c>
+      <c r="K147" s="14"/>
+      <c r="L147" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="M147" s="20"/>
+      <c r="N147" s="23"/>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A148" s="36" t="str">
+        <f t="shared" si="22"/>
+        <v>Mujeres</v>
+      </c>
+      <c r="B148" s="36" t="str">
+        <f t="shared" si="23"/>
+        <v>Violencia</v>
+      </c>
+      <c r="C148" s="37">
+        <v>27.17</v>
+      </c>
+      <c r="D148" s="12"/>
+      <c r="E148" s="12"/>
+      <c r="F148" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="G148" s="10"/>
+      <c r="H148" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I148" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="J148" s="11">
+        <v>4</v>
+      </c>
+      <c r="K148" s="14"/>
+      <c r="L148" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="M148" s="20"/>
+      <c r="N148" s="23"/>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A149" s="36" t="str">
+        <f t="shared" si="22"/>
+        <v>Mujeres</v>
+      </c>
+      <c r="B149" s="36" t="str">
+        <f t="shared" si="23"/>
+        <v>Violencia</v>
+      </c>
+      <c r="C149" s="12">
+        <v>27.3</v>
+      </c>
+      <c r="D149" s="12"/>
+      <c r="E149" s="12"/>
+      <c r="F149" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="G149" s="10"/>
+      <c r="H149" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="I149" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="J149" s="11">
+        <v>16</v>
+      </c>
+      <c r="K149" s="14"/>
+      <c r="L149" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="M149" s="20"/>
+      <c r="N149" s="23"/>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A150" s="36" t="str">
+        <f t="shared" si="22"/>
+        <v>Mujeres</v>
+      </c>
+      <c r="B150" s="36" t="str">
+        <f t="shared" si="23"/>
+        <v>Violencia</v>
+      </c>
+      <c r="C150" s="12">
+        <v>27.4</v>
+      </c>
+      <c r="D150" s="12"/>
+      <c r="E150" s="12"/>
+      <c r="F150" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="G150" s="10"/>
+      <c r="H150" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="I150" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="J150" s="11">
+        <v>16</v>
+      </c>
+      <c r="K150" s="14"/>
+      <c r="L150" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="M150" s="20"/>
+      <c r="N150" s="23"/>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A151" s="36" t="str">
+        <f t="shared" si="22"/>
+        <v>Mujeres</v>
+      </c>
+      <c r="B151" s="36" t="str">
+        <f t="shared" si="23"/>
+        <v>Violencia</v>
+      </c>
+      <c r="C151" s="12">
+        <v>27.5</v>
+      </c>
+      <c r="D151" s="12"/>
+      <c r="E151" s="12"/>
+      <c r="F151" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="G151" s="10"/>
+      <c r="H151" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="I151" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="J151" s="11">
+        <v>16</v>
+      </c>
+      <c r="K151" s="14"/>
+      <c r="L151" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="M151" s="20"/>
+      <c r="N151" s="23"/>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A152" s="36" t="str">
+        <f t="shared" si="22"/>
+        <v>Mujeres</v>
+      </c>
+      <c r="B152" s="36" t="str">
+        <f t="shared" si="23"/>
+        <v>Violencia</v>
+      </c>
+      <c r="C152" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="D152" s="12"/>
+      <c r="E152" s="12"/>
+      <c r="F152" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="G152" s="10"/>
+      <c r="H152" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="I152" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="J152" s="11">
+        <v>16</v>
+      </c>
+      <c r="K152" s="14"/>
+      <c r="L152" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="M152" s="20"/>
+      <c r="N152" s="23"/>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A153" s="36" t="str">
+        <f t="shared" si="22"/>
+        <v>Mujeres</v>
+      </c>
+      <c r="B153" s="36" t="str">
+        <f t="shared" si="23"/>
+        <v>Violencia</v>
+      </c>
+      <c r="C153" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="D153" s="12"/>
+      <c r="E153" s="12"/>
+      <c r="F153" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="G153" s="10"/>
+      <c r="H153" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I153" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="J153" s="11">
+        <v>16</v>
+      </c>
+      <c r="K153" s="14"/>
+      <c r="L153" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="M153" s="20"/>
+      <c r="N153" s="23"/>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A154" s="36" t="str">
+        <f t="shared" si="22"/>
+        <v>Mujeres</v>
+      </c>
+      <c r="B154" s="36" t="str">
+        <f t="shared" si="23"/>
+        <v>Violencia</v>
+      </c>
+      <c r="C154" s="48">
+        <v>27.4</v>
+      </c>
+      <c r="D154" s="12"/>
+      <c r="E154" s="12"/>
+      <c r="F154" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="G154" s="10"/>
+      <c r="H154" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I154" t="s">
+        <v>318</v>
+      </c>
+      <c r="J154" s="31">
+        <v>1</v>
+      </c>
+      <c r="K154" s="14"/>
+      <c r="L154" s="49" t="s">
+        <v>320</v>
+      </c>
+      <c r="M154" s="20"/>
+      <c r="N154" s="23"/>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A155" s="36" t="str">
+        <f t="shared" si="22"/>
+        <v>Mujeres</v>
+      </c>
+      <c r="B155" s="36" t="str">
+        <f t="shared" si="23"/>
+        <v>Violencia</v>
+      </c>
+      <c r="C155" s="48" t="s">
+        <v>316</v>
+      </c>
+      <c r="D155" s="12"/>
+      <c r="E155" s="12"/>
+      <c r="F155" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="G155" s="10"/>
+      <c r="H155" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I155" t="s">
+        <v>319</v>
+      </c>
+      <c r="J155" s="31">
+        <v>1</v>
+      </c>
+      <c r="K155" s="14"/>
+      <c r="L155" s="49" t="s">
+        <v>321</v>
+      </c>
+      <c r="M155" s="20"/>
+      <c r="N155" s="23"/>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A156" s="36" t="str">
+        <f t="shared" si="22"/>
+        <v>Mujeres</v>
+      </c>
+      <c r="B156" s="36" t="str">
+        <f t="shared" si="23"/>
+        <v>Violencia</v>
+      </c>
+      <c r="C156" s="5">
+        <v>27.17</v>
+      </c>
+      <c r="D156" s="12"/>
+      <c r="E156" s="12"/>
+      <c r="F156" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="G156" s="10"/>
+      <c r="H156" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I156" t="s">
+        <v>247</v>
+      </c>
+      <c r="J156" s="31">
+        <v>1</v>
+      </c>
+      <c r="K156" s="14"/>
+      <c r="L156" s="49" t="s">
+        <v>322</v>
+      </c>
+      <c r="M156" s="20"/>
+      <c r="N156" s="23"/>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A157" s="36" t="str">
+        <f t="shared" si="22"/>
+        <v>Mujeres</v>
+      </c>
+      <c r="B157" s="36" t="str">
+        <f t="shared" si="23"/>
+        <v>Violencia</v>
+      </c>
+      <c r="C157" s="5">
+        <v>27.17</v>
+      </c>
+      <c r="D157" s="37"/>
+      <c r="E157" s="37"/>
+      <c r="F157" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="G157" s="36"/>
+      <c r="H157" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="I157" t="s">
+        <v>249</v>
+      </c>
+      <c r="J157" s="31">
+        <v>1</v>
+      </c>
+      <c r="K157" s="39"/>
+      <c r="L157" t="s">
+        <v>323</v>
+      </c>
+      <c r="M157" s="40"/>
+      <c r="N157" s="41"/>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A158" s="10"/>
+      <c r="B158" s="10"/>
+      <c r="D158" s="12"/>
+      <c r="E158" s="12"/>
+      <c r="F158" s="10"/>
+      <c r="G158" s="10"/>
+      <c r="H158" s="10"/>
+      <c r="I158" s="19"/>
+      <c r="J158" s="11"/>
+      <c r="K158" s="14"/>
+      <c r="L158" s="20"/>
+      <c r="M158" s="20"/>
+      <c r="N158" s="23"/>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A159" s="10"/>
+      <c r="B159" s="10"/>
+      <c r="C159" s="12"/>
+      <c r="D159" s="12"/>
+      <c r="E159" s="12"/>
+      <c r="F159" s="10"/>
+      <c r="G159" s="10"/>
+      <c r="H159" s="10"/>
+      <c r="I159" s="19"/>
+      <c r="J159" s="11"/>
+      <c r="K159" s="14"/>
+      <c r="L159" s="20"/>
+      <c r="M159" s="20"/>
+      <c r="N159" s="23"/>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A160" s="10"/>
+      <c r="B160" s="10"/>
+      <c r="C160" s="12"/>
+      <c r="D160" s="12"/>
+      <c r="E160" s="12"/>
+      <c r="F160" s="10"/>
+      <c r="G160" s="10"/>
+      <c r="H160" s="10"/>
+      <c r="I160" s="19"/>
+      <c r="J160" s="11"/>
+      <c r="K160" s="14"/>
+      <c r="L160" s="20"/>
+      <c r="M160" s="20"/>
+      <c r="N160" s="23"/>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A161" s="10"/>
+      <c r="B161" s="10"/>
+      <c r="C161" s="12"/>
+      <c r="D161" s="12"/>
+      <c r="E161" s="12"/>
+      <c r="F161" s="10"/>
+      <c r="G161" s="10"/>
+      <c r="H161" s="10"/>
+      <c r="I161" s="19"/>
+      <c r="J161" s="11"/>
+      <c r="K161" s="14"/>
+      <c r="L161" s="20"/>
+      <c r="M161" s="20"/>
+      <c r="N161" s="23"/>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A162" s="10"/>
+      <c r="B162" s="10"/>
+      <c r="C162" s="12"/>
+      <c r="D162" s="12"/>
+      <c r="E162" s="12"/>
+      <c r="F162" s="10"/>
+      <c r="G162" s="10"/>
+      <c r="H162" s="10"/>
+      <c r="I162" s="19"/>
+      <c r="J162" s="11"/>
+      <c r="K162" s="14"/>
+      <c r="L162" s="20"/>
+      <c r="M162" s="20"/>
+      <c r="N162" s="23"/>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A163" s="10"/>
+      <c r="B163" s="10"/>
+      <c r="C163" s="12"/>
+      <c r="D163" s="12"/>
+      <c r="E163" s="12"/>
+      <c r="F163" s="10"/>
+      <c r="G163" s="10"/>
+      <c r="H163" s="10"/>
+      <c r="I163" s="19"/>
+      <c r="J163" s="11"/>
+      <c r="K163" s="14"/>
+      <c r="L163" s="20"/>
+      <c r="M163" s="20"/>
+      <c r="N163" s="23"/>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A164" s="36"/>
+      <c r="B164" s="36"/>
+      <c r="C164" s="37"/>
+      <c r="D164" s="37"/>
+      <c r="E164" s="37"/>
+      <c r="F164" s="36"/>
+      <c r="G164" s="36"/>
+      <c r="H164" s="36"/>
+      <c r="I164" s="24"/>
+      <c r="J164" s="38"/>
+      <c r="K164" s="39"/>
+      <c r="L164" s="40"/>
+      <c r="M164" s="40"/>
+      <c r="N164" s="41"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="L43:M46">
-    <cfRule type="expression" dxfId="494" priority="986">
+    <cfRule type="expression" dxfId="500" priority="988">
       <formula>#REF!="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="493" priority="987">
+    <cfRule type="expression" dxfId="499" priority="989">
       <formula>#REF!="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="492" priority="988">
+    <cfRule type="expression" dxfId="498" priority="990">
       <formula>#REF!="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="491" priority="989">
+    <cfRule type="expression" dxfId="497" priority="991">
       <formula>#REF!="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="490" priority="990">
+    <cfRule type="expression" dxfId="496" priority="992">
       <formula>#REF!="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="489" priority="991">
+    <cfRule type="expression" dxfId="495" priority="993">
       <formula>#REF!="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="488" priority="992">
+    <cfRule type="expression" dxfId="494" priority="994">
       <formula>#REF!="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="487" priority="993">
+    <cfRule type="expression" dxfId="493" priority="995">
       <formula>#REF!="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="486" priority="994">
+    <cfRule type="expression" dxfId="492" priority="996">
       <formula>#REF!="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="485" priority="995">
+    <cfRule type="expression" dxfId="491" priority="997">
       <formula>#REF!="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="484" priority="996">
+    <cfRule type="expression" dxfId="490" priority="998">
       <formula>#REF!="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="483" priority="997">
+    <cfRule type="expression" dxfId="489" priority="999">
       <formula>#REF!="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="482" priority="998">
+    <cfRule type="expression" dxfId="488" priority="1000">
       <formula>#REF!="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="481" priority="999">
+    <cfRule type="expression" dxfId="487" priority="1001">
       <formula>#REF!="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="480" priority="1000">
+    <cfRule type="expression" dxfId="486" priority="1002">
       <formula>#REF!="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="479" priority="1001">
+    <cfRule type="expression" dxfId="485" priority="1003">
       <formula>#REF!="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="478" priority="1002">
+    <cfRule type="expression" dxfId="484" priority="1004">
       <formula>#REF!="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="477" priority="1003">
+    <cfRule type="expression" dxfId="483" priority="1005">
       <formula>#REF!="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="476" priority="1004">
+    <cfRule type="expression" dxfId="482" priority="1006">
       <formula>#REF!="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="475" priority="1005">
+    <cfRule type="expression" dxfId="481" priority="1007">
       <formula>#REF!="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="474" priority="1006">
+    <cfRule type="expression" dxfId="480" priority="1008">
       <formula>#REF!="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="473" priority="1007">
+    <cfRule type="expression" dxfId="479" priority="1009">
       <formula>#REF!="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="472" priority="1008">
+    <cfRule type="expression" dxfId="478" priority="1010">
       <formula>#REF!="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="471" priority="1009">
+    <cfRule type="expression" dxfId="477" priority="1011">
       <formula>#REF!="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="470" priority="1010">
+    <cfRule type="expression" dxfId="476" priority="1012">
       <formula>#REF!="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="469" priority="1011">
+    <cfRule type="expression" dxfId="475" priority="1013">
       <formula>#REF!="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="468" priority="1012">
+    <cfRule type="expression" dxfId="474" priority="1014">
       <formula>#REF!="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="467" priority="1013">
+    <cfRule type="expression" dxfId="473" priority="1015">
       <formula>#REF!="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="466" priority="1014">
+    <cfRule type="expression" dxfId="472" priority="1016">
       <formula>#REF!="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="465" priority="1015">
+    <cfRule type="expression" dxfId="471" priority="1017">
       <formula>#REF!="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="464" priority="1016">
+    <cfRule type="expression" dxfId="470" priority="1018">
       <formula>#REF!="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="463" priority="1017">
+    <cfRule type="expression" dxfId="469" priority="1019">
       <formula>#REF!="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="462" priority="1018">
+    <cfRule type="expression" dxfId="468" priority="1020">
       <formula>#REF!="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="461" priority="1019">
+    <cfRule type="expression" dxfId="467" priority="1021">
       <formula>#REF!="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="460" priority="1020">
+    <cfRule type="expression" dxfId="466" priority="1022">
       <formula>#REF!="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="459" priority="1021">
+    <cfRule type="expression" dxfId="465" priority="1023">
       <formula>#REF!="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="458" priority="1022">
+    <cfRule type="expression" dxfId="464" priority="1024">
       <formula>#REF!="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J103:J104 J110:K122 K123:K126 J127:K3035">
-    <cfRule type="cellIs" dxfId="457" priority="984" operator="greaterThan">
+  <conditionalFormatting sqref="J103:J104 J110:K122 K123:K126 J127:K149 J152:K3035 K150:K151">
+    <cfRule type="cellIs" dxfId="463" priority="986" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N30:N34">
-    <cfRule type="expression" dxfId="456" priority="610">
+    <cfRule type="expression" dxfId="462" priority="612">
       <formula>$Z21="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="455" priority="611">
+    <cfRule type="expression" dxfId="461" priority="613">
       <formula>$Z21="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="454" priority="612">
+    <cfRule type="expression" dxfId="460" priority="614">
       <formula>$Z21="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="453" priority="613">
+    <cfRule type="expression" dxfId="459" priority="615">
       <formula>$Z21="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="452" priority="614">
+    <cfRule type="expression" dxfId="458" priority="616">
       <formula>$Z21="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="451" priority="615">
+    <cfRule type="expression" dxfId="457" priority="617">
       <formula>$Z21="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="450" priority="616">
+    <cfRule type="expression" dxfId="456" priority="618">
       <formula>$Z21="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="449" priority="617">
+    <cfRule type="expression" dxfId="455" priority="619">
       <formula>$Z21="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="448" priority="618">
+    <cfRule type="expression" dxfId="454" priority="620">
       <formula>$Z21="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="447" priority="619">
+    <cfRule type="expression" dxfId="453" priority="621">
       <formula>$Z21="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="446" priority="620">
+    <cfRule type="expression" dxfId="452" priority="622">
       <formula>$Z21="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="445" priority="621">
+    <cfRule type="expression" dxfId="451" priority="623">
       <formula>$Z21="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="444" priority="622">
+    <cfRule type="expression" dxfId="450" priority="624">
       <formula>$Z21="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="443" priority="623">
+    <cfRule type="expression" dxfId="449" priority="625">
       <formula>$Z21="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="442" priority="624">
+    <cfRule type="expression" dxfId="448" priority="626">
       <formula>$Z21="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="441" priority="625">
+    <cfRule type="expression" dxfId="447" priority="627">
       <formula>$Z21="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="440" priority="626">
+    <cfRule type="expression" dxfId="446" priority="628">
       <formula>$Z21="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="439" priority="627">
+    <cfRule type="expression" dxfId="445" priority="629">
       <formula>$Z21="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="438" priority="628">
+    <cfRule type="expression" dxfId="444" priority="630">
       <formula>$Z21="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="437" priority="629">
+    <cfRule type="expression" dxfId="443" priority="631">
       <formula>$Z21="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="436" priority="630">
+    <cfRule type="expression" dxfId="442" priority="632">
       <formula>$Z21="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="435" priority="631">
+    <cfRule type="expression" dxfId="441" priority="633">
       <formula>$Z21="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="434" priority="632">
+    <cfRule type="expression" dxfId="440" priority="634">
       <formula>$Z21="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="433" priority="633">
+    <cfRule type="expression" dxfId="439" priority="635">
       <formula>$Z21="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="432" priority="634">
+    <cfRule type="expression" dxfId="438" priority="636">
       <formula>$Z21="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="431" priority="635">
+    <cfRule type="expression" dxfId="437" priority="637">
       <formula>$Z21="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="430" priority="636">
+    <cfRule type="expression" dxfId="436" priority="638">
       <formula>$Z21="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="429" priority="637">
+    <cfRule type="expression" dxfId="435" priority="639">
       <formula>$Z21="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="428" priority="638">
+    <cfRule type="expression" dxfId="434" priority="640">
       <formula>$Z21="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="427" priority="639">
+    <cfRule type="expression" dxfId="433" priority="641">
       <formula>$Z21="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="426" priority="640">
+    <cfRule type="expression" dxfId="432" priority="642">
       <formula>$Z21="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="425" priority="641">
+    <cfRule type="expression" dxfId="431" priority="643">
       <formula>$Z21="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="424" priority="642">
+    <cfRule type="expression" dxfId="430" priority="644">
       <formula>$Z21="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="423" priority="643">
+    <cfRule type="expression" dxfId="429" priority="645">
       <formula>$Z21="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="422" priority="644">
+    <cfRule type="expression" dxfId="428" priority="646">
       <formula>$Z21="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="421" priority="645">
+    <cfRule type="expression" dxfId="427" priority="647">
       <formula>$Z21="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="420" priority="646">
+    <cfRule type="expression" dxfId="426" priority="648">
       <formula>$Z21="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N43:N50 N57:N60">
-    <cfRule type="expression" dxfId="419" priority="573">
+    <cfRule type="expression" dxfId="425" priority="575">
       <formula>$Z43="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="418" priority="574">
+    <cfRule type="expression" dxfId="424" priority="576">
       <formula>$Z43="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="417" priority="575">
+    <cfRule type="expression" dxfId="423" priority="577">
       <formula>$Z43="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="416" priority="576">
+    <cfRule type="expression" dxfId="422" priority="578">
       <formula>$Z43="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="415" priority="577">
+    <cfRule type="expression" dxfId="421" priority="579">
       <formula>$Z43="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="414" priority="578">
+    <cfRule type="expression" dxfId="420" priority="580">
       <formula>$Z43="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="413" priority="579">
+    <cfRule type="expression" dxfId="419" priority="581">
       <formula>$Z43="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="412" priority="580">
+    <cfRule type="expression" dxfId="418" priority="582">
       <formula>$Z43="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="411" priority="581">
+    <cfRule type="expression" dxfId="417" priority="583">
       <formula>$Z43="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="410" priority="582">
+    <cfRule type="expression" dxfId="416" priority="584">
       <formula>$Z43="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="409" priority="583">
+    <cfRule type="expression" dxfId="415" priority="585">
       <formula>$Z43="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="408" priority="584">
+    <cfRule type="expression" dxfId="414" priority="586">
       <formula>$Z43="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="407" priority="585">
+    <cfRule type="expression" dxfId="413" priority="587">
       <formula>$Z43="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="406" priority="586">
+    <cfRule type="expression" dxfId="412" priority="588">
       <formula>$Z43="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="405" priority="587">
+    <cfRule type="expression" dxfId="411" priority="589">
       <formula>$Z43="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="404" priority="588">
+    <cfRule type="expression" dxfId="410" priority="590">
       <formula>$Z43="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="403" priority="589">
+    <cfRule type="expression" dxfId="409" priority="591">
       <formula>$Z43="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="402" priority="590">
+    <cfRule type="expression" dxfId="408" priority="592">
       <formula>$Z43="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="401" priority="591">
+    <cfRule type="expression" dxfId="407" priority="593">
       <formula>$Z43="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="400" priority="592">
+    <cfRule type="expression" dxfId="406" priority="594">
       <formula>$Z43="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="399" priority="593">
+    <cfRule type="expression" dxfId="405" priority="595">
       <formula>$Z43="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="398" priority="594">
+    <cfRule type="expression" dxfId="404" priority="596">
       <formula>$Z43="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="397" priority="595">
+    <cfRule type="expression" dxfId="403" priority="597">
       <formula>$Z43="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="396" priority="596">
+    <cfRule type="expression" dxfId="402" priority="598">
       <formula>$Z43="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="395" priority="597">
+    <cfRule type="expression" dxfId="401" priority="599">
       <formula>$Z43="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="394" priority="598">
+    <cfRule type="expression" dxfId="400" priority="600">
       <formula>$Z43="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="393" priority="599">
+    <cfRule type="expression" dxfId="399" priority="601">
       <formula>$Z43="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="392" priority="600">
+    <cfRule type="expression" dxfId="398" priority="602">
       <formula>$Z43="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="391" priority="601">
+    <cfRule type="expression" dxfId="397" priority="603">
       <formula>$Z43="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="390" priority="602">
+    <cfRule type="expression" dxfId="396" priority="604">
       <formula>$Z43="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="389" priority="603">
+    <cfRule type="expression" dxfId="395" priority="605">
       <formula>$Z43="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="388" priority="604">
+    <cfRule type="expression" dxfId="394" priority="606">
       <formula>$Z43="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="387" priority="605">
+    <cfRule type="expression" dxfId="393" priority="607">
       <formula>$Z43="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="386" priority="606">
+    <cfRule type="expression" dxfId="392" priority="608">
       <formula>$Z43="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="385" priority="607">
+    <cfRule type="expression" dxfId="391" priority="609">
       <formula>$Z43="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="384" priority="608">
+    <cfRule type="expression" dxfId="390" priority="610">
       <formula>$Z43="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="383" priority="609">
+    <cfRule type="expression" dxfId="389" priority="611">
       <formula>$Z43="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N64:N66">
-    <cfRule type="expression" dxfId="382" priority="499">
+    <cfRule type="expression" dxfId="388" priority="501">
       <formula>$AA64="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="381" priority="500">
+    <cfRule type="expression" dxfId="387" priority="502">
       <formula>$AA64="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="380" priority="501">
+    <cfRule type="expression" dxfId="386" priority="503">
       <formula>$AA64="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="379" priority="502">
+    <cfRule type="expression" dxfId="385" priority="504">
       <formula>$AA64="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="378" priority="503">
+    <cfRule type="expression" dxfId="384" priority="505">
       <formula>$AA64="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="377" priority="504">
+    <cfRule type="expression" dxfId="383" priority="506">
       <formula>$AA64="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="376" priority="505">
+    <cfRule type="expression" dxfId="382" priority="507">
       <formula>$AA64="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="375" priority="506">
+    <cfRule type="expression" dxfId="381" priority="508">
       <formula>$AA64="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="374" priority="507">
+    <cfRule type="expression" dxfId="380" priority="509">
       <formula>$AA64="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="373" priority="508">
+    <cfRule type="expression" dxfId="379" priority="510">
       <formula>$AA64="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="372" priority="509">
+    <cfRule type="expression" dxfId="378" priority="511">
       <formula>$AA64="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="371" priority="510">
+    <cfRule type="expression" dxfId="377" priority="512">
       <formula>$AA64="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="370" priority="511">
+    <cfRule type="expression" dxfId="376" priority="513">
       <formula>$AA64="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="369" priority="512">
+    <cfRule type="expression" dxfId="375" priority="514">
       <formula>$AA64="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="368" priority="513">
+    <cfRule type="expression" dxfId="374" priority="515">
       <formula>$AA64="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="367" priority="514">
+    <cfRule type="expression" dxfId="373" priority="516">
       <formula>$AA64="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="366" priority="515">
+    <cfRule type="expression" dxfId="372" priority="517">
       <formula>$AA64="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="365" priority="516">
+    <cfRule type="expression" dxfId="371" priority="518">
       <formula>$AA64="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="364" priority="517">
+    <cfRule type="expression" dxfId="370" priority="519">
       <formula>$AA64="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="363" priority="518">
+    <cfRule type="expression" dxfId="369" priority="520">
       <formula>$AA64="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="362" priority="519">
+    <cfRule type="expression" dxfId="368" priority="521">
       <formula>$AA64="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="361" priority="520">
+    <cfRule type="expression" dxfId="367" priority="522">
       <formula>$AA64="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="360" priority="521">
+    <cfRule type="expression" dxfId="366" priority="523">
       <formula>$AA64="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="359" priority="522">
+    <cfRule type="expression" dxfId="365" priority="524">
       <formula>$AA64="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="358" priority="523">
+    <cfRule type="expression" dxfId="364" priority="525">
       <formula>$AA64="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="357" priority="524">
+    <cfRule type="expression" dxfId="363" priority="526">
       <formula>$AA64="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="356" priority="525">
+    <cfRule type="expression" dxfId="362" priority="527">
       <formula>$AA64="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="355" priority="526">
+    <cfRule type="expression" dxfId="361" priority="528">
       <formula>$AA64="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="354" priority="527">
+    <cfRule type="expression" dxfId="360" priority="529">
       <formula>$AA64="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="353" priority="528">
+    <cfRule type="expression" dxfId="359" priority="530">
       <formula>$AA64="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="352" priority="529">
+    <cfRule type="expression" dxfId="358" priority="531">
       <formula>$AA64="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="351" priority="530">
+    <cfRule type="expression" dxfId="357" priority="532">
       <formula>$AA64="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="350" priority="531">
+    <cfRule type="expression" dxfId="356" priority="533">
       <formula>$AA64="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="349" priority="532">
+    <cfRule type="expression" dxfId="355" priority="534">
       <formula>$AA64="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="348" priority="533">
+    <cfRule type="expression" dxfId="354" priority="535">
       <formula>$AA64="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="347" priority="534">
+    <cfRule type="expression" dxfId="353" priority="536">
       <formula>$AA64="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="346" priority="535">
+    <cfRule type="expression" dxfId="352" priority="537">
       <formula>$AA64="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N93:N95">
-    <cfRule type="expression" dxfId="345" priority="462">
+    <cfRule type="expression" dxfId="351" priority="464">
       <formula>$Z93="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="344" priority="463">
+    <cfRule type="expression" dxfId="350" priority="465">
       <formula>$Z93="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="343" priority="464">
+    <cfRule type="expression" dxfId="349" priority="466">
       <formula>$Z93="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="342" priority="465">
+    <cfRule type="expression" dxfId="348" priority="467">
       <formula>$Z93="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="341" priority="466">
+    <cfRule type="expression" dxfId="347" priority="468">
       <formula>$Z93="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="340" priority="467">
+    <cfRule type="expression" dxfId="346" priority="469">
       <formula>$Z93="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="339" priority="468">
+    <cfRule type="expression" dxfId="345" priority="470">
       <formula>$Z93="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="338" priority="469">
+    <cfRule type="expression" dxfId="344" priority="471">
       <formula>$Z93="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="337" priority="470">
+    <cfRule type="expression" dxfId="343" priority="472">
       <formula>$Z93="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="336" priority="471">
+    <cfRule type="expression" dxfId="342" priority="473">
       <formula>$Z93="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="335" priority="472">
+    <cfRule type="expression" dxfId="341" priority="474">
       <formula>$Z93="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="334" priority="473">
+    <cfRule type="expression" dxfId="340" priority="475">
       <formula>$Z93="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="333" priority="474">
+    <cfRule type="expression" dxfId="339" priority="476">
       <formula>$Z93="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="332" priority="475">
+    <cfRule type="expression" dxfId="338" priority="477">
       <formula>$Z93="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="331" priority="476">
+    <cfRule type="expression" dxfId="337" priority="478">
       <formula>$Z93="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="330" priority="477">
+    <cfRule type="expression" dxfId="336" priority="479">
       <formula>$Z93="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="329" priority="478">
+    <cfRule type="expression" dxfId="335" priority="480">
       <formula>$Z93="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="328" priority="479">
+    <cfRule type="expression" dxfId="334" priority="481">
       <formula>$Z93="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="327" priority="480">
+    <cfRule type="expression" dxfId="333" priority="482">
       <formula>$Z93="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="326" priority="481">
+    <cfRule type="expression" dxfId="332" priority="483">
       <formula>$Z93="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="325" priority="482">
+    <cfRule type="expression" dxfId="331" priority="484">
       <formula>$Z93="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="324" priority="483">
+    <cfRule type="expression" dxfId="330" priority="485">
       <formula>$Z93="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="323" priority="484">
+    <cfRule type="expression" dxfId="329" priority="486">
       <formula>$Z93="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="322" priority="485">
+    <cfRule type="expression" dxfId="328" priority="487">
       <formula>$Z93="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="321" priority="486">
+    <cfRule type="expression" dxfId="327" priority="488">
       <formula>$Z93="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="320" priority="487">
+    <cfRule type="expression" dxfId="326" priority="489">
       <formula>$Z93="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="319" priority="488">
+    <cfRule type="expression" dxfId="325" priority="490">
       <formula>$Z93="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="318" priority="489">
+    <cfRule type="expression" dxfId="324" priority="491">
       <formula>$Z93="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="317" priority="490">
+    <cfRule type="expression" dxfId="323" priority="492">
       <formula>$Z93="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="316" priority="491">
+    <cfRule type="expression" dxfId="322" priority="493">
       <formula>$Z93="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="315" priority="492">
+    <cfRule type="expression" dxfId="321" priority="494">
       <formula>$Z93="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="314" priority="493">
+    <cfRule type="expression" dxfId="320" priority="495">
       <formula>$Z93="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="313" priority="494">
+    <cfRule type="expression" dxfId="319" priority="496">
       <formula>$Z93="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="312" priority="495">
+    <cfRule type="expression" dxfId="318" priority="497">
       <formula>$Z93="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="311" priority="496">
+    <cfRule type="expression" dxfId="317" priority="498">
       <formula>$Z93="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="310" priority="497">
+    <cfRule type="expression" dxfId="316" priority="499">
       <formula>$Z93="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="309" priority="498">
+    <cfRule type="expression" dxfId="315" priority="500">
       <formula>$Z93="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N96:N98">
-    <cfRule type="expression" dxfId="308" priority="425">
+    <cfRule type="expression" dxfId="314" priority="427">
       <formula>$Z96="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="307" priority="426">
+    <cfRule type="expression" dxfId="313" priority="428">
       <formula>$Z96="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="306" priority="427">
+    <cfRule type="expression" dxfId="312" priority="429">
       <formula>$Z96="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="305" priority="428">
+    <cfRule type="expression" dxfId="311" priority="430">
       <formula>$Z96="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="304" priority="429">
+    <cfRule type="expression" dxfId="310" priority="431">
       <formula>$Z96="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="303" priority="430">
+    <cfRule type="expression" dxfId="309" priority="432">
       <formula>$Z96="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="302" priority="431">
+    <cfRule type="expression" dxfId="308" priority="433">
       <formula>$Z96="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="301" priority="432">
+    <cfRule type="expression" dxfId="307" priority="434">
       <formula>$Z96="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="300" priority="433">
+    <cfRule type="expression" dxfId="306" priority="435">
       <formula>$Z96="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="299" priority="434">
+    <cfRule type="expression" dxfId="305" priority="436">
       <formula>$Z96="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="298" priority="435">
+    <cfRule type="expression" dxfId="304" priority="437">
       <formula>$Z96="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="297" priority="436">
+    <cfRule type="expression" dxfId="303" priority="438">
       <formula>$Z96="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="296" priority="437">
+    <cfRule type="expression" dxfId="302" priority="439">
       <formula>$Z96="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="295" priority="438">
+    <cfRule type="expression" dxfId="301" priority="440">
       <formula>$Z96="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="294" priority="439">
+    <cfRule type="expression" dxfId="300" priority="441">
       <formula>$Z96="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="293" priority="440">
+    <cfRule type="expression" dxfId="299" priority="442">
       <formula>$Z96="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="292" priority="441">
+    <cfRule type="expression" dxfId="298" priority="443">
       <formula>$Z96="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="291" priority="442">
+    <cfRule type="expression" dxfId="297" priority="444">
       <formula>$Z96="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="290" priority="443">
+    <cfRule type="expression" dxfId="296" priority="445">
       <formula>$Z96="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="289" priority="444">
+    <cfRule type="expression" dxfId="295" priority="446">
       <formula>$Z96="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="288" priority="445">
+    <cfRule type="expression" dxfId="294" priority="447">
       <formula>$Z96="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="287" priority="446">
+    <cfRule type="expression" dxfId="293" priority="448">
       <formula>$Z96="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="286" priority="447">
+    <cfRule type="expression" dxfId="292" priority="449">
       <formula>$Z96="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="285" priority="448">
+    <cfRule type="expression" dxfId="291" priority="450">
       <formula>$Z96="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="284" priority="449">
+    <cfRule type="expression" dxfId="290" priority="451">
       <formula>$Z96="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="283" priority="450">
+    <cfRule type="expression" dxfId="289" priority="452">
       <formula>$Z96="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="282" priority="451">
+    <cfRule type="expression" dxfId="288" priority="453">
       <formula>$Z96="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="281" priority="452">
+    <cfRule type="expression" dxfId="287" priority="454">
       <formula>$Z96="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="280" priority="453">
+    <cfRule type="expression" dxfId="286" priority="455">
       <formula>$Z96="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="279" priority="454">
+    <cfRule type="expression" dxfId="285" priority="456">
       <formula>$Z96="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="278" priority="455">
+    <cfRule type="expression" dxfId="284" priority="457">
       <formula>$Z96="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="277" priority="456">
+    <cfRule type="expression" dxfId="283" priority="458">
       <formula>$Z96="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="276" priority="457">
+    <cfRule type="expression" dxfId="282" priority="459">
       <formula>$Z96="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="275" priority="458">
+    <cfRule type="expression" dxfId="281" priority="460">
       <formula>$Z96="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="274" priority="459">
+    <cfRule type="expression" dxfId="280" priority="461">
       <formula>$Z96="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="273" priority="460">
+    <cfRule type="expression" dxfId="279" priority="462">
       <formula>$Z96="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="272" priority="461">
+    <cfRule type="expression" dxfId="278" priority="463">
       <formula>$Z96="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M50">
-    <cfRule type="expression" dxfId="271" priority="388">
+    <cfRule type="expression" dxfId="277" priority="390">
       <formula>#REF!="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="389">
+    <cfRule type="expression" dxfId="276" priority="391">
       <formula>#REF!="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="269" priority="390">
+    <cfRule type="expression" dxfId="275" priority="392">
       <formula>#REF!="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="268" priority="391">
+    <cfRule type="expression" dxfId="274" priority="393">
       <formula>#REF!="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="267" priority="392">
+    <cfRule type="expression" dxfId="273" priority="394">
       <formula>#REF!="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="266" priority="393">
+    <cfRule type="expression" dxfId="272" priority="395">
       <formula>#REF!="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="265" priority="394">
+    <cfRule type="expression" dxfId="271" priority="396">
       <formula>#REF!="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="264" priority="395">
+    <cfRule type="expression" dxfId="270" priority="397">
       <formula>#REF!="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="263" priority="396">
+    <cfRule type="expression" dxfId="269" priority="398">
       <formula>#REF!="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="397">
+    <cfRule type="expression" dxfId="268" priority="399">
       <formula>#REF!="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="261" priority="398">
+    <cfRule type="expression" dxfId="267" priority="400">
       <formula>#REF!="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="260" priority="399">
+    <cfRule type="expression" dxfId="266" priority="401">
       <formula>#REF!="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="259" priority="400">
+    <cfRule type="expression" dxfId="265" priority="402">
       <formula>#REF!="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="401">
+    <cfRule type="expression" dxfId="264" priority="403">
       <formula>#REF!="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="257" priority="402">
+    <cfRule type="expression" dxfId="263" priority="404">
       <formula>#REF!="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="256" priority="403">
+    <cfRule type="expression" dxfId="262" priority="405">
       <formula>#REF!="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="255" priority="404">
+    <cfRule type="expression" dxfId="261" priority="406">
       <formula>#REF!="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="254" priority="405">
+    <cfRule type="expression" dxfId="260" priority="407">
       <formula>#REF!="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="253" priority="406">
+    <cfRule type="expression" dxfId="259" priority="408">
       <formula>#REF!="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="252" priority="407">
+    <cfRule type="expression" dxfId="258" priority="409">
       <formula>#REF!="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="251" priority="408">
+    <cfRule type="expression" dxfId="257" priority="410">
       <formula>#REF!="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="409">
+    <cfRule type="expression" dxfId="256" priority="411">
       <formula>#REF!="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="249" priority="410">
+    <cfRule type="expression" dxfId="255" priority="412">
       <formula>#REF!="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="248" priority="411">
+    <cfRule type="expression" dxfId="254" priority="413">
       <formula>#REF!="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="247" priority="412">
+    <cfRule type="expression" dxfId="253" priority="414">
       <formula>#REF!="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="413">
+    <cfRule type="expression" dxfId="252" priority="415">
       <formula>#REF!="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="245" priority="414">
+    <cfRule type="expression" dxfId="251" priority="416">
       <formula>#REF!="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="415">
+    <cfRule type="expression" dxfId="250" priority="417">
       <formula>#REF!="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="243" priority="416">
+    <cfRule type="expression" dxfId="249" priority="418">
       <formula>#REF!="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="242" priority="417">
+    <cfRule type="expression" dxfId="248" priority="419">
       <formula>#REF!="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="241" priority="418">
+    <cfRule type="expression" dxfId="247" priority="420">
       <formula>#REF!="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="240" priority="419">
+    <cfRule type="expression" dxfId="246" priority="421">
       <formula>#REF!="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="239" priority="420">
+    <cfRule type="expression" dxfId="245" priority="422">
       <formula>#REF!="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="421">
+    <cfRule type="expression" dxfId="244" priority="423">
       <formula>#REF!="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="237" priority="422">
+    <cfRule type="expression" dxfId="243" priority="424">
       <formula>#REF!="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="236" priority="423">
+    <cfRule type="expression" dxfId="242" priority="425">
       <formula>#REF!="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="235" priority="424">
+    <cfRule type="expression" dxfId="241" priority="426">
       <formula>#REF!="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L50">
-    <cfRule type="expression" dxfId="234" priority="351">
+    <cfRule type="expression" dxfId="240" priority="353">
       <formula>#REF!="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="233" priority="352">
+    <cfRule type="expression" dxfId="239" priority="354">
       <formula>#REF!="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="232" priority="353">
+    <cfRule type="expression" dxfId="238" priority="355">
       <formula>#REF!="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="231" priority="354">
+    <cfRule type="expression" dxfId="237" priority="356">
       <formula>#REF!="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="230" priority="355">
+    <cfRule type="expression" dxfId="236" priority="357">
       <formula>#REF!="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="229" priority="356">
+    <cfRule type="expression" dxfId="235" priority="358">
       <formula>#REF!="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="357">
+    <cfRule type="expression" dxfId="234" priority="359">
       <formula>#REF!="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="227" priority="358">
+    <cfRule type="expression" dxfId="233" priority="360">
       <formula>#REF!="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="359">
+    <cfRule type="expression" dxfId="232" priority="361">
       <formula>#REF!="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="360">
+    <cfRule type="expression" dxfId="231" priority="362">
       <formula>#REF!="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="224" priority="361">
+    <cfRule type="expression" dxfId="230" priority="363">
       <formula>#REF!="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="223" priority="362">
+    <cfRule type="expression" dxfId="229" priority="364">
       <formula>#REF!="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="363">
+    <cfRule type="expression" dxfId="228" priority="365">
       <formula>#REF!="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="221" priority="364">
+    <cfRule type="expression" dxfId="227" priority="366">
       <formula>#REF!="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="365">
+    <cfRule type="expression" dxfId="226" priority="367">
       <formula>#REF!="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="219" priority="366">
+    <cfRule type="expression" dxfId="225" priority="368">
       <formula>#REF!="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="218" priority="367">
+    <cfRule type="expression" dxfId="224" priority="369">
       <formula>#REF!="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="217" priority="368">
+    <cfRule type="expression" dxfId="223" priority="370">
       <formula>#REF!="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="369">
+    <cfRule type="expression" dxfId="222" priority="371">
       <formula>#REF!="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="215" priority="370">
+    <cfRule type="expression" dxfId="221" priority="372">
       <formula>#REF!="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="371">
+    <cfRule type="expression" dxfId="220" priority="373">
       <formula>#REF!="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="213" priority="372">
+    <cfRule type="expression" dxfId="219" priority="374">
       <formula>#REF!="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="212" priority="373">
+    <cfRule type="expression" dxfId="218" priority="375">
       <formula>#REF!="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="374">
+    <cfRule type="expression" dxfId="217" priority="376">
       <formula>#REF!="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="375">
+    <cfRule type="expression" dxfId="216" priority="377">
       <formula>#REF!="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="209" priority="376">
+    <cfRule type="expression" dxfId="215" priority="378">
       <formula>#REF!="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="377">
+    <cfRule type="expression" dxfId="214" priority="379">
       <formula>#REF!="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="378">
+    <cfRule type="expression" dxfId="213" priority="380">
       <formula>#REF!="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="206" priority="379">
+    <cfRule type="expression" dxfId="212" priority="381">
       <formula>#REF!="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="380">
+    <cfRule type="expression" dxfId="211" priority="382">
       <formula>#REF!="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="381">
+    <cfRule type="expression" dxfId="210" priority="383">
       <formula>#REF!="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="203" priority="382">
+    <cfRule type="expression" dxfId="209" priority="384">
       <formula>#REF!="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="383">
+    <cfRule type="expression" dxfId="208" priority="385">
       <formula>#REF!="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="384">
+    <cfRule type="expression" dxfId="207" priority="386">
       <formula>#REF!="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="200" priority="385">
+    <cfRule type="expression" dxfId="206" priority="387">
       <formula>#REF!="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="199" priority="386">
+    <cfRule type="expression" dxfId="205" priority="388">
       <formula>#REF!="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="387">
+    <cfRule type="expression" dxfId="204" priority="389">
       <formula>#REF!="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11:K145">
-    <cfRule type="containsText" dxfId="197" priority="115" operator="containsText" text="cambiado">
+  <conditionalFormatting sqref="K11:K164">
+    <cfRule type="containsText" dxfId="203" priority="117" operator="containsText" text="cambiado">
       <formula>NOT(ISERROR(SEARCH("cambiado",K11)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="118" operator="equal">
       <formula>"revisar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="349" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="351" operator="equal">
       <formula>"pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="350" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="352" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73:E75 E79:E98 E11:E69">
-    <cfRule type="cellIs" dxfId="193" priority="346" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="348" operator="equal">
       <formula>"pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="347" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="349" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="348" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="350" operator="equal">
       <formula>"en proceso"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L66:M66">
-    <cfRule type="expression" dxfId="190" priority="235">
+    <cfRule type="expression" dxfId="196" priority="237">
       <formula>$W66="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="236">
+    <cfRule type="expression" dxfId="195" priority="238">
       <formula>$W66="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="237">
+    <cfRule type="expression" dxfId="194" priority="239">
       <formula>$W66="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="238">
+    <cfRule type="expression" dxfId="193" priority="240">
       <formula>$W66="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="239">
+    <cfRule type="expression" dxfId="192" priority="241">
       <formula>$W66="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="240">
+    <cfRule type="expression" dxfId="191" priority="242">
       <formula>$W66="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="241">
+    <cfRule type="expression" dxfId="190" priority="243">
       <formula>$W66="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="242">
+    <cfRule type="expression" dxfId="189" priority="244">
       <formula>$W66="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="243">
+    <cfRule type="expression" dxfId="188" priority="245">
       <formula>$W66="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="244">
+    <cfRule type="expression" dxfId="187" priority="246">
       <formula>$W66="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="245">
+    <cfRule type="expression" dxfId="186" priority="247">
       <formula>$W66="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="179" priority="246">
+    <cfRule type="expression" dxfId="185" priority="248">
       <formula>$W66="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="247">
+    <cfRule type="expression" dxfId="184" priority="249">
       <formula>$W66="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="248">
+    <cfRule type="expression" dxfId="183" priority="250">
       <formula>$W66="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="176" priority="249">
+    <cfRule type="expression" dxfId="182" priority="251">
       <formula>$W66="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="250">
+    <cfRule type="expression" dxfId="181" priority="252">
       <formula>$W66="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="251">
+    <cfRule type="expression" dxfId="180" priority="253">
       <formula>$W66="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="252">
+    <cfRule type="expression" dxfId="179" priority="254">
       <formula>$W66="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="253">
+    <cfRule type="expression" dxfId="178" priority="255">
       <formula>$W66="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="254">
+    <cfRule type="expression" dxfId="177" priority="256">
       <formula>$W66="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="255">
+    <cfRule type="expression" dxfId="176" priority="257">
       <formula>$W66="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="256">
+    <cfRule type="expression" dxfId="175" priority="258">
       <formula>$W66="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="257">
+    <cfRule type="expression" dxfId="174" priority="259">
       <formula>$W66="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="167" priority="258">
+    <cfRule type="expression" dxfId="173" priority="260">
       <formula>$W66="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="259">
+    <cfRule type="expression" dxfId="172" priority="261">
       <formula>$W66="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="260">
+    <cfRule type="expression" dxfId="171" priority="262">
       <formula>$W66="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="261">
+    <cfRule type="expression" dxfId="170" priority="263">
       <formula>$W66="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="262">
+    <cfRule type="expression" dxfId="169" priority="264">
       <formula>$W66="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="263">
+    <cfRule type="expression" dxfId="168" priority="265">
       <formula>$W66="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="264">
+    <cfRule type="expression" dxfId="167" priority="266">
       <formula>$W66="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="265">
+    <cfRule type="expression" dxfId="166" priority="267">
       <formula>$W66="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="266">
+    <cfRule type="expression" dxfId="165" priority="268">
       <formula>$W66="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="267">
+    <cfRule type="expression" dxfId="164" priority="269">
       <formula>$W66="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="268">
+    <cfRule type="expression" dxfId="163" priority="270">
       <formula>$W66="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="269">
+    <cfRule type="expression" dxfId="162" priority="271">
       <formula>$W66="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="270">
+    <cfRule type="expression" dxfId="161" priority="272">
       <formula>$W66="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="271">
+    <cfRule type="expression" dxfId="160" priority="273">
       <formula>$W66="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L64:M64">
-    <cfRule type="expression" dxfId="153" priority="272">
+    <cfRule type="expression" dxfId="159" priority="274">
       <formula>$W66="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="273">
+    <cfRule type="expression" dxfId="158" priority="275">
       <formula>$W66="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="274">
+    <cfRule type="expression" dxfId="157" priority="276">
       <formula>$W66="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="275">
+    <cfRule type="expression" dxfId="156" priority="277">
       <formula>$W66="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="276">
+    <cfRule type="expression" dxfId="155" priority="278">
       <formula>$W66="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="277">
+    <cfRule type="expression" dxfId="154" priority="279">
       <formula>$W66="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="278">
+    <cfRule type="expression" dxfId="153" priority="280">
       <formula>$W66="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="279">
+    <cfRule type="expression" dxfId="152" priority="281">
       <formula>$W66="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="280">
+    <cfRule type="expression" dxfId="151" priority="282">
       <formula>$W66="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="281">
+    <cfRule type="expression" dxfId="150" priority="283">
       <formula>$W66="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="143" priority="282">
+    <cfRule type="expression" dxfId="149" priority="284">
       <formula>$W66="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="283">
+    <cfRule type="expression" dxfId="148" priority="285">
       <formula>$W66="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="284">
+    <cfRule type="expression" dxfId="147" priority="286">
       <formula>$W66="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="285">
+    <cfRule type="expression" dxfId="146" priority="287">
       <formula>$W66="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="286">
+    <cfRule type="expression" dxfId="145" priority="288">
       <formula>$W66="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="287">
+    <cfRule type="expression" dxfId="144" priority="289">
       <formula>$W66="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="288">
+    <cfRule type="expression" dxfId="143" priority="290">
       <formula>$W66="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="289">
+    <cfRule type="expression" dxfId="142" priority="291">
       <formula>$W66="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="290">
+    <cfRule type="expression" dxfId="141" priority="292">
       <formula>$W66="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="291">
+    <cfRule type="expression" dxfId="140" priority="293">
       <formula>$W66="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="292">
+    <cfRule type="expression" dxfId="139" priority="294">
       <formula>$W66="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="293">
+    <cfRule type="expression" dxfId="138" priority="295">
       <formula>$W66="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="294">
+    <cfRule type="expression" dxfId="137" priority="296">
       <formula>$W66="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="295">
+    <cfRule type="expression" dxfId="136" priority="297">
       <formula>$W66="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="296">
+    <cfRule type="expression" dxfId="135" priority="298">
       <formula>$W66="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="297">
+    <cfRule type="expression" dxfId="134" priority="299">
       <formula>$W66="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="298">
+    <cfRule type="expression" dxfId="133" priority="300">
       <formula>$W66="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="299">
+    <cfRule type="expression" dxfId="132" priority="301">
       <formula>$W66="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="300">
+    <cfRule type="expression" dxfId="131" priority="302">
       <formula>$W66="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="301">
+    <cfRule type="expression" dxfId="130" priority="303">
       <formula>$W66="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="302">
+    <cfRule type="expression" dxfId="129" priority="304">
       <formula>$W66="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="303">
+    <cfRule type="expression" dxfId="128" priority="305">
       <formula>$W66="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="304">
+    <cfRule type="expression" dxfId="127" priority="306">
       <formula>$W66="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="305">
+    <cfRule type="expression" dxfId="126" priority="307">
       <formula>$W66="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="306">
+    <cfRule type="expression" dxfId="125" priority="308">
       <formula>$W66="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="307">
+    <cfRule type="expression" dxfId="124" priority="309">
       <formula>$W66="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="308">
+    <cfRule type="expression" dxfId="123" priority="310">
       <formula>$W66="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M64">
-    <cfRule type="expression" dxfId="116" priority="198">
+    <cfRule type="expression" dxfId="122" priority="200">
       <formula>$W66="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="199">
+    <cfRule type="expression" dxfId="121" priority="201">
       <formula>$W66="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="200">
+    <cfRule type="expression" dxfId="120" priority="202">
       <formula>$W66="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="201">
+    <cfRule type="expression" dxfId="119" priority="203">
       <formula>$W66="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="202">
+    <cfRule type="expression" dxfId="118" priority="204">
       <formula>$W66="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="203">
+    <cfRule type="expression" dxfId="117" priority="205">
       <formula>$W66="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="204">
+    <cfRule type="expression" dxfId="116" priority="206">
       <formula>$W66="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="205">
+    <cfRule type="expression" dxfId="115" priority="207">
       <formula>$W66="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="206">
+    <cfRule type="expression" dxfId="114" priority="208">
       <formula>$W66="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="207">
+    <cfRule type="expression" dxfId="113" priority="209">
       <formula>$W66="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="208">
+    <cfRule type="expression" dxfId="112" priority="210">
       <formula>$W66="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="209">
+    <cfRule type="expression" dxfId="111" priority="211">
       <formula>$W66="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="210">
+    <cfRule type="expression" dxfId="110" priority="212">
       <formula>$W66="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="211">
+    <cfRule type="expression" dxfId="109" priority="213">
       <formula>$W66="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="212">
+    <cfRule type="expression" dxfId="108" priority="214">
       <formula>$W66="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="213">
+    <cfRule type="expression" dxfId="107" priority="215">
       <formula>$W66="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="214">
+    <cfRule type="expression" dxfId="106" priority="216">
       <formula>$W66="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="215">
+    <cfRule type="expression" dxfId="105" priority="217">
       <formula>$W66="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="216">
+    <cfRule type="expression" dxfId="104" priority="218">
       <formula>$W66="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="217">
+    <cfRule type="expression" dxfId="103" priority="219">
       <formula>$W66="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="218">
+    <cfRule type="expression" dxfId="102" priority="220">
       <formula>$W66="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="219">
+    <cfRule type="expression" dxfId="101" priority="221">
       <formula>$W66="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="220">
+    <cfRule type="expression" dxfId="100" priority="222">
       <formula>$W66="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="221">
+    <cfRule type="expression" dxfId="99" priority="223">
       <formula>$W66="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="222">
+    <cfRule type="expression" dxfId="98" priority="224">
       <formula>$W66="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="223">
+    <cfRule type="expression" dxfId="97" priority="225">
       <formula>$W66="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="224">
+    <cfRule type="expression" dxfId="96" priority="226">
       <formula>$W66="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="225">
+    <cfRule type="expression" dxfId="95" priority="227">
       <formula>$W66="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="226">
+    <cfRule type="expression" dxfId="94" priority="228">
       <formula>$W66="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="227">
+    <cfRule type="expression" dxfId="93" priority="229">
       <formula>$W66="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="228">
+    <cfRule type="expression" dxfId="92" priority="230">
       <formula>$W66="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="229">
+    <cfRule type="expression" dxfId="91" priority="231">
       <formula>$W66="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="230">
+    <cfRule type="expression" dxfId="90" priority="232">
       <formula>$W66="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="231">
+    <cfRule type="expression" dxfId="89" priority="233">
       <formula>$W66="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="232">
+    <cfRule type="expression" dxfId="88" priority="234">
       <formula>$W66="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="233">
+    <cfRule type="expression" dxfId="87" priority="235">
       <formula>$W66="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="234">
+    <cfRule type="expression" dxfId="86" priority="236">
       <formula>$W66="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L65:M65">
-    <cfRule type="expression" dxfId="79" priority="1109">
+    <cfRule type="expression" dxfId="85" priority="1111">
       <formula>#REF!="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="1110">
+    <cfRule type="expression" dxfId="84" priority="1112">
       <formula>#REF!="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="1111">
+    <cfRule type="expression" dxfId="83" priority="1113">
       <formula>#REF!="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="1112">
+    <cfRule type="expression" dxfId="82" priority="1114">
       <formula>#REF!="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="1113">
+    <cfRule type="expression" dxfId="81" priority="1115">
       <formula>#REF!="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="1114">
+    <cfRule type="expression" dxfId="80" priority="1116">
       <formula>#REF!="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="1115">
+    <cfRule type="expression" dxfId="79" priority="1117">
       <formula>#REF!="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="1116">
+    <cfRule type="expression" dxfId="78" priority="1118">
       <formula>#REF!="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="1117">
+    <cfRule type="expression" dxfId="77" priority="1119">
       <formula>#REF!="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="1118">
+    <cfRule type="expression" dxfId="76" priority="1120">
       <formula>#REF!="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="1119">
+    <cfRule type="expression" dxfId="75" priority="1121">
       <formula>#REF!="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="1120">
+    <cfRule type="expression" dxfId="74" priority="1122">
       <formula>#REF!="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="1121">
+    <cfRule type="expression" dxfId="73" priority="1123">
       <formula>#REF!="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="1122">
+    <cfRule type="expression" dxfId="72" priority="1124">
       <formula>#REF!="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="1123">
+    <cfRule type="expression" dxfId="71" priority="1125">
       <formula>#REF!="Gráfico 24"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70:E72">
-    <cfRule type="cellIs" dxfId="64" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="160" operator="equal">
       <formula>"pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="161" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="162" operator="equal">
       <formula>"en proceso"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76:E78">
-    <cfRule type="cellIs" dxfId="61" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="157" operator="equal">
       <formula>"pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="158" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="159" operator="equal">
       <formula>"en proceso"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L47:L49">
-    <cfRule type="expression" dxfId="58" priority="123" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="125" stopIfTrue="1">
       <formula>#REF!="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="127" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="129" stopIfTrue="1">
       <formula>#REF!="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="154">
+    <cfRule type="expression" dxfId="62" priority="156">
       <formula>#REF!="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:J122 J127:J145">
-    <cfRule type="cellIs" dxfId="55" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="61" priority="5" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N23:N29">
-    <cfRule type="expression" dxfId="54" priority="1124">
+    <cfRule type="expression" dxfId="60" priority="1126">
       <formula>$Z12="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="1125">
+    <cfRule type="expression" dxfId="59" priority="1127">
       <formula>$Z12="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="1126">
+    <cfRule type="expression" dxfId="58" priority="1128">
       <formula>$Z12="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="1127">
+    <cfRule type="expression" dxfId="57" priority="1129">
       <formula>$Z12="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="1128">
+    <cfRule type="expression" dxfId="56" priority="1130">
       <formula>$Z12="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="1129">
+    <cfRule type="expression" dxfId="55" priority="1131">
       <formula>$Z12="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="1130">
+    <cfRule type="expression" dxfId="54" priority="1132">
       <formula>$Z12="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="1131">
+    <cfRule type="expression" dxfId="53" priority="1133">
       <formula>$Z12="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="1132">
+    <cfRule type="expression" dxfId="52" priority="1134">
       <formula>$Z12="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="1133">
+    <cfRule type="expression" dxfId="51" priority="1135">
       <formula>$Z12="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="1134">
+    <cfRule type="expression" dxfId="50" priority="1136">
       <formula>$Z12="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="1135">
+    <cfRule type="expression" dxfId="49" priority="1137">
       <formula>$Z12="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="1136">
+    <cfRule type="expression" dxfId="48" priority="1138">
       <formula>$Z12="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="1137">
+    <cfRule type="expression" dxfId="47" priority="1139">
       <formula>$Z12="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="1138">
+    <cfRule type="expression" dxfId="46" priority="1140">
       <formula>$Z12="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="1139">
+    <cfRule type="expression" dxfId="45" priority="1141">
       <formula>$Z12="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="1140">
+    <cfRule type="expression" dxfId="44" priority="1142">
       <formula>$Z12="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="1141">
+    <cfRule type="expression" dxfId="43" priority="1143">
       <formula>$Z12="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="1142">
+    <cfRule type="expression" dxfId="42" priority="1144">
       <formula>$Z12="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="1143">
+    <cfRule type="expression" dxfId="41" priority="1145">
       <formula>$Z12="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="1144">
+    <cfRule type="expression" dxfId="40" priority="1146">
       <formula>$Z12="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="1145">
+    <cfRule type="expression" dxfId="39" priority="1147">
       <formula>$Z12="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="1146">
+    <cfRule type="expression" dxfId="38" priority="1148">
       <formula>$Z12="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="1147">
+    <cfRule type="expression" dxfId="37" priority="1149">
       <formula>$Z12="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="1148">
+    <cfRule type="expression" dxfId="36" priority="1150">
       <formula>$Z12="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="1149">
+    <cfRule type="expression" dxfId="35" priority="1151">
       <formula>$Z12="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="1150">
+    <cfRule type="expression" dxfId="34" priority="1152">
       <formula>$Z12="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="1151">
+    <cfRule type="expression" dxfId="33" priority="1153">
       <formula>$Z12="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="1152">
+    <cfRule type="expression" dxfId="32" priority="1154">
       <formula>$Z12="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="1153">
+    <cfRule type="expression" dxfId="31" priority="1155">
       <formula>$Z12="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="1154">
+    <cfRule type="expression" dxfId="30" priority="1156">
       <formula>$Z12="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="1155">
+    <cfRule type="expression" dxfId="29" priority="1157">
       <formula>$Z12="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="1156">
+    <cfRule type="expression" dxfId="28" priority="1158">
       <formula>$Z12="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="1157">
+    <cfRule type="expression" dxfId="27" priority="1159">
       <formula>$Z12="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="1158">
+    <cfRule type="expression" dxfId="26" priority="1160">
       <formula>$Z12="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="1159">
+    <cfRule type="expression" dxfId="25" priority="1161">
       <formula>$Z12="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="1160">
+    <cfRule type="expression" dxfId="24" priority="1162">
       <formula>$Z12="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J123:J126">
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="4" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J123:J126">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="3" operator="greaterThan">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J150">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J151">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14206,7 +14876,7 @@
   <dimension ref="A3:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14220,11 +14890,11 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C3" s="32">
         <f>SUM(C5:C20)</f>
-        <v>2862</v>
+        <v>2982</v>
       </c>
       <c r="D3" s="32">
         <f>SUM(D5:D20)</f>
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -14263,11 +14933,11 @@
       </c>
       <c r="C6">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[TIPO PRODUCTO],C$4, Tabla1[COLECCIÓN],$B6)</f>
-        <v>510</v>
+        <v>630</v>
       </c>
       <c r="D6">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[TIPO PRODUCTO],D$4, Tabla1[COLECCIÓN],$B6)</f>
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Monitoreo Nuevos Productos.xlsx
+++ b/Monitoreo Nuevos Productos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C21EAD-A035-4BF4-9E4D-034C6D5CFAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4E42D9-23DE-42D8-B04D-A86D37B1DCDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{3C601918-C683-4A9E-9764-2E2F3DE6B565}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10500" xr2:uid="{3C601918-C683-4A9E-9764-2E2F3DE6B565}"/>
   </bookViews>
   <sheets>
     <sheet name="Monitoreo Nuevos Productos" sheetId="1" r:id="rId1"/>
@@ -866,9 +866,6 @@
     <t>Tasa de Delitos por Violaciones || Chile || 2008-2020 || Por Región</t>
   </si>
   <si>
-    <t>Frecuencia de Casos de Violencia Económica || Chile || 2012-2020 || Por Región</t>
-  </si>
-  <si>
     <t>Frecuencia de Casos de Violencia Económica || Chile || 2012-2020 || Por Prevalencia</t>
   </si>
   <si>
@@ -969,38 +966,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Tasa de Casos de Violencia Psicológica hacia la mujer || Chile || 2012-2020 || Por Región </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(por 100 mil mujeres) </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Tasa de Casos de Violencia Psicológica hacia la mujer || Chile || 2012-2020 || Por Prevalencia</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (por 100 mil mujeres) </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Tasa de Casos de Violencia Psicológica hacia la mujer || Chile || 2020  </t>
     </r>
     <r>
@@ -1067,38 +1032,6 @@
     <t>Tasa de Casos de Violencia Económica hacia la mujer || Chile || 2012-2020 || Por Prevalencia</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Tasa de Casos de Violencia Económica hacia la mujer || Chile || 2012-2020 || Por Región  </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(por 100mil mujeres)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Tasa de Casos de Violencia Económica hacia la mujer || Chile || 2012-2020 || Por Región  </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(por 100mil habitantes)</t>
-    </r>
-  </si>
-  <si>
     <t>Frecuencia de Casos de Violencia Económica hacia la mujer || Chile || 2012-2020</t>
   </si>
   <si>
@@ -1179,39 +1112,12 @@
     <t>II 03</t>
   </si>
   <si>
-    <t>Informe interactico de casos de violencia psicológica hacia la mujer según Encuesta Nacional de Violencia Intrafamiliar en Tarapacá, para el año 2020.</t>
-  </si>
-  <si>
-    <t>Informe interactico de casos de violencia psicológica hacia la mujer según Encuesta Nacional de Violencia Intrafamiliar por Prevalencia Violencia Psicológica General Año, para el año 2020.</t>
-  </si>
-  <si>
-    <t>Informe interactico de casos de violencia psicológica hacia la mujer según Encuesta Nacional de Violencia Intrafamiliar en Tarapacá, para el periodo 2012-2020.</t>
-  </si>
-  <si>
     <t>II 04</t>
   </si>
   <si>
-    <t>Informe interactivo de casos de violencia psicológica hacia la mujer según Encuesta Nacional de Violencia Intrafamiliar por Prevalencia Violencia Psicológica General Año, para el periodo 2012-2020.</t>
-  </si>
-  <si>
     <t>VIF</t>
   </si>
   <si>
-    <t>Prevalencia Violencia Intrafamilia por región || Periodo 2012-2020</t>
-  </si>
-  <si>
-    <t>Casos de Violencia Intrafamilia presentados a fiscalía por región || Periodo 2019-2021</t>
-  </si>
-  <si>
-    <t>Frecuencia de Violencia Intrafamiliar en Chile por Región y sus comunas || Período 2005-2021</t>
-  </si>
-  <si>
-    <t>Atenciones Médicas por Violencia de Género en la Región de Tarapacá por Servicio Nacional de Salud y Concepto de Atención.Periodo 2010-2016</t>
-  </si>
-  <si>
-    <t>Atenciones Médicas por Violencia de Género por el Concepto de Atención: Atención por violación (con entrega de anticoncepción de emergencia) por Servicio Nacional de Salud.Periodo 2010-2016</t>
-  </si>
-  <si>
     <t>27.10</t>
   </si>
   <si>
@@ -1224,16 +1130,110 @@
     <t>RP</t>
   </si>
   <si>
-    <t>Casos de Violencia Intrafamilia presentados a fiscalía nacional || Periodo 2019-2021</t>
-  </si>
-  <si>
-    <t>Atenciones Médicas por Violencia de Género a nivel nacional por Servicio Nacional de Salud y Concepto de Atención.Periodo 2010-2016</t>
-  </si>
-  <si>
-    <t>Reporte de casos de violencia psicológica hacia la mujer según Encuesta Nacional de Violencia Intrafamiliar a nivel nacional, para el año 2020.</t>
-  </si>
-  <si>
-    <t>Reporte de casos de violencia psicológica hacia la mujer según Encuesta Nacional de Violencia Intrafamiliar a nivel nacional, para el periodo 2012-2020.</t>
+    <t>Violencia psicológica hacia la mujer || Chile || 2020 || Por región</t>
+  </si>
+  <si>
+    <t>Violencia psicológica hacia la mujer || Chile || 2020 || Por prevalencia</t>
+  </si>
+  <si>
+    <t>Violencia psicológica hacia la mujer || Chile || 2012-2020 || Por región</t>
+  </si>
+  <si>
+    <t>Violencia psicológica hacia la mujer || Chile || 2012-2020 || Por prevalencia</t>
+  </si>
+  <si>
+    <t>Frecuencia de Violencia Intrafamiliar || Chile || 2005-2021 || Por región</t>
+  </si>
+  <si>
+    <t>Atenciones Médicas por Violencia de Género || Chile || 2010-2016 || Por región</t>
+  </si>
+  <si>
+    <t>Atenciones Médicas por Violencia de Género || Chile || 2010-2016 || Por tipo de atención</t>
+  </si>
+  <si>
+    <t>Casos de Violencia Intrafamiliar presentados a fiscalía || Chile || 2019-2021 || Por región</t>
+  </si>
+  <si>
+    <t>Casos de Violencia Intrafamiliar presentados a fiscalía || Chile || 2019-2021</t>
+  </si>
+  <si>
+    <t>Atenciones Médicas por Violencia de Género || Chile || 2010-2016</t>
+  </si>
+  <si>
+    <t>Violencia psicológica hacia la mujer || Chile || 2020</t>
+  </si>
+  <si>
+    <t>Violencia psicológica hacia la mujer || Chile || 2012-2020</t>
+  </si>
+  <si>
+    <t>Frecuencia de Casos de Violencia Económica || Chile || 2012-2017-2020 || Por Región</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tasa de Casos de Violencia Psicológica hacia la mujer || Chile || 2012-2017-2020 || Por Región </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(por 100 mil mujeres) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tasa de Casos de Violencia Psicológica hacia la mujer || Chile || 2012-2017-2020 || Por Prevalencia</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (por 100 mil mujeres) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tasa de Casos de Violencia Económica hacia la mujer || Chile || 2012-2017-2020 || Por Región  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(por 100mil mujeres)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tasa de Casos de Violencia Económica hacia la mujer || Chile || 2012-2017-2020 || Por Región  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(por 100mil habitantes)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Prevalencia Violencia Intrafamiliar || Chile || 2012-2020 || Por región </t>
   </si>
 </sst>
 </file>
@@ -1244,7 +1244,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1346,6 +1346,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1414,7 +1421,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1547,74 +1554,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="501">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="497">
     <dxf>
       <font>
         <b val="0"/>
@@ -1880,6 +1836,26 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -6143,15 +6119,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1384300</xdr:colOff>
+      <xdr:colOff>1381125</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -6221,13 +6197,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1644650</xdr:colOff>
+      <xdr:colOff>1647825</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>730250</xdr:colOff>
+      <xdr:colOff>733425</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -6299,15 +6275,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
+      <xdr:colOff>692150</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:rowOff>25401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>3257550</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>63501</xdr:rowOff>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -6377,15 +6353,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>863600</xdr:colOff>
+      <xdr:colOff>866775</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>82551</xdr:rowOff>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>463550</xdr:colOff>
+      <xdr:colOff>466725</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>158751</xdr:rowOff>
+      <xdr:rowOff>161926</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -6497,7 +6473,7 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="TABLA MADRE" xr10:uid="{E5B4DF95-80E8-4F10-AD82-CCE5BEE54362}" cache="SegmentaciónDeDatos_TABLA_MADRE" caption="TABLA MADRE" startItem="8" columnCount="4" rowHeight="241300"/>
+  <slicer name="TABLA MADRE" xr10:uid="{E5B4DF95-80E8-4F10-AD82-CCE5BEE54362}" cache="SegmentaciónDeDatos_TABLA_MADRE" caption="TABLA MADRE" columnCount="4" rowHeight="241300"/>
   <slicer name="TIPO PRODUCTO" xr10:uid="{9477DBC7-9C09-47A7-984E-6F75ED6B60A9}" cache="SegmentaciónDeDatos_TIPO_PRODUCTO" caption="TIPO PRODUCTO" rowHeight="241300"/>
   <slicer name="TEMA" xr10:uid="{7B410BB5-38F1-4C94-868C-3BB0B69500F5}" cache="SegmentaciónDeDatos_TEMA" caption="TEMA" columnCount="2" rowHeight="241300"/>
   <slicer name="COLECCIÓN" xr10:uid="{A9E34F2D-603A-4D3B-9BDC-43C7F8B642F6}" cache="SegmentaciónDeDatos_COLECCIÓN" caption="COLECCIÓN" rowHeight="241300"/>
@@ -6505,29 +6481,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8AB307C7-AF39-4578-A163-A8BC847F650D}" name="Tabla1" displayName="Tabla1" ref="A10:N164" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8AB307C7-AF39-4578-A163-A8BC847F650D}" name="Tabla1" displayName="Tabla1" ref="A10:N164" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A10:N164" xr:uid="{BE3B9459-9CC4-4B42-85DE-65D6DD89527B}">
     <filterColumn colId="1">
       <filters>
         <filter val="Violencia"/>
       </filters>
     </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="VIF"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="7">
+      <filters>
+        <filter val="Informe Interactivo"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{AEA8EF0D-25C7-4111-8A9F-0B18B1765250}" name="SECTOR" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{752FAE73-6FD3-44CD-87CD-9043950F7C57}" name="COLECCIÓN" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{6007294C-E2A9-42FC-8D1B-04F4C15E7E6C}" name="TABLA MADRE" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{CC128664-1A0A-4FA0-9E24-7F2D50AC3945}" name="RESPONSABLE" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{47097AA3-BED4-48AF-B9DE-ABBBAEBF8480}" name="ESTADO" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{D1D0198B-6B8E-4844-BFB3-0C4C39A5DEEB}" name="TEMA" dataDxfId="14"/>
-    <tableColumn id="18" xr3:uid="{FCDE1CEA-9D32-4512-8B1E-E0F36B0D06E6}" name="En contenido" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{F7C33F71-D2AC-440D-B0A6-B78933C8E65D}" name="TIPO PRODUCTO" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{D2B9DAD1-8888-4EAE-B08D-DDAAD4D91214}" name="NOMBRE" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{B13359B5-127C-4ACD-BA41-0F932FFA47DE}" name="Cantidad" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{22126FF6-1849-455F-A6A6-7D65468619C8}" name="Títulos revisados" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{C4B2B2EE-05E3-4BD3-9138-0C5123EACD36}" name="Título Genérico - Shopify" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{48638419-EFAD-40F5-8E0C-171981824999}" name="Título específico" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{5E5D6E60-EE68-4304-B67C-4D8F2081F5C6}" name="Tags" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{AEA8EF0D-25C7-4111-8A9F-0B18B1765250}" name="SECTOR" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{752FAE73-6FD3-44CD-87CD-9043950F7C57}" name="COLECCIÓN" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{6007294C-E2A9-42FC-8D1B-04F4C15E7E6C}" name="TABLA MADRE" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{CC128664-1A0A-4FA0-9E24-7F2D50AC3945}" name="RESPONSABLE" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{47097AA3-BED4-48AF-B9DE-ABBBAEBF8480}" name="ESTADO" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{D1D0198B-6B8E-4844-BFB3-0C4C39A5DEEB}" name="TEMA" dataDxfId="8"/>
+    <tableColumn id="18" xr3:uid="{FCDE1CEA-9D32-4512-8B1E-E0F36B0D06E6}" name="En contenido" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{F7C33F71-D2AC-440D-B0A6-B78933C8E65D}" name="TIPO PRODUCTO" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{D2B9DAD1-8888-4EAE-B08D-DDAAD4D91214}" name="NOMBRE" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{B13359B5-127C-4ACD-BA41-0F932FFA47DE}" name="Cantidad" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{22126FF6-1849-455F-A6A6-7D65468619C8}" name="Títulos revisados" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{C4B2B2EE-05E3-4BD3-9138-0C5123EACD36}" name="Título Genérico - Shopify" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{48638419-EFAD-40F5-8E0C-171981824999}" name="Título específico" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{5E5D6E60-EE68-4304-B67C-4D8F2081F5C6}" name="Tags" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6833,10 +6819,10 @@
   <dimension ref="A8:N164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="10" topLeftCell="D123" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="10" topLeftCell="L11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="J132" sqref="J132"/>
+      <selection pane="bottomRight" activeCell="L167" sqref="L167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11150,7 +11136,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="36" t="s">
         <v>230</v>
       </c>
@@ -11188,7 +11174,7 @@
       <c r="M99" s="40"/>
       <c r="N99" s="41"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="36" t="str">
         <f>+A99</f>
         <v>Mujeres</v>
@@ -11224,7 +11210,7 @@
       <c r="M100" s="40"/>
       <c r="N100" s="41"/>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="36" t="str">
         <f t="shared" ref="A101:A105" si="10">+A100</f>
         <v>Mujeres</v>
@@ -11260,7 +11246,7 @@
       <c r="M101" s="40"/>
       <c r="N101" s="41"/>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" s="36" t="str">
         <f t="shared" si="10"/>
         <v>Mujeres</v>
@@ -11296,7 +11282,7 @@
       <c r="M102" s="40"/>
       <c r="N102" s="41"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="36" t="str">
         <f t="shared" si="10"/>
         <v>Mujeres</v>
@@ -11332,7 +11318,7 @@
       <c r="M103" s="40"/>
       <c r="N103" s="23"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="36" t="str">
         <f t="shared" si="10"/>
         <v>Mujeres</v>
@@ -11363,12 +11349,12 @@
         <v>256</v>
       </c>
       <c r="L104" s="40" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="M104" s="40"/>
       <c r="N104" s="23"/>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="36" t="str">
         <f t="shared" si="10"/>
         <v>Mujeres</v>
@@ -11404,7 +11390,7 @@
       <c r="M105" s="40"/>
       <c r="N105" s="41"/>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="36" t="str">
         <f t="shared" ref="A106:A107" si="12">+A105</f>
         <v>Mujeres</v>
@@ -11440,7 +11426,7 @@
       <c r="M106" s="40"/>
       <c r="N106" s="41"/>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="36" t="str">
         <f t="shared" si="12"/>
         <v>Mujeres</v>
@@ -11476,7 +11462,7 @@
       <c r="M107" s="40"/>
       <c r="N107" s="41"/>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="36" t="str">
         <f t="shared" ref="A108" si="14">+A107</f>
         <v>Mujeres</v>
@@ -11507,48 +11493,48 @@
         <v>256</v>
       </c>
       <c r="L108" s="40" t="s">
-        <v>270</v>
+        <v>318</v>
       </c>
       <c r="M108" s="40"/>
       <c r="N108" s="41"/>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A109" s="36" t="str">
+    <row r="109" spans="1:14" s="54" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="50" t="str">
         <f t="shared" ref="A109:A113" si="16">+A108</f>
         <v>Mujeres</v>
       </c>
-      <c r="B109" s="36" t="str">
+      <c r="B109" s="50" t="str">
         <f t="shared" ref="B109:B113" si="17">+B108</f>
         <v>Violencia</v>
       </c>
-      <c r="C109" s="37">
+      <c r="C109" s="51">
         <v>27.9</v>
       </c>
-      <c r="D109" s="37"/>
-      <c r="E109" s="37"/>
-      <c r="F109" s="36" t="s">
+      <c r="D109" s="51"/>
+      <c r="E109" s="51"/>
+      <c r="F109" s="50" t="s">
         <v>259</v>
       </c>
-      <c r="G109" s="36"/>
-      <c r="H109" s="36" t="s">
+      <c r="G109" s="50"/>
+      <c r="H109" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="I109" s="24" t="s">
+      <c r="I109" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="J109" s="38">
+      <c r="J109" s="53">
         <v>3</v>
       </c>
       <c r="K109" s="39" t="s">
         <v>256</v>
       </c>
-      <c r="L109" s="40" t="s">
-        <v>271</v>
+      <c r="L109" s="44" t="s">
+        <v>270</v>
       </c>
       <c r="M109" s="40"/>
       <c r="N109" s="41"/>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="36" t="str">
         <f t="shared" si="16"/>
         <v>Mujeres</v>
@@ -11579,12 +11565,12 @@
         <v>256</v>
       </c>
       <c r="L110" s="40" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="M110" s="40"/>
       <c r="N110" s="41"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="36" t="str">
         <f t="shared" si="16"/>
         <v>Mujeres</v>
@@ -11615,12 +11601,12 @@
         <v>256</v>
       </c>
       <c r="L111" s="40" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="M111" s="40"/>
       <c r="N111" s="23"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="36" t="str">
         <f t="shared" si="16"/>
         <v>Mujeres</v>
@@ -11651,12 +11637,12 @@
         <v>256</v>
       </c>
       <c r="L112" s="40" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="M112" s="40"/>
       <c r="N112" s="41"/>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" s="36" t="str">
         <f t="shared" si="16"/>
         <v>Mujeres</v>
@@ -11687,12 +11673,12 @@
         <v>256</v>
       </c>
       <c r="L113" s="40" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="M113" s="40"/>
       <c r="N113" s="41"/>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="36" t="str">
         <f t="shared" ref="A114:A115" si="18">+A113</f>
         <v>Mujeres</v>
@@ -11723,12 +11709,12 @@
         <v>256</v>
       </c>
       <c r="L114" s="40" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="M114" s="40"/>
       <c r="N114" s="41"/>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="36" t="str">
         <f t="shared" si="18"/>
         <v>Mujeres</v>
@@ -11759,12 +11745,12 @@
         <v>256</v>
       </c>
       <c r="L115" s="40" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="M115" s="40"/>
       <c r="N115" s="41"/>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="36" t="str">
         <f t="shared" ref="A116:A118" si="20">+A115</f>
         <v>Mujeres</v>
@@ -11795,12 +11781,12 @@
         <v>256</v>
       </c>
       <c r="L116" s="47" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="M116" s="40"/>
       <c r="N116" s="41"/>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" s="36" t="str">
         <f t="shared" si="20"/>
         <v>Mujeres</v>
@@ -11831,12 +11817,12 @@
         <v>256</v>
       </c>
       <c r="L117" s="47" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="M117" s="40"/>
       <c r="N117" s="23"/>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" s="36" t="str">
         <f t="shared" si="20"/>
         <v>Mujeres</v>
@@ -11867,12 +11853,12 @@
         <v>256</v>
       </c>
       <c r="L118" s="47" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="M118" s="40"/>
       <c r="N118" s="23"/>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" s="36" t="str">
         <f t="shared" ref="A119:A157" si="22">+A118</f>
         <v>Mujeres</v>
@@ -11903,12 +11889,12 @@
         <v>256</v>
       </c>
       <c r="L119" s="40" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M119" s="40"/>
       <c r="N119" s="23"/>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" s="36" t="str">
         <f t="shared" si="22"/>
         <v>Mujeres</v>
@@ -11939,12 +11925,12 @@
         <v>256</v>
       </c>
       <c r="L120" s="40" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M120" s="40"/>
       <c r="N120" s="23"/>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" s="36" t="str">
         <f t="shared" si="22"/>
         <v>Mujeres</v>
@@ -11975,12 +11961,12 @@
         <v>256</v>
       </c>
       <c r="L121" s="40" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M121" s="40"/>
       <c r="N121" s="23"/>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" s="36" t="str">
         <f t="shared" si="22"/>
         <v>Mujeres</v>
@@ -12011,12 +11997,12 @@
         <v>256</v>
       </c>
       <c r="L122" s="40" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M122" s="40"/>
       <c r="N122" s="23"/>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" s="36" t="str">
         <f t="shared" si="22"/>
         <v>Mujeres</v>
@@ -12047,12 +12033,12 @@
         <v>256</v>
       </c>
       <c r="L123" s="40" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M123" s="40"/>
       <c r="N123" s="23"/>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" s="36" t="str">
         <f t="shared" si="22"/>
         <v>Mujeres</v>
@@ -12083,12 +12069,12 @@
         <v>256</v>
       </c>
       <c r="L124" s="40" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M124" s="40"/>
       <c r="N124" s="23"/>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" s="36" t="str">
         <f t="shared" si="22"/>
         <v>Mujeres</v>
@@ -12119,12 +12105,12 @@
         <v>256</v>
       </c>
       <c r="L125" s="40" t="s">
-        <v>278</v>
+        <v>319</v>
       </c>
       <c r="M125" s="40"/>
       <c r="N125" s="23"/>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" s="36" t="str">
         <f t="shared" si="22"/>
         <v>Mujeres</v>
@@ -12155,12 +12141,12 @@
         <v>256</v>
       </c>
       <c r="L126" s="40" t="s">
-        <v>279</v>
+        <v>320</v>
       </c>
       <c r="M126" s="40"/>
       <c r="N126" s="23"/>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" s="36" t="str">
         <f t="shared" si="22"/>
         <v>Mujeres</v>
@@ -12191,48 +12177,48 @@
         <v>256</v>
       </c>
       <c r="L127" s="40" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
       <c r="M127" s="40"/>
       <c r="N127" s="23"/>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A128" s="36" t="str">
+    <row r="128" spans="1:14" s="54" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="50" t="str">
         <f t="shared" si="22"/>
         <v>Mujeres</v>
       </c>
-      <c r="B128" s="36" t="str">
+      <c r="B128" s="50" t="str">
         <f t="shared" si="23"/>
         <v>Violencia</v>
       </c>
-      <c r="C128" s="37">
+      <c r="C128" s="51">
         <v>27.23</v>
       </c>
-      <c r="D128" s="37"/>
-      <c r="E128" s="37"/>
-      <c r="F128" s="36" t="s">
+      <c r="D128" s="51"/>
+      <c r="E128" s="51"/>
+      <c r="F128" s="50" t="s">
         <v>259</v>
       </c>
-      <c r="G128" s="36"/>
-      <c r="H128" s="36" t="s">
+      <c r="G128" s="50"/>
+      <c r="H128" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="I128" s="24" t="s">
+      <c r="I128" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="J128" s="38">
+      <c r="J128" s="53">
         <v>3</v>
       </c>
       <c r="K128" s="39" t="s">
         <v>256</v>
       </c>
-      <c r="L128" s="40" t="s">
-        <v>284</v>
+      <c r="L128" s="44" t="s">
+        <v>281</v>
       </c>
       <c r="M128" s="40"/>
       <c r="N128" s="23"/>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" s="36" t="str">
         <f t="shared" si="22"/>
         <v>Mujeres</v>
@@ -12263,48 +12249,48 @@
         <v>256</v>
       </c>
       <c r="L129" s="40" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="M129" s="40"/>
       <c r="N129" s="23"/>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A130" s="36" t="str">
+    <row r="130" spans="1:14" s="54" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="50" t="str">
         <f t="shared" si="22"/>
         <v>Mujeres</v>
       </c>
-      <c r="B130" s="36" t="str">
+      <c r="B130" s="50" t="str">
         <f t="shared" si="23"/>
         <v>Violencia</v>
       </c>
-      <c r="C130" s="37">
+      <c r="C130" s="51">
         <v>27.24</v>
       </c>
-      <c r="D130" s="37"/>
-      <c r="E130" s="37"/>
-      <c r="F130" s="36" t="s">
+      <c r="D130" s="51"/>
+      <c r="E130" s="51"/>
+      <c r="F130" s="50" t="s">
         <v>259</v>
       </c>
-      <c r="G130" s="36"/>
-      <c r="H130" s="36" t="s">
+      <c r="G130" s="50"/>
+      <c r="H130" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="I130" s="24" t="s">
+      <c r="I130" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="J130" s="38">
+      <c r="J130" s="53">
         <v>3</v>
       </c>
       <c r="K130" s="39" t="s">
         <v>256</v>
       </c>
-      <c r="L130" s="40" t="s">
-        <v>284</v>
+      <c r="L130" s="44" t="s">
+        <v>281</v>
       </c>
       <c r="M130" s="40"/>
       <c r="N130" s="23"/>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" s="36" t="str">
         <f t="shared" si="22"/>
         <v>Mujeres</v>
@@ -12340,7 +12326,7 @@
       <c r="M131" s="40"/>
       <c r="N131" s="23"/>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" s="36" t="str">
         <f t="shared" si="22"/>
         <v>Mujeres</v>
@@ -12376,7 +12362,7 @@
       <c r="M132" s="40"/>
       <c r="N132" s="23"/>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" s="36" t="str">
         <f t="shared" si="22"/>
         <v>Mujeres</v>
@@ -12412,7 +12398,7 @@
       <c r="M133" s="40"/>
       <c r="N133" s="23"/>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" s="36" t="str">
         <f t="shared" si="22"/>
         <v>Mujeres</v>
@@ -12443,12 +12429,12 @@
         <v>256</v>
       </c>
       <c r="L134" s="40" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="M134" s="40"/>
       <c r="N134" s="23"/>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" s="36" t="str">
         <f t="shared" si="22"/>
         <v>Mujeres</v>
@@ -12484,7 +12470,7 @@
       <c r="M135" s="40"/>
       <c r="N135" s="23"/>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" s="36" t="str">
         <f t="shared" si="22"/>
         <v>Mujeres</v>
@@ -12520,7 +12506,7 @@
       <c r="M136" s="40"/>
       <c r="N136" s="23"/>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" s="36" t="str">
         <f t="shared" si="22"/>
         <v>Mujeres</v>
@@ -12551,12 +12537,12 @@
         <v>256</v>
       </c>
       <c r="L137" s="40" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="M137" s="40"/>
       <c r="N137" s="23"/>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" s="36" t="str">
         <f t="shared" si="22"/>
         <v>Mujeres</v>
@@ -12587,12 +12573,12 @@
         <v>256</v>
       </c>
       <c r="L138" s="47" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="M138" s="40"/>
       <c r="N138" s="23"/>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" s="36" t="str">
         <f t="shared" si="22"/>
         <v>Mujeres</v>
@@ -12623,12 +12609,12 @@
         <v>256</v>
       </c>
       <c r="L139" s="40" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="M139" s="40"/>
       <c r="N139" s="23"/>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" s="36" t="str">
         <f t="shared" si="22"/>
         <v>Mujeres</v>
@@ -12659,12 +12645,12 @@
         <v>256</v>
       </c>
       <c r="L140" s="40" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M140" s="40"/>
       <c r="N140" s="23"/>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" s="36" t="str">
         <f t="shared" si="22"/>
         <v>Mujeres</v>
@@ -12695,12 +12681,12 @@
         <v>256</v>
       </c>
       <c r="L141" s="40" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="M141" s="40"/>
       <c r="N141" s="23"/>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" s="36" t="str">
         <f t="shared" si="22"/>
         <v>Mujeres</v>
@@ -12731,12 +12717,12 @@
         <v>256</v>
       </c>
       <c r="L142" s="40" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="M142" s="40"/>
       <c r="N142" s="23"/>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" s="36" t="str">
         <f t="shared" si="22"/>
         <v>Mujeres</v>
@@ -12767,12 +12753,12 @@
         <v>256</v>
       </c>
       <c r="L143" s="40" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="M143" s="40"/>
       <c r="N143" s="23"/>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" s="36" t="str">
         <f t="shared" si="22"/>
         <v>Mujeres</v>
@@ -12803,12 +12789,12 @@
         <v>256</v>
       </c>
       <c r="L144" s="40" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="M144" s="40"/>
       <c r="N144" s="23"/>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" s="36" t="str">
         <f t="shared" si="22"/>
         <v>Mujeres</v>
@@ -12830,19 +12816,19 @@
         <v>8</v>
       </c>
       <c r="I145" s="24" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="J145" s="38">
         <v>16</v>
       </c>
       <c r="K145" s="39"/>
       <c r="L145" s="40" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M145" s="40"/>
       <c r="N145" s="23"/>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" s="36" t="str">
         <f t="shared" si="22"/>
         <v>Mujeres</v>
@@ -12864,19 +12850,19 @@
         <v>8</v>
       </c>
       <c r="I146" s="19" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="J146" s="11">
         <v>4</v>
       </c>
       <c r="K146" s="14"/>
-      <c r="L146" s="20" t="s">
-        <v>306</v>
+      <c r="L146" s="40" t="s">
+        <v>307</v>
       </c>
       <c r="M146" s="20"/>
       <c r="N146" s="23"/>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" s="36" t="str">
         <f t="shared" si="22"/>
         <v>Mujeres</v>
@@ -12898,19 +12884,19 @@
         <v>8</v>
       </c>
       <c r="I147" s="19" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="J147" s="11">
         <v>16</v>
       </c>
       <c r="K147" s="14"/>
-      <c r="L147" s="20" t="s">
-        <v>307</v>
+      <c r="L147" s="40" t="s">
+        <v>308</v>
       </c>
       <c r="M147" s="20"/>
       <c r="N147" s="23"/>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" s="36" t="str">
         <f t="shared" si="22"/>
         <v>Mujeres</v>
@@ -12932,13 +12918,13 @@
         <v>8</v>
       </c>
       <c r="I148" s="19" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="J148" s="11">
         <v>4</v>
       </c>
       <c r="K148" s="14"/>
-      <c r="L148" s="20" t="s">
+      <c r="L148" s="40" t="s">
         <v>309</v>
       </c>
       <c r="M148" s="20"/>
@@ -12959,21 +12945,21 @@
       <c r="D149" s="12"/>
       <c r="E149" s="12"/>
       <c r="F149" s="10" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="G149" s="10"/>
       <c r="H149" s="36" t="s">
         <v>8</v>
       </c>
       <c r="I149" s="24" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="J149" s="11">
         <v>16</v>
       </c>
       <c r="K149" s="14"/>
       <c r="L149" s="20" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="M149" s="20"/>
       <c r="N149" s="23"/>
@@ -12993,21 +12979,21 @@
       <c r="D150" s="12"/>
       <c r="E150" s="12"/>
       <c r="F150" s="10" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="G150" s="10"/>
       <c r="H150" s="36" t="s">
         <v>8</v>
       </c>
       <c r="I150" s="24" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="J150" s="11">
         <v>16</v>
       </c>
       <c r="K150" s="14"/>
       <c r="L150" s="20" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M150" s="20"/>
       <c r="N150" s="23"/>
@@ -13027,26 +13013,26 @@
       <c r="D151" s="12"/>
       <c r="E151" s="12"/>
       <c r="F151" s="10" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="G151" s="10"/>
       <c r="H151" s="36" t="s">
         <v>8</v>
       </c>
       <c r="I151" s="24" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="J151" s="11">
         <v>16</v>
       </c>
       <c r="K151" s="14"/>
       <c r="L151" s="20" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M151" s="20"/>
       <c r="N151" s="23"/>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" s="36" t="str">
         <f t="shared" si="22"/>
         <v>Mujeres</v>
@@ -13056,31 +13042,31 @@
         <v>Violencia</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="D152" s="12"/>
       <c r="E152" s="12"/>
       <c r="F152" s="10" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="G152" s="10"/>
       <c r="H152" s="36" t="s">
         <v>8</v>
       </c>
       <c r="I152" s="24" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="J152" s="11">
         <v>16</v>
       </c>
       <c r="K152" s="14"/>
       <c r="L152" s="20" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M152" s="20"/>
       <c r="N152" s="23"/>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" s="36" t="str">
         <f t="shared" si="22"/>
         <v>Mujeres</v>
@@ -13090,31 +13076,31 @@
         <v>Violencia</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="D153" s="12"/>
       <c r="E153" s="12"/>
       <c r="F153" s="10" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="G153" s="10"/>
       <c r="H153" s="10" t="s">
         <v>8</v>
       </c>
       <c r="I153" s="19" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="J153" s="11">
         <v>16</v>
       </c>
       <c r="K153" s="14"/>
       <c r="L153" s="20" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="M153" s="20"/>
       <c r="N153" s="23"/>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" s="36" t="str">
         <f t="shared" si="22"/>
         <v>Mujeres</v>
@@ -13129,26 +13115,26 @@
       <c r="D154" s="12"/>
       <c r="E154" s="12"/>
       <c r="F154" s="10" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="G154" s="10"/>
       <c r="H154" s="10" t="s">
         <v>10</v>
       </c>
       <c r="I154" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="J154" s="31">
         <v>1</v>
       </c>
       <c r="K154" s="14"/>
       <c r="L154" s="49" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="M154" s="20"/>
       <c r="N154" s="23"/>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" s="36" t="str">
         <f t="shared" si="22"/>
         <v>Mujeres</v>
@@ -13158,31 +13144,31 @@
         <v>Violencia</v>
       </c>
       <c r="C155" s="48" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="D155" s="12"/>
       <c r="E155" s="12"/>
       <c r="F155" s="10" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="G155" s="10"/>
       <c r="H155" s="10" t="s">
         <v>10</v>
       </c>
       <c r="I155" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="J155" s="31">
         <v>1</v>
       </c>
       <c r="K155" s="14"/>
       <c r="L155" s="49" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="M155" s="20"/>
       <c r="N155" s="23"/>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" s="36" t="str">
         <f t="shared" si="22"/>
         <v>Mujeres</v>
@@ -13211,12 +13197,12 @@
       </c>
       <c r="K156" s="14"/>
       <c r="L156" s="49" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="M156" s="20"/>
       <c r="N156" s="23"/>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" s="36" t="str">
         <f t="shared" si="22"/>
         <v>Mujeres</v>
@@ -13244,13 +13230,13 @@
         <v>1</v>
       </c>
       <c r="K157" s="39"/>
-      <c r="L157" t="s">
-        <v>323</v>
+      <c r="L157" s="49" t="s">
+        <v>317</v>
       </c>
       <c r="M157" s="40"/>
       <c r="N157" s="41"/>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" s="10"/>
       <c r="B158" s="10"/>
       <c r="D158" s="12"/>
@@ -13265,7 +13251,7 @@
       <c r="M158" s="20"/>
       <c r="N158" s="23"/>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" s="10"/>
       <c r="B159" s="10"/>
       <c r="C159" s="12"/>
@@ -13281,7 +13267,7 @@
       <c r="M159" s="20"/>
       <c r="N159" s="23"/>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" s="10"/>
       <c r="B160" s="10"/>
       <c r="C160" s="12"/>
@@ -13297,7 +13283,7 @@
       <c r="M160" s="20"/>
       <c r="N160" s="23"/>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" s="10"/>
       <c r="B161" s="10"/>
       <c r="C161" s="12"/>
@@ -13313,7 +13299,7 @@
       <c r="M161" s="20"/>
       <c r="N161" s="23"/>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" s="10"/>
       <c r="B162" s="10"/>
       <c r="C162" s="12"/>
@@ -13329,7 +13315,7 @@
       <c r="M162" s="20"/>
       <c r="N162" s="23"/>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" s="10"/>
       <c r="B163" s="10"/>
       <c r="C163" s="12"/>
@@ -13345,7 +13331,7 @@
       <c r="M163" s="20"/>
       <c r="N163" s="23"/>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" s="36"/>
       <c r="B164" s="36"/>
       <c r="C164" s="37"/>
@@ -13365,1493 +13351,1493 @@
   <dataConsolidate/>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="L43:M46">
-    <cfRule type="expression" dxfId="500" priority="988">
+    <cfRule type="expression" dxfId="496" priority="988">
       <formula>#REF!="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="499" priority="989">
+    <cfRule type="expression" dxfId="495" priority="989">
       <formula>#REF!="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="498" priority="990">
+    <cfRule type="expression" dxfId="494" priority="990">
       <formula>#REF!="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="497" priority="991">
+    <cfRule type="expression" dxfId="493" priority="991">
       <formula>#REF!="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="496" priority="992">
+    <cfRule type="expression" dxfId="492" priority="992">
       <formula>#REF!="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="495" priority="993">
+    <cfRule type="expression" dxfId="491" priority="993">
       <formula>#REF!="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="494" priority="994">
+    <cfRule type="expression" dxfId="490" priority="994">
       <formula>#REF!="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="493" priority="995">
+    <cfRule type="expression" dxfId="489" priority="995">
       <formula>#REF!="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="492" priority="996">
+    <cfRule type="expression" dxfId="488" priority="996">
       <formula>#REF!="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="491" priority="997">
+    <cfRule type="expression" dxfId="487" priority="997">
       <formula>#REF!="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="490" priority="998">
+    <cfRule type="expression" dxfId="486" priority="998">
       <formula>#REF!="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="489" priority="999">
+    <cfRule type="expression" dxfId="485" priority="999">
       <formula>#REF!="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="488" priority="1000">
+    <cfRule type="expression" dxfId="484" priority="1000">
       <formula>#REF!="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="487" priority="1001">
+    <cfRule type="expression" dxfId="483" priority="1001">
       <formula>#REF!="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="486" priority="1002">
+    <cfRule type="expression" dxfId="482" priority="1002">
       <formula>#REF!="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="485" priority="1003">
+    <cfRule type="expression" dxfId="481" priority="1003">
       <formula>#REF!="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="484" priority="1004">
+    <cfRule type="expression" dxfId="480" priority="1004">
       <formula>#REF!="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="483" priority="1005">
+    <cfRule type="expression" dxfId="479" priority="1005">
       <formula>#REF!="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="482" priority="1006">
+    <cfRule type="expression" dxfId="478" priority="1006">
       <formula>#REF!="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="481" priority="1007">
+    <cfRule type="expression" dxfId="477" priority="1007">
       <formula>#REF!="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="480" priority="1008">
+    <cfRule type="expression" dxfId="476" priority="1008">
       <formula>#REF!="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="479" priority="1009">
+    <cfRule type="expression" dxfId="475" priority="1009">
       <formula>#REF!="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="478" priority="1010">
+    <cfRule type="expression" dxfId="474" priority="1010">
       <formula>#REF!="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="477" priority="1011">
+    <cfRule type="expression" dxfId="473" priority="1011">
       <formula>#REF!="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="476" priority="1012">
+    <cfRule type="expression" dxfId="472" priority="1012">
       <formula>#REF!="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="475" priority="1013">
+    <cfRule type="expression" dxfId="471" priority="1013">
       <formula>#REF!="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="474" priority="1014">
+    <cfRule type="expression" dxfId="470" priority="1014">
       <formula>#REF!="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="473" priority="1015">
+    <cfRule type="expression" dxfId="469" priority="1015">
       <formula>#REF!="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="472" priority="1016">
+    <cfRule type="expression" dxfId="468" priority="1016">
       <formula>#REF!="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="471" priority="1017">
+    <cfRule type="expression" dxfId="467" priority="1017">
       <formula>#REF!="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="470" priority="1018">
+    <cfRule type="expression" dxfId="466" priority="1018">
       <formula>#REF!="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="469" priority="1019">
+    <cfRule type="expression" dxfId="465" priority="1019">
       <formula>#REF!="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="468" priority="1020">
+    <cfRule type="expression" dxfId="464" priority="1020">
       <formula>#REF!="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="467" priority="1021">
+    <cfRule type="expression" dxfId="463" priority="1021">
       <formula>#REF!="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="466" priority="1022">
+    <cfRule type="expression" dxfId="462" priority="1022">
       <formula>#REF!="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="465" priority="1023">
+    <cfRule type="expression" dxfId="461" priority="1023">
       <formula>#REF!="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="464" priority="1024">
+    <cfRule type="expression" dxfId="460" priority="1024">
       <formula>#REF!="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J103:J104 J110:K122 K123:K126 J127:K149 J152:K3035 K150:K151">
-    <cfRule type="cellIs" dxfId="463" priority="986" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="459" priority="986" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N30:N34">
-    <cfRule type="expression" dxfId="462" priority="612">
+    <cfRule type="expression" dxfId="458" priority="612">
       <formula>$Z21="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="461" priority="613">
+    <cfRule type="expression" dxfId="457" priority="613">
       <formula>$Z21="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="460" priority="614">
+    <cfRule type="expression" dxfId="456" priority="614">
       <formula>$Z21="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="459" priority="615">
+    <cfRule type="expression" dxfId="455" priority="615">
       <formula>$Z21="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="458" priority="616">
+    <cfRule type="expression" dxfId="454" priority="616">
       <formula>$Z21="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="457" priority="617">
+    <cfRule type="expression" dxfId="453" priority="617">
       <formula>$Z21="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="456" priority="618">
+    <cfRule type="expression" dxfId="452" priority="618">
       <formula>$Z21="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="455" priority="619">
+    <cfRule type="expression" dxfId="451" priority="619">
       <formula>$Z21="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="454" priority="620">
+    <cfRule type="expression" dxfId="450" priority="620">
       <formula>$Z21="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="453" priority="621">
+    <cfRule type="expression" dxfId="449" priority="621">
       <formula>$Z21="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="452" priority="622">
+    <cfRule type="expression" dxfId="448" priority="622">
       <formula>$Z21="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="451" priority="623">
+    <cfRule type="expression" dxfId="447" priority="623">
       <formula>$Z21="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="450" priority="624">
+    <cfRule type="expression" dxfId="446" priority="624">
       <formula>$Z21="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="449" priority="625">
+    <cfRule type="expression" dxfId="445" priority="625">
       <formula>$Z21="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="448" priority="626">
+    <cfRule type="expression" dxfId="444" priority="626">
       <formula>$Z21="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="447" priority="627">
+    <cfRule type="expression" dxfId="443" priority="627">
       <formula>$Z21="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="446" priority="628">
+    <cfRule type="expression" dxfId="442" priority="628">
       <formula>$Z21="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="445" priority="629">
+    <cfRule type="expression" dxfId="441" priority="629">
       <formula>$Z21="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="444" priority="630">
+    <cfRule type="expression" dxfId="440" priority="630">
       <formula>$Z21="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="443" priority="631">
+    <cfRule type="expression" dxfId="439" priority="631">
       <formula>$Z21="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="442" priority="632">
+    <cfRule type="expression" dxfId="438" priority="632">
       <formula>$Z21="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="441" priority="633">
+    <cfRule type="expression" dxfId="437" priority="633">
       <formula>$Z21="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="440" priority="634">
+    <cfRule type="expression" dxfId="436" priority="634">
       <formula>$Z21="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="439" priority="635">
+    <cfRule type="expression" dxfId="435" priority="635">
       <formula>$Z21="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="438" priority="636">
+    <cfRule type="expression" dxfId="434" priority="636">
       <formula>$Z21="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="437" priority="637">
+    <cfRule type="expression" dxfId="433" priority="637">
       <formula>$Z21="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="436" priority="638">
+    <cfRule type="expression" dxfId="432" priority="638">
       <formula>$Z21="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="435" priority="639">
+    <cfRule type="expression" dxfId="431" priority="639">
       <formula>$Z21="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="434" priority="640">
+    <cfRule type="expression" dxfId="430" priority="640">
       <formula>$Z21="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="433" priority="641">
+    <cfRule type="expression" dxfId="429" priority="641">
       <formula>$Z21="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="432" priority="642">
+    <cfRule type="expression" dxfId="428" priority="642">
       <formula>$Z21="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="431" priority="643">
+    <cfRule type="expression" dxfId="427" priority="643">
       <formula>$Z21="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="430" priority="644">
+    <cfRule type="expression" dxfId="426" priority="644">
       <formula>$Z21="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="429" priority="645">
+    <cfRule type="expression" dxfId="425" priority="645">
       <formula>$Z21="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="428" priority="646">
+    <cfRule type="expression" dxfId="424" priority="646">
       <formula>$Z21="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="427" priority="647">
+    <cfRule type="expression" dxfId="423" priority="647">
       <formula>$Z21="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="426" priority="648">
+    <cfRule type="expression" dxfId="422" priority="648">
       <formula>$Z21="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N43:N50 N57:N60">
-    <cfRule type="expression" dxfId="425" priority="575">
+    <cfRule type="expression" dxfId="421" priority="575">
       <formula>$Z43="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="424" priority="576">
+    <cfRule type="expression" dxfId="420" priority="576">
       <formula>$Z43="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="423" priority="577">
+    <cfRule type="expression" dxfId="419" priority="577">
       <formula>$Z43="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="422" priority="578">
+    <cfRule type="expression" dxfId="418" priority="578">
       <formula>$Z43="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="421" priority="579">
+    <cfRule type="expression" dxfId="417" priority="579">
       <formula>$Z43="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="420" priority="580">
+    <cfRule type="expression" dxfId="416" priority="580">
       <formula>$Z43="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="419" priority="581">
+    <cfRule type="expression" dxfId="415" priority="581">
       <formula>$Z43="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="418" priority="582">
+    <cfRule type="expression" dxfId="414" priority="582">
       <formula>$Z43="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="417" priority="583">
+    <cfRule type="expression" dxfId="413" priority="583">
       <formula>$Z43="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="416" priority="584">
+    <cfRule type="expression" dxfId="412" priority="584">
       <formula>$Z43="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="415" priority="585">
+    <cfRule type="expression" dxfId="411" priority="585">
       <formula>$Z43="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="414" priority="586">
+    <cfRule type="expression" dxfId="410" priority="586">
       <formula>$Z43="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="413" priority="587">
+    <cfRule type="expression" dxfId="409" priority="587">
       <formula>$Z43="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="412" priority="588">
+    <cfRule type="expression" dxfId="408" priority="588">
       <formula>$Z43="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="411" priority="589">
+    <cfRule type="expression" dxfId="407" priority="589">
       <formula>$Z43="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="410" priority="590">
+    <cfRule type="expression" dxfId="406" priority="590">
       <formula>$Z43="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="409" priority="591">
+    <cfRule type="expression" dxfId="405" priority="591">
       <formula>$Z43="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="408" priority="592">
+    <cfRule type="expression" dxfId="404" priority="592">
       <formula>$Z43="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="407" priority="593">
+    <cfRule type="expression" dxfId="403" priority="593">
       <formula>$Z43="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="406" priority="594">
+    <cfRule type="expression" dxfId="402" priority="594">
       <formula>$Z43="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="405" priority="595">
+    <cfRule type="expression" dxfId="401" priority="595">
       <formula>$Z43="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="404" priority="596">
+    <cfRule type="expression" dxfId="400" priority="596">
       <formula>$Z43="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="403" priority="597">
+    <cfRule type="expression" dxfId="399" priority="597">
       <formula>$Z43="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="402" priority="598">
+    <cfRule type="expression" dxfId="398" priority="598">
       <formula>$Z43="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="401" priority="599">
+    <cfRule type="expression" dxfId="397" priority="599">
       <formula>$Z43="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="400" priority="600">
+    <cfRule type="expression" dxfId="396" priority="600">
       <formula>$Z43="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="399" priority="601">
+    <cfRule type="expression" dxfId="395" priority="601">
       <formula>$Z43="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="398" priority="602">
+    <cfRule type="expression" dxfId="394" priority="602">
       <formula>$Z43="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="397" priority="603">
+    <cfRule type="expression" dxfId="393" priority="603">
       <formula>$Z43="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="396" priority="604">
+    <cfRule type="expression" dxfId="392" priority="604">
       <formula>$Z43="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="395" priority="605">
+    <cfRule type="expression" dxfId="391" priority="605">
       <formula>$Z43="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="394" priority="606">
+    <cfRule type="expression" dxfId="390" priority="606">
       <formula>$Z43="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="393" priority="607">
+    <cfRule type="expression" dxfId="389" priority="607">
       <formula>$Z43="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="392" priority="608">
+    <cfRule type="expression" dxfId="388" priority="608">
       <formula>$Z43="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="391" priority="609">
+    <cfRule type="expression" dxfId="387" priority="609">
       <formula>$Z43="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="390" priority="610">
+    <cfRule type="expression" dxfId="386" priority="610">
       <formula>$Z43="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="389" priority="611">
+    <cfRule type="expression" dxfId="385" priority="611">
       <formula>$Z43="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N64:N66">
-    <cfRule type="expression" dxfId="388" priority="501">
+    <cfRule type="expression" dxfId="384" priority="501">
       <formula>$AA64="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="387" priority="502">
+    <cfRule type="expression" dxfId="383" priority="502">
       <formula>$AA64="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="386" priority="503">
+    <cfRule type="expression" dxfId="382" priority="503">
       <formula>$AA64="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="385" priority="504">
+    <cfRule type="expression" dxfId="381" priority="504">
       <formula>$AA64="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="384" priority="505">
+    <cfRule type="expression" dxfId="380" priority="505">
       <formula>$AA64="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="383" priority="506">
+    <cfRule type="expression" dxfId="379" priority="506">
       <formula>$AA64="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="382" priority="507">
+    <cfRule type="expression" dxfId="378" priority="507">
       <formula>$AA64="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="381" priority="508">
+    <cfRule type="expression" dxfId="377" priority="508">
       <formula>$AA64="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="380" priority="509">
+    <cfRule type="expression" dxfId="376" priority="509">
       <formula>$AA64="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="379" priority="510">
+    <cfRule type="expression" dxfId="375" priority="510">
       <formula>$AA64="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="378" priority="511">
+    <cfRule type="expression" dxfId="374" priority="511">
       <formula>$AA64="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="377" priority="512">
+    <cfRule type="expression" dxfId="373" priority="512">
       <formula>$AA64="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="376" priority="513">
+    <cfRule type="expression" dxfId="372" priority="513">
       <formula>$AA64="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="375" priority="514">
+    <cfRule type="expression" dxfId="371" priority="514">
       <formula>$AA64="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="374" priority="515">
+    <cfRule type="expression" dxfId="370" priority="515">
       <formula>$AA64="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="373" priority="516">
+    <cfRule type="expression" dxfId="369" priority="516">
       <formula>$AA64="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="372" priority="517">
+    <cfRule type="expression" dxfId="368" priority="517">
       <formula>$AA64="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="371" priority="518">
+    <cfRule type="expression" dxfId="367" priority="518">
       <formula>$AA64="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="370" priority="519">
+    <cfRule type="expression" dxfId="366" priority="519">
       <formula>$AA64="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="369" priority="520">
+    <cfRule type="expression" dxfId="365" priority="520">
       <formula>$AA64="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="368" priority="521">
+    <cfRule type="expression" dxfId="364" priority="521">
       <formula>$AA64="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="367" priority="522">
+    <cfRule type="expression" dxfId="363" priority="522">
       <formula>$AA64="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="366" priority="523">
+    <cfRule type="expression" dxfId="362" priority="523">
       <formula>$AA64="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="365" priority="524">
+    <cfRule type="expression" dxfId="361" priority="524">
       <formula>$AA64="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="364" priority="525">
+    <cfRule type="expression" dxfId="360" priority="525">
       <formula>$AA64="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="363" priority="526">
+    <cfRule type="expression" dxfId="359" priority="526">
       <formula>$AA64="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="362" priority="527">
+    <cfRule type="expression" dxfId="358" priority="527">
       <formula>$AA64="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="361" priority="528">
+    <cfRule type="expression" dxfId="357" priority="528">
       <formula>$AA64="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="360" priority="529">
+    <cfRule type="expression" dxfId="356" priority="529">
       <formula>$AA64="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="359" priority="530">
+    <cfRule type="expression" dxfId="355" priority="530">
       <formula>$AA64="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="358" priority="531">
+    <cfRule type="expression" dxfId="354" priority="531">
       <formula>$AA64="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="357" priority="532">
+    <cfRule type="expression" dxfId="353" priority="532">
       <formula>$AA64="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="356" priority="533">
+    <cfRule type="expression" dxfId="352" priority="533">
       <formula>$AA64="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="355" priority="534">
+    <cfRule type="expression" dxfId="351" priority="534">
       <formula>$AA64="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="354" priority="535">
+    <cfRule type="expression" dxfId="350" priority="535">
       <formula>$AA64="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="353" priority="536">
+    <cfRule type="expression" dxfId="349" priority="536">
       <formula>$AA64="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="352" priority="537">
+    <cfRule type="expression" dxfId="348" priority="537">
       <formula>$AA64="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N93:N95">
-    <cfRule type="expression" dxfId="351" priority="464">
+    <cfRule type="expression" dxfId="347" priority="464">
       <formula>$Z93="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="350" priority="465">
+    <cfRule type="expression" dxfId="346" priority="465">
       <formula>$Z93="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="349" priority="466">
+    <cfRule type="expression" dxfId="345" priority="466">
       <formula>$Z93="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="348" priority="467">
+    <cfRule type="expression" dxfId="344" priority="467">
       <formula>$Z93="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="347" priority="468">
+    <cfRule type="expression" dxfId="343" priority="468">
       <formula>$Z93="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="346" priority="469">
+    <cfRule type="expression" dxfId="342" priority="469">
       <formula>$Z93="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="345" priority="470">
+    <cfRule type="expression" dxfId="341" priority="470">
       <formula>$Z93="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="344" priority="471">
+    <cfRule type="expression" dxfId="340" priority="471">
       <formula>$Z93="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="343" priority="472">
+    <cfRule type="expression" dxfId="339" priority="472">
       <formula>$Z93="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="342" priority="473">
+    <cfRule type="expression" dxfId="338" priority="473">
       <formula>$Z93="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="341" priority="474">
+    <cfRule type="expression" dxfId="337" priority="474">
       <formula>$Z93="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="340" priority="475">
+    <cfRule type="expression" dxfId="336" priority="475">
       <formula>$Z93="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="339" priority="476">
+    <cfRule type="expression" dxfId="335" priority="476">
       <formula>$Z93="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="338" priority="477">
+    <cfRule type="expression" dxfId="334" priority="477">
       <formula>$Z93="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="337" priority="478">
+    <cfRule type="expression" dxfId="333" priority="478">
       <formula>$Z93="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="336" priority="479">
+    <cfRule type="expression" dxfId="332" priority="479">
       <formula>$Z93="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="335" priority="480">
+    <cfRule type="expression" dxfId="331" priority="480">
       <formula>$Z93="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="334" priority="481">
+    <cfRule type="expression" dxfId="330" priority="481">
       <formula>$Z93="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="333" priority="482">
+    <cfRule type="expression" dxfId="329" priority="482">
       <formula>$Z93="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="332" priority="483">
+    <cfRule type="expression" dxfId="328" priority="483">
       <formula>$Z93="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="331" priority="484">
+    <cfRule type="expression" dxfId="327" priority="484">
       <formula>$Z93="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="330" priority="485">
+    <cfRule type="expression" dxfId="326" priority="485">
       <formula>$Z93="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="329" priority="486">
+    <cfRule type="expression" dxfId="325" priority="486">
       <formula>$Z93="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="328" priority="487">
+    <cfRule type="expression" dxfId="324" priority="487">
       <formula>$Z93="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="327" priority="488">
+    <cfRule type="expression" dxfId="323" priority="488">
       <formula>$Z93="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="326" priority="489">
+    <cfRule type="expression" dxfId="322" priority="489">
       <formula>$Z93="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="325" priority="490">
+    <cfRule type="expression" dxfId="321" priority="490">
       <formula>$Z93="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="324" priority="491">
+    <cfRule type="expression" dxfId="320" priority="491">
       <formula>$Z93="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="323" priority="492">
+    <cfRule type="expression" dxfId="319" priority="492">
       <formula>$Z93="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="322" priority="493">
+    <cfRule type="expression" dxfId="318" priority="493">
       <formula>$Z93="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="321" priority="494">
+    <cfRule type="expression" dxfId="317" priority="494">
       <formula>$Z93="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="320" priority="495">
+    <cfRule type="expression" dxfId="316" priority="495">
       <formula>$Z93="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="319" priority="496">
+    <cfRule type="expression" dxfId="315" priority="496">
       <formula>$Z93="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="318" priority="497">
+    <cfRule type="expression" dxfId="314" priority="497">
       <formula>$Z93="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="317" priority="498">
+    <cfRule type="expression" dxfId="313" priority="498">
       <formula>$Z93="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="316" priority="499">
+    <cfRule type="expression" dxfId="312" priority="499">
       <formula>$Z93="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="315" priority="500">
+    <cfRule type="expression" dxfId="311" priority="500">
       <formula>$Z93="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N96:N98">
-    <cfRule type="expression" dxfId="314" priority="427">
+    <cfRule type="expression" dxfId="310" priority="427">
       <formula>$Z96="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="313" priority="428">
+    <cfRule type="expression" dxfId="309" priority="428">
       <formula>$Z96="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="312" priority="429">
+    <cfRule type="expression" dxfId="308" priority="429">
       <formula>$Z96="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="311" priority="430">
+    <cfRule type="expression" dxfId="307" priority="430">
       <formula>$Z96="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="310" priority="431">
+    <cfRule type="expression" dxfId="306" priority="431">
       <formula>$Z96="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="309" priority="432">
+    <cfRule type="expression" dxfId="305" priority="432">
       <formula>$Z96="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="308" priority="433">
+    <cfRule type="expression" dxfId="304" priority="433">
       <formula>$Z96="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="307" priority="434">
+    <cfRule type="expression" dxfId="303" priority="434">
       <formula>$Z96="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="306" priority="435">
+    <cfRule type="expression" dxfId="302" priority="435">
       <formula>$Z96="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="305" priority="436">
+    <cfRule type="expression" dxfId="301" priority="436">
       <formula>$Z96="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="304" priority="437">
+    <cfRule type="expression" dxfId="300" priority="437">
       <formula>$Z96="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="303" priority="438">
+    <cfRule type="expression" dxfId="299" priority="438">
       <formula>$Z96="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="302" priority="439">
+    <cfRule type="expression" dxfId="298" priority="439">
       <formula>$Z96="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="301" priority="440">
+    <cfRule type="expression" dxfId="297" priority="440">
       <formula>$Z96="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="300" priority="441">
+    <cfRule type="expression" dxfId="296" priority="441">
       <formula>$Z96="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="299" priority="442">
+    <cfRule type="expression" dxfId="295" priority="442">
       <formula>$Z96="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="298" priority="443">
+    <cfRule type="expression" dxfId="294" priority="443">
       <formula>$Z96="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="297" priority="444">
+    <cfRule type="expression" dxfId="293" priority="444">
       <formula>$Z96="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="296" priority="445">
+    <cfRule type="expression" dxfId="292" priority="445">
       <formula>$Z96="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="295" priority="446">
+    <cfRule type="expression" dxfId="291" priority="446">
       <formula>$Z96="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="294" priority="447">
+    <cfRule type="expression" dxfId="290" priority="447">
       <formula>$Z96="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="293" priority="448">
+    <cfRule type="expression" dxfId="289" priority="448">
       <formula>$Z96="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="292" priority="449">
+    <cfRule type="expression" dxfId="288" priority="449">
       <formula>$Z96="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="291" priority="450">
+    <cfRule type="expression" dxfId="287" priority="450">
       <formula>$Z96="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="290" priority="451">
+    <cfRule type="expression" dxfId="286" priority="451">
       <formula>$Z96="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="289" priority="452">
+    <cfRule type="expression" dxfId="285" priority="452">
       <formula>$Z96="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="288" priority="453">
+    <cfRule type="expression" dxfId="284" priority="453">
       <formula>$Z96="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="287" priority="454">
+    <cfRule type="expression" dxfId="283" priority="454">
       <formula>$Z96="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="286" priority="455">
+    <cfRule type="expression" dxfId="282" priority="455">
       <formula>$Z96="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="285" priority="456">
+    <cfRule type="expression" dxfId="281" priority="456">
       <formula>$Z96="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="284" priority="457">
+    <cfRule type="expression" dxfId="280" priority="457">
       <formula>$Z96="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="283" priority="458">
+    <cfRule type="expression" dxfId="279" priority="458">
       <formula>$Z96="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="282" priority="459">
+    <cfRule type="expression" dxfId="278" priority="459">
       <formula>$Z96="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="281" priority="460">
+    <cfRule type="expression" dxfId="277" priority="460">
       <formula>$Z96="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="280" priority="461">
+    <cfRule type="expression" dxfId="276" priority="461">
       <formula>$Z96="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="279" priority="462">
+    <cfRule type="expression" dxfId="275" priority="462">
       <formula>$Z96="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="278" priority="463">
+    <cfRule type="expression" dxfId="274" priority="463">
       <formula>$Z96="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M50">
-    <cfRule type="expression" dxfId="277" priority="390">
+    <cfRule type="expression" dxfId="273" priority="390">
       <formula>#REF!="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="276" priority="391">
+    <cfRule type="expression" dxfId="272" priority="391">
       <formula>#REF!="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="275" priority="392">
+    <cfRule type="expression" dxfId="271" priority="392">
       <formula>#REF!="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="274" priority="393">
+    <cfRule type="expression" dxfId="270" priority="393">
       <formula>#REF!="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="273" priority="394">
+    <cfRule type="expression" dxfId="269" priority="394">
       <formula>#REF!="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="272" priority="395">
+    <cfRule type="expression" dxfId="268" priority="395">
       <formula>#REF!="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="271" priority="396">
+    <cfRule type="expression" dxfId="267" priority="396">
       <formula>#REF!="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="397">
+    <cfRule type="expression" dxfId="266" priority="397">
       <formula>#REF!="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="269" priority="398">
+    <cfRule type="expression" dxfId="265" priority="398">
       <formula>#REF!="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="268" priority="399">
+    <cfRule type="expression" dxfId="264" priority="399">
       <formula>#REF!="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="267" priority="400">
+    <cfRule type="expression" dxfId="263" priority="400">
       <formula>#REF!="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="266" priority="401">
+    <cfRule type="expression" dxfId="262" priority="401">
       <formula>#REF!="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="265" priority="402">
+    <cfRule type="expression" dxfId="261" priority="402">
       <formula>#REF!="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="264" priority="403">
+    <cfRule type="expression" dxfId="260" priority="403">
       <formula>#REF!="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="263" priority="404">
+    <cfRule type="expression" dxfId="259" priority="404">
       <formula>#REF!="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="405">
+    <cfRule type="expression" dxfId="258" priority="405">
       <formula>#REF!="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="261" priority="406">
+    <cfRule type="expression" dxfId="257" priority="406">
       <formula>#REF!="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="260" priority="407">
+    <cfRule type="expression" dxfId="256" priority="407">
       <formula>#REF!="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="259" priority="408">
+    <cfRule type="expression" dxfId="255" priority="408">
       <formula>#REF!="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="409">
+    <cfRule type="expression" dxfId="254" priority="409">
       <formula>#REF!="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="257" priority="410">
+    <cfRule type="expression" dxfId="253" priority="410">
       <formula>#REF!="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="256" priority="411">
+    <cfRule type="expression" dxfId="252" priority="411">
       <formula>#REF!="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="255" priority="412">
+    <cfRule type="expression" dxfId="251" priority="412">
       <formula>#REF!="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="254" priority="413">
+    <cfRule type="expression" dxfId="250" priority="413">
       <formula>#REF!="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="253" priority="414">
+    <cfRule type="expression" dxfId="249" priority="414">
       <formula>#REF!="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="252" priority="415">
+    <cfRule type="expression" dxfId="248" priority="415">
       <formula>#REF!="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="251" priority="416">
+    <cfRule type="expression" dxfId="247" priority="416">
       <formula>#REF!="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="417">
+    <cfRule type="expression" dxfId="246" priority="417">
       <formula>#REF!="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="249" priority="418">
+    <cfRule type="expression" dxfId="245" priority="418">
       <formula>#REF!="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="248" priority="419">
+    <cfRule type="expression" dxfId="244" priority="419">
       <formula>#REF!="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="247" priority="420">
+    <cfRule type="expression" dxfId="243" priority="420">
       <formula>#REF!="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="421">
+    <cfRule type="expression" dxfId="242" priority="421">
       <formula>#REF!="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="245" priority="422">
+    <cfRule type="expression" dxfId="241" priority="422">
       <formula>#REF!="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="423">
+    <cfRule type="expression" dxfId="240" priority="423">
       <formula>#REF!="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="243" priority="424">
+    <cfRule type="expression" dxfId="239" priority="424">
       <formula>#REF!="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="242" priority="425">
+    <cfRule type="expression" dxfId="238" priority="425">
       <formula>#REF!="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="241" priority="426">
+    <cfRule type="expression" dxfId="237" priority="426">
       <formula>#REF!="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L50">
-    <cfRule type="expression" dxfId="240" priority="353">
+    <cfRule type="expression" dxfId="236" priority="353">
       <formula>#REF!="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="239" priority="354">
+    <cfRule type="expression" dxfId="235" priority="354">
       <formula>#REF!="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="355">
+    <cfRule type="expression" dxfId="234" priority="355">
       <formula>#REF!="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="237" priority="356">
+    <cfRule type="expression" dxfId="233" priority="356">
       <formula>#REF!="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="236" priority="357">
+    <cfRule type="expression" dxfId="232" priority="357">
       <formula>#REF!="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="235" priority="358">
+    <cfRule type="expression" dxfId="231" priority="358">
       <formula>#REF!="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="234" priority="359">
+    <cfRule type="expression" dxfId="230" priority="359">
       <formula>#REF!="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="233" priority="360">
+    <cfRule type="expression" dxfId="229" priority="360">
       <formula>#REF!="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="232" priority="361">
+    <cfRule type="expression" dxfId="228" priority="361">
       <formula>#REF!="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="231" priority="362">
+    <cfRule type="expression" dxfId="227" priority="362">
       <formula>#REF!="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="230" priority="363">
+    <cfRule type="expression" dxfId="226" priority="363">
       <formula>#REF!="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="229" priority="364">
+    <cfRule type="expression" dxfId="225" priority="364">
       <formula>#REF!="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="365">
+    <cfRule type="expression" dxfId="224" priority="365">
       <formula>#REF!="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="227" priority="366">
+    <cfRule type="expression" dxfId="223" priority="366">
       <formula>#REF!="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="367">
+    <cfRule type="expression" dxfId="222" priority="367">
       <formula>#REF!="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="368">
+    <cfRule type="expression" dxfId="221" priority="368">
       <formula>#REF!="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="224" priority="369">
+    <cfRule type="expression" dxfId="220" priority="369">
       <formula>#REF!="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="223" priority="370">
+    <cfRule type="expression" dxfId="219" priority="370">
       <formula>#REF!="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="371">
+    <cfRule type="expression" dxfId="218" priority="371">
       <formula>#REF!="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="221" priority="372">
+    <cfRule type="expression" dxfId="217" priority="372">
       <formula>#REF!="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="373">
+    <cfRule type="expression" dxfId="216" priority="373">
       <formula>#REF!="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="219" priority="374">
+    <cfRule type="expression" dxfId="215" priority="374">
       <formula>#REF!="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="218" priority="375">
+    <cfRule type="expression" dxfId="214" priority="375">
       <formula>#REF!="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="217" priority="376">
+    <cfRule type="expression" dxfId="213" priority="376">
       <formula>#REF!="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="377">
+    <cfRule type="expression" dxfId="212" priority="377">
       <formula>#REF!="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="215" priority="378">
+    <cfRule type="expression" dxfId="211" priority="378">
       <formula>#REF!="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="379">
+    <cfRule type="expression" dxfId="210" priority="379">
       <formula>#REF!="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="213" priority="380">
+    <cfRule type="expression" dxfId="209" priority="380">
       <formula>#REF!="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="212" priority="381">
+    <cfRule type="expression" dxfId="208" priority="381">
       <formula>#REF!="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="382">
+    <cfRule type="expression" dxfId="207" priority="382">
       <formula>#REF!="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="383">
+    <cfRule type="expression" dxfId="206" priority="383">
       <formula>#REF!="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="209" priority="384">
+    <cfRule type="expression" dxfId="205" priority="384">
       <formula>#REF!="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="385">
+    <cfRule type="expression" dxfId="204" priority="385">
       <formula>#REF!="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="386">
+    <cfRule type="expression" dxfId="203" priority="386">
       <formula>#REF!="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="206" priority="387">
+    <cfRule type="expression" dxfId="202" priority="387">
       <formula>#REF!="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="388">
+    <cfRule type="expression" dxfId="201" priority="388">
       <formula>#REF!="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="389">
+    <cfRule type="expression" dxfId="200" priority="389">
       <formula>#REF!="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:K164">
-    <cfRule type="containsText" dxfId="203" priority="117" operator="containsText" text="cambiado">
+    <cfRule type="containsText" dxfId="199" priority="117" operator="containsText" text="cambiado">
       <formula>NOT(ISERROR(SEARCH("cambiado",K11)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="118" operator="equal">
       <formula>"revisar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="351" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="351" operator="equal">
       <formula>"pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="352" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="352" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73:E75 E79:E98 E11:E69">
-    <cfRule type="cellIs" dxfId="199" priority="348" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="348" operator="equal">
       <formula>"pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="349" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="349" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="350" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="350" operator="equal">
       <formula>"en proceso"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L66:M66">
-    <cfRule type="expression" dxfId="196" priority="237">
+    <cfRule type="expression" dxfId="192" priority="237">
       <formula>$W66="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="238">
+    <cfRule type="expression" dxfId="191" priority="238">
       <formula>$W66="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="194" priority="239">
+    <cfRule type="expression" dxfId="190" priority="239">
       <formula>$W66="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="240">
+    <cfRule type="expression" dxfId="189" priority="240">
       <formula>$W66="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="241">
+    <cfRule type="expression" dxfId="188" priority="241">
       <formula>$W66="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="191" priority="242">
+    <cfRule type="expression" dxfId="187" priority="242">
       <formula>$W66="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="243">
+    <cfRule type="expression" dxfId="186" priority="243">
       <formula>$W66="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="244">
+    <cfRule type="expression" dxfId="185" priority="244">
       <formula>$W66="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="245">
+    <cfRule type="expression" dxfId="184" priority="245">
       <formula>$W66="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="246">
+    <cfRule type="expression" dxfId="183" priority="246">
       <formula>$W66="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="247">
+    <cfRule type="expression" dxfId="182" priority="247">
       <formula>$W66="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="248">
+    <cfRule type="expression" dxfId="181" priority="248">
       <formula>$W66="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="249">
+    <cfRule type="expression" dxfId="180" priority="249">
       <formula>$W66="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="250">
+    <cfRule type="expression" dxfId="179" priority="250">
       <formula>$W66="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="251">
+    <cfRule type="expression" dxfId="178" priority="251">
       <formula>$W66="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="252">
+    <cfRule type="expression" dxfId="177" priority="252">
       <formula>$W66="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="253">
+    <cfRule type="expression" dxfId="176" priority="253">
       <formula>$W66="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="179" priority="254">
+    <cfRule type="expression" dxfId="175" priority="254">
       <formula>$W66="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="255">
+    <cfRule type="expression" dxfId="174" priority="255">
       <formula>$W66="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="256">
+    <cfRule type="expression" dxfId="173" priority="256">
       <formula>$W66="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="176" priority="257">
+    <cfRule type="expression" dxfId="172" priority="257">
       <formula>$W66="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="258">
+    <cfRule type="expression" dxfId="171" priority="258">
       <formula>$W66="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="259">
+    <cfRule type="expression" dxfId="170" priority="259">
       <formula>$W66="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="260">
+    <cfRule type="expression" dxfId="169" priority="260">
       <formula>$W66="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="261">
+    <cfRule type="expression" dxfId="168" priority="261">
       <formula>$W66="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="262">
+    <cfRule type="expression" dxfId="167" priority="262">
       <formula>$W66="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="263">
+    <cfRule type="expression" dxfId="166" priority="263">
       <formula>$W66="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="264">
+    <cfRule type="expression" dxfId="165" priority="264">
       <formula>$W66="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="265">
+    <cfRule type="expression" dxfId="164" priority="265">
       <formula>$W66="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="167" priority="266">
+    <cfRule type="expression" dxfId="163" priority="266">
       <formula>$W66="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="267">
+    <cfRule type="expression" dxfId="162" priority="267">
       <formula>$W66="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="268">
+    <cfRule type="expression" dxfId="161" priority="268">
       <formula>$W66="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="269">
+    <cfRule type="expression" dxfId="160" priority="269">
       <formula>$W66="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="270">
+    <cfRule type="expression" dxfId="159" priority="270">
       <formula>$W66="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="271">
+    <cfRule type="expression" dxfId="158" priority="271">
       <formula>$W66="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="272">
+    <cfRule type="expression" dxfId="157" priority="272">
       <formula>$W66="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="273">
+    <cfRule type="expression" dxfId="156" priority="273">
       <formula>$W66="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L64:M64">
-    <cfRule type="expression" dxfId="159" priority="274">
+    <cfRule type="expression" dxfId="155" priority="274">
       <formula>$W66="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="275">
+    <cfRule type="expression" dxfId="154" priority="275">
       <formula>$W66="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="276">
+    <cfRule type="expression" dxfId="153" priority="276">
       <formula>$W66="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="277">
+    <cfRule type="expression" dxfId="152" priority="277">
       <formula>$W66="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="278">
+    <cfRule type="expression" dxfId="151" priority="278">
       <formula>$W66="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="279">
+    <cfRule type="expression" dxfId="150" priority="279">
       <formula>$W66="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="280">
+    <cfRule type="expression" dxfId="149" priority="280">
       <formula>$W66="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="281">
+    <cfRule type="expression" dxfId="148" priority="281">
       <formula>$W66="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="282">
+    <cfRule type="expression" dxfId="147" priority="282">
       <formula>$W66="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="283">
+    <cfRule type="expression" dxfId="146" priority="283">
       <formula>$W66="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="284">
+    <cfRule type="expression" dxfId="145" priority="284">
       <formula>$W66="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="285">
+    <cfRule type="expression" dxfId="144" priority="285">
       <formula>$W66="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="286">
+    <cfRule type="expression" dxfId="143" priority="286">
       <formula>$W66="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="287">
+    <cfRule type="expression" dxfId="142" priority="287">
       <formula>$W66="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="288">
+    <cfRule type="expression" dxfId="141" priority="288">
       <formula>$W66="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="289">
+    <cfRule type="expression" dxfId="140" priority="289">
       <formula>$W66="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="143" priority="290">
+    <cfRule type="expression" dxfId="139" priority="290">
       <formula>$W66="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="291">
+    <cfRule type="expression" dxfId="138" priority="291">
       <formula>$W66="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="292">
+    <cfRule type="expression" dxfId="137" priority="292">
       <formula>$W66="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="293">
+    <cfRule type="expression" dxfId="136" priority="293">
       <formula>$W66="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="294">
+    <cfRule type="expression" dxfId="135" priority="294">
       <formula>$W66="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="295">
+    <cfRule type="expression" dxfId="134" priority="295">
       <formula>$W66="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="296">
+    <cfRule type="expression" dxfId="133" priority="296">
       <formula>$W66="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="297">
+    <cfRule type="expression" dxfId="132" priority="297">
       <formula>$W66="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="298">
+    <cfRule type="expression" dxfId="131" priority="298">
       <formula>$W66="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="299">
+    <cfRule type="expression" dxfId="130" priority="299">
       <formula>$W66="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="300">
+    <cfRule type="expression" dxfId="129" priority="300">
       <formula>$W66="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="301">
+    <cfRule type="expression" dxfId="128" priority="301">
       <formula>$W66="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="302">
+    <cfRule type="expression" dxfId="127" priority="302">
       <formula>$W66="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="303">
+    <cfRule type="expression" dxfId="126" priority="303">
       <formula>$W66="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="304">
+    <cfRule type="expression" dxfId="125" priority="304">
       <formula>$W66="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="305">
+    <cfRule type="expression" dxfId="124" priority="305">
       <formula>$W66="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="306">
+    <cfRule type="expression" dxfId="123" priority="306">
       <formula>$W66="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="307">
+    <cfRule type="expression" dxfId="122" priority="307">
       <formula>$W66="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="308">
+    <cfRule type="expression" dxfId="121" priority="308">
       <formula>$W66="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="309">
+    <cfRule type="expression" dxfId="120" priority="309">
       <formula>$W66="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="310">
+    <cfRule type="expression" dxfId="119" priority="310">
       <formula>$W66="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M64">
-    <cfRule type="expression" dxfId="122" priority="200">
+    <cfRule type="expression" dxfId="118" priority="200">
       <formula>$W66="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="201">
+    <cfRule type="expression" dxfId="117" priority="201">
       <formula>$W66="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="202">
+    <cfRule type="expression" dxfId="116" priority="202">
       <formula>$W66="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="203">
+    <cfRule type="expression" dxfId="115" priority="203">
       <formula>$W66="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="204">
+    <cfRule type="expression" dxfId="114" priority="204">
       <formula>$W66="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="205">
+    <cfRule type="expression" dxfId="113" priority="205">
       <formula>$W66="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="206">
+    <cfRule type="expression" dxfId="112" priority="206">
       <formula>$W66="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="207">
+    <cfRule type="expression" dxfId="111" priority="207">
       <formula>$W66="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="208">
+    <cfRule type="expression" dxfId="110" priority="208">
       <formula>$W66="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="209">
+    <cfRule type="expression" dxfId="109" priority="209">
       <formula>$W66="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="210">
+    <cfRule type="expression" dxfId="108" priority="210">
       <formula>$W66="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="211">
+    <cfRule type="expression" dxfId="107" priority="211">
       <formula>$W66="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="212">
+    <cfRule type="expression" dxfId="106" priority="212">
       <formula>$W66="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="213">
+    <cfRule type="expression" dxfId="105" priority="213">
       <formula>$W66="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="214">
+    <cfRule type="expression" dxfId="104" priority="214">
       <formula>$W66="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="215">
+    <cfRule type="expression" dxfId="103" priority="215">
       <formula>$W66="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="216">
+    <cfRule type="expression" dxfId="102" priority="216">
       <formula>$W66="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="217">
+    <cfRule type="expression" dxfId="101" priority="217">
       <formula>$W66="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="218">
+    <cfRule type="expression" dxfId="100" priority="218">
       <formula>$W66="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="219">
+    <cfRule type="expression" dxfId="99" priority="219">
       <formula>$W66="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="220">
+    <cfRule type="expression" dxfId="98" priority="220">
       <formula>$W66="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="221">
+    <cfRule type="expression" dxfId="97" priority="221">
       <formula>$W66="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="222">
+    <cfRule type="expression" dxfId="96" priority="222">
       <formula>$W66="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="223">
+    <cfRule type="expression" dxfId="95" priority="223">
       <formula>$W66="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="224">
+    <cfRule type="expression" dxfId="94" priority="224">
       <formula>$W66="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="225">
+    <cfRule type="expression" dxfId="93" priority="225">
       <formula>$W66="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="226">
+    <cfRule type="expression" dxfId="92" priority="226">
       <formula>$W66="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="227">
+    <cfRule type="expression" dxfId="91" priority="227">
       <formula>$W66="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="228">
+    <cfRule type="expression" dxfId="90" priority="228">
       <formula>$W66="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="229">
+    <cfRule type="expression" dxfId="89" priority="229">
       <formula>$W66="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="230">
+    <cfRule type="expression" dxfId="88" priority="230">
       <formula>$W66="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="231">
+    <cfRule type="expression" dxfId="87" priority="231">
       <formula>$W66="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="232">
+    <cfRule type="expression" dxfId="86" priority="232">
       <formula>$W66="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="233">
+    <cfRule type="expression" dxfId="85" priority="233">
       <formula>$W66="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="234">
+    <cfRule type="expression" dxfId="84" priority="234">
       <formula>$W66="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="235">
+    <cfRule type="expression" dxfId="83" priority="235">
       <formula>$W66="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="236">
+    <cfRule type="expression" dxfId="82" priority="236">
       <formula>$W66="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L65:M65">
-    <cfRule type="expression" dxfId="85" priority="1111">
+    <cfRule type="expression" dxfId="81" priority="1111">
       <formula>#REF!="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="1112">
+    <cfRule type="expression" dxfId="80" priority="1112">
       <formula>#REF!="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="1113">
+    <cfRule type="expression" dxfId="79" priority="1113">
       <formula>#REF!="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="1114">
+    <cfRule type="expression" dxfId="78" priority="1114">
       <formula>#REF!="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="1115">
+    <cfRule type="expression" dxfId="77" priority="1115">
       <formula>#REF!="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="1116">
+    <cfRule type="expression" dxfId="76" priority="1116">
       <formula>#REF!="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="1117">
+    <cfRule type="expression" dxfId="75" priority="1117">
       <formula>#REF!="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="1118">
+    <cfRule type="expression" dxfId="74" priority="1118">
       <formula>#REF!="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="1119">
+    <cfRule type="expression" dxfId="73" priority="1119">
       <formula>#REF!="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="1120">
+    <cfRule type="expression" dxfId="72" priority="1120">
       <formula>#REF!="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="1121">
+    <cfRule type="expression" dxfId="71" priority="1121">
       <formula>#REF!="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="1122">
+    <cfRule type="expression" dxfId="70" priority="1122">
       <formula>#REF!="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="1123">
+    <cfRule type="expression" dxfId="69" priority="1123">
       <formula>#REF!="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="1124">
+    <cfRule type="expression" dxfId="68" priority="1124">
       <formula>#REF!="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="1125">
+    <cfRule type="expression" dxfId="67" priority="1125">
       <formula>#REF!="Gráfico 24"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70:E72">
-    <cfRule type="cellIs" dxfId="70" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="160" operator="equal">
       <formula>"pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="161" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="162" operator="equal">
       <formula>"en proceso"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76:E78">
-    <cfRule type="cellIs" dxfId="67" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="157" operator="equal">
       <formula>"pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="158" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="159" operator="equal">
       <formula>"en proceso"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L47:L49">
-    <cfRule type="expression" dxfId="64" priority="125" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="125" stopIfTrue="1">
       <formula>#REF!="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="129" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="129" stopIfTrue="1">
       <formula>#REF!="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="156">
+    <cfRule type="expression" dxfId="58" priority="156">
       <formula>#REF!="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:J122 J127:J145">
-    <cfRule type="cellIs" dxfId="61" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="5" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N23:N29">
-    <cfRule type="expression" dxfId="60" priority="1126">
+    <cfRule type="expression" dxfId="56" priority="1126">
       <formula>$Z12="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="1127">
+    <cfRule type="expression" dxfId="55" priority="1127">
       <formula>$Z12="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="1128">
+    <cfRule type="expression" dxfId="54" priority="1128">
       <formula>$Z12="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="1129">
+    <cfRule type="expression" dxfId="53" priority="1129">
       <formula>$Z12="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="1130">
+    <cfRule type="expression" dxfId="52" priority="1130">
       <formula>$Z12="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="1131">
+    <cfRule type="expression" dxfId="51" priority="1131">
       <formula>$Z12="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="1132">
+    <cfRule type="expression" dxfId="50" priority="1132">
       <formula>$Z12="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="1133">
+    <cfRule type="expression" dxfId="49" priority="1133">
       <formula>$Z12="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="1134">
+    <cfRule type="expression" dxfId="48" priority="1134">
       <formula>$Z12="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="1135">
+    <cfRule type="expression" dxfId="47" priority="1135">
       <formula>$Z12="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="1136">
+    <cfRule type="expression" dxfId="46" priority="1136">
       <formula>$Z12="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="1137">
+    <cfRule type="expression" dxfId="45" priority="1137">
       <formula>$Z12="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="1138">
+    <cfRule type="expression" dxfId="44" priority="1138">
       <formula>$Z12="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="1139">
+    <cfRule type="expression" dxfId="43" priority="1139">
       <formula>$Z12="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="1140">
+    <cfRule type="expression" dxfId="42" priority="1140">
       <formula>$Z12="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="1141">
+    <cfRule type="expression" dxfId="41" priority="1141">
       <formula>$Z12="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="1142">
+    <cfRule type="expression" dxfId="40" priority="1142">
       <formula>$Z12="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="1143">
+    <cfRule type="expression" dxfId="39" priority="1143">
       <formula>$Z12="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="1144">
+    <cfRule type="expression" dxfId="38" priority="1144">
       <formula>$Z12="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="1145">
+    <cfRule type="expression" dxfId="37" priority="1145">
       <formula>$Z12="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="1146">
+    <cfRule type="expression" dxfId="36" priority="1146">
       <formula>$Z12="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="1147">
+    <cfRule type="expression" dxfId="35" priority="1147">
       <formula>$Z12="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="1148">
+    <cfRule type="expression" dxfId="34" priority="1148">
       <formula>$Z12="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="1149">
+    <cfRule type="expression" dxfId="33" priority="1149">
       <formula>$Z12="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="1150">
+    <cfRule type="expression" dxfId="32" priority="1150">
       <formula>$Z12="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="1151">
+    <cfRule type="expression" dxfId="31" priority="1151">
       <formula>$Z12="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="1152">
+    <cfRule type="expression" dxfId="30" priority="1152">
       <formula>$Z12="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="1153">
+    <cfRule type="expression" dxfId="29" priority="1153">
       <formula>$Z12="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="1154">
+    <cfRule type="expression" dxfId="28" priority="1154">
       <formula>$Z12="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="1155">
+    <cfRule type="expression" dxfId="27" priority="1155">
       <formula>$Z12="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="1156">
+    <cfRule type="expression" dxfId="26" priority="1156">
       <formula>$Z12="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="1157">
+    <cfRule type="expression" dxfId="25" priority="1157">
       <formula>$Z12="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="1158">
+    <cfRule type="expression" dxfId="24" priority="1158">
       <formula>$Z12="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="1159">
+    <cfRule type="expression" dxfId="23" priority="1159">
       <formula>$Z12="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="1160">
+    <cfRule type="expression" dxfId="22" priority="1160">
       <formula>$Z12="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="1161">
+    <cfRule type="expression" dxfId="21" priority="1161">
       <formula>$Z12="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="1162">
+    <cfRule type="expression" dxfId="20" priority="1162">
       <formula>$Z12="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J123:J126">
-    <cfRule type="cellIs" dxfId="23" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J123:J126">
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J150">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J151">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Monitoreo Nuevos Productos.xlsx
+++ b/Monitoreo Nuevos Productos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D70E29-637B-48FC-A029-9844D3BD4033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D1257F-89B7-45C8-860D-DA6E5AD90AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{3C601918-C683-4A9E-9764-2E2F3DE6B565}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{3C601918-C683-4A9E-9764-2E2F3DE6B565}"/>
   </bookViews>
   <sheets>
     <sheet name="Monitoreo Nuevos Productos" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="236">
   <si>
     <t>SECTOR</t>
   </si>
@@ -964,6 +964,12 @@
   </si>
   <si>
     <t>Sentencias dictadas por delitos de violaciones || Chile || 2013-2019</t>
+  </si>
+  <si>
+    <t>Fer</t>
+  </si>
+  <si>
+    <t>??</t>
   </si>
 </sst>
 </file>
@@ -1281,1596 +1287,6 @@
   <dxfs count="188">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6666FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA984CA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC00CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6666FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF008000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF336699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFC00000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC00000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF0070C0"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF0070C0"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF0070C0"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9966"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFF33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF66CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB9F2FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF6A0C9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCEEE8E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9AE2B9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD0ACAC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA984CA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC00CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6666FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF008000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF336699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFC00000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC00000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF0070C0"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF0070C0"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF0070C0"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9966"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFF33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF66CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB9F2FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF6A0C9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCEEE8E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9AE2B9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD0ACAC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA984CA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC00CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6666FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF008000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF336699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFC00000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC00000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF0070C0"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF0070C0"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF0070C0"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9966"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFF33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF66CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB9F2FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF6A0C9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCEEE8E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9AE2B9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD0ACAC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA984CA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC00CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6666FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF008000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF336699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFC00000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC00000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF0070C0"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF0070C0"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF0070C0"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9966"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFF33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF66CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB9F2FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF6A0C9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCEEE8E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9AE2B9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD0ACAC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA984CA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC00CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6666FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF008000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF336699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFC00000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC00000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF0070C0"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF0070C0"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF0070C0"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -3051,6 +1467,1596 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6666FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA984CA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC00CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6666FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF008000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF336699"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC00000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC00000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF0070C0"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF0070C0"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF0070C0"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB9F2FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF6A0C9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCEEE8E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9AE2B9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD0ACAC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA984CA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC00CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6666FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF008000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF336699"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC00000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC00000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF0070C0"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF0070C0"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF0070C0"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB9F2FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF6A0C9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCEEE8E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9AE2B9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD0ACAC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA984CA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC00CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6666FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF008000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF336699"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC00000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC00000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF0070C0"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF0070C0"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF0070C0"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB9F2FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF6A0C9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCEEE8E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9AE2B9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD0ACAC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA984CA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC00CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6666FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF008000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF336699"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC00000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC00000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF0070C0"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF0070C0"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF0070C0"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB9F2FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF6A0C9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCEEE8E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9AE2B9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD0ACAC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA984CA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC00CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6666FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF008000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF336699"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC00000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC00000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF0070C0"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF0070C0"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF0070C0"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3236,8 +3242,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>85726</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="TEMA">
@@ -3260,7 +3266,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -3424,7 +3430,7 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="TABLA MADRE" xr10:uid="{E5B4DF95-80E8-4F10-AD82-CCE5BEE54362}" cache="SegmentaciónDeDatos_TABLA_MADRE" caption="TABLA MADRE" startItem="16" columnCount="4" rowHeight="241300"/>
+  <slicer name="TABLA MADRE" xr10:uid="{E5B4DF95-80E8-4F10-AD82-CCE5BEE54362}" cache="SegmentaciónDeDatos_TABLA_MADRE" caption="TABLA MADRE" columnCount="4" rowHeight="241300"/>
   <slicer name="TIPO PRODUCTO" xr10:uid="{9477DBC7-9C09-47A7-984E-6F75ED6B60A9}" cache="SegmentaciónDeDatos_TIPO_PRODUCTO" caption="TIPO PRODUCTO" rowHeight="241300"/>
   <slicer name="TEMA" xr10:uid="{7B410BB5-38F1-4C94-868C-3BB0B69500F5}" cache="SegmentaciónDeDatos_TEMA" caption="TEMA" columnCount="2" rowHeight="241300"/>
   <slicer name="COLECCIÓN" xr10:uid="{A9E34F2D-603A-4D3B-9BDC-43C7F8B642F6}" cache="SegmentaciónDeDatos_COLECCIÓN" caption="COLECCIÓN" rowHeight="241300"/>
@@ -3432,7 +3438,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8AB307C7-AF39-4578-A163-A8BC847F650D}" name="Tabla1" displayName="Tabla1" ref="A10:J164" totalsRowShown="0" headerRowDxfId="187" dataDxfId="186">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8AB307C7-AF39-4578-A163-A8BC847F650D}" name="Tabla1" displayName="Tabla1" ref="A10:J164" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A10:J164" xr:uid="{BE3B9459-9CC4-4B42-85DE-65D6DD89527B}">
     <filterColumn colId="1">
       <filters>
@@ -3441,16 +3447,16 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{AEA8EF0D-25C7-4111-8A9F-0B18B1765250}" name="SECTOR" dataDxfId="185"/>
-    <tableColumn id="2" xr3:uid="{752FAE73-6FD3-44CD-87CD-9043950F7C57}" name="COLECCIÓN" dataDxfId="184"/>
-    <tableColumn id="3" xr3:uid="{6007294C-E2A9-42FC-8D1B-04F4C15E7E6C}" name="TABLA MADRE" dataDxfId="183"/>
-    <tableColumn id="4" xr3:uid="{CC128664-1A0A-4FA0-9E24-7F2D50AC3945}" name="RESPONSABLE" dataDxfId="182"/>
-    <tableColumn id="6" xr3:uid="{D1D0198B-6B8E-4844-BFB3-0C4C39A5DEEB}" name="TEMA" dataDxfId="181"/>
-    <tableColumn id="7" xr3:uid="{F7C33F71-D2AC-440D-B0A6-B78933C8E65D}" name="TIPO PRODUCTO" dataDxfId="180"/>
-    <tableColumn id="8" xr3:uid="{D2B9DAD1-8888-4EAE-B08D-DDAAD4D91214}" name="NOMBRE" dataDxfId="179"/>
-    <tableColumn id="9" xr3:uid="{B13359B5-127C-4ACD-BA41-0F932FFA47DE}" name="Cantidad" dataDxfId="178"/>
-    <tableColumn id="10" xr3:uid="{22126FF6-1849-455F-A6A6-7D65468619C8}" name="Títulos revisados" dataDxfId="177"/>
-    <tableColumn id="11" xr3:uid="{C4B2B2EE-05E3-4BD3-9138-0C5123EACD36}" name="Título Genérico - Shopify" dataDxfId="176"/>
+    <tableColumn id="1" xr3:uid="{AEA8EF0D-25C7-4111-8A9F-0B18B1765250}" name="SECTOR" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{752FAE73-6FD3-44CD-87CD-9043950F7C57}" name="COLECCIÓN" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{6007294C-E2A9-42FC-8D1B-04F4C15E7E6C}" name="TABLA MADRE" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{CC128664-1A0A-4FA0-9E24-7F2D50AC3945}" name="RESPONSABLE" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{D1D0198B-6B8E-4844-BFB3-0C4C39A5DEEB}" name="TEMA" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{F7C33F71-D2AC-440D-B0A6-B78933C8E65D}" name="TIPO PRODUCTO" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{D2B9DAD1-8888-4EAE-B08D-DDAAD4D91214}" name="NOMBRE" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{B13359B5-127C-4ACD-BA41-0F932FFA47DE}" name="Cantidad" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{22126FF6-1849-455F-A6A6-7D65468619C8}" name="Títulos revisados" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{C4B2B2EE-05E3-4BD3-9138-0C5123EACD36}" name="Título Genérico - Shopify" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3753,13 +3759,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3A78A7-9431-4C50-BEC2-0AF7D2B7DD16}">
-  <dimension ref="A8:N164"/>
+  <dimension ref="A8:J164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="10" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="E133" sqref="E133"/>
+      <selection pane="bottomRight" activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3771,7 +3777,7 @@
     <col min="7" max="7" width="23.36328125" customWidth="1"/>
     <col min="8" max="8" width="17.453125" customWidth="1"/>
     <col min="9" max="9" width="17.453125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="97.54296875" style="8" customWidth="1"/>
+    <col min="10" max="10" width="102.1796875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -7009,7 +7015,9 @@
       <c r="C100" s="35">
         <v>27.6</v>
       </c>
-      <c r="D100" s="35"/>
+      <c r="D100" s="35" t="s">
+        <v>61</v>
+      </c>
       <c r="E100" s="34" t="s">
         <v>162</v>
       </c>
@@ -7041,7 +7049,9 @@
       <c r="C101" s="35">
         <v>27.7</v>
       </c>
-      <c r="D101" s="35"/>
+      <c r="D101" s="35" t="s">
+        <v>61</v>
+      </c>
       <c r="E101" s="34" t="s">
         <v>162</v>
       </c>
@@ -7073,7 +7083,9 @@
       <c r="C102" s="35">
         <v>27.25</v>
       </c>
-      <c r="D102" s="35"/>
+      <c r="D102" s="35" t="s">
+        <v>235</v>
+      </c>
       <c r="E102" s="34" t="s">
         <v>164</v>
       </c>
@@ -7105,7 +7117,9 @@
       <c r="C103" s="35">
         <v>27</v>
       </c>
-      <c r="D103" s="35"/>
+      <c r="D103" s="35" t="s">
+        <v>61</v>
+      </c>
       <c r="E103" s="34" t="s">
         <v>163</v>
       </c>
@@ -7137,7 +7151,9 @@
       <c r="C104" s="35">
         <v>27.14</v>
       </c>
-      <c r="D104" s="35"/>
+      <c r="D104" s="35" t="s">
+        <v>63</v>
+      </c>
       <c r="E104" s="34" t="s">
         <v>173</v>
       </c>
@@ -7169,7 +7185,9 @@
       <c r="C105" s="35">
         <v>27.8</v>
       </c>
-      <c r="D105" s="35"/>
+      <c r="D105" s="35" t="s">
+        <v>61</v>
+      </c>
       <c r="E105" s="51" t="s">
         <v>162</v>
       </c>
@@ -7201,7 +7219,9 @@
       <c r="C106" s="35">
         <v>27.8</v>
       </c>
-      <c r="D106" s="35"/>
+      <c r="D106" s="35" t="s">
+        <v>61</v>
+      </c>
       <c r="E106" s="51" t="s">
         <v>162</v>
       </c>
@@ -7233,7 +7253,9 @@
       <c r="C107" s="35">
         <v>27.8</v>
       </c>
-      <c r="D107" s="35"/>
+      <c r="D107" s="35" t="s">
+        <v>61</v>
+      </c>
       <c r="E107" s="51" t="s">
         <v>162</v>
       </c>
@@ -7265,7 +7287,9 @@
       <c r="C108" s="35">
         <v>27.9</v>
       </c>
-      <c r="D108" s="35"/>
+      <c r="D108" s="35" t="s">
+        <v>60</v>
+      </c>
       <c r="E108" s="34" t="s">
         <v>169</v>
       </c>
@@ -7297,7 +7321,9 @@
       <c r="C109" s="45">
         <v>27.9</v>
       </c>
-      <c r="D109" s="45"/>
+      <c r="D109" s="45" t="s">
+        <v>60</v>
+      </c>
       <c r="E109" s="44" t="s">
         <v>169</v>
       </c>
@@ -7329,7 +7355,9 @@
       <c r="C110" s="35">
         <v>27.11</v>
       </c>
-      <c r="D110" s="35"/>
+      <c r="D110" s="35" t="s">
+        <v>63</v>
+      </c>
       <c r="E110" s="34" t="s">
         <v>173</v>
       </c>
@@ -7361,7 +7389,9 @@
       <c r="C111" s="35">
         <v>27.12</v>
       </c>
-      <c r="D111" s="35"/>
+      <c r="D111" s="35" t="s">
+        <v>63</v>
+      </c>
       <c r="E111" s="34" t="s">
         <v>173</v>
       </c>
@@ -7393,7 +7423,9 @@
       <c r="C112" s="35">
         <v>27.13</v>
       </c>
-      <c r="D112" s="35"/>
+      <c r="D112" s="35" t="s">
+        <v>63</v>
+      </c>
       <c r="E112" s="34" t="s">
         <v>173</v>
       </c>
@@ -7425,7 +7457,9 @@
       <c r="C113" s="35">
         <v>27.15</v>
       </c>
-      <c r="D113" s="35"/>
+      <c r="D113" s="35" t="s">
+        <v>235</v>
+      </c>
       <c r="E113" s="34" t="s">
         <v>170</v>
       </c>
@@ -7521,7 +7555,9 @@
       <c r="C116" s="35">
         <v>27.16</v>
       </c>
-      <c r="D116" s="35"/>
+      <c r="D116" s="35" t="s">
+        <v>235</v>
+      </c>
       <c r="E116" s="34" t="s">
         <v>171</v>
       </c>
@@ -7617,7 +7653,9 @@
       <c r="C119" s="35">
         <v>27.18</v>
       </c>
-      <c r="D119" s="35"/>
+      <c r="D119" s="35" t="s">
+        <v>62</v>
+      </c>
       <c r="E119" s="34" t="s">
         <v>172</v>
       </c>
@@ -7649,7 +7687,9 @@
       <c r="C120" s="35">
         <v>27.18</v>
       </c>
-      <c r="D120" s="35"/>
+      <c r="D120" s="35" t="s">
+        <v>62</v>
+      </c>
       <c r="E120" s="34" t="s">
         <v>172</v>
       </c>
@@ -7681,7 +7721,9 @@
       <c r="C121" s="35">
         <v>27.18</v>
       </c>
-      <c r="D121" s="35"/>
+      <c r="D121" s="35" t="s">
+        <v>62</v>
+      </c>
       <c r="E121" s="34" t="s">
         <v>172</v>
       </c>
@@ -7713,7 +7755,9 @@
       <c r="C122" s="35">
         <v>27.18</v>
       </c>
-      <c r="D122" s="35"/>
+      <c r="D122" s="35" t="s">
+        <v>62</v>
+      </c>
       <c r="E122" s="34" t="s">
         <v>172</v>
       </c>
@@ -7745,7 +7789,9 @@
       <c r="C123" s="35">
         <v>27.19</v>
       </c>
-      <c r="D123" s="35"/>
+      <c r="D123" s="35" t="s">
+        <v>62</v>
+      </c>
       <c r="E123" s="34" t="s">
         <v>172</v>
       </c>
@@ -7777,7 +7823,9 @@
       <c r="C124" s="35">
         <v>27.19</v>
       </c>
-      <c r="D124" s="35"/>
+      <c r="D124" s="35" t="s">
+        <v>62</v>
+      </c>
       <c r="E124" s="34" t="s">
         <v>172</v>
       </c>
@@ -7809,7 +7857,9 @@
       <c r="C125" s="35">
         <v>27.19</v>
       </c>
-      <c r="D125" s="35"/>
+      <c r="D125" s="35" t="s">
+        <v>62</v>
+      </c>
       <c r="E125" s="34" t="s">
         <v>172</v>
       </c>
@@ -7841,7 +7891,9 @@
       <c r="C126" s="35">
         <v>27.19</v>
       </c>
-      <c r="D126" s="35"/>
+      <c r="D126" s="35" t="s">
+        <v>62</v>
+      </c>
       <c r="E126" s="34" t="s">
         <v>172</v>
       </c>
@@ -7873,7 +7925,9 @@
       <c r="C127" s="35">
         <v>27.23</v>
       </c>
-      <c r="D127" s="35"/>
+      <c r="D127" s="35" t="s">
+        <v>60</v>
+      </c>
       <c r="E127" s="34" t="s">
         <v>169</v>
       </c>
@@ -7905,7 +7959,9 @@
       <c r="C128" s="45">
         <v>27.23</v>
       </c>
-      <c r="D128" s="45"/>
+      <c r="D128" s="45" t="s">
+        <v>60</v>
+      </c>
       <c r="E128" s="44" t="s">
         <v>169</v>
       </c>
@@ -7937,7 +7993,9 @@
       <c r="C129" s="35">
         <v>27.24</v>
       </c>
-      <c r="D129" s="35"/>
+      <c r="D129" s="35" t="s">
+        <v>60</v>
+      </c>
       <c r="E129" s="34" t="s">
         <v>169</v>
       </c>
@@ -7969,7 +8027,9 @@
       <c r="C130" s="45">
         <v>27.24</v>
       </c>
-      <c r="D130" s="45"/>
+      <c r="D130" s="45" t="s">
+        <v>60</v>
+      </c>
       <c r="E130" s="44" t="s">
         <v>169</v>
       </c>
@@ -8033,7 +8093,9 @@
       <c r="C132" s="35">
         <v>27.7</v>
       </c>
-      <c r="D132" s="35"/>
+      <c r="D132" s="35" t="s">
+        <v>61</v>
+      </c>
       <c r="E132" s="34" t="s">
         <v>162</v>
       </c>
@@ -8065,7 +8127,9 @@
       <c r="C133" s="35">
         <v>27.8</v>
       </c>
-      <c r="D133" s="35"/>
+      <c r="D133" s="35" t="s">
+        <v>61</v>
+      </c>
       <c r="E133" s="51" t="s">
         <v>162</v>
       </c>
@@ -8097,7 +8161,9 @@
       <c r="C134" s="35">
         <v>27.9</v>
       </c>
-      <c r="D134" s="35"/>
+      <c r="D134" s="35" t="s">
+        <v>60</v>
+      </c>
       <c r="E134" s="34" t="s">
         <v>169</v>
       </c>
@@ -8129,7 +8195,9 @@
       <c r="C135" s="35">
         <v>27.11</v>
       </c>
-      <c r="D135" s="35"/>
+      <c r="D135" s="35" t="s">
+        <v>63</v>
+      </c>
       <c r="E135" s="34" t="s">
         <v>173</v>
       </c>
@@ -8161,7 +8229,9 @@
       <c r="C136" s="35">
         <v>27.14</v>
       </c>
-      <c r="D136" s="35"/>
+      <c r="D136" s="35" t="s">
+        <v>63</v>
+      </c>
       <c r="E136" s="34" t="s">
         <v>173</v>
       </c>
@@ -8257,7 +8327,9 @@
       <c r="C139" s="35">
         <v>27.18</v>
       </c>
-      <c r="D139" s="35"/>
+      <c r="D139" s="35" t="s">
+        <v>62</v>
+      </c>
       <c r="E139" s="34" t="s">
         <v>172</v>
       </c>
@@ -8289,7 +8361,9 @@
       <c r="C140" s="35">
         <v>27.18</v>
       </c>
-      <c r="D140" s="35"/>
+      <c r="D140" s="35" t="s">
+        <v>62</v>
+      </c>
       <c r="E140" s="34" t="s">
         <v>172</v>
       </c>
@@ -8321,7 +8395,9 @@
       <c r="C141" s="35">
         <v>27.19</v>
       </c>
-      <c r="D141" s="35"/>
+      <c r="D141" s="35" t="s">
+        <v>62</v>
+      </c>
       <c r="E141" s="34" t="s">
         <v>172</v>
       </c>
@@ -8353,7 +8429,9 @@
       <c r="C142" s="35">
         <v>27.19</v>
       </c>
-      <c r="D142" s="35"/>
+      <c r="D142" s="35" t="s">
+        <v>62</v>
+      </c>
       <c r="E142" s="34" t="s">
         <v>172</v>
       </c>
@@ -8385,7 +8463,9 @@
       <c r="C143" s="35">
         <v>27.23</v>
       </c>
-      <c r="D143" s="35"/>
+      <c r="D143" s="35" t="s">
+        <v>60</v>
+      </c>
       <c r="E143" s="34" t="s">
         <v>169</v>
       </c>
@@ -8417,7 +8497,9 @@
       <c r="C144" s="35">
         <v>27.24</v>
       </c>
-      <c r="D144" s="35"/>
+      <c r="D144" s="35" t="s">
+        <v>60</v>
+      </c>
       <c r="E144" s="34" t="s">
         <v>169</v>
       </c>
@@ -8449,7 +8531,9 @@
       <c r="C145" s="35">
         <v>27.17</v>
       </c>
-      <c r="D145" s="35"/>
+      <c r="D145" s="35" t="s">
+        <v>62</v>
+      </c>
       <c r="E145" s="34" t="s">
         <v>172</v>
       </c>
@@ -8479,7 +8563,9 @@
       <c r="C146" s="35">
         <v>27.17</v>
       </c>
-      <c r="D146" s="12"/>
+      <c r="D146" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="E146" s="34" t="s">
         <v>172</v>
       </c>
@@ -8509,7 +8595,9 @@
       <c r="C147" s="35">
         <v>27.17</v>
       </c>
-      <c r="D147" s="12"/>
+      <c r="D147" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="E147" s="34" t="s">
         <v>172</v>
       </c>
@@ -8539,7 +8627,9 @@
       <c r="C148" s="35">
         <v>27.17</v>
       </c>
-      <c r="D148" s="12"/>
+      <c r="D148" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="E148" s="34" t="s">
         <v>172</v>
       </c>
@@ -8569,7 +8659,9 @@
       <c r="C149" s="12">
         <v>27.3</v>
       </c>
-      <c r="D149" s="12"/>
+      <c r="D149" s="12" t="s">
+        <v>234</v>
+      </c>
       <c r="E149" s="10" t="s">
         <v>207</v>
       </c>
@@ -8599,7 +8691,9 @@
       <c r="C150" s="12">
         <v>27.4</v>
       </c>
-      <c r="D150" s="12"/>
+      <c r="D150" s="12" t="s">
+        <v>234</v>
+      </c>
       <c r="E150" s="10" t="s">
         <v>207</v>
       </c>
@@ -8629,7 +8723,9 @@
       <c r="C151" s="12">
         <v>27.5</v>
       </c>
-      <c r="D151" s="12"/>
+      <c r="D151" s="12" t="s">
+        <v>234</v>
+      </c>
       <c r="E151" s="10" t="s">
         <v>207</v>
       </c>
@@ -8659,7 +8755,9 @@
       <c r="C152" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="D152" s="12"/>
+      <c r="D152" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="E152" s="10" t="s">
         <v>209</v>
       </c>
@@ -8689,7 +8787,9 @@
       <c r="C153" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="D153" s="12"/>
+      <c r="D153" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="E153" s="10" t="s">
         <v>209</v>
       </c>
@@ -8719,7 +8819,9 @@
       <c r="C154" s="42">
         <v>27.4</v>
       </c>
-      <c r="D154" s="12"/>
+      <c r="D154" s="12" t="s">
+        <v>234</v>
+      </c>
       <c r="E154" s="10" t="s">
         <v>207</v>
       </c>
@@ -8749,7 +8851,9 @@
       <c r="C155" s="42" t="s">
         <v>208</v>
       </c>
-      <c r="D155" s="12"/>
+      <c r="D155" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="E155" s="10" t="s">
         <v>209</v>
       </c>
@@ -8779,7 +8883,9 @@
       <c r="C156" s="5">
         <v>27.17</v>
       </c>
-      <c r="D156" s="12"/>
+      <c r="D156" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="E156" s="10" t="s">
         <v>172</v>
       </c>
@@ -8809,7 +8915,9 @@
       <c r="C157" s="5">
         <v>27.17</v>
       </c>
-      <c r="D157" s="35"/>
+      <c r="D157" s="35" t="s">
+        <v>62</v>
+      </c>
       <c r="E157" s="10" t="s">
         <v>172</v>
       </c>
@@ -8914,556 +9022,556 @@
   <dataConsolidate/>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="J43:J46">
-    <cfRule type="expression" dxfId="175" priority="988">
+    <cfRule type="expression" dxfId="187" priority="988">
       <formula>#REF!="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="989">
+    <cfRule type="expression" dxfId="186" priority="989">
       <formula>#REF!="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="990">
+    <cfRule type="expression" dxfId="185" priority="990">
       <formula>#REF!="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="991">
+    <cfRule type="expression" dxfId="184" priority="991">
       <formula>#REF!="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="992">
+    <cfRule type="expression" dxfId="183" priority="992">
       <formula>#REF!="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="993">
+    <cfRule type="expression" dxfId="182" priority="993">
       <formula>#REF!="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="994">
+    <cfRule type="expression" dxfId="181" priority="994">
       <formula>#REF!="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="995">
+    <cfRule type="expression" dxfId="180" priority="995">
       <formula>#REF!="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="167" priority="996">
+    <cfRule type="expression" dxfId="179" priority="996">
       <formula>#REF!="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="997">
+    <cfRule type="expression" dxfId="178" priority="997">
       <formula>#REF!="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="998">
+    <cfRule type="expression" dxfId="177" priority="998">
       <formula>#REF!="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="999">
+    <cfRule type="expression" dxfId="176" priority="999">
       <formula>#REF!="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="1000">
+    <cfRule type="expression" dxfId="175" priority="1000">
       <formula>#REF!="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="1001">
+    <cfRule type="expression" dxfId="174" priority="1001">
       <formula>#REF!="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="1002">
+    <cfRule type="expression" dxfId="173" priority="1002">
       <formula>#REF!="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="1003">
+    <cfRule type="expression" dxfId="172" priority="1003">
       <formula>#REF!="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="1004">
+    <cfRule type="expression" dxfId="171" priority="1004">
       <formula>#REF!="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="1005">
+    <cfRule type="expression" dxfId="170" priority="1005">
       <formula>#REF!="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="1006">
+    <cfRule type="expression" dxfId="169" priority="1006">
       <formula>#REF!="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="1007">
+    <cfRule type="expression" dxfId="168" priority="1007">
       <formula>#REF!="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="1008">
+    <cfRule type="expression" dxfId="167" priority="1008">
       <formula>#REF!="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="1009">
+    <cfRule type="expression" dxfId="166" priority="1009">
       <formula>#REF!="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="1010">
+    <cfRule type="expression" dxfId="165" priority="1010">
       <formula>#REF!="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="1011">
+    <cfRule type="expression" dxfId="164" priority="1011">
       <formula>#REF!="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="1012">
+    <cfRule type="expression" dxfId="163" priority="1012">
       <formula>#REF!="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="1013">
+    <cfRule type="expression" dxfId="162" priority="1013">
       <formula>#REF!="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="1014">
+    <cfRule type="expression" dxfId="161" priority="1014">
       <formula>#REF!="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="1015">
+    <cfRule type="expression" dxfId="160" priority="1015">
       <formula>#REF!="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="1016">
+    <cfRule type="expression" dxfId="159" priority="1016">
       <formula>#REF!="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="1017">
+    <cfRule type="expression" dxfId="158" priority="1017">
       <formula>#REF!="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="1018">
+    <cfRule type="expression" dxfId="157" priority="1018">
       <formula>#REF!="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="1019">
+    <cfRule type="expression" dxfId="156" priority="1019">
       <formula>#REF!="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="143" priority="1020">
+    <cfRule type="expression" dxfId="155" priority="1020">
       <formula>#REF!="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="1021">
+    <cfRule type="expression" dxfId="154" priority="1021">
       <formula>#REF!="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="1022">
+    <cfRule type="expression" dxfId="153" priority="1022">
       <formula>#REF!="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="1023">
+    <cfRule type="expression" dxfId="152" priority="1023">
       <formula>#REF!="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="1024">
+    <cfRule type="expression" dxfId="151" priority="1024">
       <formula>#REF!="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H103:H104 H110:I122 I123:I126 H127:I149 H152:I3035 I150:I151">
-    <cfRule type="cellIs" dxfId="138" priority="986" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="150" priority="986" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J50">
-    <cfRule type="expression" dxfId="137" priority="353">
+    <cfRule type="expression" dxfId="149" priority="353">
       <formula>#REF!="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="354">
+    <cfRule type="expression" dxfId="148" priority="354">
       <formula>#REF!="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="355">
+    <cfRule type="expression" dxfId="147" priority="355">
       <formula>#REF!="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="356">
+    <cfRule type="expression" dxfId="146" priority="356">
       <formula>#REF!="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="357">
+    <cfRule type="expression" dxfId="145" priority="357">
       <formula>#REF!="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="358">
+    <cfRule type="expression" dxfId="144" priority="358">
       <formula>#REF!="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="359">
+    <cfRule type="expression" dxfId="143" priority="359">
       <formula>#REF!="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="360">
+    <cfRule type="expression" dxfId="142" priority="360">
       <formula>#REF!="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="361">
+    <cfRule type="expression" dxfId="141" priority="361">
       <formula>#REF!="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="362">
+    <cfRule type="expression" dxfId="140" priority="362">
       <formula>#REF!="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="363">
+    <cfRule type="expression" dxfId="139" priority="363">
       <formula>#REF!="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="364">
+    <cfRule type="expression" dxfId="138" priority="364">
       <formula>#REF!="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="365">
+    <cfRule type="expression" dxfId="137" priority="365">
       <formula>#REF!="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="366">
+    <cfRule type="expression" dxfId="136" priority="366">
       <formula>#REF!="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="367">
+    <cfRule type="expression" dxfId="135" priority="367">
       <formula>#REF!="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="368">
+    <cfRule type="expression" dxfId="134" priority="368">
       <formula>#REF!="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="369">
+    <cfRule type="expression" dxfId="133" priority="369">
       <formula>#REF!="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="370">
+    <cfRule type="expression" dxfId="132" priority="370">
       <formula>#REF!="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="371">
+    <cfRule type="expression" dxfId="131" priority="371">
       <formula>#REF!="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="372">
+    <cfRule type="expression" dxfId="130" priority="372">
       <formula>#REF!="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="373">
+    <cfRule type="expression" dxfId="129" priority="373">
       <formula>#REF!="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="374">
+    <cfRule type="expression" dxfId="128" priority="374">
       <formula>#REF!="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="375">
+    <cfRule type="expression" dxfId="127" priority="375">
       <formula>#REF!="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="376">
+    <cfRule type="expression" dxfId="126" priority="376">
       <formula>#REF!="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="377">
+    <cfRule type="expression" dxfId="125" priority="377">
       <formula>#REF!="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="378">
+    <cfRule type="expression" dxfId="124" priority="378">
       <formula>#REF!="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="379">
+    <cfRule type="expression" dxfId="123" priority="379">
       <formula>#REF!="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="380">
+    <cfRule type="expression" dxfId="122" priority="380">
       <formula>#REF!="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="381">
+    <cfRule type="expression" dxfId="121" priority="381">
       <formula>#REF!="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="382">
+    <cfRule type="expression" dxfId="120" priority="382">
       <formula>#REF!="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="383">
+    <cfRule type="expression" dxfId="119" priority="383">
       <formula>#REF!="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="384">
+    <cfRule type="expression" dxfId="118" priority="384">
       <formula>#REF!="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="385">
+    <cfRule type="expression" dxfId="117" priority="385">
       <formula>#REF!="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="386">
+    <cfRule type="expression" dxfId="116" priority="386">
       <formula>#REF!="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="387">
+    <cfRule type="expression" dxfId="115" priority="387">
       <formula>#REF!="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="388">
+    <cfRule type="expression" dxfId="114" priority="388">
       <formula>#REF!="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="389">
+    <cfRule type="expression" dxfId="113" priority="389">
       <formula>#REF!="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I164">
-    <cfRule type="containsText" dxfId="100" priority="117" operator="containsText" text="cambiado">
+    <cfRule type="containsText" dxfId="112" priority="117" operator="containsText" text="cambiado">
       <formula>NOT(ISERROR(SEARCH("cambiado",I11)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="118" operator="equal">
       <formula>"revisar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="351" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="351" operator="equal">
       <formula>"pendiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="352" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="352" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J66">
-    <cfRule type="expression" dxfId="96" priority="237">
+    <cfRule type="expression" dxfId="108" priority="237">
       <formula>$S66="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="238">
+    <cfRule type="expression" dxfId="107" priority="238">
       <formula>$S66="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="239">
+    <cfRule type="expression" dxfId="106" priority="239">
       <formula>$S66="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="240">
+    <cfRule type="expression" dxfId="105" priority="240">
       <formula>$S66="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="241">
+    <cfRule type="expression" dxfId="104" priority="241">
       <formula>$S66="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="242">
+    <cfRule type="expression" dxfId="103" priority="242">
       <formula>$S66="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="243">
+    <cfRule type="expression" dxfId="102" priority="243">
       <formula>$S66="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="244">
+    <cfRule type="expression" dxfId="101" priority="244">
       <formula>$S66="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="245">
+    <cfRule type="expression" dxfId="100" priority="245">
       <formula>$S66="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="246">
+    <cfRule type="expression" dxfId="99" priority="246">
       <formula>$S66="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="247">
+    <cfRule type="expression" dxfId="98" priority="247">
       <formula>$S66="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="248">
+    <cfRule type="expression" dxfId="97" priority="248">
       <formula>$S66="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="249">
+    <cfRule type="expression" dxfId="96" priority="249">
       <formula>$S66="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="250">
+    <cfRule type="expression" dxfId="95" priority="250">
       <formula>$S66="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="251">
+    <cfRule type="expression" dxfId="94" priority="251">
       <formula>$S66="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="252">
+    <cfRule type="expression" dxfId="93" priority="252">
       <formula>$S66="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="253">
+    <cfRule type="expression" dxfId="92" priority="253">
       <formula>$S66="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="254">
+    <cfRule type="expression" dxfId="91" priority="254">
       <formula>$S66="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="255">
+    <cfRule type="expression" dxfId="90" priority="255">
       <formula>$S66="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="256">
+    <cfRule type="expression" dxfId="89" priority="256">
       <formula>$S66="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="257">
+    <cfRule type="expression" dxfId="88" priority="257">
       <formula>$S66="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="258">
+    <cfRule type="expression" dxfId="87" priority="258">
       <formula>$S66="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="259">
+    <cfRule type="expression" dxfId="86" priority="259">
       <formula>$S66="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="260">
+    <cfRule type="expression" dxfId="85" priority="260">
       <formula>$S66="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="261">
+    <cfRule type="expression" dxfId="84" priority="261">
       <formula>$S66="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="262">
+    <cfRule type="expression" dxfId="83" priority="262">
       <formula>$S66="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="263">
+    <cfRule type="expression" dxfId="82" priority="263">
       <formula>$S66="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="264">
+    <cfRule type="expression" dxfId="81" priority="264">
       <formula>$S66="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="265">
+    <cfRule type="expression" dxfId="80" priority="265">
       <formula>$S66="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="266">
+    <cfRule type="expression" dxfId="79" priority="266">
       <formula>$S66="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="267">
+    <cfRule type="expression" dxfId="78" priority="267">
       <formula>$S66="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="268">
+    <cfRule type="expression" dxfId="77" priority="268">
       <formula>$S66="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="269">
+    <cfRule type="expression" dxfId="76" priority="269">
       <formula>$S66="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="270">
+    <cfRule type="expression" dxfId="75" priority="270">
       <formula>$S66="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="271">
+    <cfRule type="expression" dxfId="74" priority="271">
       <formula>$S66="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="272">
+    <cfRule type="expression" dxfId="73" priority="272">
       <formula>$S66="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="273">
+    <cfRule type="expression" dxfId="72" priority="273">
       <formula>$S66="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J64">
-    <cfRule type="expression" dxfId="59" priority="274">
+    <cfRule type="expression" dxfId="71" priority="274">
       <formula>$S66="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="275">
+    <cfRule type="expression" dxfId="70" priority="275">
       <formula>$S66="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="276">
+    <cfRule type="expression" dxfId="69" priority="276">
       <formula>$S66="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="277">
+    <cfRule type="expression" dxfId="68" priority="277">
       <formula>$S66="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="278">
+    <cfRule type="expression" dxfId="67" priority="278">
       <formula>$S66="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="279">
+    <cfRule type="expression" dxfId="66" priority="279">
       <formula>$S66="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="280">
+    <cfRule type="expression" dxfId="65" priority="280">
       <formula>$S66="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="281">
+    <cfRule type="expression" dxfId="64" priority="281">
       <formula>$S66="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="282">
+    <cfRule type="expression" dxfId="63" priority="282">
       <formula>$S66="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="283">
+    <cfRule type="expression" dxfId="62" priority="283">
       <formula>$S66="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="284">
+    <cfRule type="expression" dxfId="61" priority="284">
       <formula>$S66="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="285">
+    <cfRule type="expression" dxfId="60" priority="285">
       <formula>$S66="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="286">
+    <cfRule type="expression" dxfId="59" priority="286">
       <formula>$S66="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="287">
+    <cfRule type="expression" dxfId="58" priority="287">
       <formula>$S66="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="288">
+    <cfRule type="expression" dxfId="57" priority="288">
       <formula>$S66="Gráfico 24"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="289">
+    <cfRule type="expression" dxfId="56" priority="289">
       <formula>$S66="Gráfico 23"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="290">
+    <cfRule type="expression" dxfId="55" priority="290">
       <formula>$S66="Gráfico 22"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="291">
+    <cfRule type="expression" dxfId="54" priority="291">
       <formula>$S66="Gráfico 21"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="292">
+    <cfRule type="expression" dxfId="53" priority="292">
       <formula>$S66="Gráfico 20"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="293">
+    <cfRule type="expression" dxfId="52" priority="293">
       <formula>$S66="Gráfico 18"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="294">
+    <cfRule type="expression" dxfId="51" priority="294">
       <formula>$S66="Gráfico 19"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="295">
+    <cfRule type="expression" dxfId="50" priority="295">
       <formula>$S66="Gráfico 17"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="296">
+    <cfRule type="expression" dxfId="49" priority="296">
       <formula>$S66="Gráfico 16"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="297">
+    <cfRule type="expression" dxfId="48" priority="297">
       <formula>$S66="Gráfico 15"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="298">
+    <cfRule type="expression" dxfId="47" priority="298">
       <formula>$S66="Gráfico 14"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="299">
+    <cfRule type="expression" dxfId="46" priority="299">
       <formula>$S66="Gráfico 12"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="300">
+    <cfRule type="expression" dxfId="45" priority="300">
       <formula>$S66="Gráfico 13"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="301">
+    <cfRule type="expression" dxfId="44" priority="301">
       <formula>$S66="Gráfico 11"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="302">
+    <cfRule type="expression" dxfId="43" priority="302">
       <formula>$S66="Gráfico 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="303">
+    <cfRule type="expression" dxfId="42" priority="303">
       <formula>$S66="Gráfico 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="304">
+    <cfRule type="expression" dxfId="41" priority="304">
       <formula>$S66="Gráfico 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="305">
+    <cfRule type="expression" dxfId="40" priority="305">
       <formula>$S66="Gráfico 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="306">
+    <cfRule type="expression" dxfId="39" priority="306">
       <formula>$S66="Gráfico 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="307">
+    <cfRule type="expression" dxfId="38" priority="307">
       <formula>$S66="Gráfico 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="308">
+    <cfRule type="expression" dxfId="37" priority="308">
       <formula>$S66="Gráfico 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="309">
+    <cfRule type="expression" dxfId="36" priority="309">
       <formula>$S66="Gráfico 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="310">
+    <cfRule type="expression" dxfId="35" priority="310">
       <formula>$S66="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J65">
-    <cfRule type="expression" dxfId="22" priority="1111">
+    <cfRule type="expression" dxfId="34" priority="1111">
       <formula>#REF!="Reporte 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="1112">
+    <cfRule type="expression" dxfId="33" priority="1112">
       <formula>#REF!="Reporte 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="1113">
+    <cfRule type="expression" dxfId="32" priority="1113">
       <formula>#REF!="Informe 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="1114">
+    <cfRule type="expression" dxfId="31" priority="1114">
       <formula>#REF!="Informe 9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="1115">
+    <cfRule type="expression" dxfId="30" priority="1115">
       <formula>#REF!="Informe 8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="1116">
+    <cfRule type="expression" dxfId="29" priority="1116">
       <formula>#REF!="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="1117">
+    <cfRule type="expression" dxfId="28" priority="1117">
       <formula>#REF!="Informe 6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="1118">
+    <cfRule type="expression" dxfId="27" priority="1118">
       <formula>#REF!="Informe 5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="1119">
+    <cfRule type="expression" dxfId="26" priority="1119">
       <formula>#REF!="Informe 4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="1120">
+    <cfRule type="expression" dxfId="25" priority="1120">
       <formula>#REF!="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="1121">
+    <cfRule type="expression" dxfId="24" priority="1121">
       <formula>#REF!="Informe 2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="1122">
+    <cfRule type="expression" dxfId="23" priority="1122">
       <formula>#REF!="Informe 1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="1123">
+    <cfRule type="expression" dxfId="22" priority="1123">
       <formula>#REF!="Gráfico 10"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="1124">
+    <cfRule type="expression" dxfId="21" priority="1124">
       <formula>#REF!="Gráfico 25"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="1125">
+    <cfRule type="expression" dxfId="20" priority="1125">
       <formula>#REF!="Gráfico 24"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J47:J49">
-    <cfRule type="expression" dxfId="7" priority="125" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="125" stopIfTrue="1">
       <formula>#REF!="Informe 7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="129" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="129" stopIfTrue="1">
       <formula>#REF!="Informe 3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="156">
+    <cfRule type="expression" dxfId="17" priority="156">
       <formula>#REF!="Gráfico 5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:H122 H127:H145">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H123:H126">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H123:H126">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H150">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H151">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Monitoreo Nuevos Productos.xlsx
+++ b/Monitoreo Nuevos Productos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D1257F-89B7-45C8-860D-DA6E5AD90AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A175BFD6-C341-4B86-8DBA-F3B7C3F1D363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{3C601918-C683-4A9E-9764-2E2F3DE6B565}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{3C601918-C683-4A9E-9764-2E2F3DE6B565}"/>
   </bookViews>
   <sheets>
     <sheet name="Monitoreo Nuevos Productos" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="237">
   <si>
     <t>SECTOR</t>
   </si>
@@ -966,10 +966,13 @@
     <t>Sentencias dictadas por delitos de violaciones || Chile || 2013-2019</t>
   </si>
   <si>
-    <t>Fer</t>
-  </si>
-  <si>
     <t>??</t>
+  </si>
+  <si>
+    <t>27.20</t>
+  </si>
+  <si>
+    <t>Casos de violencia hacia la mujer a escala regional || Chile || periodo 2012-2020</t>
   </si>
 </sst>
 </file>
@@ -3430,7 +3433,7 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="TABLA MADRE" xr10:uid="{E5B4DF95-80E8-4F10-AD82-CCE5BEE54362}" cache="SegmentaciónDeDatos_TABLA_MADRE" caption="TABLA MADRE" columnCount="4" rowHeight="241300"/>
+  <slicer name="TABLA MADRE" xr10:uid="{E5B4DF95-80E8-4F10-AD82-CCE5BEE54362}" cache="SegmentaciónDeDatos_TABLA_MADRE" caption="TABLA MADRE" startItem="8" columnCount="4" rowHeight="241300"/>
   <slicer name="TIPO PRODUCTO" xr10:uid="{9477DBC7-9C09-47A7-984E-6F75ED6B60A9}" cache="SegmentaciónDeDatos_TIPO_PRODUCTO" caption="TIPO PRODUCTO" rowHeight="241300"/>
   <slicer name="TEMA" xr10:uid="{7B410BB5-38F1-4C94-868C-3BB0B69500F5}" cache="SegmentaciónDeDatos_TEMA" caption="TEMA" columnCount="2" rowHeight="241300"/>
   <slicer name="COLECCIÓN" xr10:uid="{A9E34F2D-603A-4D3B-9BDC-43C7F8B642F6}" cache="SegmentaciónDeDatos_COLECCIÓN" caption="COLECCIÓN" rowHeight="241300"/>
@@ -3439,13 +3442,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8AB307C7-AF39-4578-A163-A8BC847F650D}" name="Tabla1" displayName="Tabla1" ref="A10:J164" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A10:J164" xr:uid="{BE3B9459-9CC4-4B42-85DE-65D6DD89527B}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Violencia"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A10:J164" xr:uid="{BE3B9459-9CC4-4B42-85DE-65D6DD89527B}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{AEA8EF0D-25C7-4111-8A9F-0B18B1765250}" name="SECTOR" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{752FAE73-6FD3-44CD-87CD-9043950F7C57}" name="COLECCIÓN" dataDxfId="8"/>
@@ -3762,10 +3759,10 @@
   <dimension ref="A8:J164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="10" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="10" topLeftCell="D153" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="D104" sqref="D104"/>
+      <selection pane="bottomRight" activeCell="F159" sqref="F159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3786,7 +3783,7 @@
       </c>
       <c r="G8" s="31">
         <f>SUMIF(F11:F236,F8,H11:H236)</f>
-        <v>2982</v>
+        <v>2998</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -3799,7 +3796,7 @@
       </c>
       <c r="H9" s="6">
         <f>SUM(H11:H3035)</f>
-        <v>3021</v>
+        <v>3037</v>
       </c>
       <c r="I9" s="6"/>
     </row>
@@ -3835,7 +3832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>3</v>
       </c>
@@ -3867,7 +3864,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="str">
         <f>+A11</f>
         <v>Agropecuario y Forestal</v>
@@ -3903,7 +3900,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="str">
         <f t="shared" ref="A13:A76" si="0">+A12</f>
         <v>Agropecuario y Forestal</v>
@@ -3939,7 +3936,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -3975,7 +3972,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -4011,7 +4008,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -4047,7 +4044,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -4083,7 +4080,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -4119,7 +4116,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -4155,7 +4152,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -4191,7 +4188,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -4227,7 +4224,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -4263,7 +4260,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -4297,7 +4294,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -4333,7 +4330,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -4369,7 +4366,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -4405,7 +4402,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -4441,7 +4438,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -4477,7 +4474,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -4513,7 +4510,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -4549,7 +4546,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -4585,7 +4582,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -4621,7 +4618,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -4657,7 +4654,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -4693,7 +4690,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -4727,7 +4724,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -4763,7 +4760,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -4799,7 +4796,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -4835,7 +4832,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -4871,7 +4868,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -4907,7 +4904,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -4943,7 +4940,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -4979,7 +4976,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -5013,7 +5010,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -5049,7 +5046,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -5085,7 +5082,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -5121,7 +5118,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -5157,7 +5154,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -5193,7 +5190,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -5229,7 +5226,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -5265,7 +5262,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -5299,7 +5296,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -5335,7 +5332,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -5371,7 +5368,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -5407,7 +5404,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -5443,7 +5440,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -5479,7 +5476,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -5513,7 +5510,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -5549,7 +5546,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -5585,7 +5582,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="10" t="str">
         <f>+A59</f>
         <v>Agropecuario y Forestal</v>
@@ -5621,7 +5618,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" s="10" t="str">
         <f>+A60</f>
         <v>Agropecuario y Forestal</v>
@@ -5655,7 +5652,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -5691,7 +5688,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -5727,7 +5724,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -5761,7 +5758,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -5797,7 +5794,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -5833,7 +5830,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -5867,7 +5864,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -5903,7 +5900,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -5939,7 +5936,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -5975,7 +5972,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -6011,7 +6008,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -6047,7 +6044,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -6081,7 +6078,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -6117,7 +6114,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -6153,7 +6150,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -6189,7 +6186,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="10" t="str">
         <f t="shared" ref="A77:A98" si="4">+A76</f>
         <v>Agropecuario y Forestal</v>
@@ -6225,7 +6222,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="10" t="str">
         <f t="shared" si="4"/>
         <v>Agropecuario y Forestal</v>
@@ -6261,7 +6258,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="10" t="str">
         <f t="shared" si="4"/>
         <v>Agropecuario y Forestal</v>
@@ -6295,7 +6292,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="10" t="str">
         <f t="shared" si="4"/>
         <v>Agropecuario y Forestal</v>
@@ -6331,7 +6328,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="10" t="str">
         <f t="shared" si="4"/>
         <v>Agropecuario y Forestal</v>
@@ -6367,7 +6364,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="10" t="str">
         <f t="shared" si="4"/>
         <v>Agropecuario y Forestal</v>
@@ -6403,7 +6400,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" s="10" t="str">
         <f t="shared" si="4"/>
         <v>Agropecuario y Forestal</v>
@@ -6439,7 +6436,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="10" t="str">
         <f t="shared" si="4"/>
         <v>Agropecuario y Forestal</v>
@@ -6475,7 +6472,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" s="10" t="str">
         <f>+A81</f>
         <v>Agropecuario y Forestal</v>
@@ -6509,7 +6506,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" s="10" t="str">
         <f t="shared" si="4"/>
         <v>Agropecuario y Forestal</v>
@@ -6545,7 +6542,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="10" t="str">
         <f t="shared" si="4"/>
         <v>Agropecuario y Forestal</v>
@@ -6581,7 +6578,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="10" t="str">
         <f t="shared" si="4"/>
         <v>Agropecuario y Forestal</v>
@@ -6617,7 +6614,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="10" t="str">
         <f t="shared" si="4"/>
         <v>Agropecuario y Forestal</v>
@@ -6653,7 +6650,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" s="10" t="str">
         <f t="shared" si="4"/>
         <v>Agropecuario y Forestal</v>
@@ -6687,7 +6684,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="10" t="str">
         <f t="shared" si="4"/>
         <v>Agropecuario y Forestal</v>
@@ -6723,7 +6720,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="10" t="str">
         <f t="shared" si="4"/>
         <v>Agropecuario y Forestal</v>
@@ -6759,7 +6756,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="10" t="str">
         <f t="shared" si="4"/>
         <v>Agropecuario y Forestal</v>
@@ -6793,7 +6790,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" s="10" t="str">
         <f t="shared" si="4"/>
         <v>Agropecuario y Forestal</v>
@@ -6829,7 +6826,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" s="10" t="str">
         <f t="shared" si="4"/>
         <v>Agropecuario y Forestal</v>
@@ -6865,7 +6862,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" s="10" t="str">
         <f t="shared" si="4"/>
         <v>Agropecuario y Forestal</v>
@@ -6899,7 +6896,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" s="10" t="str">
         <f t="shared" si="4"/>
         <v>Agropecuario y Forestal</v>
@@ -6935,7 +6932,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" s="10" t="str">
         <f t="shared" si="4"/>
         <v>Agropecuario y Forestal</v>
@@ -7084,7 +7081,7 @@
         <v>27.25</v>
       </c>
       <c r="D102" s="35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E102" s="34" t="s">
         <v>164</v>
@@ -7458,7 +7455,7 @@
         <v>27.15</v>
       </c>
       <c r="D113" s="35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E113" s="34" t="s">
         <v>170</v>
@@ -7556,7 +7553,7 @@
         <v>27.16</v>
       </c>
       <c r="D116" s="35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E116" s="34" t="s">
         <v>171</v>
@@ -7643,11 +7640,11 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A119" s="34" t="str">
-        <f t="shared" ref="A119:A157" si="19">+A118</f>
+        <f t="shared" ref="A119:A162" si="19">+A118</f>
         <v>Mujeres</v>
       </c>
       <c r="B119" s="34" t="str">
-        <f t="shared" ref="B119:B157" si="20">+B118</f>
+        <f t="shared" ref="B119:B162" si="20">+B118</f>
         <v>Violencia</v>
       </c>
       <c r="C119" s="35">
@@ -8061,7 +8058,9 @@
       <c r="C131" s="35">
         <v>27.2</v>
       </c>
-      <c r="D131" s="35"/>
+      <c r="D131" s="35" t="s">
+        <v>64</v>
+      </c>
       <c r="E131" s="34" t="s">
         <v>161</v>
       </c>
@@ -8660,7 +8659,7 @@
         <v>27.3</v>
       </c>
       <c r="D149" s="12" t="s">
-        <v>234</v>
+        <v>64</v>
       </c>
       <c r="E149" s="10" t="s">
         <v>207</v>
@@ -8692,7 +8691,7 @@
         <v>27.4</v>
       </c>
       <c r="D150" s="12" t="s">
-        <v>234</v>
+        <v>64</v>
       </c>
       <c r="E150" s="10" t="s">
         <v>207</v>
@@ -8724,7 +8723,7 @@
         <v>27.5</v>
       </c>
       <c r="D151" s="12" t="s">
-        <v>234</v>
+        <v>64</v>
       </c>
       <c r="E151" s="10" t="s">
         <v>207</v>
@@ -8820,7 +8819,7 @@
         <v>27.4</v>
       </c>
       <c r="D154" s="12" t="s">
-        <v>234</v>
+        <v>64</v>
       </c>
       <c r="E154" s="10" t="s">
         <v>207</v>
@@ -8935,22 +8934,51 @@
         <v>223</v>
       </c>
     </row>
-    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="10"/>
-      <c r="B158" s="10"/>
-      <c r="D158" s="12"/>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A158" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>Mujeres</v>
+      </c>
+      <c r="B158" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>Violencia</v>
+      </c>
+      <c r="C158" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="D158" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="E158" s="10"/>
-      <c r="F158" s="10"/>
-      <c r="G158" s="19"/>
-      <c r="H158" s="11"/>
+      <c r="F158" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G158" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="H158" s="11">
+        <v>16</v>
+      </c>
       <c r="I158" s="14"/>
-      <c r="J158" s="20"/>
-    </row>
-    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="10"/>
-      <c r="B159" s="10"/>
-      <c r="C159" s="12"/>
-      <c r="D159" s="12"/>
+      <c r="J158" s="20" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A159" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>Mujeres</v>
+      </c>
+      <c r="B159" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>Violencia</v>
+      </c>
+      <c r="C159" s="12">
+        <v>27.21</v>
+      </c>
+      <c r="D159" s="12" t="s">
+        <v>63</v>
+      </c>
       <c r="E159" s="10"/>
       <c r="F159" s="10"/>
       <c r="G159" s="19"/>
@@ -8958,11 +8986,21 @@
       <c r="I159" s="14"/>
       <c r="J159" s="20"/>
     </row>
-    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="10"/>
-      <c r="B160" s="10"/>
-      <c r="C160" s="12"/>
-      <c r="D160" s="12"/>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A160" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>Mujeres</v>
+      </c>
+      <c r="B160" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>Violencia</v>
+      </c>
+      <c r="C160" s="12">
+        <v>27.21</v>
+      </c>
+      <c r="D160" s="12" t="s">
+        <v>63</v>
+      </c>
       <c r="E160" s="10"/>
       <c r="F160" s="10"/>
       <c r="G160" s="19"/>
@@ -8970,9 +9008,15 @@
       <c r="I160" s="14"/>
       <c r="J160" s="20"/>
     </row>
-    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="10"/>
-      <c r="B161" s="10"/>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A161" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>Mujeres</v>
+      </c>
+      <c r="B161" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>Violencia</v>
+      </c>
       <c r="C161" s="12"/>
       <c r="D161" s="12"/>
       <c r="E161" s="10"/>
@@ -8982,9 +9026,15 @@
       <c r="I161" s="14"/>
       <c r="J161" s="20"/>
     </row>
-    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="10"/>
-      <c r="B162" s="10"/>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A162" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>Mujeres</v>
+      </c>
+      <c r="B162" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>Violencia</v>
+      </c>
       <c r="C162" s="12"/>
       <c r="D162" s="12"/>
       <c r="E162" s="10"/>
@@ -8994,7 +9044,7 @@
       <c r="I162" s="14"/>
       <c r="J162" s="20"/>
     </row>
-    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A163" s="10"/>
       <c r="B163" s="10"/>
       <c r="C163" s="12"/>
@@ -9006,7 +9056,7 @@
       <c r="I163" s="14"/>
       <c r="J163" s="20"/>
     </row>
-    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A164" s="34"/>
       <c r="B164" s="34"/>
       <c r="C164" s="35"/>
@@ -9610,7 +9660,7 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C3" s="30">
         <f>SUM(C5:C20)</f>
-        <v>2982</v>
+        <v>2998</v>
       </c>
       <c r="D3" s="30">
         <f>SUM(D5:D20)</f>
@@ -9653,7 +9703,7 @@
       </c>
       <c r="C6">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[TIPO PRODUCTO],C$4, Tabla1[COLECCIÓN],$B6)</f>
-        <v>630</v>
+        <v>646</v>
       </c>
       <c r="D6">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[TIPO PRODUCTO],D$4, Tabla1[COLECCIÓN],$B6)</f>

--- a/Monitoreo Nuevos Productos.xlsx
+++ b/Monitoreo Nuevos Productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A175BFD6-C341-4B86-8DBA-F3B7C3F1D363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1657D382-E1C3-41FF-BC6B-4DE39C0020FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{3C601918-C683-4A9E-9764-2E2F3DE6B565}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="242">
   <si>
     <t>SECTOR</t>
   </si>
@@ -973,6 +973,21 @@
   </si>
   <si>
     <t>Casos de violencia hacia la mujer a escala regional || Chile || periodo 2012-2020</t>
+  </si>
+  <si>
+    <t>Tasa por 100 mil mujeres que sufren violencia psicológica por Región, para el Periodo 2012-2020.</t>
+  </si>
+  <si>
+    <t>Tasa de mujeres que sufren violencia a escala regional || Chile || periodo 2012-2020</t>
+  </si>
+  <si>
+    <t>Casos de violencia hacia la mujer || Chile || periodo 2012-2020</t>
+  </si>
+  <si>
+    <t>Tasa de mujeres que sufren violencia || Chile || periodo 2012-2020</t>
+  </si>
+  <si>
+    <t>Tasa por 100 mil mujeres que sufren violencia psicológica por Nacional, para el Periodo 2012-2020.</t>
   </si>
 </sst>
 </file>
@@ -3433,7 +3448,7 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="TABLA MADRE" xr10:uid="{E5B4DF95-80E8-4F10-AD82-CCE5BEE54362}" cache="SegmentaciónDeDatos_TABLA_MADRE" caption="TABLA MADRE" startItem="8" columnCount="4" rowHeight="241300"/>
+  <slicer name="TABLA MADRE" xr10:uid="{E5B4DF95-80E8-4F10-AD82-CCE5BEE54362}" cache="SegmentaciónDeDatos_TABLA_MADRE" caption="TABLA MADRE" startItem="32" columnCount="4" rowHeight="241300"/>
   <slicer name="TIPO PRODUCTO" xr10:uid="{9477DBC7-9C09-47A7-984E-6F75ED6B60A9}" cache="SegmentaciónDeDatos_TIPO_PRODUCTO" caption="TIPO PRODUCTO" rowHeight="241300"/>
   <slicer name="TEMA" xr10:uid="{7B410BB5-38F1-4C94-868C-3BB0B69500F5}" cache="SegmentaciónDeDatos_TEMA" caption="TEMA" columnCount="2" rowHeight="241300"/>
   <slicer name="COLECCIÓN" xr10:uid="{A9E34F2D-603A-4D3B-9BDC-43C7F8B642F6}" cache="SegmentaciónDeDatos_COLECCIÓN" caption="COLECCIÓN" rowHeight="241300"/>
@@ -3759,10 +3774,10 @@
   <dimension ref="A8:J164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="10" topLeftCell="D153" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="10" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="F159" sqref="F159"/>
+      <selection pane="bottomRight" activeCell="D165" sqref="D165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3783,7 +3798,7 @@
       </c>
       <c r="G8" s="31">
         <f>SUMIF(F11:F236,F8,H11:H236)</f>
-        <v>2998</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -3792,11 +3807,11 @@
       </c>
       <c r="G9" s="31">
         <f>SUMIF(F11:F236,F9,H11:H236)</f>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H9" s="6">
         <f>SUM(H11:H3035)</f>
-        <v>3037</v>
+        <v>3072</v>
       </c>
       <c r="I9" s="6"/>
     </row>
@@ -7455,7 +7470,7 @@
         <v>27.15</v>
       </c>
       <c r="D113" s="35" t="s">
-        <v>234</v>
+        <v>61</v>
       </c>
       <c r="E113" s="34" t="s">
         <v>170</v>
@@ -7488,7 +7503,9 @@
       <c r="C114" s="35">
         <v>27.15</v>
       </c>
-      <c r="D114" s="35"/>
+      <c r="D114" s="35" t="s">
+        <v>61</v>
+      </c>
       <c r="E114" s="34" t="s">
         <v>170</v>
       </c>
@@ -7520,7 +7537,9 @@
       <c r="C115" s="35">
         <v>27.15</v>
       </c>
-      <c r="D115" s="35"/>
+      <c r="D115" s="35" t="s">
+        <v>61</v>
+      </c>
       <c r="E115" s="34" t="s">
         <v>170</v>
       </c>
@@ -7553,7 +7572,7 @@
         <v>27.16</v>
       </c>
       <c r="D116" s="35" t="s">
-        <v>234</v>
+        <v>61</v>
       </c>
       <c r="E116" s="34" t="s">
         <v>171</v>
@@ -7586,7 +7605,9 @@
       <c r="C117" s="35">
         <v>27.16</v>
       </c>
-      <c r="D117" s="35"/>
+      <c r="D117" s="35" t="s">
+        <v>61</v>
+      </c>
       <c r="E117" s="34" t="s">
         <v>171</v>
       </c>
@@ -7618,7 +7639,9 @@
       <c r="C118" s="35">
         <v>27.16</v>
       </c>
-      <c r="D118" s="35"/>
+      <c r="D118" s="35" t="s">
+        <v>61</v>
+      </c>
       <c r="E118" s="34" t="s">
         <v>171</v>
       </c>
@@ -7640,11 +7663,11 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A119" s="34" t="str">
-        <f t="shared" ref="A119:A162" si="19">+A118</f>
+        <f t="shared" ref="A119:A163" si="19">+A118</f>
         <v>Mujeres</v>
       </c>
       <c r="B119" s="34" t="str">
-        <f t="shared" ref="B119:B162" si="20">+B118</f>
+        <f t="shared" ref="B119:B163" si="20">+B118</f>
         <v>Violencia</v>
       </c>
       <c r="C119" s="35">
@@ -8262,7 +8285,9 @@
       <c r="C137" s="35">
         <v>27.15</v>
       </c>
-      <c r="D137" s="35"/>
+      <c r="D137" s="35" t="s">
+        <v>61</v>
+      </c>
       <c r="E137" s="34" t="s">
         <v>170</v>
       </c>
@@ -8294,7 +8319,9 @@
       <c r="C138" s="35">
         <v>27.16</v>
       </c>
-      <c r="D138" s="35"/>
+      <c r="D138" s="35" t="s">
+        <v>61</v>
+      </c>
       <c r="E138" s="34" t="s">
         <v>171</v>
       </c>
@@ -8980,11 +9007,19 @@
         <v>63</v>
       </c>
       <c r="E159" s="10"/>
-      <c r="F159" s="10"/>
-      <c r="G159" s="19"/>
-      <c r="H159" s="11"/>
+      <c r="F159" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G159" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="H159" s="11">
+        <v>16</v>
+      </c>
       <c r="I159" s="14"/>
-      <c r="J159" s="20"/>
+      <c r="J159" s="20" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A160" s="34" t="str">
@@ -8996,17 +9031,25 @@
         <v>Violencia</v>
       </c>
       <c r="C160" s="12">
-        <v>27.21</v>
+        <v>27.22</v>
       </c>
       <c r="D160" s="12" t="s">
         <v>63</v>
       </c>
       <c r="E160" s="10"/>
-      <c r="F160" s="10"/>
-      <c r="G160" s="19"/>
-      <c r="H160" s="11"/>
+      <c r="F160" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G160" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="H160" s="11">
+        <v>16</v>
+      </c>
       <c r="I160" s="14"/>
-      <c r="J160" s="20"/>
+      <c r="J160" s="20" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A161" s="34" t="str">
@@ -9017,14 +9060,26 @@
         <f t="shared" si="20"/>
         <v>Violencia</v>
       </c>
-      <c r="C161" s="12"/>
-      <c r="D161" s="12"/>
+      <c r="C161" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="D161" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="E161" s="10"/>
-      <c r="F161" s="10"/>
-      <c r="G161" s="19"/>
-      <c r="H161" s="11"/>
+      <c r="F161" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="G161" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="H161" s="11">
+        <v>1</v>
+      </c>
       <c r="I161" s="14"/>
-      <c r="J161" s="20"/>
+      <c r="J161" s="20" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A162" s="34" t="str">
@@ -9035,26 +9090,56 @@
         <f t="shared" si="20"/>
         <v>Violencia</v>
       </c>
-      <c r="C162" s="12"/>
-      <c r="D162" s="12"/>
+      <c r="C162" s="12">
+        <v>27.21</v>
+      </c>
+      <c r="D162" s="12" t="s">
+        <v>63</v>
+      </c>
       <c r="E162" s="10"/>
-      <c r="F162" s="10"/>
-      <c r="G162" s="19"/>
-      <c r="H162" s="11"/>
+      <c r="F162" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="G162" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="H162" s="11">
+        <v>1</v>
+      </c>
       <c r="I162" s="14"/>
-      <c r="J162" s="20"/>
+      <c r="J162" s="20" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A163" s="10"/>
-      <c r="B163" s="10"/>
-      <c r="C163" s="12"/>
-      <c r="D163" s="12"/>
+      <c r="A163" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>Mujeres</v>
+      </c>
+      <c r="B163" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>Violencia</v>
+      </c>
+      <c r="C163" s="12">
+        <v>27.22</v>
+      </c>
+      <c r="D163" s="12" t="s">
+        <v>63</v>
+      </c>
       <c r="E163" s="10"/>
-      <c r="F163" s="10"/>
-      <c r="G163" s="19"/>
-      <c r="H163" s="11"/>
+      <c r="F163" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="G163" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="H163" s="11">
+        <v>1</v>
+      </c>
       <c r="I163" s="14"/>
-      <c r="J163" s="20"/>
+      <c r="J163" s="20" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A164" s="34"/>
@@ -9660,11 +9745,11 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C3" s="30">
         <f>SUM(C5:C20)</f>
-        <v>2998</v>
+        <v>3030</v>
       </c>
       <c r="D3" s="30">
         <f>SUM(D5:D20)</f>
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -9703,11 +9788,11 @@
       </c>
       <c r="C6">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[TIPO PRODUCTO],C$4, Tabla1[COLECCIÓN],$B6)</f>
-        <v>646</v>
+        <v>678</v>
       </c>
       <c r="D6">
         <f>SUMIFS(Tabla1[Cantidad],Tabla1[TIPO PRODUCTO],D$4, Tabla1[COLECCIÓN],$B6)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Monitoreo Nuevos Productos.xlsx
+++ b/Monitoreo Nuevos Productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1657D382-E1C3-41FF-BC6B-4DE39C0020FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D35E05-8903-4D62-A736-B910A21C7CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{3C601918-C683-4A9E-9764-2E2F3DE6B565}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="243">
   <si>
     <t>SECTOR</t>
   </si>
@@ -988,6 +988,9 @@
   </si>
   <si>
     <t>Tasa por 100 mil mujeres que sufren violencia psicológica por Nacional, para el Periodo 2012-2020.</t>
+  </si>
+  <si>
+    <t>Violencia general</t>
   </si>
 </sst>
 </file>
@@ -1162,7 +1165,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1297,6 +1300,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -3450,14 +3454,30 @@
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
   <slicer name="TABLA MADRE" xr10:uid="{E5B4DF95-80E8-4F10-AD82-CCE5BEE54362}" cache="SegmentaciónDeDatos_TABLA_MADRE" caption="TABLA MADRE" startItem="32" columnCount="4" rowHeight="241300"/>
   <slicer name="TIPO PRODUCTO" xr10:uid="{9477DBC7-9C09-47A7-984E-6F75ED6B60A9}" cache="SegmentaciónDeDatos_TIPO_PRODUCTO" caption="TIPO PRODUCTO" rowHeight="241300"/>
-  <slicer name="TEMA" xr10:uid="{7B410BB5-38F1-4C94-868C-3BB0B69500F5}" cache="SegmentaciónDeDatos_TEMA" caption="TEMA" columnCount="2" rowHeight="241300"/>
+  <slicer name="TEMA" xr10:uid="{7B410BB5-38F1-4C94-868C-3BB0B69500F5}" cache="SegmentaciónDeDatos_TEMA" caption="TEMA" startItem="6" columnCount="2" rowHeight="241300"/>
   <slicer name="COLECCIÓN" xr10:uid="{A9E34F2D-603A-4D3B-9BDC-43C7F8B642F6}" cache="SegmentaciónDeDatos_COLECCIÓN" caption="COLECCIÓN" rowHeight="241300"/>
 </slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8AB307C7-AF39-4578-A163-A8BC847F650D}" name="Tabla1" displayName="Tabla1" ref="A10:J164" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A10:J164" xr:uid="{BE3B9459-9CC4-4B42-85DE-65D6DD89527B}"/>
+  <autoFilter ref="A10:J164" xr:uid="{BE3B9459-9CC4-4B42-85DE-65D6DD89527B}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Violencia"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Violencia Psicológica"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Informe Interactivo"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{AEA8EF0D-25C7-4111-8A9F-0B18B1765250}" name="SECTOR" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{752FAE73-6FD3-44CD-87CD-9043950F7C57}" name="COLECCIÓN" dataDxfId="8"/>
@@ -3774,10 +3794,10 @@
   <dimension ref="A8:J164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="10" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="10" topLeftCell="H122" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="D165" sqref="D165"/>
+      <selection pane="bottomRight" activeCell="J123" sqref="J123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3847,7 +3867,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>3</v>
       </c>
@@ -3879,7 +3899,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="str">
         <f>+A11</f>
         <v>Agropecuario y Forestal</v>
@@ -3915,7 +3935,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="str">
         <f t="shared" ref="A13:A76" si="0">+A12</f>
         <v>Agropecuario y Forestal</v>
@@ -3951,7 +3971,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -3987,7 +4007,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -4023,7 +4043,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -4059,7 +4079,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -4095,7 +4115,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -4131,7 +4151,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -4167,7 +4187,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -4203,7 +4223,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -4239,7 +4259,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -4275,7 +4295,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -4309,7 +4329,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -4345,7 +4365,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -4381,7 +4401,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -4417,7 +4437,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -4453,7 +4473,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -4489,7 +4509,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -4525,7 +4545,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -4561,7 +4581,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -4597,7 +4617,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -4633,7 +4653,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -4669,7 +4689,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -4705,7 +4725,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -4739,7 +4759,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -4775,7 +4795,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -4811,7 +4831,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -4847,7 +4867,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -4883,7 +4903,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -4919,7 +4939,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -4955,7 +4975,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -4991,7 +5011,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -5025,7 +5045,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -5061,7 +5081,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -5097,7 +5117,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -5133,7 +5153,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -5169,7 +5189,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -5205,7 +5225,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -5241,7 +5261,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -5277,7 +5297,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -5311,7 +5331,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -5347,7 +5367,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -5383,7 +5403,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -5419,7 +5439,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -5455,7 +5475,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -5491,7 +5511,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -5525,7 +5545,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -5561,7 +5581,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -5597,7 +5617,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="10" t="str">
         <f>+A59</f>
         <v>Agropecuario y Forestal</v>
@@ -5633,7 +5653,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="10" t="str">
         <f>+A60</f>
         <v>Agropecuario y Forestal</v>
@@ -5667,7 +5687,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -5703,7 +5723,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -5739,7 +5759,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -5773,7 +5793,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -5809,7 +5829,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -5845,7 +5865,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -5879,7 +5899,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -5915,7 +5935,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -5951,7 +5971,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -5987,7 +6007,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -6023,7 +6043,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -6059,7 +6079,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -6093,7 +6113,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -6129,7 +6149,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -6165,7 +6185,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Agropecuario y Forestal</v>
@@ -6201,7 +6221,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="10" t="str">
         <f t="shared" ref="A77:A98" si="4">+A76</f>
         <v>Agropecuario y Forestal</v>
@@ -6237,7 +6257,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="10" t="str">
         <f t="shared" si="4"/>
         <v>Agropecuario y Forestal</v>
@@ -6273,7 +6293,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="10" t="str">
         <f t="shared" si="4"/>
         <v>Agropecuario y Forestal</v>
@@ -6307,7 +6327,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="10" t="str">
         <f t="shared" si="4"/>
         <v>Agropecuario y Forestal</v>
@@ -6343,7 +6363,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="10" t="str">
         <f t="shared" si="4"/>
         <v>Agropecuario y Forestal</v>
@@ -6379,7 +6399,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="10" t="str">
         <f t="shared" si="4"/>
         <v>Agropecuario y Forestal</v>
@@ -6415,7 +6435,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="10" t="str">
         <f t="shared" si="4"/>
         <v>Agropecuario y Forestal</v>
@@ -6451,7 +6471,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="10" t="str">
         <f t="shared" si="4"/>
         <v>Agropecuario y Forestal</v>
@@ -6487,7 +6507,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="10" t="str">
         <f>+A81</f>
         <v>Agropecuario y Forestal</v>
@@ -6521,7 +6541,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="10" t="str">
         <f t="shared" si="4"/>
         <v>Agropecuario y Forestal</v>
@@ -6557,7 +6577,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="10" t="str">
         <f t="shared" si="4"/>
         <v>Agropecuario y Forestal</v>
@@ -6593,7 +6613,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="10" t="str">
         <f t="shared" si="4"/>
         <v>Agropecuario y Forestal</v>
@@ -6629,7 +6649,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="10" t="str">
         <f t="shared" si="4"/>
         <v>Agropecuario y Forestal</v>
@@ -6665,7 +6685,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="10" t="str">
         <f t="shared" si="4"/>
         <v>Agropecuario y Forestal</v>
@@ -6699,7 +6719,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="10" t="str">
         <f t="shared" si="4"/>
         <v>Agropecuario y Forestal</v>
@@ -6735,7 +6755,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="10" t="str">
         <f t="shared" si="4"/>
         <v>Agropecuario y Forestal</v>
@@ -6771,7 +6791,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="10" t="str">
         <f t="shared" si="4"/>
         <v>Agropecuario y Forestal</v>
@@ -6805,7 +6825,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="10" t="str">
         <f t="shared" si="4"/>
         <v>Agropecuario y Forestal</v>
@@ -6841,7 +6861,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="10" t="str">
         <f t="shared" si="4"/>
         <v>Agropecuario y Forestal</v>
@@ -6877,7 +6897,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="10" t="str">
         <f t="shared" si="4"/>
         <v>Agropecuario y Forestal</v>
@@ -6911,7 +6931,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="10" t="str">
         <f t="shared" si="4"/>
         <v>Agropecuario y Forestal</v>
@@ -6947,7 +6967,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="10" t="str">
         <f t="shared" si="4"/>
         <v>Agropecuario y Forestal</v>
@@ -6983,7 +7003,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="34" t="s">
         <v>140</v>
       </c>
@@ -7015,7 +7035,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="34" t="str">
         <f>+A99</f>
         <v>Mujeres</v>
@@ -7049,7 +7069,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="34" t="str">
         <f t="shared" ref="A101:A105" si="7">+A100</f>
         <v>Mujeres</v>
@@ -7083,7 +7103,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" s="34" t="str">
         <f t="shared" si="7"/>
         <v>Mujeres</v>
@@ -7117,7 +7137,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="34" t="str">
         <f t="shared" si="7"/>
         <v>Mujeres</v>
@@ -7151,7 +7171,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="34" t="str">
         <f t="shared" si="7"/>
         <v>Mujeres</v>
@@ -7185,7 +7205,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="34" t="str">
         <f t="shared" si="7"/>
         <v>Mujeres</v>
@@ -7219,7 +7239,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="34" t="str">
         <f t="shared" ref="A106:A107" si="9">+A105</f>
         <v>Mujeres</v>
@@ -7253,7 +7273,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="34" t="str">
         <f t="shared" si="9"/>
         <v>Mujeres</v>
@@ -7287,7 +7307,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="34" t="str">
         <f t="shared" ref="A108" si="11">+A107</f>
         <v>Mujeres</v>
@@ -7321,7 +7341,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="109" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" s="44" t="str">
         <f t="shared" ref="A109:A113" si="13">+A108</f>
         <v>Mujeres</v>
@@ -7355,7 +7375,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="34" t="str">
         <f t="shared" si="13"/>
         <v>Mujeres</v>
@@ -7389,7 +7409,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="34" t="str">
         <f t="shared" si="13"/>
         <v>Mujeres</v>
@@ -7423,7 +7443,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="34" t="str">
         <f t="shared" si="13"/>
         <v>Mujeres</v>
@@ -7457,7 +7477,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" s="34" t="str">
         <f t="shared" si="13"/>
         <v>Mujeres</v>
@@ -7491,7 +7511,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="34" t="str">
         <f t="shared" ref="A114:A115" si="15">+A113</f>
         <v>Mujeres</v>
@@ -7525,7 +7545,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="34" t="str">
         <f t="shared" si="15"/>
         <v>Mujeres</v>
@@ -7559,7 +7579,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="34" t="str">
         <f t="shared" ref="A116:A118" si="17">+A115</f>
         <v>Mujeres</v>
@@ -7593,7 +7613,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" s="34" t="str">
         <f t="shared" si="17"/>
         <v>Mujeres</v>
@@ -7627,7 +7647,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" s="34" t="str">
         <f t="shared" si="17"/>
         <v>Mujeres</v>
@@ -7933,7 +7953,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" s="34" t="str">
         <f t="shared" si="19"/>
         <v>Mujeres</v>
@@ -7967,7 +7987,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="128" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:10" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" s="44" t="str">
         <f t="shared" si="19"/>
         <v>Mujeres</v>
@@ -8001,7 +8021,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" s="34" t="str">
         <f t="shared" si="19"/>
         <v>Mujeres</v>
@@ -8035,7 +8055,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="130" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:10" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" s="44" t="str">
         <f t="shared" si="19"/>
         <v>Mujeres</v>
@@ -8069,7 +8089,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" s="34" t="str">
         <f t="shared" si="19"/>
         <v>Mujeres</v>
@@ -8103,7 +8123,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" s="34" t="str">
         <f t="shared" si="19"/>
         <v>Mujeres</v>
@@ -8137,7 +8157,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" s="34" t="str">
         <f t="shared" si="19"/>
         <v>Mujeres</v>
@@ -8171,7 +8191,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" s="34" t="str">
         <f t="shared" si="19"/>
         <v>Mujeres</v>
@@ -8205,7 +8225,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" s="34" t="str">
         <f t="shared" si="19"/>
         <v>Mujeres</v>
@@ -8239,7 +8259,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" s="34" t="str">
         <f t="shared" si="19"/>
         <v>Mujeres</v>
@@ -8273,7 +8293,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" s="34" t="str">
         <f t="shared" si="19"/>
         <v>Mujeres</v>
@@ -8307,7 +8327,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" s="34" t="str">
         <f t="shared" si="19"/>
         <v>Mujeres</v>
@@ -8341,7 +8361,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" s="34" t="str">
         <f t="shared" si="19"/>
         <v>Mujeres</v>
@@ -8375,7 +8395,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" s="34" t="str">
         <f t="shared" si="19"/>
         <v>Mujeres</v>
@@ -8409,7 +8429,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" s="34" t="str">
         <f t="shared" si="19"/>
         <v>Mujeres</v>
@@ -8443,7 +8463,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" s="34" t="str">
         <f t="shared" si="19"/>
         <v>Mujeres</v>
@@ -8477,7 +8497,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" s="34" t="str">
         <f t="shared" si="19"/>
         <v>Mujeres</v>
@@ -8511,7 +8531,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" s="34" t="str">
         <f t="shared" si="19"/>
         <v>Mujeres</v>
@@ -8673,7 +8693,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" s="34" t="str">
         <f t="shared" si="19"/>
         <v>Mujeres</v>
@@ -8705,7 +8725,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" s="34" t="str">
         <f t="shared" si="19"/>
         <v>Mujeres</v>
@@ -8737,7 +8757,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" s="34" t="str">
         <f t="shared" si="19"/>
         <v>Mujeres</v>
@@ -8769,7 +8789,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" s="34" t="str">
         <f t="shared" si="19"/>
         <v>Mujeres</v>
@@ -8801,7 +8821,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" s="34" t="str">
         <f t="shared" si="19"/>
         <v>Mujeres</v>
@@ -8833,7 +8853,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" s="34" t="str">
         <f t="shared" si="19"/>
         <v>Mujeres</v>
@@ -8865,7 +8885,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" s="34" t="str">
         <f t="shared" si="19"/>
         <v>Mujeres</v>
@@ -8897,7 +8917,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" s="34" t="str">
         <f t="shared" si="19"/>
         <v>Mujeres</v>
@@ -8929,7 +8949,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" s="34" t="str">
         <f t="shared" si="19"/>
         <v>Mujeres</v>
@@ -8961,7 +8981,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" s="34" t="str">
         <f t="shared" si="19"/>
         <v>Mujeres</v>
@@ -8976,7 +8996,9 @@
       <c r="D158" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E158" s="10"/>
+      <c r="E158" s="52" t="s">
+        <v>242</v>
+      </c>
       <c r="F158" s="10" t="s">
         <v>6</v>
       </c>
@@ -8991,7 +9013,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" s="34" t="str">
         <f t="shared" si="19"/>
         <v>Mujeres</v>
@@ -9006,7 +9028,9 @@
       <c r="D159" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E159" s="10"/>
+      <c r="E159" s="52" t="s">
+        <v>242</v>
+      </c>
       <c r="F159" s="10" t="s">
         <v>6</v>
       </c>
@@ -9036,7 +9060,9 @@
       <c r="D160" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E160" s="10"/>
+      <c r="E160" s="52" t="s">
+        <v>172</v>
+      </c>
       <c r="F160" s="10" t="s">
         <v>6</v>
       </c>
@@ -9051,7 +9077,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" s="34" t="str">
         <f t="shared" si="19"/>
         <v>Mujeres</v>
@@ -9081,7 +9107,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" s="34" t="str">
         <f t="shared" si="19"/>
         <v>Mujeres</v>
@@ -9111,7 +9137,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" s="34" t="str">
         <f t="shared" si="19"/>
         <v>Mujeres</v>
@@ -9141,7 +9167,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" s="34"/>
       <c r="B164" s="34"/>
       <c r="C164" s="35"/>
